--- a/Results/aggregated_efficiencies.xlsx
+++ b/Results/aggregated_efficiencies.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="65">
   <si>
     <t>Variable name</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Boiler1</t>
-  </si>
-  <si>
-    <t>Boiler2</t>
   </si>
   <si>
     <t>SteamDistribution</t>
@@ -226,6 +223,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -704,10 +704,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -778,6 +782,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="3">
+          <cell r="E3">
+            <v>0.12523810981504899</v>
+          </cell>
+        </row>
         <row r="4">
           <cell r="B4">
             <v>1</v>
@@ -786,10 +795,10 @@
             <v>0.83595574451898003</v>
           </cell>
           <cell r="D4">
-            <v>0.161881538940777</v>
+            <v>4.7986973315578101E-2</v>
           </cell>
           <cell r="E4">
-            <v>2.7936392628027901E-2</v>
+            <v>2.7166176229207799E-2</v>
           </cell>
         </row>
         <row r="5">
@@ -797,125 +806,130 @@
             <v>1</v>
           </cell>
           <cell r="C5">
-            <v>0.90254950678882895</v>
+            <v>0.90262608959496604</v>
           </cell>
           <cell r="D5">
-            <v>4.5710409359804298E-2</v>
+            <v>1.35321833812088E-2</v>
           </cell>
           <cell r="E5">
-            <v>2.8244581035482198E-2</v>
+            <v>2.7373998648165299E-2</v>
           </cell>
         </row>
         <row r="6">
           <cell r="D6">
-            <v>-1.00393524513236E-18</v>
+            <v>2.8799380981835702E-19</v>
           </cell>
           <cell r="E6">
-            <v>-1.2546430597224199E-19</v>
+            <v>5.9435103990715498E-20</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>5.3636673484373398E-2</v>
+            <v>1.6043671210738401E-2</v>
           </cell>
           <cell r="E7">
-            <v>2.9654387081393101E-2</v>
+            <v>2.9361025411021001E-2</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>6.1265921935868502E-2</v>
+            <v>1.8106532729584901E-2</v>
           </cell>
           <cell r="E8">
-            <v>2.1785032677889898E-3</v>
+            <v>2.1246835906998502E-3</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9">
-            <v>0.89824446420266102</v>
+            <v>0.88553809311299103</v>
           </cell>
           <cell r="D9">
-            <v>3.87854829758E-3</v>
+            <v>1.0351764318938801E-3</v>
           </cell>
           <cell r="E9">
-            <v>2.3687261751877101E-3</v>
+            <v>2.1720139573005799E-3</v>
           </cell>
         </row>
         <row r="10">
           <cell r="C10">
-            <v>0.55204529969542704</v>
+            <v>0.53506108753474702</v>
           </cell>
           <cell r="D10">
-            <v>2.1735774001516699E-2</v>
+            <v>7.9372660459868707E-3</v>
           </cell>
           <cell r="E10">
-            <v>3.761117033944E-3</v>
+            <v>4.80746082993945E-3</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>0.57997296723799496</v>
+            <v>0.58027826919933001</v>
           </cell>
           <cell r="D11">
-            <v>0.100454842410761</v>
+            <v>2.2563143640225301E-2</v>
           </cell>
           <cell r="E11">
-            <v>2.30256381473696E-2</v>
+            <v>1.6594060689969499E-2</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0.64281851023097603</v>
+            <v>0.64721276277543904</v>
           </cell>
           <cell r="D12">
-            <v>3.0027330155232301E-2</v>
+            <v>1.3218369407425001E-2</v>
           </cell>
           <cell r="E12">
-            <v>1.7603654566684598E-2</v>
+            <v>2.7572911738647302E-2</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>0.39658134311244198</v>
+            <v>0.407819978010446</v>
           </cell>
           <cell r="C13">
-            <v>0.39200968167748201</v>
+            <v>0.40503995076419602</v>
           </cell>
           <cell r="D13">
-            <v>0.32717810163598399</v>
+            <v>9.4142860746413398E-2</v>
           </cell>
           <cell r="E13">
-            <v>0.83703591403171296</v>
+            <v>0.83393008435898797</v>
           </cell>
         </row>
         <row r="14">
           <cell r="D14">
-            <v>-1.6672958411626399E-4</v>
+            <v>-1.4670722078031799E-18</v>
           </cell>
           <cell r="E14">
-            <v>-4.4308280877504303E-5</v>
+            <v>-2.7798025027133999E-18</v>
           </cell>
         </row>
         <row r="15">
           <cell r="D15">
-            <v>6.9600335543390799E-3</v>
+            <v>2.5798387816883699E-3</v>
           </cell>
           <cell r="E15">
-            <v>3.5602500476306599E-3</v>
+            <v>4.5325163848320797E-3</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>0.828836267928038</v>
+            <v>0.827175895123474</v>
           </cell>
           <cell r="C16">
-            <v>0.828836267928038</v>
+            <v>0.827175895123474</v>
           </cell>
           <cell r="D16">
-            <v>0.12926349313616201</v>
+            <v>3.8689961612392902E-2</v>
           </cell>
           <cell r="E16">
-            <v>2.46751442656559E-2</v>
+            <v>2.4365068161228302E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>0.147791498751281</v>
           </cell>
         </row>
         <row r="19">
@@ -926,10 +940,10 @@
             <v>0.83203300878911501</v>
           </cell>
           <cell r="D19">
-            <v>0.16563036092136099</v>
+            <v>5.3253186248289397E-2</v>
           </cell>
           <cell r="E19">
-            <v>2.53753003028616E-2</v>
+            <v>2.46069005863979E-2</v>
           </cell>
         </row>
         <row r="20">
@@ -937,136 +951,141 @@
             <v>1</v>
           </cell>
           <cell r="C20">
-            <v>0.90174943654317097</v>
+            <v>0.90182676457467204</v>
           </cell>
           <cell r="D20">
-            <v>4.4224531319005098E-2</v>
+            <v>1.41996168562723E-2</v>
           </cell>
           <cell r="E20">
-            <v>2.5745763365816399E-2</v>
+            <v>2.4895150210739101E-2</v>
           </cell>
         </row>
         <row r="21">
           <cell r="D21">
-            <v>-1.10549554708784E-18</v>
+            <v>-3.5785009074963398E-19</v>
           </cell>
           <cell r="E21">
-            <v>-2.5090760227477701E-20</v>
+            <v>-6.1056834248150401E-20</v>
           </cell>
         </row>
         <row r="22">
           <cell r="D22">
-            <v>5.8995158552572001E-2</v>
+            <v>1.9139237443560001E-2</v>
           </cell>
           <cell r="E22">
-            <v>3.0750529036707001E-2</v>
+            <v>3.03482238233003E-2</v>
           </cell>
         </row>
         <row r="23">
           <cell r="D23">
-            <v>6.1551300054422498E-2</v>
+            <v>1.9789867192155301E-2</v>
           </cell>
           <cell r="E23">
-            <v>2.0205266401874099E-3</v>
+            <v>1.96433072729091E-3</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>0.92052538042828702</v>
+            <v>0.90961216623246099</v>
           </cell>
           <cell r="D24">
-            <v>2.8698762873816501E-3</v>
+            <v>8.3360854372329404E-4</v>
           </cell>
           <cell r="E24">
-            <v>1.5874416939914099E-3</v>
+            <v>1.4570935612098299E-3</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>0.54794396472321705</v>
+            <v>0.534243405836897</v>
           </cell>
           <cell r="D25">
-            <v>2.6149760313353799E-2</v>
+            <v>9.8803238208698494E-3</v>
           </cell>
           <cell r="E25">
-            <v>3.7918125259603398E-3</v>
+            <v>4.5861889375341004E-3</v>
           </cell>
         </row>
         <row r="26">
           <cell r="C26">
-            <v>0.58418945401170796</v>
+            <v>0.58133456113481297</v>
           </cell>
           <cell r="D26">
-            <v>0.105234834908589</v>
+            <v>2.7042558620338299E-2</v>
           </cell>
           <cell r="E26">
-            <v>2.18520208627461E-2</v>
+            <v>1.6666553435615999E-2</v>
           </cell>
         </row>
         <row r="27">
           <cell r="C27">
-            <v>0.65540977621519503</v>
+            <v>0.65964880643895396</v>
           </cell>
           <cell r="D27">
-            <v>3.3826543666356498E-2</v>
+            <v>1.4933405538056801E-2</v>
           </cell>
           <cell r="E27">
-            <v>1.8062067554594802E-2</v>
+            <v>2.6189249018507402E-2</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28">
-            <v>0.402797977328955</v>
+            <v>0.41268886926697701</v>
           </cell>
           <cell r="C28">
-            <v>0.39879766441421199</v>
+            <v>0.41046379603357402</v>
           </cell>
           <cell r="D28">
-            <v>0.324155929790026</v>
+            <v>0.101660200621878</v>
           </cell>
           <cell r="E28">
-            <v>0.80146039047756601</v>
+            <v>0.80014283702738798</v>
           </cell>
         </row>
         <row r="29">
           <cell r="D29">
-            <v>-3.3672407372030601E-18</v>
+            <v>-8.0096360612846802E-19</v>
           </cell>
           <cell r="E29">
-            <v>-1.7389524473446699E-18</v>
+            <v>-1.1326392345135699E-18</v>
           </cell>
         </row>
         <row r="30">
           <cell r="D30">
-            <v>7.83293896761624E-3</v>
+            <v>3.15374463576538E-3</v>
           </cell>
           <cell r="E30">
-            <v>3.5125986248631599E-3</v>
+            <v>4.5708385349320499E-3</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31">
-            <v>0.82380353322411803</v>
+            <v>0.82209241610055905</v>
           </cell>
           <cell r="C31">
-            <v>0.82380353322411803</v>
+            <v>0.82209241610055905</v>
           </cell>
           <cell r="D31">
-            <v>0.13305434440781599</v>
+            <v>4.3195168399227803E-2</v>
           </cell>
           <cell r="E31">
-            <v>2.2891125655553499E-2</v>
+            <v>2.2533399765847301E-2</v>
           </cell>
         </row>
         <row r="32">
           <cell r="C32">
-            <v>0.68018553124771997</v>
+            <v>0.68018412871031897</v>
           </cell>
           <cell r="D32">
-            <v>0.14007907581454801</v>
+            <v>4.5042227719889798E-2</v>
           </cell>
           <cell r="E32">
-            <v>4.2950423259148898E-2</v>
+            <v>4.2039234371232102E-2</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>0.15351232774953399</v>
           </cell>
         </row>
         <row r="35">
@@ -1077,10 +1096,10 @@
             <v>0.83268664399011605</v>
           </cell>
           <cell r="D35">
-            <v>0.16477476279978201</v>
+            <v>5.4694499604003001E-2</v>
           </cell>
           <cell r="E35">
-            <v>2.45064934622987E-2</v>
+            <v>2.3825313789830101E-2</v>
           </cell>
         </row>
         <row r="36">
@@ -1088,136 +1107,136 @@
             <v>1</v>
           </cell>
           <cell r="C36">
-            <v>0.90881266675366301</v>
+            <v>0.90888893826730199</v>
           </cell>
           <cell r="D36">
-            <v>4.2708404372307399E-2</v>
+            <v>1.41567148165135E-2</v>
           </cell>
           <cell r="E36">
-            <v>2.3342057204428699E-2</v>
+            <v>2.2599476943378001E-2</v>
           </cell>
         </row>
         <row r="37">
           <cell r="D37">
-            <v>2.4263227081661999E-19</v>
+            <v>-1.85072029441627E-20</v>
           </cell>
           <cell r="E37">
-            <v>1.26873791506552E-19</v>
+            <v>-2.51413326556697E-20</v>
           </cell>
         </row>
         <row r="38">
           <cell r="D38">
-            <v>5.3305453422244201E-2</v>
+            <v>1.7852253031536699E-2</v>
           </cell>
           <cell r="E38">
-            <v>2.56843355431709E-2</v>
+            <v>2.5396183578123201E-2</v>
           </cell>
         </row>
         <row r="39">
           <cell r="D39">
-            <v>0.13322109204361299</v>
+            <v>4.4001979406521098E-2</v>
           </cell>
           <cell r="E39">
-            <v>1.6757908456823301E-3</v>
+            <v>1.65222285299115E-3</v>
           </cell>
         </row>
         <row r="40">
           <cell r="C40">
-            <v>0.90976815443250603</v>
+            <v>0.89874758132605104</v>
           </cell>
           <cell r="D40">
-            <v>3.2598551719184702E-3</v>
+            <v>9.7416427246383298E-4</v>
           </cell>
           <cell r="E40">
-            <v>1.8421590876705799E-3</v>
+            <v>1.68507784688584E-3</v>
           </cell>
         </row>
         <row r="41">
           <cell r="C41">
-            <v>0.55439132923964396</v>
+            <v>0.53945066755204496</v>
           </cell>
           <cell r="D41">
-            <v>2.17981075924835E-2</v>
+            <v>8.7125692414591407E-3</v>
           </cell>
           <cell r="E41">
-            <v>3.4940302506386201E-3</v>
+            <v>4.3476015940820401E-3</v>
           </cell>
         </row>
         <row r="42">
           <cell r="C42">
-            <v>0.58405673147175796</v>
+            <v>0.58451739323443297</v>
           </cell>
           <cell r="D42">
-            <v>0.11055688266503801</v>
+            <v>2.8744151382956998E-2</v>
           </cell>
           <cell r="E42">
-            <v>2.41190687647528E-2</v>
+            <v>1.7964034459072301E-2</v>
           </cell>
         </row>
         <row r="43">
           <cell r="C43">
-            <v>0.64621612048578603</v>
+            <v>0.65073925658143095</v>
           </cell>
           <cell r="D43">
-            <v>3.73856435747663E-2</v>
+            <v>1.7070277557748901E-2</v>
           </cell>
           <cell r="E43">
-            <v>2.0227632568520101E-2</v>
+            <v>2.9723346640945301E-2</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44">
-            <v>0.40078695018449201</v>
+            <v>0.41105278037299198</v>
           </cell>
           <cell r="C44">
-            <v>0.39675917220326901</v>
+            <v>0.408809071374439</v>
           </cell>
           <cell r="D44">
-            <v>0.33514825859296299</v>
+            <v>0.108154471824605</v>
           </cell>
           <cell r="E44">
-            <v>0.81300174443680095</v>
+            <v>0.81138000033809099</v>
           </cell>
         </row>
         <row r="45">
           <cell r="D45">
-            <v>-1.1241423716253801E-3</v>
+            <v>-2.5796499256653798E-4</v>
           </cell>
           <cell r="E45">
-            <v>9.7957706915115499E-4</v>
+            <v>5.9586795808796298E-5</v>
           </cell>
         </row>
         <row r="46">
           <cell r="D46">
-            <v>7.6527083359639401E-3</v>
+            <v>3.22931756437896E-3</v>
           </cell>
           <cell r="E46">
-            <v>3.5174789934998298E-3</v>
+            <v>4.7095803804934203E-3</v>
           </cell>
         </row>
         <row r="47">
           <cell r="B47">
-            <v>0.82350811087605602</v>
+            <v>0.82175629525349603</v>
           </cell>
           <cell r="C47">
-            <v>0.82350811087605602</v>
+            <v>0.82175629525349603</v>
           </cell>
           <cell r="D47">
-            <v>0.13319238712053999</v>
+            <v>4.4650499365633499E-2</v>
           </cell>
           <cell r="E47">
-            <v>2.1923800792276599E-2</v>
+            <v>2.1643936207587498E-2</v>
           </cell>
         </row>
         <row r="48">
           <cell r="C48">
-            <v>0.68609747045844105</v>
+            <v>0.68609614196705604</v>
           </cell>
           <cell r="D48">
-            <v>0.12829156017073801</v>
+            <v>4.2588652649736797E-2</v>
           </cell>
           <cell r="E48">
-            <v>3.5685830981105102E-2</v>
+            <v>3.5013638572716499E-2</v>
           </cell>
         </row>
         <row r="51">
@@ -1228,10 +1247,10 @@
             <v>0.83728198672156195</v>
           </cell>
           <cell r="D51">
-            <v>0.16042956777988401</v>
+            <v>4.9122398193789399E-2</v>
           </cell>
           <cell r="E51">
-            <v>2.7080922959916199E-2</v>
+            <v>2.6324406008447401E-2</v>
           </cell>
         </row>
         <row r="52">
@@ -1239,125 +1258,125 @@
             <v>1</v>
           </cell>
           <cell r="C52">
-            <v>0.90035364756918101</v>
+            <v>0.90043152419070405</v>
           </cell>
           <cell r="D52">
-            <v>4.71832463137285E-2</v>
+            <v>1.44280006572505E-2</v>
           </cell>
           <cell r="E52">
-            <v>2.83516914358505E-2</v>
+            <v>2.7475595686020701E-2</v>
           </cell>
         </row>
         <row r="53">
           <cell r="D53">
-            <v>-1.04327765367597E-18</v>
+            <v>-4.46793442981577E-20</v>
           </cell>
           <cell r="E53">
-            <v>-8.7663549258563403E-20</v>
+            <v>-3.2638684136759502E-20</v>
           </cell>
         </row>
         <row r="54">
           <cell r="D54">
-            <v>4.5033394094508898E-2</v>
+            <v>1.39101828161551E-2</v>
           </cell>
           <cell r="E54">
-            <v>2.4452549261312299E-2</v>
+            <v>2.4161866180615301E-2</v>
           </cell>
         </row>
         <row r="55">
           <cell r="D55">
-            <v>0.16462142210473699</v>
+            <v>5.0351601120823999E-2</v>
           </cell>
           <cell r="E55">
-            <v>1.14704305246796E-3</v>
+            <v>1.1569318990406201E-3</v>
           </cell>
         </row>
         <row r="56">
           <cell r="C56">
-            <v>0.89110967152204101</v>
+            <v>0.87869084072333703</v>
           </cell>
           <cell r="D56">
-            <v>4.0246083724618797E-3</v>
+            <v>1.10105521612523E-3</v>
           </cell>
           <cell r="E56">
-            <v>2.4921457413064701E-3</v>
+            <v>2.26191241174623E-3</v>
           </cell>
         </row>
         <row r="57">
           <cell r="C57">
-            <v>0.54384839332475299</v>
+            <v>0.52733643213015002</v>
           </cell>
           <cell r="D57">
-            <v>2.3923771498136098E-2</v>
+            <v>8.9392136356594293E-3</v>
           </cell>
           <cell r="E57">
-            <v>4.21720459048974E-3</v>
+            <v>5.32011871505056E-3</v>
           </cell>
         </row>
         <row r="58">
           <cell r="C58">
-            <v>0.57816998436545097</v>
+            <v>0.578923565728925</v>
           </cell>
           <cell r="D58">
-            <v>0.104671314157607</v>
+            <v>2.4498776323968099E-2</v>
           </cell>
           <cell r="E58">
-            <v>2.3489444912154302E-2</v>
+            <v>1.70485323080115E-2</v>
           </cell>
         </row>
         <row r="59">
           <cell r="C59">
-            <v>0.64561739930606399</v>
+            <v>0.65002231987146097</v>
           </cell>
           <cell r="D59">
-            <v>3.1670490269972602E-2</v>
+            <v>1.40418692413713E-2</v>
           </cell>
           <cell r="E59">
-            <v>1.8445903421154101E-2</v>
+            <v>2.83805667682322E-2</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60">
-            <v>0.39835921105315297</v>
+            <v>0.409351769979304</v>
           </cell>
           <cell r="C60">
-            <v>0.39305810716899803</v>
+            <v>0.40587989993453499</v>
           </cell>
           <cell r="D60">
-            <v>0.33216074204917301</v>
+            <v>9.8708178617943607E-2</v>
           </cell>
           <cell r="E60">
-            <v>0.84334639462857397</v>
+            <v>0.84018982416819199</v>
           </cell>
         </row>
         <row r="61">
           <cell r="D61">
-            <v>-9.0062719149137395E-4</v>
+            <v>-1.0684934412640899E-3</v>
           </cell>
           <cell r="E61">
-            <v>3.3398667264291103E-4</v>
+            <v>-1.3655824665341999E-4</v>
           </cell>
         </row>
         <row r="62">
           <cell r="D62">
-            <v>6.8718168768462798E-3</v>
+            <v>2.7235264373745099E-3</v>
           </cell>
           <cell r="E62">
-            <v>3.3721116473789101E-3</v>
+            <v>4.8266971457645701E-3</v>
           </cell>
         </row>
         <row r="63">
           <cell r="B63">
-            <v>0.83257637769533999</v>
+            <v>0.83084358573066497</v>
           </cell>
           <cell r="C63">
-            <v>0.83257637769533999</v>
+            <v>0.83084358573066497</v>
           </cell>
           <cell r="D63">
-            <v>0.126499552463504</v>
+            <v>3.9134405118848997E-2</v>
           </cell>
           <cell r="E63">
-            <v>2.32706016767509E-2</v>
+            <v>2.2990106955528701E-2</v>
           </cell>
         </row>
         <row r="66">
@@ -1368,10 +1387,10 @@
             <v>0.79743496660949298</v>
           </cell>
           <cell r="D66">
-            <v>0.20239702019929301</v>
+            <v>0.1086844272851</v>
           </cell>
           <cell r="E66">
-            <v>9.9409072400829697E-3</v>
+            <v>2.17210615931815E-2</v>
           </cell>
         </row>
         <row r="67">
@@ -1382,10 +1401,10 @@
             <v>1.00967366877396</v>
           </cell>
           <cell r="D67">
-            <v>-4.6543905259108396E-3</v>
+            <v>-2.4993439536397902E-3</v>
           </cell>
           <cell r="E67">
-            <v>3.9802085550371201E-2</v>
+            <v>2.6870917073698502E-3</v>
           </cell>
         </row>
         <row r="68">
@@ -1398,15 +1417,15 @@
         </row>
         <row r="69">
           <cell r="D69">
-            <v>-2.37311861240199E-18</v>
+            <v>-1.27572463755799E-18</v>
           </cell>
           <cell r="E69">
-            <v>-1.4103173294119699E-18</v>
+            <v>-1.4190343584520899E-18</v>
           </cell>
         </row>
         <row r="70">
-          <cell r="D70" t="str">
-            <v>nan</v>
+          <cell r="D70">
+            <v>0</v>
           </cell>
           <cell r="E70">
             <v>0</v>
@@ -1414,13 +1433,13 @@
         </row>
         <row r="71">
           <cell r="C71">
-            <v>0.95779179752740395</v>
+            <v>0.96287343659985303</v>
           </cell>
           <cell r="D71">
-            <v>3.4773756651104303E-4</v>
+            <v>1.7474539762132001E-4</v>
           </cell>
           <cell r="E71">
-            <v>1.7784750820190999E-4</v>
+            <v>1.6874194328699501E-4</v>
           </cell>
         </row>
         <row r="72">
@@ -1428,62 +1447,62 @@
             <v>0.742436715714342</v>
           </cell>
           <cell r="D72">
-            <v>1.05216050287182E-2</v>
+            <v>5.6499577688459701E-3</v>
           </cell>
           <cell r="E72">
-            <v>1.8720241671323799E-3</v>
+            <v>1.88445699230908E-3</v>
           </cell>
         </row>
         <row r="73">
           <cell r="C73">
-            <v>0.70821674339714002</v>
+            <v>0.705509778967357</v>
           </cell>
           <cell r="D73">
-            <v>6.5150302118705802E-2</v>
+            <v>2.7889354344402199E-2</v>
           </cell>
           <cell r="E73">
-            <v>1.83584284350959E-2</v>
+            <v>1.3065104203930001E-2</v>
           </cell>
         </row>
         <row r="74">
           <cell r="C74">
-            <v>0.66846309278995997</v>
+            <v>0.67188098424797704</v>
           </cell>
           <cell r="D74">
-            <v>3.6919778411927798E-2</v>
+            <v>2.4890078265666998E-2</v>
           </cell>
           <cell r="E74">
-            <v>2.1000706401438099E-2</v>
+            <v>2.76990600368766E-2</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75">
-            <v>0.37928169666585199</v>
+            <v>0.378075308708889</v>
           </cell>
           <cell r="C75">
-            <v>0.37841397004065902</v>
+            <v>0.37860846312165902</v>
           </cell>
           <cell r="D75">
-            <v>0.335530754319251</v>
+            <v>0.177714704895305</v>
           </cell>
           <cell r="E75">
-            <v>0.81768132407136396</v>
+            <v>0.81130510403772005</v>
           </cell>
         </row>
         <row r="76">
           <cell r="D76">
-            <v>-7.8349738547034496E-4</v>
+            <v>-2.0054471276672202E-3</v>
           </cell>
           <cell r="E76">
-            <v>4.7856768806009602E-3</v>
+            <v>-6.7569978594543402E-5</v>
           </cell>
         </row>
         <row r="77">
           <cell r="D77">
-            <v>7.5013329347316396E-3</v>
+            <v>5.5737899579150303E-3</v>
           </cell>
           <cell r="E77">
-            <v>3.7156145568225198E-3</v>
+            <v>5.1292468470883201E-3</v>
           </cell>
         </row>
         <row r="78">
@@ -1494,10 +1513,10 @@
             <v>0.60027296592071</v>
           </cell>
           <cell r="D78">
-            <v>0.17783428025224601</v>
+            <v>9.5494572409425396E-2</v>
           </cell>
           <cell r="E78">
-            <v>-4.1319781570034898E-3</v>
+            <v>3.1044387971429801E-2</v>
           </cell>
         </row>
         <row r="79">
@@ -1505,10 +1524,10 @@
             <v>0.65538454811091995</v>
           </cell>
           <cell r="D79">
-            <v>0.14817138512359501</v>
+            <v>7.9566004066369198E-2</v>
           </cell>
           <cell r="E79">
-            <v>4.9866766415563799E-2</v>
+            <v>4.6429045755112398E-2</v>
           </cell>
         </row>
         <row r="80">
@@ -1519,10 +1538,10 @@
             <v>0.93873989118616197</v>
           </cell>
           <cell r="D80">
-            <v>4.6146997070026702E-2</v>
+            <v>2.4780305275959501E-2</v>
           </cell>
           <cell r="E80">
-            <v>3.6930596930326597E-2</v>
+            <v>3.8934268890285402E-2</v>
           </cell>
         </row>
         <row r="83">
@@ -1533,10 +1552,10 @@
             <v>0.82493727006451301</v>
           </cell>
           <cell r="D83">
-            <v>0.174957821105893</v>
+            <v>7.4461928828544299E-2</v>
           </cell>
           <cell r="E83">
-            <v>2.3389082048198701E-2</v>
+            <v>2.41418068738673E-2</v>
           </cell>
         </row>
         <row r="84">
@@ -1547,10 +1566,10 @@
             <v>0.88713152128473405</v>
           </cell>
           <cell r="D84">
-            <v>4.5639379641259699E-2</v>
+            <v>1.9424088715471001E-2</v>
           </cell>
           <cell r="E84">
-            <v>2.7240565388192601E-2</v>
+            <v>2.70581866404166E-2</v>
           </cell>
         </row>
         <row r="85">
@@ -1563,15 +1582,15 @@
         </row>
         <row r="86">
           <cell r="D86">
-            <v>-9.4487191877585004E-19</v>
+            <v>-4.1206635360920499E-19</v>
           </cell>
           <cell r="E86">
-            <v>-6.7084579090160404E-19</v>
+            <v>-6.8226215894336397E-19</v>
           </cell>
         </row>
         <row r="87">
-          <cell r="D87" t="str">
-            <v>nan</v>
+          <cell r="D87">
+            <v>0</v>
           </cell>
           <cell r="E87">
             <v>0</v>
@@ -1579,13 +1598,13 @@
         </row>
         <row r="88">
           <cell r="C88">
-            <v>0.93917494114830102</v>
+            <v>0.94400053836846898</v>
           </cell>
           <cell r="D88">
-            <v>6.20297425257971E-4</v>
+            <v>2.4927374046927303E-4</v>
           </cell>
           <cell r="E88">
-            <v>3.2902186551311499E-4</v>
+            <v>3.1571323040184898E-4</v>
           </cell>
         </row>
         <row r="89">
@@ -1593,62 +1612,62 @@
             <v>0.70703945571969795</v>
           </cell>
           <cell r="D89">
-            <v>1.4653530937742E-2</v>
+            <v>6.23629251244641E-3</v>
           </cell>
           <cell r="E89">
-            <v>2.7979841997583499E-3</v>
+            <v>2.81690545007552E-3</v>
           </cell>
         </row>
         <row r="90">
           <cell r="C90">
-            <v>0.70584836650325999</v>
+            <v>0.70356516819965798</v>
           </cell>
           <cell r="D90">
-            <v>5.5192426821922401E-2</v>
+            <v>1.8760236050816399E-2</v>
           </cell>
           <cell r="E90">
-            <v>1.3478741735930701E-2</v>
+            <v>1.0029979208444E-2</v>
           </cell>
         </row>
         <row r="91">
           <cell r="C91">
-            <v>0.64170352813846998</v>
+            <v>0.64407787010245998</v>
           </cell>
           <cell r="D91">
-            <v>3.6505569549735599E-2</v>
+            <v>1.8934491317799299E-2</v>
           </cell>
           <cell r="E91">
-            <v>1.84867923109449E-2</v>
+            <v>2.3567813879687202E-2</v>
           </cell>
         </row>
         <row r="92">
           <cell r="B92">
-            <v>0.380160360917494</v>
+            <v>0.37899561189457298</v>
           </cell>
           <cell r="C92">
-            <v>0.376137792726562</v>
+            <v>0.37643993694957201</v>
           </cell>
           <cell r="D92">
-            <v>0.33213537848980101</v>
+            <v>0.13983876567894901</v>
           </cell>
           <cell r="E92">
-            <v>0.824870853624037</v>
+            <v>0.82309548839799296</v>
           </cell>
         </row>
         <row r="93">
           <cell r="D93">
-            <v>-1.34533394411626E-3</v>
+            <v>-2.0424922478728398E-3</v>
           </cell>
           <cell r="E93">
-            <v>1.14769018830138E-3</v>
+            <v>-1.6662420068111099E-3</v>
           </cell>
         </row>
         <row r="94">
           <cell r="D94">
-            <v>6.3133457590936904E-3</v>
+            <v>3.2424521885407401E-3</v>
           </cell>
           <cell r="E94">
-            <v>2.8488814367789599E-3</v>
+            <v>4.3602602964488198E-3</v>
           </cell>
         </row>
         <row r="95">
@@ -1659,10 +1678,10 @@
             <v>0.78501789871234995</v>
           </cell>
           <cell r="D95">
-            <v>-4.7933129513276296E-3</v>
+            <v>-2.0400307089939698E-3</v>
           </cell>
           <cell r="E95">
-            <v>-2.39046471317024E-3</v>
+            <v>-2.4082029033821598E-3</v>
           </cell>
         </row>
         <row r="96">
@@ -1670,10 +1689,10 @@
             <v>0.63606736210204795</v>
           </cell>
           <cell r="D96">
-            <v>0.13980431646054201</v>
+            <v>5.9500621329225498E-2</v>
           </cell>
           <cell r="E96">
-            <v>4.8775775786419402E-2</v>
+            <v>4.91425814634961E-2</v>
           </cell>
         </row>
         <row r="97">
@@ -1684,10 +1703,10 @@
             <v>0.93912884773758798</v>
           </cell>
           <cell r="D97">
-            <v>4.5985271414559097E-2</v>
+            <v>1.9571300017275101E-2</v>
           </cell>
           <cell r="E97">
-            <v>3.9025076129095899E-2</v>
+            <v>3.9545709469365101E-2</v>
           </cell>
         </row>
         <row r="100">
@@ -1698,10 +1717,10 @@
             <v>0.76497674432363505</v>
           </cell>
           <cell r="D100">
-            <v>0.23481349143591701</v>
+            <v>5.1311840865434402E-2</v>
           </cell>
           <cell r="E100">
-            <v>2.5911409848273399E-2</v>
+            <v>2.9703496361496998E-2</v>
           </cell>
         </row>
         <row r="101">
@@ -1712,10 +1731,10 @@
             <v>1.03403434233664</v>
           </cell>
           <cell r="D101">
-            <v>-2.71139819102823E-2</v>
+            <v>-5.9249931360454396E-3</v>
           </cell>
           <cell r="E101">
-            <v>4.09629325298831E-3</v>
+            <v>3.2665605686924199E-3</v>
           </cell>
         </row>
         <row r="102">
@@ -1728,15 +1747,15 @@
         </row>
         <row r="103">
           <cell r="D103">
-            <v>-7.7332104762534497E-19</v>
+            <v>-1.5182559041531601E-19</v>
           </cell>
           <cell r="E103">
-            <v>-1.8665457099819E-19</v>
+            <v>-1.12545016134737E-20</v>
           </cell>
         </row>
         <row r="104">
-          <cell r="D104" t="str">
-            <v>nan</v>
+          <cell r="D104">
+            <v>0</v>
           </cell>
           <cell r="E104">
             <v>0</v>
@@ -1744,13 +1763,13 @@
         </row>
         <row r="105">
           <cell r="C105">
-            <v>0.952408037695331</v>
+            <v>0.95692516312105602</v>
           </cell>
           <cell r="D105">
-            <v>7.8069466316979595E-4</v>
+            <v>1.60711871698927E-4</v>
           </cell>
           <cell r="E105">
-            <v>3.9890933392035E-4</v>
+            <v>3.8226223925892601E-4</v>
           </cell>
         </row>
         <row r="106">
@@ -1758,62 +1777,62 @@
             <v>0.63885711250917399</v>
           </cell>
           <cell r="D106">
-            <v>1.6793914339285801E-2</v>
+            <v>3.6698345347006699E-3</v>
           </cell>
           <cell r="E106">
-            <v>3.0434260839618502E-3</v>
+            <v>3.0650775486097E-3</v>
           </cell>
         </row>
         <row r="107">
           <cell r="C107">
-            <v>0.70937808953103698</v>
+            <v>0.70722155257159902</v>
           </cell>
           <cell r="D107">
-            <v>7.2560496783459702E-2</v>
+            <v>1.3396201537525399E-2</v>
           </cell>
           <cell r="E107">
-            <v>1.6751867436719501E-2</v>
+            <v>1.2582516700708E-2</v>
           </cell>
         </row>
         <row r="108">
           <cell r="C108">
-            <v>0.65988047675357897</v>
+            <v>0.662763215645646</v>
           </cell>
           <cell r="D108">
-            <v>4.9060714916849102E-2</v>
+            <v>1.24915756084299E-2</v>
           </cell>
           <cell r="E108">
-            <v>2.3080017281664499E-2</v>
+            <v>2.7835943660193901E-2</v>
           </cell>
         </row>
         <row r="109">
           <cell r="B109">
-            <v>0.39324569865109898</v>
+            <v>0.393138256599675</v>
           </cell>
           <cell r="C109">
-            <v>0.39015552945454002</v>
+            <v>0.390628132384922</v>
           </cell>
           <cell r="D109">
-            <v>0.33380811749550998</v>
+            <v>7.1993068328097903E-2</v>
           </cell>
           <cell r="E109">
-            <v>0.81574742271898604</v>
+            <v>0.82480658696608</v>
           </cell>
         </row>
         <row r="110">
           <cell r="D110">
-            <v>-4.9108043047741605E-4</v>
+            <v>-3.6977121137250399E-4</v>
           </cell>
           <cell r="E110">
-            <v>2.8737836000279702E-4</v>
+            <v>-1.5302116680302401E-2</v>
           </cell>
         </row>
         <row r="111">
           <cell r="D111">
-            <v>1.0443757930757001E-2</v>
+            <v>2.6662882875402001E-3</v>
           </cell>
           <cell r="E111">
-            <v>4.0169404820546697E-3</v>
+            <v>5.0716916316507401E-3</v>
           </cell>
         </row>
         <row r="112">
@@ -1824,10 +1843,10 @@
             <v>0.64635404731637702</v>
           </cell>
           <cell r="D112">
-            <v>0.13523899350119201</v>
+            <v>2.9552653345851301E-2</v>
           </cell>
           <cell r="E112">
-            <v>2.4973640224032E-2</v>
+            <v>2.2239090294395501E-2</v>
           </cell>
         </row>
         <row r="113">
@@ -1835,10 +1854,10 @@
             <v>0.65972174487371305</v>
           </cell>
           <cell r="D113">
-            <v>0.149557032567912</v>
+            <v>3.2681455433005303E-2</v>
           </cell>
           <cell r="E113">
-            <v>4.6609378650594502E-2</v>
+            <v>4.9475672042242E-2</v>
           </cell>
         </row>
         <row r="114">
@@ -1849,10 +1868,10 @@
             <v>0.94571355773278398</v>
           </cell>
           <cell r="D114">
-            <v>4.1110114771941098E-2</v>
+            <v>8.9834517354096307E-3</v>
           </cell>
           <cell r="E114">
-            <v>3.5083316326804302E-2</v>
+            <v>3.6873218666975197E-2</v>
           </cell>
         </row>
         <row r="117">
@@ -1863,10 +1882,10 @@
             <v>0.77157441024513196</v>
           </cell>
           <cell r="D117">
-            <v>0.228237903205255</v>
+            <v>8.5595727340760902E-2</v>
           </cell>
           <cell r="E117">
-            <v>2.09619887892688E-2</v>
+            <v>2.3167939023363199E-2</v>
           </cell>
         </row>
         <row r="118">
@@ -1877,10 +1896,10 @@
             <v>1.0333013476048101</v>
           </cell>
           <cell r="D118">
-            <v>-1.23600163369504E-2</v>
+            <v>-4.6353588665486896E-3</v>
           </cell>
           <cell r="E118">
-            <v>1.27913599299401E-3</v>
+            <v>-1.9096438078105701E-3</v>
           </cell>
         </row>
         <row r="119">
@@ -1893,15 +1912,15 @@
         </row>
         <row r="120">
           <cell r="D120">
-            <v>-1.51826220796013E-18</v>
+            <v>-5.8278844684052002E-19</v>
           </cell>
           <cell r="E120">
-            <v>-7.3983916709759598E-19</v>
+            <v>-6.3766971031475405E-19</v>
           </cell>
         </row>
         <row r="121">
-          <cell r="D121" t="str">
-            <v>nan</v>
+          <cell r="D121">
+            <v>0</v>
           </cell>
           <cell r="E121">
             <v>0</v>
@@ -1909,13 +1928,13 @@
         </row>
         <row r="122">
           <cell r="C122">
-            <v>0.979918503215361</v>
+            <v>0.984543618954828</v>
           </cell>
           <cell r="D122">
-            <v>2.2823992412114699E-4</v>
+            <v>8.0155348469523494E-5</v>
           </cell>
           <cell r="E122">
-            <v>1.07629950020356E-4</v>
+            <v>9.8346749782584296E-5</v>
           </cell>
         </row>
         <row r="123">
@@ -1923,62 +1942,62 @@
             <v>0.74208418172978796</v>
           </cell>
           <cell r="D123">
-            <v>1.0198612017516101E-2</v>
+            <v>3.8247705628475801E-3</v>
           </cell>
           <cell r="E123">
-            <v>1.6724127793595299E-3</v>
+            <v>1.6693922596152399E-3</v>
           </cell>
         </row>
         <row r="124">
           <cell r="C124">
-            <v>0.65820985788808295</v>
+            <v>0.65374968061357497</v>
           </cell>
           <cell r="D124">
-            <v>8.0285792545231202E-2</v>
+            <v>2.4097510756688499E-2</v>
           </cell>
           <cell r="E124">
-            <v>2.3035948615008999E-2</v>
+            <v>1.6996488610347901E-2</v>
           </cell>
         </row>
         <row r="125">
           <cell r="C125">
-            <v>0.66887815446869903</v>
+            <v>0.67259099603609596</v>
           </cell>
           <cell r="D125">
-            <v>3.82442954399035E-2</v>
+            <v>1.8117280627427901E-2</v>
           </cell>
           <cell r="E125">
-            <v>2.1494490330497801E-2</v>
+            <v>2.9139063476866602E-2</v>
           </cell>
         </row>
         <row r="126">
           <cell r="B126">
-            <v>0.379849071095549</v>
+            <v>0.37871444086300898</v>
           </cell>
           <cell r="C126">
-            <v>0.37929927730329199</v>
+            <v>0.37934839196364001</v>
           </cell>
           <cell r="D126">
-            <v>0.34332931061184702</v>
+            <v>0.12658164114065701</v>
           </cell>
           <cell r="E126">
-            <v>0.82285843739834497</v>
+            <v>0.82100844329306499</v>
           </cell>
         </row>
         <row r="127">
           <cell r="D127">
-            <v>-5.52966932802046E-4</v>
+            <v>-2.96397695402747E-4</v>
           </cell>
           <cell r="E127">
-            <v>5.8685353094464201E-4</v>
+            <v>-2.9371321296373801E-3</v>
           </cell>
         </row>
         <row r="128">
           <cell r="D128">
-            <v>7.8038094810787603E-3</v>
+            <v>3.7772841672629701E-3</v>
           </cell>
           <cell r="E128">
-            <v>3.8952251034513599E-3</v>
+            <v>5.1236724682405298E-3</v>
           </cell>
         </row>
         <row r="129">
@@ -1989,10 +2008,10 @@
             <v>0.62694720566358997</v>
           </cell>
           <cell r="D129">
-            <v>0.15201600093838799</v>
+            <v>5.7010338708086701E-2</v>
           </cell>
           <cell r="E129">
-            <v>2.42612998399474E-2</v>
+            <v>2.6642551433885799E-2</v>
           </cell>
         </row>
         <row r="130">
@@ -2000,10 +2019,10 @@
             <v>0.65825379585561605</v>
           </cell>
           <cell r="D130">
-            <v>0.14238131161254999</v>
+            <v>5.33970552483026E-2</v>
           </cell>
           <cell r="E130">
-            <v>4.0929332479495803E-2</v>
+            <v>4.1263872052825099E-2</v>
           </cell>
         </row>
         <row r="131">
@@ -2014,96 +2033,96 @@
             <v>0.93688985286505599</v>
           </cell>
           <cell r="D131">
-            <v>4.7614298546180801E-2</v>
+            <v>1.7856720810369899E-2</v>
           </cell>
           <cell r="E131">
-            <v>3.8917245190663599E-2</v>
+            <v>3.97370065694512E-2</v>
           </cell>
         </row>
         <row r="134">
           <cell r="C134">
-            <v>0.12510367626184099</v>
+            <v>0.12774597204229801</v>
           </cell>
           <cell r="D134">
-            <v>0.36723760116925303</v>
+            <v>0.32038318274344202</v>
           </cell>
           <cell r="E134">
-            <v>0.29091196726026403</v>
+            <v>0.221777432209501</v>
           </cell>
         </row>
         <row r="135">
           <cell r="C135">
-            <v>0.13187833112441799</v>
+            <v>0.13488937229918299</v>
           </cell>
           <cell r="D135">
-            <v>0.36352853442814198</v>
+            <v>0.31362025220983297</v>
           </cell>
           <cell r="E135">
-            <v>0.28384008040814601</v>
+            <v>0.21453852141569901</v>
           </cell>
         </row>
         <row r="136">
           <cell r="D136">
-            <v>2.3852511911439999E-4</v>
+            <v>2.01966481294949E-4</v>
           </cell>
           <cell r="E136">
-            <v>2.9760256248402897E-4</v>
+            <v>3.7114700449583101E-4</v>
           </cell>
         </row>
         <row r="137">
           <cell r="D137">
-            <v>3.3719039608932298E-4</v>
+            <v>2.7983776896876601E-4</v>
           </cell>
           <cell r="E137">
-            <v>4.1304382496546197E-4</v>
+            <v>4.9483970585842104E-4</v>
           </cell>
         </row>
         <row r="138">
           <cell r="D138">
-            <v>6.8406178789829604E-3</v>
+            <v>6.6497963731438998E-3</v>
           </cell>
           <cell r="E138">
-            <v>7.8875968267836903E-3</v>
+            <v>7.7709229435227699E-3</v>
           </cell>
         </row>
         <row r="139">
           <cell r="D139">
-            <v>6.1560707710118503E-3</v>
+            <v>5.1819695519722004E-3</v>
           </cell>
           <cell r="E139">
-            <v>5.8125986394248199E-3</v>
+            <v>5.4650666031602398E-3</v>
           </cell>
         </row>
         <row r="140">
           <cell r="D140">
-            <v>-6.91617579208113E-3</v>
+            <v>-6.8712342461879497E-3</v>
           </cell>
           <cell r="E140">
-            <v>-4.8750981268591703E-3</v>
+            <v>-4.8631034009990696E-3</v>
           </cell>
         </row>
         <row r="141">
           <cell r="D141">
-            <v>-9.1706344020184502E-3</v>
+            <v>-9.1706344020184398E-3</v>
           </cell>
           <cell r="E141">
-            <v>-4.9966698368568204E-3</v>
+            <v>-4.9624489818232203E-3</v>
           </cell>
         </row>
         <row r="142">
           <cell r="D142">
-            <v>0.29650966675071</v>
+            <v>0.31210077966112798</v>
           </cell>
           <cell r="E142">
-            <v>0.221939338326828</v>
+            <v>0.30047626574830499</v>
           </cell>
         </row>
         <row r="143">
           <cell r="D143">
-            <v>0.271993028180193</v>
+            <v>0.28356205612871499</v>
           </cell>
           <cell r="E143">
-            <v>0.19876954011481801</v>
+            <v>0.25893135675228102</v>
           </cell>
         </row>
         <row r="144">
@@ -2124,24 +2143,24 @@
         </row>
         <row r="148">
           <cell r="C148">
-            <v>0.91357355163899501</v>
+            <v>0.91506935380483301</v>
           </cell>
           <cell r="D148">
-            <v>3.7201084226344099E-3</v>
+            <v>4.0399566486316804E-3</v>
           </cell>
           <cell r="E148">
-            <v>1.6393216500611499E-2</v>
+            <v>2.0137702369178698E-2</v>
           </cell>
         </row>
         <row r="149">
           <cell r="C149">
-            <v>0.89927106086829101</v>
+            <v>0.897117442100967</v>
           </cell>
           <cell r="D149">
-            <v>4.9830977137400399E-3</v>
+            <v>5.8730635066998301E-3</v>
           </cell>
           <cell r="E149">
-            <v>2.6330911950465701E-2</v>
+            <v>3.6016536334668801E-2</v>
           </cell>
         </row>
         <row r="150">
@@ -2149,7 +2168,7 @@
             <v>5.5832553630695799E-18</v>
           </cell>
           <cell r="E150">
-            <v>2.1351808222855301E-17</v>
+            <v>2.2945049350399801E-17</v>
           </cell>
         </row>
         <row r="151">
@@ -2157,7 +2176,7 @@
             <v>1.1404877356461699E-18</v>
           </cell>
           <cell r="E151">
-            <v>4.9337434416606096E-18</v>
+            <v>5.3641993294696799E-18</v>
           </cell>
         </row>
         <row r="152">
@@ -2165,10 +2184,10 @@
             <v>0.44221633189862902</v>
           </cell>
           <cell r="D152">
-            <v>0.17718734116724399</v>
+            <v>0.153400547421504</v>
           </cell>
           <cell r="E152">
-            <v>0.40167384951077101</v>
+            <v>0.42204787611730699</v>
           </cell>
         </row>
         <row r="153">
@@ -2176,21 +2195,21 @@
             <v>0.83750334073817401</v>
           </cell>
           <cell r="D153">
-            <v>5.85034567978703E-2</v>
+            <v>7.8538887208099793E-3</v>
           </cell>
           <cell r="E153">
-            <v>2.01968107854242E-2</v>
+            <v>2.2261879791993299E-2</v>
           </cell>
         </row>
         <row r="154">
           <cell r="C154">
-            <v>0.61637267809825702</v>
+            <v>0.61977598567190695</v>
           </cell>
           <cell r="D154">
-            <v>0.115719726331429</v>
+            <v>0.10393185339882401</v>
           </cell>
           <cell r="E154">
-            <v>0.48730448486413103</v>
+            <v>0.44759712261381801</v>
           </cell>
         </row>
         <row r="155">
@@ -2201,54 +2220,51 @@
             <v>4.4780977932272502E-2</v>
           </cell>
           <cell r="E155">
-            <v>4.8100726388590302E-2</v>
+            <v>5.1938882773032199E-2</v>
           </cell>
         </row>
         <row r="158">
-          <cell r="B158" t="str">
-            <v>nan</v>
-          </cell>
-          <cell r="C158" t="str">
-            <v>nan</v>
-          </cell>
-          <cell r="D158" t="str">
-            <v>nan</v>
-          </cell>
-          <cell r="E158" t="str">
-            <v>nan</v>
+          <cell r="B158">
+            <v>-407346800445.48102</v>
+          </cell>
+          <cell r="C158">
+            <v>-407346800445.50299</v>
+          </cell>
+          <cell r="D158">
+            <v>5.3095451945194702E-2</v>
+          </cell>
+          <cell r="E158">
+            <v>9.4312836442828202E-2</v>
           </cell>
         </row>
         <row r="159">
-          <cell r="B159" t="str">
-            <v>nan</v>
-          </cell>
           <cell r="C159" t="str">
             <v>nan</v>
           </cell>
-          <cell r="D159" t="str">
-            <v>nan</v>
-          </cell>
-          <cell r="E159" t="str">
-            <v>nan</v>
+          <cell r="D159">
+            <v>2.1726811311378599E-2</v>
+          </cell>
+          <cell r="E159">
+            <v>0.24830387941853299</v>
           </cell>
         </row>
         <row r="160">
-          <cell r="C160" t="str">
-            <v>nan</v>
-          </cell>
           <cell r="D160">
-            <v>2.15864507844181E-2</v>
-          </cell>
-          <cell r="E160" t="str">
-            <v>nan</v>
+            <v>-1.2669187080924201E-18</v>
+          </cell>
+          <cell r="E160">
+            <v>-3.7951659319351203E-17</v>
           </cell>
         </row>
         <row r="161">
-          <cell r="D161" t="e">
-            <v>#NAME?</v>
-          </cell>
-          <cell r="E161" t="str">
-            <v>nan</v>
+          <cell r="C161">
+            <v>0.44646972137834101</v>
+          </cell>
+          <cell r="D161">
+            <v>0.47237221303222998</v>
+          </cell>
+          <cell r="E161">
+            <v>8.7401993428477195E-2</v>
           </cell>
         </row>
         <row r="162">
@@ -2258,63 +2274,52 @@
           <cell r="D162">
             <v>0.47237221303222998</v>
           </cell>
-          <cell r="E162" t="str">
-            <v>nan</v>
+          <cell r="E162">
+            <v>5.8267995618985297E-2</v>
           </cell>
         </row>
         <row r="163">
           <cell r="C163">
-            <v>0.44646972137834101</v>
+            <v>0.55240608719666895</v>
           </cell>
           <cell r="D163">
-            <v>0.47237221303222998</v>
-          </cell>
-          <cell r="E163" t="str">
-            <v>nan</v>
+            <v>0.38196813308414501</v>
+          </cell>
+          <cell r="E163">
+            <v>9.0867503582356596E-2</v>
           </cell>
         </row>
         <row r="164">
           <cell r="C164">
-            <v>0.55240608719666895</v>
+            <v>0.25818943543817602</v>
           </cell>
           <cell r="D164">
-            <v>0.38196813308414501</v>
-          </cell>
-          <cell r="E164" t="str">
-            <v>nan</v>
+            <v>0.63304702843954397</v>
+          </cell>
+          <cell r="E164">
+            <v>0.15617506899039801</v>
           </cell>
         </row>
         <row r="165">
           <cell r="C165">
-            <v>0.25818943543817602</v>
+            <v>0.66329942993174995</v>
           </cell>
           <cell r="D165">
-            <v>0.63304702843954397</v>
-          </cell>
-          <cell r="E165" t="str">
-            <v>nan</v>
+            <v>0.287309357900005</v>
+          </cell>
+          <cell r="E165">
+            <v>4.4984823011185997E-2</v>
           </cell>
         </row>
         <row r="166">
           <cell r="C166">
-            <v>0.66329942993174995</v>
+            <v>0.64944681772919</v>
           </cell>
           <cell r="D166">
-            <v>0.28733395841014298</v>
-          </cell>
-          <cell r="E166" t="str">
-            <v>nan</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="C167">
-            <v>0.64944681772919</v>
-          </cell>
-          <cell r="D167">
-            <v>0.29916911969128501</v>
-          </cell>
-          <cell r="E167" t="str">
-            <v>nan</v>
+            <v>0.22437683976846401</v>
+          </cell>
+          <cell r="E166">
+            <v>0.219685899507233</v>
           </cell>
         </row>
       </sheetData>
@@ -2586,62 +2591,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="L140" sqref="L140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3">
+        <f>[1]aggregated_efficiencies!$E$3</f>
+        <v>0.12523810981504899</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
@@ -2654,15 +2667,16 @@
       </c>
       <c r="D4" s="1">
         <f>[1]aggregated_efficiencies!D4</f>
-        <v>0.161881538940777</v>
+        <v>4.7986973315578101E-2</v>
       </c>
       <c r="E4" s="1">
         <f>[1]aggregated_efficiencies!E4</f>
-        <v>2.7936392628027901E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>2.7166176229207799E-2</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
@@ -2671,19 +2685,20 @@
       </c>
       <c r="C5" s="1">
         <f>[1]aggregated_efficiencies!C5</f>
-        <v>0.90254950678882895</v>
+        <v>0.90262608959496604</v>
       </c>
       <c r="D5" s="1">
         <f>[1]aggregated_efficiencies!D5</f>
-        <v>4.5710409359804298E-2</v>
+        <v>1.35321833812088E-2</v>
       </c>
       <c r="E5" s="1">
         <f>[1]aggregated_efficiencies!E5</f>
-        <v>2.8244581035482198E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>2.7373998648165299E-2</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
@@ -2696,18 +2711,18 @@
       </c>
       <c r="D6" s="1">
         <f>[1]aggregated_efficiencies!D6</f>
-        <v>-1.00393524513236E-18</v>
+        <v>2.8799380981835702E-19</v>
       </c>
       <c r="E6" s="1">
         <f>[1]aggregated_efficiencies!E6</f>
-        <v>-1.2546430597224199E-19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <v>5.9435103990715498E-20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1">
@@ -2720,15 +2735,16 @@
       </c>
       <c r="D7" s="1">
         <f>[1]aggregated_efficiencies!D7</f>
-        <v>5.3636673484373398E-2</v>
+        <v>1.6043671210738401E-2</v>
       </c>
       <c r="E7" s="1">
         <f>[1]aggregated_efficiencies!E7</f>
-        <v>2.9654387081393101E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>2.9361025411021001E-2</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
@@ -2741,15 +2757,16 @@
       </c>
       <c r="D8" s="1">
         <f>[1]aggregated_efficiencies!D8</f>
-        <v>6.1265921935868502E-2</v>
+        <v>1.8106532729584901E-2</v>
       </c>
       <c r="E8" s="1">
         <f>[1]aggregated_efficiencies!E8</f>
-        <v>2.1785032677889898E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+        <v>2.1246835906998502E-3</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1">
@@ -2758,19 +2775,20 @@
       </c>
       <c r="C9" s="1">
         <f>[1]aggregated_efficiencies!C9</f>
-        <v>0.89824446420266102</v>
+        <v>0.88553809311299103</v>
       </c>
       <c r="D9" s="1">
         <f>[1]aggregated_efficiencies!D9</f>
-        <v>3.87854829758E-3</v>
+        <v>1.0351764318938801E-3</v>
       </c>
       <c r="E9" s="1">
         <f>[1]aggregated_efficiencies!E9</f>
-        <v>2.3687261751877101E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>2.1720139573005799E-3</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1">
@@ -2779,19 +2797,20 @@
       </c>
       <c r="C10" s="1">
         <f>[1]aggregated_efficiencies!C10</f>
-        <v>0.55204529969542704</v>
+        <v>0.53506108753474702</v>
       </c>
       <c r="D10" s="1">
         <f>[1]aggregated_efficiencies!D10</f>
-        <v>2.1735774001516699E-2</v>
+        <v>7.9372660459868707E-3</v>
       </c>
       <c r="E10" s="1">
         <f>[1]aggregated_efficiencies!E10</f>
-        <v>3.761117033944E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>4.80746082993945E-3</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1">
@@ -2800,19 +2819,20 @@
       </c>
       <c r="C11" s="1">
         <f>[1]aggregated_efficiencies!C11</f>
-        <v>0.57997296723799496</v>
+        <v>0.58027826919933001</v>
       </c>
       <c r="D11" s="1">
         <f>[1]aggregated_efficiencies!D11</f>
-        <v>0.100454842410761</v>
+        <v>2.2563143640225301E-2</v>
       </c>
       <c r="E11" s="1">
         <f>[1]aggregated_efficiencies!E11</f>
-        <v>2.30256381473696E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+        <v>1.6594060689969499E-2</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1">
@@ -2821,40 +2841,42 @@
       </c>
       <c r="C12" s="1">
         <f>[1]aggregated_efficiencies!C12</f>
-        <v>0.64281851023097603</v>
+        <v>0.64721276277543904</v>
       </c>
       <c r="D12" s="1">
         <f>[1]aggregated_efficiencies!D12</f>
-        <v>3.0027330155232301E-2</v>
+        <v>1.3218369407425001E-2</v>
       </c>
       <c r="E12" s="1">
         <f>[1]aggregated_efficiencies!E12</f>
-        <v>1.7603654566684598E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+        <v>2.7572911738647302E-2</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1">
         <f>[1]aggregated_efficiencies!B13</f>
-        <v>0.39658134311244198</v>
+        <v>0.407819978010446</v>
       </c>
       <c r="C13" s="1">
         <f>[1]aggregated_efficiencies!C13</f>
-        <v>0.39200968167748201</v>
+        <v>0.40503995076419602</v>
       </c>
       <c r="D13" s="1">
         <f>[1]aggregated_efficiencies!D13</f>
-        <v>0.32717810163598399</v>
+        <v>9.4142860746413398E-2</v>
       </c>
       <c r="E13" s="1">
         <f>[1]aggregated_efficiencies!E13</f>
-        <v>0.83703591403171296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+        <v>0.83393008435898797</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1">
@@ -2867,18 +2889,18 @@
       </c>
       <c r="D14" s="1">
         <f>[1]aggregated_efficiencies!D14</f>
-        <v>-1.6672958411626399E-4</v>
+        <v>-1.4670722078031799E-18</v>
       </c>
       <c r="E14" s="1">
         <f>[1]aggregated_efficiencies!E14</f>
-        <v>-4.4308280877504303E-5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+        <v>-2.7798025027133999E-18</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1">
@@ -2891,51 +2913,63 @@
       </c>
       <c r="D15" s="1">
         <f>[1]aggregated_efficiencies!D15</f>
-        <v>6.9600335543390799E-3</v>
+        <v>2.5798387816883699E-3</v>
       </c>
       <c r="E15" s="1">
         <f>[1]aggregated_efficiencies!E15</f>
-        <v>3.5602500476306599E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+        <v>4.5325163848320797E-3</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1">
         <f>[1]aggregated_efficiencies!B16</f>
-        <v>0.828836267928038</v>
+        <v>0.827175895123474</v>
       </c>
       <c r="C16" s="1">
         <f>[1]aggregated_efficiencies!C16</f>
-        <v>0.828836267928038</v>
+        <v>0.827175895123474</v>
       </c>
       <c r="D16" s="1">
         <f>[1]aggregated_efficiencies!D16</f>
-        <v>0.12926349313616201</v>
+        <v>3.8689961612392902E-2</v>
       </c>
       <c r="E16" s="1">
         <f>[1]aggregated_efficiencies!E16</f>
-        <v>2.46751442656559E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.4365068161228302E-2</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2">
         <f>SUM(E4:E16)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+        <v>0.99999999999999911</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18">
+        <f>[1]aggregated_efficiencies!$E$18</f>
+        <v>0.147791498751281</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="1">
@@ -2948,15 +2982,16 @@
       </c>
       <c r="D19" s="1">
         <f>[1]aggregated_efficiencies!D19</f>
-        <v>0.16563036092136099</v>
+        <v>5.3253186248289397E-2</v>
       </c>
       <c r="E19" s="1">
         <f>[1]aggregated_efficiencies!E19</f>
-        <v>2.53753003028616E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+        <v>2.46069005863979E-2</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="1">
@@ -2965,19 +3000,20 @@
       </c>
       <c r="C20" s="1">
         <f>[1]aggregated_efficiencies!C20</f>
-        <v>0.90174943654317097</v>
+        <v>0.90182676457467204</v>
       </c>
       <c r="D20" s="1">
         <f>[1]aggregated_efficiencies!D20</f>
-        <v>4.4224531319005098E-2</v>
+        <v>1.41996168562723E-2</v>
       </c>
       <c r="E20" s="1">
         <f>[1]aggregated_efficiencies!E20</f>
-        <v>2.5745763365816399E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+        <v>2.4895150210739101E-2</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="1">
@@ -2990,18 +3026,18 @@
       </c>
       <c r="D21" s="1">
         <f>[1]aggregated_efficiencies!D21</f>
-        <v>-1.10549554708784E-18</v>
+        <v>-3.5785009074963398E-19</v>
       </c>
       <c r="E21" s="1">
         <f>[1]aggregated_efficiencies!E21</f>
-        <v>-2.5090760227477701E-20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+        <v>-6.1056834248150401E-20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="1">
@@ -3014,15 +3050,16 @@
       </c>
       <c r="D22" s="1">
         <f>[1]aggregated_efficiencies!D22</f>
-        <v>5.8995158552572001E-2</v>
+        <v>1.9139237443560001E-2</v>
       </c>
       <c r="E22" s="1">
         <f>[1]aggregated_efficiencies!E22</f>
-        <v>3.0750529036707001E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+        <v>3.03482238233003E-2</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="1">
@@ -3035,15 +3072,16 @@
       </c>
       <c r="D23" s="1">
         <f>[1]aggregated_efficiencies!D23</f>
-        <v>6.1551300054422498E-2</v>
+        <v>1.9789867192155301E-2</v>
       </c>
       <c r="E23" s="1">
         <f>[1]aggregated_efficiencies!E23</f>
-        <v>2.0205266401874099E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+        <v>1.96433072729091E-3</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="1">
@@ -3052,19 +3090,20 @@
       </c>
       <c r="C24" s="1">
         <f>[1]aggregated_efficiencies!C24</f>
-        <v>0.92052538042828702</v>
+        <v>0.90961216623246099</v>
       </c>
       <c r="D24" s="1">
         <f>[1]aggregated_efficiencies!D24</f>
-        <v>2.8698762873816501E-3</v>
+        <v>8.3360854372329404E-4</v>
       </c>
       <c r="E24" s="1">
         <f>[1]aggregated_efficiencies!E24</f>
-        <v>1.5874416939914099E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+        <v>1.4570935612098299E-3</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="1">
@@ -3073,19 +3112,20 @@
       </c>
       <c r="C25" s="1">
         <f>[1]aggregated_efficiencies!C25</f>
-        <v>0.54794396472321705</v>
+        <v>0.534243405836897</v>
       </c>
       <c r="D25" s="1">
         <f>[1]aggregated_efficiencies!D25</f>
-        <v>2.6149760313353799E-2</v>
+        <v>9.8803238208698494E-3</v>
       </c>
       <c r="E25" s="1">
         <f>[1]aggregated_efficiencies!E25</f>
-        <v>3.7918125259603398E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+        <v>4.5861889375341004E-3</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="1">
@@ -3094,19 +3134,20 @@
       </c>
       <c r="C26" s="1">
         <f>[1]aggregated_efficiencies!C26</f>
-        <v>0.58418945401170796</v>
+        <v>0.58133456113481297</v>
       </c>
       <c r="D26" s="1">
         <f>[1]aggregated_efficiencies!D26</f>
-        <v>0.105234834908589</v>
+        <v>2.7042558620338299E-2</v>
       </c>
       <c r="E26" s="1">
         <f>[1]aggregated_efficiencies!E26</f>
-        <v>2.18520208627461E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+        <v>1.6666553435615999E-2</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="1">
@@ -3115,40 +3156,42 @@
       </c>
       <c r="C27" s="1">
         <f>[1]aggregated_efficiencies!C27</f>
-        <v>0.65540977621519503</v>
+        <v>0.65964880643895396</v>
       </c>
       <c r="D27" s="1">
         <f>[1]aggregated_efficiencies!D27</f>
-        <v>3.3826543666356498E-2</v>
+        <v>1.4933405538056801E-2</v>
       </c>
       <c r="E27" s="1">
         <f>[1]aggregated_efficiencies!E27</f>
-        <v>1.8062067554594802E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+        <v>2.6189249018507402E-2</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="1">
         <f>[1]aggregated_efficiencies!B28</f>
-        <v>0.402797977328955</v>
+        <v>0.41268886926697701</v>
       </c>
       <c r="C28" s="1">
         <f>[1]aggregated_efficiencies!C28</f>
-        <v>0.39879766441421199</v>
+        <v>0.41046379603357402</v>
       </c>
       <c r="D28" s="1">
         <f>[1]aggregated_efficiencies!D28</f>
-        <v>0.324155929790026</v>
+        <v>0.101660200621878</v>
       </c>
       <c r="E28" s="1">
         <f>[1]aggregated_efficiencies!E28</f>
-        <v>0.80146039047756601</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+        <v>0.80014283702738798</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="1">
@@ -3161,18 +3204,18 @@
       </c>
       <c r="D29" s="1">
         <f>[1]aggregated_efficiencies!D29</f>
-        <v>-3.3672407372030601E-18</v>
+        <v>-8.0096360612846802E-19</v>
       </c>
       <c r="E29" s="1">
         <f>[1]aggregated_efficiencies!E29</f>
-        <v>-1.7389524473446699E-18</v>
-      </c>
-      <c r="F29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+        <v>-1.1326392345135699E-18</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="1">
@@ -3185,36 +3228,38 @@
       </c>
       <c r="D30" s="1">
         <f>[1]aggregated_efficiencies!D30</f>
-        <v>7.83293896761624E-3</v>
+        <v>3.15374463576538E-3</v>
       </c>
       <c r="E30" s="1">
         <f>[1]aggregated_efficiencies!E30</f>
-        <v>3.5125986248631599E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+        <v>4.5708385349320499E-3</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="1">
         <f>[1]aggregated_efficiencies!B31</f>
-        <v>0.82380353322411803</v>
+        <v>0.82209241610055905</v>
       </c>
       <c r="C31" s="1">
         <f>[1]aggregated_efficiencies!C31</f>
-        <v>0.82380353322411803</v>
+        <v>0.82209241610055905</v>
       </c>
       <c r="D31" s="1">
         <f>[1]aggregated_efficiencies!D31</f>
-        <v>0.13305434440781599</v>
+        <v>4.3195168399227803E-2</v>
       </c>
       <c r="E31" s="1">
         <f>[1]aggregated_efficiencies!E31</f>
-        <v>2.2891125655553499E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+        <v>2.2533399765847301E-2</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="1">
@@ -3223,34 +3268,45 @@
       </c>
       <c r="C32" s="1">
         <f>[1]aggregated_efficiencies!C32</f>
-        <v>0.68018553124771997</v>
+        <v>0.68018412871031897</v>
       </c>
       <c r="D32" s="1">
         <f>[1]aggregated_efficiencies!D32</f>
-        <v>0.14007907581454801</v>
+        <v>4.5042227719889798E-2</v>
       </c>
       <c r="E32" s="1">
         <f>[1]aggregated_efficiencies!E32</f>
-        <v>4.2950423259148898E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.2039234371232102E-2</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="2">
         <f>SUM(E19:E32)</f>
-        <v>0.99999999999999667</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+        <v>0.999999999999995</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34">
+        <f>[1]aggregated_efficiencies!$E$34</f>
+        <v>0.15351232774953399</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="1">
@@ -3263,15 +3319,16 @@
       </c>
       <c r="D35" s="1">
         <f>[1]aggregated_efficiencies!D35</f>
-        <v>0.16477476279978201</v>
+        <v>5.4694499604003001E-2</v>
       </c>
       <c r="E35" s="1">
         <f>[1]aggregated_efficiencies!E35</f>
-        <v>2.45064934622987E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+        <v>2.3825313789830101E-2</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="1">
@@ -3280,19 +3337,20 @@
       </c>
       <c r="C36" s="1">
         <f>[1]aggregated_efficiencies!C36</f>
-        <v>0.90881266675366301</v>
+        <v>0.90888893826730199</v>
       </c>
       <c r="D36" s="1">
         <f>[1]aggregated_efficiencies!D36</f>
-        <v>4.2708404372307399E-2</v>
+        <v>1.41567148165135E-2</v>
       </c>
       <c r="E36" s="1">
         <f>[1]aggregated_efficiencies!E36</f>
-        <v>2.3342057204428699E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+        <v>2.2599476943378001E-2</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="1">
@@ -3305,18 +3363,18 @@
       </c>
       <c r="D37" s="1">
         <f>[1]aggregated_efficiencies!D37</f>
-        <v>2.4263227081661999E-19</v>
+        <v>-1.85072029441627E-20</v>
       </c>
       <c r="E37" s="1">
         <f>[1]aggregated_efficiencies!E37</f>
-        <v>1.26873791506552E-19</v>
-      </c>
-      <c r="F37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+        <v>-2.51413326556697E-20</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="1">
@@ -3329,15 +3387,16 @@
       </c>
       <c r="D38" s="1">
         <f>[1]aggregated_efficiencies!D38</f>
-        <v>5.3305453422244201E-2</v>
+        <v>1.7852253031536699E-2</v>
       </c>
       <c r="E38" s="1">
         <f>[1]aggregated_efficiencies!E38</f>
-        <v>2.56843355431709E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+        <v>2.5396183578123201E-2</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="1">
@@ -3350,15 +3409,16 @@
       </c>
       <c r="D39" s="1">
         <f>[1]aggregated_efficiencies!D39</f>
-        <v>0.13322109204361299</v>
+        <v>4.4001979406521098E-2</v>
       </c>
       <c r="E39" s="1">
         <f>[1]aggregated_efficiencies!E39</f>
-        <v>1.6757908456823301E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+        <v>1.65222285299115E-3</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="1">
@@ -3367,19 +3427,20 @@
       </c>
       <c r="C40" s="1">
         <f>[1]aggregated_efficiencies!C40</f>
-        <v>0.90976815443250603</v>
+        <v>0.89874758132605104</v>
       </c>
       <c r="D40" s="1">
         <f>[1]aggregated_efficiencies!D40</f>
-        <v>3.2598551719184702E-3</v>
+        <v>9.7416427246383298E-4</v>
       </c>
       <c r="E40" s="1">
         <f>[1]aggregated_efficiencies!E40</f>
-        <v>1.8421590876705799E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+        <v>1.68507784688584E-3</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="1">
@@ -3388,19 +3449,20 @@
       </c>
       <c r="C41" s="1">
         <f>[1]aggregated_efficiencies!C41</f>
-        <v>0.55439132923964396</v>
+        <v>0.53945066755204496</v>
       </c>
       <c r="D41" s="1">
         <f>[1]aggregated_efficiencies!D41</f>
-        <v>2.17981075924835E-2</v>
+        <v>8.7125692414591407E-3</v>
       </c>
       <c r="E41" s="1">
         <f>[1]aggregated_efficiencies!E41</f>
-        <v>3.4940302506386201E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+        <v>4.3476015940820401E-3</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="1">
@@ -3409,19 +3471,20 @@
       </c>
       <c r="C42" s="1">
         <f>[1]aggregated_efficiencies!C42</f>
-        <v>0.58405673147175796</v>
+        <v>0.58451739323443297</v>
       </c>
       <c r="D42" s="1">
         <f>[1]aggregated_efficiencies!D42</f>
-        <v>0.11055688266503801</v>
+        <v>2.8744151382956998E-2</v>
       </c>
       <c r="E42" s="1">
         <f>[1]aggregated_efficiencies!E42</f>
-        <v>2.41190687647528E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+        <v>1.7964034459072301E-2</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="1">
@@ -3430,40 +3493,42 @@
       </c>
       <c r="C43" s="1">
         <f>[1]aggregated_efficiencies!C43</f>
-        <v>0.64621612048578603</v>
+        <v>0.65073925658143095</v>
       </c>
       <c r="D43" s="1">
         <f>[1]aggregated_efficiencies!D43</f>
-        <v>3.73856435747663E-2</v>
+        <v>1.7070277557748901E-2</v>
       </c>
       <c r="E43" s="1">
         <f>[1]aggregated_efficiencies!E43</f>
-        <v>2.0227632568520101E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+        <v>2.9723346640945301E-2</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B44" s="1">
         <f>[1]aggregated_efficiencies!B44</f>
-        <v>0.40078695018449201</v>
+        <v>0.41105278037299198</v>
       </c>
       <c r="C44" s="1">
         <f>[1]aggregated_efficiencies!C44</f>
-        <v>0.39675917220326901</v>
+        <v>0.408809071374439</v>
       </c>
       <c r="D44" s="1">
         <f>[1]aggregated_efficiencies!D44</f>
-        <v>0.33514825859296299</v>
+        <v>0.108154471824605</v>
       </c>
       <c r="E44" s="1">
         <f>[1]aggregated_efficiencies!E44</f>
-        <v>0.81300174443680095</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+        <v>0.81138000033809099</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="1">
@@ -3476,18 +3541,18 @@
       </c>
       <c r="D45" s="1">
         <f>[1]aggregated_efficiencies!D45</f>
-        <v>-1.1241423716253801E-3</v>
+        <v>-2.5796499256653798E-4</v>
       </c>
       <c r="E45" s="1">
         <f>[1]aggregated_efficiencies!E45</f>
-        <v>9.7957706915115499E-4</v>
-      </c>
-      <c r="F45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+        <v>5.9586795808796298E-5</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B46" s="1">
@@ -3500,36 +3565,38 @@
       </c>
       <c r="D46" s="1">
         <f>[1]aggregated_efficiencies!D46</f>
-        <v>7.6527083359639401E-3</v>
+        <v>3.22931756437896E-3</v>
       </c>
       <c r="E46" s="1">
         <f>[1]aggregated_efficiencies!E46</f>
-        <v>3.5174789934998298E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+        <v>4.7095803804934203E-3</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="1">
         <f>[1]aggregated_efficiencies!B47</f>
-        <v>0.82350811087605602</v>
+        <v>0.82175629525349603</v>
       </c>
       <c r="C47" s="1">
         <f>[1]aggregated_efficiencies!C47</f>
-        <v>0.82350811087605602</v>
+        <v>0.82175629525349603</v>
       </c>
       <c r="D47" s="1">
         <f>[1]aggregated_efficiencies!D47</f>
-        <v>0.13319238712053999</v>
+        <v>4.4650499365633499E-2</v>
       </c>
       <c r="E47" s="1">
         <f>[1]aggregated_efficiencies!E47</f>
-        <v>2.1923800792276599E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+        <v>2.1643936207587498E-2</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="1">
@@ -3538,34 +3605,41 @@
       </c>
       <c r="C48" s="1">
         <f>[1]aggregated_efficiencies!C48</f>
-        <v>0.68609747045844105</v>
+        <v>0.68609614196705604</v>
       </c>
       <c r="D48" s="1">
         <f>[1]aggregated_efficiencies!D48</f>
-        <v>0.12829156017073801</v>
+        <v>4.2588652649736797E-2</v>
       </c>
       <c r="E48" s="1">
         <f>[1]aggregated_efficiencies!E48</f>
-        <v>3.5685830981105102E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.5013638572716499E-2</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
       <c r="E49" s="2">
         <f>SUM(E35:E48)</f>
-        <v>0.99999999999999645</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+        <v>1.0000000000000051</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B51" s="1">
@@ -3578,15 +3652,16 @@
       </c>
       <c r="D51" s="1">
         <f>[1]aggregated_efficiencies!D51</f>
-        <v>0.16042956777988401</v>
+        <v>4.9122398193789399E-2</v>
       </c>
       <c r="E51" s="1">
         <f>[1]aggregated_efficiencies!E51</f>
-        <v>2.7080922959916199E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+        <v>2.6324406008447401E-2</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B52" s="1">
@@ -3595,19 +3670,20 @@
       </c>
       <c r="C52" s="1">
         <f>[1]aggregated_efficiencies!C52</f>
-        <v>0.90035364756918101</v>
+        <v>0.90043152419070405</v>
       </c>
       <c r="D52" s="1">
         <f>[1]aggregated_efficiencies!D52</f>
-        <v>4.71832463137285E-2</v>
+        <v>1.44280006572505E-2</v>
       </c>
       <c r="E52" s="1">
         <f>[1]aggregated_efficiencies!E52</f>
-        <v>2.83516914358505E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+        <v>2.7475595686020701E-2</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="1">
@@ -3620,18 +3696,18 @@
       </c>
       <c r="D53" s="1">
         <f>[1]aggregated_efficiencies!D53</f>
-        <v>-1.04327765367597E-18</v>
+        <v>-4.46793442981577E-20</v>
       </c>
       <c r="E53" s="1">
         <f>[1]aggregated_efficiencies!E53</f>
-        <v>-8.7663549258563403E-20</v>
-      </c>
-      <c r="F53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+        <v>-3.2638684136759502E-20</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B54" s="1">
@@ -3644,15 +3720,16 @@
       </c>
       <c r="D54" s="1">
         <f>[1]aggregated_efficiencies!D54</f>
-        <v>4.5033394094508898E-2</v>
+        <v>1.39101828161551E-2</v>
       </c>
       <c r="E54" s="1">
         <f>[1]aggregated_efficiencies!E54</f>
-        <v>2.4452549261312299E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+        <v>2.4161866180615301E-2</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B55" s="1">
@@ -3665,15 +3742,16 @@
       </c>
       <c r="D55" s="1">
         <f>[1]aggregated_efficiencies!D55</f>
-        <v>0.16462142210473699</v>
+        <v>5.0351601120823999E-2</v>
       </c>
       <c r="E55" s="1">
         <f>[1]aggregated_efficiencies!E55</f>
-        <v>1.14704305246796E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+        <v>1.1569318990406201E-3</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="1">
@@ -3682,19 +3760,20 @@
       </c>
       <c r="C56" s="1">
         <f>[1]aggregated_efficiencies!C56</f>
-        <v>0.89110967152204101</v>
+        <v>0.87869084072333703</v>
       </c>
       <c r="D56" s="1">
         <f>[1]aggregated_efficiencies!D56</f>
-        <v>4.0246083724618797E-3</v>
+        <v>1.10105521612523E-3</v>
       </c>
       <c r="E56" s="1">
         <f>[1]aggregated_efficiencies!E56</f>
-        <v>2.4921457413064701E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+        <v>2.26191241174623E-3</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B57" s="1">
@@ -3703,19 +3782,20 @@
       </c>
       <c r="C57" s="1">
         <f>[1]aggregated_efficiencies!C57</f>
-        <v>0.54384839332475299</v>
+        <v>0.52733643213015002</v>
       </c>
       <c r="D57" s="1">
         <f>[1]aggregated_efficiencies!D57</f>
-        <v>2.3923771498136098E-2</v>
+        <v>8.9392136356594293E-3</v>
       </c>
       <c r="E57" s="1">
         <f>[1]aggregated_efficiencies!E57</f>
-        <v>4.21720459048974E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+        <v>5.32011871505056E-3</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B58" s="1">
@@ -3724,19 +3804,20 @@
       </c>
       <c r="C58" s="1">
         <f>[1]aggregated_efficiencies!C58</f>
-        <v>0.57816998436545097</v>
+        <v>0.578923565728925</v>
       </c>
       <c r="D58" s="1">
         <f>[1]aggregated_efficiencies!D58</f>
-        <v>0.104671314157607</v>
+        <v>2.4498776323968099E-2</v>
       </c>
       <c r="E58" s="1">
         <f>[1]aggregated_efficiencies!E58</f>
-        <v>2.3489444912154302E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+        <v>1.70485323080115E-2</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B59" s="1">
@@ -3745,40 +3826,42 @@
       </c>
       <c r="C59" s="1">
         <f>[1]aggregated_efficiencies!C59</f>
-        <v>0.64561739930606399</v>
+        <v>0.65002231987146097</v>
       </c>
       <c r="D59" s="1">
         <f>[1]aggregated_efficiencies!D59</f>
-        <v>3.1670490269972602E-2</v>
+        <v>1.40418692413713E-2</v>
       </c>
       <c r="E59" s="1">
         <f>[1]aggregated_efficiencies!E59</f>
-        <v>1.8445903421154101E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+        <v>2.83805667682322E-2</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B60" s="1">
         <f>[1]aggregated_efficiencies!B60</f>
-        <v>0.39835921105315297</v>
+        <v>0.409351769979304</v>
       </c>
       <c r="C60" s="1">
         <f>[1]aggregated_efficiencies!C60</f>
-        <v>0.39305810716899803</v>
+        <v>0.40587989993453499</v>
       </c>
       <c r="D60" s="1">
         <f>[1]aggregated_efficiencies!D60</f>
-        <v>0.33216074204917301</v>
+        <v>9.8708178617943607E-2</v>
       </c>
       <c r="E60" s="1">
         <f>[1]aggregated_efficiencies!E60</f>
-        <v>0.84334639462857397</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+        <v>0.84018982416819199</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B61" s="1">
@@ -3791,18 +3874,18 @@
       </c>
       <c r="D61" s="1">
         <f>[1]aggregated_efficiencies!D61</f>
-        <v>-9.0062719149137395E-4</v>
+        <v>-1.0684934412640899E-3</v>
       </c>
       <c r="E61" s="1">
         <f>[1]aggregated_efficiencies!E61</f>
-        <v>3.3398667264291103E-4</v>
-      </c>
-      <c r="F61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+        <v>-1.3655824665341999E-4</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B62" s="1">
@@ -3815,51 +3898,59 @@
       </c>
       <c r="D62" s="1">
         <f>[1]aggregated_efficiencies!D62</f>
-        <v>6.8718168768462798E-3</v>
+        <v>2.7235264373745099E-3</v>
       </c>
       <c r="E62" s="1">
         <f>[1]aggregated_efficiencies!E62</f>
-        <v>3.3721116473789101E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+        <v>4.8266971457645701E-3</v>
+      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B63" s="1">
         <f>[1]aggregated_efficiencies!B63</f>
-        <v>0.83257637769533999</v>
+        <v>0.83084358573066497</v>
       </c>
       <c r="C63" s="1">
         <f>[1]aggregated_efficiencies!C63</f>
-        <v>0.83257637769533999</v>
+        <v>0.83084358573066497</v>
       </c>
       <c r="D63" s="1">
         <f>[1]aggregated_efficiencies!D63</f>
-        <v>0.126499552463504</v>
+        <v>3.9134405118848997E-2</v>
       </c>
       <c r="E63" s="1">
         <f>[1]aggregated_efficiencies!E63</f>
-        <v>2.32706016767509E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.2990106955528701E-2</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="2">
         <f>SUM(E51:E63)</f>
-        <v>0.99999999999999833</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+        <v>0.99999999999999645</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B66" s="1">
@@ -3872,36 +3963,38 @@
       </c>
       <c r="D66" s="1">
         <f>[1]aggregated_efficiencies!D66</f>
-        <v>0.20239702019929301</v>
+        <v>0.1086844272851</v>
       </c>
       <c r="E66" s="1">
         <f>[1]aggregated_efficiencies!E66</f>
-        <v>9.9409072400829697E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+        <v>2.17210615931815E-2</v>
+      </c>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="3">
         <f>[1]aggregated_efficiencies!B67</f>
         <v>1</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="3">
         <f>[1]aggregated_efficiencies!C67</f>
         <v>1.00967366877396</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="3">
         <f>[1]aggregated_efficiencies!D67</f>
-        <v>-4.6543905259108396E-3</v>
-      </c>
-      <c r="E67" s="1">
+        <v>-2.4993439536397902E-3</v>
+      </c>
+      <c r="E67" s="3">
         <f>[1]aggregated_efficiencies!E67</f>
-        <v>3.9802085550371201E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+        <v>2.6870917073698502E-3</v>
+      </c>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B68" s="1">
@@ -3920,12 +4013,12 @@
         <f>[1]aggregated_efficiencies!E68</f>
         <v>0</v>
       </c>
-      <c r="F68" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="G68" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B69" s="1">
@@ -3938,15 +4031,16 @@
       </c>
       <c r="D69" s="1">
         <f>[1]aggregated_efficiencies!D69</f>
-        <v>-2.37311861240199E-18</v>
+        <v>-1.27572463755799E-18</v>
       </c>
       <c r="E69" s="1">
         <f>[1]aggregated_efficiencies!E69</f>
-        <v>-1.4103173294119699E-18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+        <v>-1.4190343584520899E-18</v>
+      </c>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B70" s="1">
@@ -3957,17 +4051,18 @@
         <f>[1]aggregated_efficiencies!C70</f>
         <v>0</v>
       </c>
-      <c r="D70" s="1" t="str">
+      <c r="D70" s="1">
         <f>[1]aggregated_efficiencies!D70</f>
-        <v>nan</v>
+        <v>0</v>
       </c>
       <c r="E70" s="1">
         <f>[1]aggregated_efficiencies!E70</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B71" s="1">
@@ -3976,19 +4071,20 @@
       </c>
       <c r="C71" s="1">
         <f>[1]aggregated_efficiencies!C71</f>
-        <v>0.95779179752740395</v>
+        <v>0.96287343659985303</v>
       </c>
       <c r="D71" s="1">
         <f>[1]aggregated_efficiencies!D71</f>
-        <v>3.4773756651104303E-4</v>
+        <v>1.7474539762132001E-4</v>
       </c>
       <c r="E71" s="1">
         <f>[1]aggregated_efficiencies!E71</f>
-        <v>1.7784750820190999E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+        <v>1.6874194328699501E-4</v>
+      </c>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B72" s="1">
@@ -4001,15 +4097,16 @@
       </c>
       <c r="D72" s="1">
         <f>[1]aggregated_efficiencies!D72</f>
-        <v>1.05216050287182E-2</v>
+        <v>5.6499577688459701E-3</v>
       </c>
       <c r="E72" s="1">
         <f>[1]aggregated_efficiencies!E72</f>
-        <v>1.8720241671323799E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+        <v>1.88445699230908E-3</v>
+      </c>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="1">
@@ -4018,19 +4115,20 @@
       </c>
       <c r="C73" s="1">
         <f>[1]aggregated_efficiencies!C73</f>
-        <v>0.70821674339714002</v>
+        <v>0.705509778967357</v>
       </c>
       <c r="D73" s="1">
         <f>[1]aggregated_efficiencies!D73</f>
-        <v>6.5150302118705802E-2</v>
+        <v>2.7889354344402199E-2</v>
       </c>
       <c r="E73" s="1">
         <f>[1]aggregated_efficiencies!E73</f>
-        <v>1.83584284350959E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+        <v>1.3065104203930001E-2</v>
+      </c>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B74" s="1">
@@ -4039,40 +4137,42 @@
       </c>
       <c r="C74" s="1">
         <f>[1]aggregated_efficiencies!C74</f>
-        <v>0.66846309278995997</v>
+        <v>0.67188098424797704</v>
       </c>
       <c r="D74" s="1">
         <f>[1]aggregated_efficiencies!D74</f>
-        <v>3.6919778411927798E-2</v>
+        <v>2.4890078265666998E-2</v>
       </c>
       <c r="E74" s="1">
         <f>[1]aggregated_efficiencies!E74</f>
-        <v>2.1000706401438099E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+        <v>2.76990600368766E-2</v>
+      </c>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B75" s="1">
         <f>[1]aggregated_efficiencies!B75</f>
-        <v>0.37928169666585199</v>
+        <v>0.378075308708889</v>
       </c>
       <c r="C75" s="1">
         <f>[1]aggregated_efficiencies!C75</f>
-        <v>0.37841397004065902</v>
+        <v>0.37860846312165902</v>
       </c>
       <c r="D75" s="1">
         <f>[1]aggregated_efficiencies!D75</f>
-        <v>0.335530754319251</v>
+        <v>0.177714704895305</v>
       </c>
       <c r="E75" s="1">
         <f>[1]aggregated_efficiencies!E75</f>
-        <v>0.81768132407136396</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+        <v>0.81130510403772005</v>
+      </c>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B76" s="1">
@@ -4085,18 +4185,18 @@
       </c>
       <c r="D76" s="1">
         <f>[1]aggregated_efficiencies!D76</f>
-        <v>-7.8349738547034496E-4</v>
+        <v>-2.0054471276672202E-3</v>
       </c>
       <c r="E76" s="1">
         <f>[1]aggregated_efficiencies!E76</f>
-        <v>4.7856768806009602E-3</v>
-      </c>
-      <c r="F76" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+        <v>-6.7569978594543402E-5</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B77" s="1">
@@ -4109,15 +4209,16 @@
       </c>
       <c r="D77" s="1">
         <f>[1]aggregated_efficiencies!D77</f>
-        <v>7.5013329347316396E-3</v>
+        <v>5.5737899579150303E-3</v>
       </c>
       <c r="E77" s="1">
         <f>[1]aggregated_efficiencies!E77</f>
-        <v>3.7156145568225198E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+        <v>5.1292468470883201E-3</v>
+      </c>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B78" s="1">
@@ -4130,15 +4231,16 @@
       </c>
       <c r="D78" s="1">
         <f>[1]aggregated_efficiencies!D78</f>
-        <v>0.17783428025224601</v>
+        <v>9.5494572409425396E-2</v>
       </c>
       <c r="E78" s="1">
         <f>[1]aggregated_efficiencies!E78</f>
-        <v>-4.1319781570034898E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+        <v>3.1044387971429801E-2</v>
+      </c>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B79" s="1">
@@ -4151,15 +4253,16 @@
       </c>
       <c r="D79" s="1">
         <f>[1]aggregated_efficiencies!D79</f>
-        <v>0.14817138512359501</v>
+        <v>7.9566004066369198E-2</v>
       </c>
       <c r="E79" s="1">
         <f>[1]aggregated_efficiencies!E79</f>
-        <v>4.9866766415563799E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+        <v>4.6429045755112398E-2</v>
+      </c>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B80" s="1">
@@ -4172,30 +4275,37 @@
       </c>
       <c r="D80" s="1">
         <f>[1]aggregated_efficiencies!D80</f>
-        <v>4.6146997070026702E-2</v>
+        <v>2.4780305275959501E-2</v>
       </c>
       <c r="E80" s="1">
         <f>[1]aggregated_efficiencies!E80</f>
-        <v>3.6930596930326597E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.8934268890285402E-2</v>
+      </c>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
       <c r="E81" s="2">
         <f>SUM(E66:E80)</f>
-        <v>0.99999999999999678</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+        <v>0.99999999999999545</v>
+      </c>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B83" s="1">
@@ -4208,15 +4318,16 @@
       </c>
       <c r="D83" s="1">
         <f>[1]aggregated_efficiencies!D83</f>
-        <v>0.174957821105893</v>
+        <v>7.4461928828544299E-2</v>
       </c>
       <c r="E83" s="1">
         <f>[1]aggregated_efficiencies!E83</f>
-        <v>2.3389082048198701E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+        <v>2.41418068738673E-2</v>
+      </c>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B84" s="1">
@@ -4229,15 +4340,16 @@
       </c>
       <c r="D84" s="1">
         <f>[1]aggregated_efficiencies!D84</f>
-        <v>4.5639379641259699E-2</v>
+        <v>1.9424088715471001E-2</v>
       </c>
       <c r="E84" s="1">
         <f>[1]aggregated_efficiencies!E84</f>
-        <v>2.7240565388192601E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+        <v>2.70581866404166E-2</v>
+      </c>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B85" s="1">
@@ -4256,12 +4368,12 @@
         <f>[1]aggregated_efficiencies!E85</f>
         <v>0</v>
       </c>
-      <c r="F85" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="G85" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B86" s="1">
@@ -4274,15 +4386,16 @@
       </c>
       <c r="D86" s="1">
         <f>[1]aggregated_efficiencies!D86</f>
-        <v>-9.4487191877585004E-19</v>
+        <v>-4.1206635360920499E-19</v>
       </c>
       <c r="E86" s="1">
         <f>[1]aggregated_efficiencies!E86</f>
-        <v>-6.7084579090160404E-19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+        <v>-6.8226215894336397E-19</v>
+      </c>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B87" s="1">
@@ -4293,17 +4406,18 @@
         <f>[1]aggregated_efficiencies!C87</f>
         <v>0</v>
       </c>
-      <c r="D87" s="1" t="str">
+      <c r="D87" s="1">
         <f>[1]aggregated_efficiencies!D87</f>
-        <v>nan</v>
+        <v>0</v>
       </c>
       <c r="E87" s="1">
         <f>[1]aggregated_efficiencies!E87</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B88" s="1">
@@ -4312,19 +4426,20 @@
       </c>
       <c r="C88" s="1">
         <f>[1]aggregated_efficiencies!C88</f>
-        <v>0.93917494114830102</v>
+        <v>0.94400053836846898</v>
       </c>
       <c r="D88" s="1">
         <f>[1]aggregated_efficiencies!D88</f>
-        <v>6.20297425257971E-4</v>
+        <v>2.4927374046927303E-4</v>
       </c>
       <c r="E88" s="1">
         <f>[1]aggregated_efficiencies!E88</f>
-        <v>3.2902186551311499E-4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+        <v>3.1571323040184898E-4</v>
+      </c>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B89" s="1">
@@ -4337,15 +4452,16 @@
       </c>
       <c r="D89" s="1">
         <f>[1]aggregated_efficiencies!D89</f>
-        <v>1.4653530937742E-2</v>
+        <v>6.23629251244641E-3</v>
       </c>
       <c r="E89" s="1">
         <f>[1]aggregated_efficiencies!E89</f>
-        <v>2.7979841997583499E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+        <v>2.81690545007552E-3</v>
+      </c>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B90" s="1">
@@ -4354,19 +4470,20 @@
       </c>
       <c r="C90" s="1">
         <f>[1]aggregated_efficiencies!C90</f>
-        <v>0.70584836650325999</v>
+        <v>0.70356516819965798</v>
       </c>
       <c r="D90" s="1">
         <f>[1]aggregated_efficiencies!D90</f>
-        <v>5.5192426821922401E-2</v>
+        <v>1.8760236050816399E-2</v>
       </c>
       <c r="E90" s="1">
         <f>[1]aggregated_efficiencies!E90</f>
-        <v>1.3478741735930701E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+        <v>1.0029979208444E-2</v>
+      </c>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B91" s="1">
@@ -4375,40 +4492,42 @@
       </c>
       <c r="C91" s="1">
         <f>[1]aggregated_efficiencies!C91</f>
-        <v>0.64170352813846998</v>
+        <v>0.64407787010245998</v>
       </c>
       <c r="D91" s="1">
         <f>[1]aggregated_efficiencies!D91</f>
-        <v>3.6505569549735599E-2</v>
+        <v>1.8934491317799299E-2</v>
       </c>
       <c r="E91" s="1">
         <f>[1]aggregated_efficiencies!E91</f>
-        <v>1.84867923109449E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+        <v>2.3567813879687202E-2</v>
+      </c>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B92" s="1">
         <f>[1]aggregated_efficiencies!B92</f>
-        <v>0.380160360917494</v>
+        <v>0.37899561189457298</v>
       </c>
       <c r="C92" s="1">
         <f>[1]aggregated_efficiencies!C92</f>
-        <v>0.376137792726562</v>
+        <v>0.37643993694957201</v>
       </c>
       <c r="D92" s="1">
         <f>[1]aggregated_efficiencies!D92</f>
-        <v>0.33213537848980101</v>
+        <v>0.13983876567894901</v>
       </c>
       <c r="E92" s="1">
         <f>[1]aggregated_efficiencies!E92</f>
-        <v>0.824870853624037</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+        <v>0.82309548839799296</v>
+      </c>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B93" s="1">
@@ -4421,18 +4540,18 @@
       </c>
       <c r="D93" s="1">
         <f>[1]aggregated_efficiencies!D93</f>
-        <v>-1.34533394411626E-3</v>
+        <v>-2.0424922478728398E-3</v>
       </c>
       <c r="E93" s="1">
         <f>[1]aggregated_efficiencies!E93</f>
-        <v>1.14769018830138E-3</v>
-      </c>
-      <c r="F93" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+        <v>-1.6662420068111099E-3</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B94" s="1">
@@ -4445,15 +4564,16 @@
       </c>
       <c r="D94" s="1">
         <f>[1]aggregated_efficiencies!D94</f>
-        <v>6.3133457590936904E-3</v>
+        <v>3.2424521885407401E-3</v>
       </c>
       <c r="E94" s="1">
         <f>[1]aggregated_efficiencies!E94</f>
-        <v>2.8488814367789599E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+        <v>4.3602602964488198E-3</v>
+      </c>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B95" s="1">
@@ -4466,15 +4586,16 @@
       </c>
       <c r="D95" s="1">
         <f>[1]aggregated_efficiencies!D95</f>
-        <v>-4.7933129513276296E-3</v>
+        <v>-2.0400307089939698E-3</v>
       </c>
       <c r="E95" s="1">
         <f>[1]aggregated_efficiencies!E95</f>
-        <v>-2.39046471317024E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+        <v>-2.4082029033821598E-3</v>
+      </c>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B96" s="1">
@@ -4487,15 +4608,16 @@
       </c>
       <c r="D96" s="1">
         <f>[1]aggregated_efficiencies!D96</f>
-        <v>0.13980431646054201</v>
+        <v>5.9500621329225498E-2</v>
       </c>
       <c r="E96" s="1">
         <f>[1]aggregated_efficiencies!E96</f>
-        <v>4.8775775786419402E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+        <v>4.91425814634961E-2</v>
+      </c>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B97" s="1">
@@ -4508,30 +4630,37 @@
       </c>
       <c r="D97" s="1">
         <f>[1]aggregated_efficiencies!D97</f>
-        <v>4.5985271414559097E-2</v>
+        <v>1.9571300017275101E-2</v>
       </c>
       <c r="E97" s="1">
         <f>[1]aggregated_efficiencies!E97</f>
-        <v>3.9025076129095899E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.9545709469365101E-2</v>
+      </c>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
       <c r="E98" s="2">
         <f>SUM(E83:E97)</f>
-        <v>1.0000000000000009</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+        <v>1.0000000000000024</v>
+      </c>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B100" s="1">
@@ -4544,36 +4673,38 @@
       </c>
       <c r="D100" s="1">
         <f>[1]aggregated_efficiencies!D100</f>
-        <v>0.23481349143591701</v>
+        <v>5.1311840865434402E-2</v>
       </c>
       <c r="E100" s="1">
         <f>[1]aggregated_efficiencies!E100</f>
-        <v>2.5911409848273399E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+        <v>2.9703496361496998E-2</v>
+      </c>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="3">
         <f>[1]aggregated_efficiencies!B101</f>
         <v>0.999999999999999</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="3">
         <f>[1]aggregated_efficiencies!C101</f>
         <v>1.03403434233664</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="3">
         <f>[1]aggregated_efficiencies!D101</f>
-        <v>-2.71139819102823E-2</v>
-      </c>
-      <c r="E101" s="1">
+        <v>-5.9249931360454396E-3</v>
+      </c>
+      <c r="E101" s="3">
         <f>[1]aggregated_efficiencies!E101</f>
-        <v>4.09629325298831E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+        <v>3.2665605686924199E-3</v>
+      </c>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B102" s="1">
@@ -4592,12 +4723,12 @@
         <f>[1]aggregated_efficiencies!E102</f>
         <v>0</v>
       </c>
-      <c r="F102" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="G102" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B103" s="1">
@@ -4610,15 +4741,16 @@
       </c>
       <c r="D103" s="1">
         <f>[1]aggregated_efficiencies!D103</f>
-        <v>-7.7332104762534497E-19</v>
+        <v>-1.5182559041531601E-19</v>
       </c>
       <c r="E103" s="1">
         <f>[1]aggregated_efficiencies!E103</f>
-        <v>-1.8665457099819E-19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+        <v>-1.12545016134737E-20</v>
+      </c>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B104" s="1">
@@ -4629,17 +4761,18 @@
         <f>[1]aggregated_efficiencies!C104</f>
         <v>0</v>
       </c>
-      <c r="D104" s="1" t="str">
+      <c r="D104" s="1">
         <f>[1]aggregated_efficiencies!D104</f>
-        <v>nan</v>
+        <v>0</v>
       </c>
       <c r="E104" s="1">
         <f>[1]aggregated_efficiencies!E104</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B105" s="1">
@@ -4648,19 +4781,20 @@
       </c>
       <c r="C105" s="1">
         <f>[1]aggregated_efficiencies!C105</f>
-        <v>0.952408037695331</v>
+        <v>0.95692516312105602</v>
       </c>
       <c r="D105" s="1">
         <f>[1]aggregated_efficiencies!D105</f>
-        <v>7.8069466316979595E-4</v>
+        <v>1.60711871698927E-4</v>
       </c>
       <c r="E105" s="1">
         <f>[1]aggregated_efficiencies!E105</f>
-        <v>3.9890933392035E-4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+        <v>3.8226223925892601E-4</v>
+      </c>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B106" s="1">
@@ -4673,15 +4807,16 @@
       </c>
       <c r="D106" s="1">
         <f>[1]aggregated_efficiencies!D106</f>
-        <v>1.6793914339285801E-2</v>
+        <v>3.6698345347006699E-3</v>
       </c>
       <c r="E106" s="1">
         <f>[1]aggregated_efficiencies!E106</f>
-        <v>3.0434260839618502E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+        <v>3.0650775486097E-3</v>
+      </c>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B107" s="1">
@@ -4690,19 +4825,20 @@
       </c>
       <c r="C107" s="1">
         <f>[1]aggregated_efficiencies!C107</f>
-        <v>0.70937808953103698</v>
+        <v>0.70722155257159902</v>
       </c>
       <c r="D107" s="1">
         <f>[1]aggregated_efficiencies!D107</f>
-        <v>7.2560496783459702E-2</v>
+        <v>1.3396201537525399E-2</v>
       </c>
       <c r="E107" s="1">
         <f>[1]aggregated_efficiencies!E107</f>
-        <v>1.6751867436719501E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+        <v>1.2582516700708E-2</v>
+      </c>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B108" s="1">
@@ -4711,40 +4847,42 @@
       </c>
       <c r="C108" s="1">
         <f>[1]aggregated_efficiencies!C108</f>
-        <v>0.65988047675357897</v>
+        <v>0.662763215645646</v>
       </c>
       <c r="D108" s="1">
         <f>[1]aggregated_efficiencies!D108</f>
-        <v>4.9060714916849102E-2</v>
+        <v>1.24915756084299E-2</v>
       </c>
       <c r="E108" s="1">
         <f>[1]aggregated_efficiencies!E108</f>
-        <v>2.3080017281664499E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+        <v>2.7835943660193901E-2</v>
+      </c>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B109" s="1">
         <f>[1]aggregated_efficiencies!B109</f>
-        <v>0.39324569865109898</v>
+        <v>0.393138256599675</v>
       </c>
       <c r="C109" s="1">
         <f>[1]aggregated_efficiencies!C109</f>
-        <v>0.39015552945454002</v>
+        <v>0.390628132384922</v>
       </c>
       <c r="D109" s="1">
         <f>[1]aggregated_efficiencies!D109</f>
-        <v>0.33380811749550998</v>
+        <v>7.1993068328097903E-2</v>
       </c>
       <c r="E109" s="1">
         <f>[1]aggregated_efficiencies!E109</f>
-        <v>0.81574742271898604</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+        <v>0.82480658696608</v>
+      </c>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B110" s="1">
@@ -4757,18 +4895,18 @@
       </c>
       <c r="D110" s="1">
         <f>[1]aggregated_efficiencies!D110</f>
-        <v>-4.9108043047741605E-4</v>
+        <v>-3.6977121137250399E-4</v>
       </c>
       <c r="E110" s="1">
         <f>[1]aggregated_efficiencies!E110</f>
-        <v>2.8737836000279702E-4</v>
-      </c>
-      <c r="F110" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+        <v>-1.5302116680302401E-2</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B111" s="1">
@@ -4781,15 +4919,16 @@
       </c>
       <c r="D111" s="1">
         <f>[1]aggregated_efficiencies!D111</f>
-        <v>1.0443757930757001E-2</v>
+        <v>2.6662882875402001E-3</v>
       </c>
       <c r="E111" s="1">
         <f>[1]aggregated_efficiencies!E111</f>
-        <v>4.0169404820546697E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+        <v>5.0716916316507401E-3</v>
+      </c>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B112" s="1">
@@ -4802,15 +4941,16 @@
       </c>
       <c r="D112" s="1">
         <f>[1]aggregated_efficiencies!D112</f>
-        <v>0.13523899350119201</v>
+        <v>2.9552653345851301E-2</v>
       </c>
       <c r="E112" s="1">
         <f>[1]aggregated_efficiencies!E112</f>
-        <v>2.4973640224032E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+        <v>2.2239090294395501E-2</v>
+      </c>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B113" s="1">
@@ -4823,15 +4963,16 @@
       </c>
       <c r="D113" s="1">
         <f>[1]aggregated_efficiencies!D113</f>
-        <v>0.149557032567912</v>
+        <v>3.2681455433005303E-2</v>
       </c>
       <c r="E113" s="1">
         <f>[1]aggregated_efficiencies!E113</f>
-        <v>4.6609378650594502E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+        <v>4.9475672042242E-2</v>
+      </c>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B114" s="1">
@@ -4844,30 +4985,37 @@
       </c>
       <c r="D114" s="1">
         <f>[1]aggregated_efficiencies!D114</f>
-        <v>4.1110114771941098E-2</v>
+        <v>8.9834517354096307E-3</v>
       </c>
       <c r="E114" s="1">
         <f>[1]aggregated_efficiencies!E114</f>
-        <v>3.5083316326804302E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.6873218666975197E-2</v>
+      </c>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
       <c r="E115" s="2">
         <f>SUM(E100:E114)</f>
-        <v>1.0000000000000022</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+        <v>1.0000000000000011</v>
+      </c>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B117" s="1">
@@ -4880,36 +5028,38 @@
       </c>
       <c r="D117" s="1">
         <f>[1]aggregated_efficiencies!D117</f>
-        <v>0.228237903205255</v>
+        <v>8.5595727340760902E-2</v>
       </c>
       <c r="E117" s="1">
         <f>[1]aggregated_efficiencies!E117</f>
-        <v>2.09619887892688E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+        <v>2.3167939023363199E-2</v>
+      </c>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="3">
         <f>[1]aggregated_efficiencies!B118</f>
         <v>1</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="3">
         <f>[1]aggregated_efficiencies!C118</f>
         <v>1.0333013476048101</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="3">
         <f>[1]aggregated_efficiencies!D118</f>
-        <v>-1.23600163369504E-2</v>
-      </c>
-      <c r="E118" s="1">
+        <v>-4.6353588665486896E-3</v>
+      </c>
+      <c r="E118" s="3">
         <f>[1]aggregated_efficiencies!E118</f>
-        <v>1.27913599299401E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+        <v>-1.9096438078105701E-3</v>
+      </c>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B119" s="1">
@@ -4928,12 +5078,12 @@
         <f>[1]aggregated_efficiencies!E119</f>
         <v>0</v>
       </c>
-      <c r="F119" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="G119" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B120" s="1">
@@ -4946,15 +5096,16 @@
       </c>
       <c r="D120" s="1">
         <f>[1]aggregated_efficiencies!D120</f>
-        <v>-1.51826220796013E-18</v>
+        <v>-5.8278844684052002E-19</v>
       </c>
       <c r="E120" s="1">
         <f>[1]aggregated_efficiencies!E120</f>
-        <v>-7.3983916709759598E-19</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+        <v>-6.3766971031475405E-19</v>
+      </c>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B121" s="1">
@@ -4965,17 +5116,18 @@
         <f>[1]aggregated_efficiencies!C121</f>
         <v>0</v>
       </c>
-      <c r="D121" s="1" t="str">
+      <c r="D121" s="1">
         <f>[1]aggregated_efficiencies!D121</f>
-        <v>nan</v>
+        <v>0</v>
       </c>
       <c r="E121" s="1">
         <f>[1]aggregated_efficiencies!E121</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B122" s="1">
@@ -4984,19 +5136,20 @@
       </c>
       <c r="C122" s="1">
         <f>[1]aggregated_efficiencies!C122</f>
-        <v>0.979918503215361</v>
+        <v>0.984543618954828</v>
       </c>
       <c r="D122" s="1">
         <f>[1]aggregated_efficiencies!D122</f>
-        <v>2.2823992412114699E-4</v>
+        <v>8.0155348469523494E-5</v>
       </c>
       <c r="E122" s="1">
         <f>[1]aggregated_efficiencies!E122</f>
-        <v>1.07629950020356E-4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+        <v>9.8346749782584296E-5</v>
+      </c>
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B123" s="1">
@@ -5009,15 +5162,16 @@
       </c>
       <c r="D123" s="1">
         <f>[1]aggregated_efficiencies!D123</f>
-        <v>1.0198612017516101E-2</v>
+        <v>3.8247705628475801E-3</v>
       </c>
       <c r="E123" s="1">
         <f>[1]aggregated_efficiencies!E123</f>
-        <v>1.6724127793595299E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+        <v>1.6693922596152399E-3</v>
+      </c>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B124" s="1">
@@ -5026,19 +5180,20 @@
       </c>
       <c r="C124" s="1">
         <f>[1]aggregated_efficiencies!C124</f>
-        <v>0.65820985788808295</v>
+        <v>0.65374968061357497</v>
       </c>
       <c r="D124" s="1">
         <f>[1]aggregated_efficiencies!D124</f>
-        <v>8.0285792545231202E-2</v>
+        <v>2.4097510756688499E-2</v>
       </c>
       <c r="E124" s="1">
         <f>[1]aggregated_efficiencies!E124</f>
-        <v>2.3035948615008999E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+        <v>1.6996488610347901E-2</v>
+      </c>
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B125" s="1">
@@ -5047,40 +5202,42 @@
       </c>
       <c r="C125" s="1">
         <f>[1]aggregated_efficiencies!C125</f>
-        <v>0.66887815446869903</v>
+        <v>0.67259099603609596</v>
       </c>
       <c r="D125" s="1">
         <f>[1]aggregated_efficiencies!D125</f>
-        <v>3.82442954399035E-2</v>
+        <v>1.8117280627427901E-2</v>
       </c>
       <c r="E125" s="1">
         <f>[1]aggregated_efficiencies!E125</f>
-        <v>2.1494490330497801E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+        <v>2.9139063476866602E-2</v>
+      </c>
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B126" s="1">
         <f>[1]aggregated_efficiencies!B126</f>
-        <v>0.379849071095549</v>
+        <v>0.37871444086300898</v>
       </c>
       <c r="C126" s="1">
         <f>[1]aggregated_efficiencies!C126</f>
-        <v>0.37929927730329199</v>
+        <v>0.37934839196364001</v>
       </c>
       <c r="D126" s="1">
         <f>[1]aggregated_efficiencies!D126</f>
-        <v>0.34332931061184702</v>
+        <v>0.12658164114065701</v>
       </c>
       <c r="E126" s="1">
         <f>[1]aggregated_efficiencies!E126</f>
-        <v>0.82285843739834497</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+        <v>0.82100844329306499</v>
+      </c>
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B127" s="1">
@@ -5093,18 +5250,18 @@
       </c>
       <c r="D127" s="1">
         <f>[1]aggregated_efficiencies!D127</f>
-        <v>-5.52966932802046E-4</v>
+        <v>-2.96397695402747E-4</v>
       </c>
       <c r="E127" s="1">
         <f>[1]aggregated_efficiencies!E127</f>
-        <v>5.8685353094464201E-4</v>
-      </c>
-      <c r="F127" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+        <v>-2.9371321296373801E-3</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B128" s="1">
@@ -5117,15 +5274,16 @@
       </c>
       <c r="D128" s="1">
         <f>[1]aggregated_efficiencies!D128</f>
-        <v>7.8038094810787603E-3</v>
+        <v>3.7772841672629701E-3</v>
       </c>
       <c r="E128" s="1">
         <f>[1]aggregated_efficiencies!E128</f>
-        <v>3.8952251034513599E-3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+        <v>5.1236724682405298E-3</v>
+      </c>
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B129" s="1">
@@ -5138,15 +5296,16 @@
       </c>
       <c r="D129" s="1">
         <f>[1]aggregated_efficiencies!D129</f>
-        <v>0.15201600093838799</v>
+        <v>5.7010338708086701E-2</v>
       </c>
       <c r="E129" s="1">
         <f>[1]aggregated_efficiencies!E129</f>
-        <v>2.42612998399474E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+        <v>2.6642551433885799E-2</v>
+      </c>
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B130" s="1">
@@ -5159,15 +5318,16 @@
       </c>
       <c r="D130" s="1">
         <f>[1]aggregated_efficiencies!D130</f>
-        <v>0.14238131161254999</v>
+        <v>5.33970552483026E-2</v>
       </c>
       <c r="E130" s="1">
         <f>[1]aggregated_efficiencies!E130</f>
-        <v>4.0929332479495803E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+        <v>4.1263872052825099E-2</v>
+      </c>
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B131" s="1">
@@ -5180,30 +5340,37 @@
       </c>
       <c r="D131" s="1">
         <f>[1]aggregated_efficiencies!D131</f>
-        <v>4.7614298546180801E-2</v>
+        <v>1.7856720810369899E-2</v>
       </c>
       <c r="E131" s="1">
         <f>[1]aggregated_efficiencies!E131</f>
-        <v>3.8917245190663599E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.97370065694512E-2</v>
+      </c>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
       <c r="E132" s="2">
         <f>SUM(E117:E131)</f>
-        <v>0.99999999999999734</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+        <v>0.99999999999999523</v>
+      </c>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B134" s="1">
@@ -5212,19 +5379,20 @@
       </c>
       <c r="C134" s="1">
         <f>[1]aggregated_efficiencies!C134</f>
-        <v>0.12510367626184099</v>
+        <v>0.12774597204229801</v>
       </c>
       <c r="D134" s="1">
         <f>[1]aggregated_efficiencies!D134</f>
-        <v>0.36723760116925303</v>
+        <v>0.32038318274344202</v>
       </c>
       <c r="E134" s="1">
         <f>[1]aggregated_efficiencies!E134</f>
-        <v>0.29091196726026403</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+        <v>0.221777432209501</v>
+      </c>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B135" s="1">
@@ -5233,19 +5401,20 @@
       </c>
       <c r="C135" s="1">
         <f>[1]aggregated_efficiencies!C135</f>
-        <v>0.13187833112441799</v>
+        <v>0.13488937229918299</v>
       </c>
       <c r="D135" s="1">
         <f>[1]aggregated_efficiencies!D135</f>
-        <v>0.36352853442814198</v>
+        <v>0.31362025220983297</v>
       </c>
       <c r="E135" s="1">
         <f>[1]aggregated_efficiencies!E135</f>
-        <v>0.28384008040814601</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+        <v>0.21453852141569901</v>
+      </c>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B136" s="1">
@@ -5258,15 +5427,16 @@
       </c>
       <c r="D136" s="1">
         <f>[1]aggregated_efficiencies!D136</f>
-        <v>2.3852511911439999E-4</v>
+        <v>2.01966481294949E-4</v>
       </c>
       <c r="E136" s="1">
         <f>[1]aggregated_efficiencies!E136</f>
-        <v>2.9760256248402897E-4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+        <v>3.7114700449583101E-4</v>
+      </c>
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B137" s="1">
@@ -5279,15 +5449,16 @@
       </c>
       <c r="D137" s="1">
         <f>[1]aggregated_efficiencies!D137</f>
-        <v>3.3719039608932298E-4</v>
+        <v>2.7983776896876601E-4</v>
       </c>
       <c r="E137" s="1">
         <f>[1]aggregated_efficiencies!E137</f>
-        <v>4.1304382496546197E-4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+        <v>4.9483970585842104E-4</v>
+      </c>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B138" s="1">
@@ -5300,15 +5471,16 @@
       </c>
       <c r="D138" s="1">
         <f>[1]aggregated_efficiencies!D138</f>
-        <v>6.8406178789829604E-3</v>
+        <v>6.6497963731438998E-3</v>
       </c>
       <c r="E138" s="1">
         <f>[1]aggregated_efficiencies!E138</f>
-        <v>7.8875968267836903E-3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+        <v>7.7709229435227699E-3</v>
+      </c>
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B139" s="1">
@@ -5321,63 +5493,64 @@
       </c>
       <c r="D139" s="1">
         <f>[1]aggregated_efficiencies!D139</f>
-        <v>6.1560707710118503E-3</v>
+        <v>5.1819695519722004E-3</v>
       </c>
       <c r="E139" s="1">
         <f>[1]aggregated_efficiencies!E139</f>
-        <v>5.8125986394248199E-3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+        <v>5.4650666031602398E-3</v>
+      </c>
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="3">
         <f>[1]aggregated_efficiencies!B140</f>
         <v>0</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="3">
         <f>[1]aggregated_efficiencies!C140</f>
         <v>0</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="3">
         <f>[1]aggregated_efficiencies!D140</f>
-        <v>-6.91617579208113E-3</v>
-      </c>
-      <c r="E140" s="1">
+        <v>-6.8712342461879497E-3</v>
+      </c>
+      <c r="E140" s="3">
         <f>[1]aggregated_efficiencies!E140</f>
-        <v>-4.8750981268591703E-3</v>
-      </c>
-      <c r="F140" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+        <v>-4.8631034009990696E-3</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="3">
         <f>[1]aggregated_efficiencies!B141</f>
         <v>0</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="3">
         <f>[1]aggregated_efficiencies!C141</f>
         <v>0</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141" s="3">
         <f>[1]aggregated_efficiencies!D141</f>
-        <v>-9.1706344020184502E-3</v>
-      </c>
-      <c r="E141" s="1">
+        <v>-9.1706344020184398E-3</v>
+      </c>
+      <c r="E141" s="3">
         <f>[1]aggregated_efficiencies!E141</f>
-        <v>-4.9966698368568204E-3</v>
-      </c>
-      <c r="F141" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+        <v>-4.9624489818232203E-3</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B142" s="1">
@@ -5390,15 +5563,16 @@
       </c>
       <c r="D142" s="1">
         <f>[1]aggregated_efficiencies!D142</f>
-        <v>0.29650966675071</v>
+        <v>0.31210077966112798</v>
       </c>
       <c r="E142" s="1">
         <f>[1]aggregated_efficiencies!E142</f>
-        <v>0.221939338326828</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+        <v>0.30047626574830499</v>
+      </c>
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B143" s="1">
@@ -5411,15 +5585,16 @@
       </c>
       <c r="D143" s="1">
         <f>[1]aggregated_efficiencies!D143</f>
-        <v>0.271993028180193</v>
+        <v>0.28356205612871499</v>
       </c>
       <c r="E143" s="1">
         <f>[1]aggregated_efficiencies!E143</f>
-        <v>0.19876954011481801</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+        <v>0.25893135675228102</v>
+      </c>
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B144" s="1">
@@ -5438,12 +5613,12 @@
         <f>[1]aggregated_efficiencies!E144</f>
         <v>0</v>
       </c>
-      <c r="F144" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="G144" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B145" s="1">
@@ -5462,21 +5637,21 @@
         <f>[1]aggregated_efficiencies!E145</f>
         <v>0</v>
       </c>
-      <c r="F145" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="G145" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B148" s="1">
@@ -5485,19 +5660,19 @@
       </c>
       <c r="C148" s="1">
         <f>[1]aggregated_efficiencies!C148</f>
-        <v>0.91357355163899501</v>
+        <v>0.91506935380483301</v>
       </c>
       <c r="D148" s="1">
         <f>[1]aggregated_efficiencies!D148</f>
-        <v>3.7201084226344099E-3</v>
+        <v>4.0399566486316804E-3</v>
       </c>
       <c r="E148" s="1">
         <f>[1]aggregated_efficiencies!E148</f>
-        <v>1.6393216500611499E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+        <v>2.0137702369178698E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B149" s="1">
@@ -5506,19 +5681,19 @@
       </c>
       <c r="C149" s="1">
         <f>[1]aggregated_efficiencies!C149</f>
-        <v>0.89927106086829101</v>
+        <v>0.897117442100967</v>
       </c>
       <c r="D149" s="1">
         <f>[1]aggregated_efficiencies!D149</f>
-        <v>4.9830977137400399E-3</v>
+        <v>5.8730635066998301E-3</v>
       </c>
       <c r="E149" s="1">
         <f>[1]aggregated_efficiencies!E149</f>
-        <v>2.6330911950465701E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+        <v>3.6016536334668801E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B150" s="1">
@@ -5535,14 +5710,14 @@
       </c>
       <c r="E150" s="1">
         <f>[1]aggregated_efficiencies!E150</f>
-        <v>2.1351808222855301E-17</v>
-      </c>
-      <c r="F150" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+        <v>2.2945049350399801E-17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B151" s="1">
@@ -5559,14 +5734,14 @@
       </c>
       <c r="E151" s="1">
         <f>[1]aggregated_efficiencies!E151</f>
-        <v>4.9337434416606096E-18</v>
-      </c>
-      <c r="F151" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+        <v>5.3641993294696799E-18</v>
+      </c>
+      <c r="G151" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B152" s="1">
@@ -5579,15 +5754,15 @@
       </c>
       <c r="D152" s="1">
         <f>[1]aggregated_efficiencies!D152</f>
-        <v>0.17718734116724399</v>
+        <v>0.153400547421504</v>
       </c>
       <c r="E152" s="1">
         <f>[1]aggregated_efficiencies!E152</f>
-        <v>0.40167384951077101</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+        <v>0.42204787611730699</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B153" s="1">
@@ -5600,15 +5775,15 @@
       </c>
       <c r="D153" s="1">
         <f>[1]aggregated_efficiencies!D153</f>
-        <v>5.85034567978703E-2</v>
+        <v>7.8538887208099793E-3</v>
       </c>
       <c r="E153" s="1">
         <f>[1]aggregated_efficiencies!E153</f>
-        <v>2.01968107854242E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+        <v>2.2261879791993299E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B154" s="1">
@@ -5617,19 +5792,19 @@
       </c>
       <c r="C154" s="1">
         <f>[1]aggregated_efficiencies!C154</f>
-        <v>0.61637267809825702</v>
+        <v>0.61977598567190695</v>
       </c>
       <c r="D154" s="1">
         <f>[1]aggregated_efficiencies!D154</f>
-        <v>0.115719726331429</v>
+        <v>0.10393185339882401</v>
       </c>
       <c r="E154" s="1">
         <f>[1]aggregated_efficiencies!E154</f>
-        <v>0.48730448486413103</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+        <v>0.44759712261381801</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B155" s="1">
@@ -5646,89 +5821,96 @@
       </c>
       <c r="E155" s="1">
         <f>[1]aggregated_efficiencies!E155</f>
-        <v>4.8100726388590302E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.1938882773032199E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
       <c r="E156" s="2">
         <f>SUM(E148:E155)</f>
-        <v>0.99999999999999367</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+        <v>0.999999999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B158" s="1" t="str">
+      <c r="B158" s="3">
         <f>[1]aggregated_efficiencies!B158</f>
-        <v>nan</v>
-      </c>
-      <c r="C158" s="1" t="str">
+        <v>-407346800445.48102</v>
+      </c>
+      <c r="C158" s="3">
         <f>[1]aggregated_efficiencies!C158</f>
-        <v>nan</v>
-      </c>
-      <c r="D158" s="1" t="str">
+        <v>-407346800445.50299</v>
+      </c>
+      <c r="D158" s="3">
         <f>[1]aggregated_efficiencies!D158</f>
-        <v>nan</v>
-      </c>
-      <c r="E158" s="1" t="str">
+        <v>5.3095451945194702E-2</v>
+      </c>
+      <c r="E158" s="3">
         <f>[1]aggregated_efficiencies!E158</f>
-        <v>nan</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>52</v>
-      </c>
-      <c r="B159" s="1" t="str">
+        <v>9.4312836442828202E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B159" s="3">
         <f>[1]aggregated_efficiencies!B159</f>
-        <v>nan</v>
-      </c>
-      <c r="C159" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="C159" s="3" t="str">
         <f>[1]aggregated_efficiencies!C159</f>
         <v>nan</v>
       </c>
-      <c r="D159" s="1" t="str">
+      <c r="D159" s="3">
         <f>[1]aggregated_efficiencies!D159</f>
-        <v>nan</v>
-      </c>
-      <c r="E159" s="1" t="str">
+        <v>2.1726811311378599E-2</v>
+      </c>
+      <c r="E159" s="3">
         <f>[1]aggregated_efficiencies!E159</f>
-        <v>nan</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.24830387941853299</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>65</v>
-      </c>
-      <c r="B160" s="1">
+        <v>52</v>
+      </c>
+      <c r="B160">
         <f>[1]aggregated_efficiencies!B160</f>
         <v>0</v>
       </c>
-      <c r="C160" s="1" t="str">
+      <c r="C160">
         <f>[1]aggregated_efficiencies!C160</f>
-        <v>nan</v>
-      </c>
-      <c r="D160" s="1">
+        <v>0</v>
+      </c>
+      <c r="D160">
         <f>[1]aggregated_efficiencies!D160</f>
-        <v>2.15864507844181E-2</v>
-      </c>
-      <c r="E160" s="1" t="str">
+        <v>-1.2669187080924201E-18</v>
+      </c>
+      <c r="E160">
         <f>[1]aggregated_efficiencies!E160</f>
-        <v>nan</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+        <v>-3.7951659319351203E-17</v>
+      </c>
+      <c r="G160" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B161" s="1">
@@ -5737,22 +5919,19 @@
       </c>
       <c r="C161" s="1">
         <f>[1]aggregated_efficiencies!C161</f>
-        <v>0</v>
-      </c>
-      <c r="D161" s="1" t="e">
+        <v>0.44646972137834101</v>
+      </c>
+      <c r="D161" s="1">
         <f>[1]aggregated_efficiencies!D161</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E161" s="1" t="str">
+        <v>0.47237221303222998</v>
+      </c>
+      <c r="E161" s="1">
         <f>[1]aggregated_efficiencies!E161</f>
-        <v>nan</v>
-      </c>
-      <c r="F161" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+        <v>8.7401993428477195E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B162" s="1">
@@ -5767,13 +5946,13 @@
         <f>[1]aggregated_efficiencies!D162</f>
         <v>0.47237221303222998</v>
       </c>
-      <c r="E162" s="1" t="str">
+      <c r="E162" s="1">
         <f>[1]aggregated_efficiencies!E162</f>
-        <v>nan</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+        <v>5.8267995618985297E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B163" s="1">
@@ -5782,19 +5961,19 @@
       </c>
       <c r="C163" s="1">
         <f>[1]aggregated_efficiencies!C163</f>
-        <v>0.44646972137834101</v>
+        <v>0.55240608719666895</v>
       </c>
       <c r="D163" s="1">
         <f>[1]aggregated_efficiencies!D163</f>
-        <v>0.47237221303222998</v>
-      </c>
-      <c r="E163" s="1" t="str">
+        <v>0.38196813308414501</v>
+      </c>
+      <c r="E163" s="1">
         <f>[1]aggregated_efficiencies!E163</f>
-        <v>nan</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+        <v>9.0867503582356596E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B164" s="1">
@@ -5803,19 +5982,19 @@
       </c>
       <c r="C164" s="1">
         <f>[1]aggregated_efficiencies!C164</f>
-        <v>0.55240608719666895</v>
+        <v>0.25818943543817602</v>
       </c>
       <c r="D164" s="1">
         <f>[1]aggregated_efficiencies!D164</f>
-        <v>0.38196813308414501</v>
-      </c>
-      <c r="E164" s="1" t="str">
+        <v>0.63304702843954397</v>
+      </c>
+      <c r="E164" s="1">
         <f>[1]aggregated_efficiencies!E164</f>
-        <v>nan</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+        <v>0.15617506899039801</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B165" s="1">
@@ -5824,19 +6003,19 @@
       </c>
       <c r="C165" s="1">
         <f>[1]aggregated_efficiencies!C165</f>
-        <v>0.25818943543817602</v>
+        <v>0.66329942993174995</v>
       </c>
       <c r="D165" s="1">
         <f>[1]aggregated_efficiencies!D165</f>
-        <v>0.63304702843954397</v>
-      </c>
-      <c r="E165" s="1" t="str">
+        <v>0.287309357900005</v>
+      </c>
+      <c r="E165" s="1">
         <f>[1]aggregated_efficiencies!E165</f>
-        <v>nan</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+        <v>4.4984823011185997E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B166" s="1">
@@ -5845,57 +6024,40 @@
       </c>
       <c r="C166" s="1">
         <f>[1]aggregated_efficiencies!C166</f>
-        <v>0.66329942993174995</v>
+        <v>0.64944681772919</v>
       </c>
       <c r="D166" s="1">
         <f>[1]aggregated_efficiencies!D166</f>
-        <v>0.28733395841014298</v>
-      </c>
-      <c r="E166" s="1" t="str">
+        <v>0.22437683976846401</v>
+      </c>
+      <c r="E166" s="1">
         <f>[1]aggregated_efficiencies!E166</f>
-        <v>nan</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>59</v>
-      </c>
-      <c r="B167" s="1">
-        <f>[1]aggregated_efficiencies!B167</f>
-        <v>0</v>
-      </c>
-      <c r="C167" s="1">
-        <f>[1]aggregated_efficiencies!C167</f>
-        <v>0.64944681772919</v>
-      </c>
-      <c r="D167" s="1">
-        <f>[1]aggregated_efficiencies!D167</f>
-        <v>0.29916911969128501</v>
-      </c>
-      <c r="E167" s="1" t="str">
-        <f>[1]aggregated_efficiencies!E167</f>
-        <v>nan</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E168" s="2">
-        <f>SUM(E158:E167)</f>
-        <v>0</v>
+        <v>0.219685899507233</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2">
+        <f>SUM(E158:E166)</f>
+        <v>0.99999999999999734</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="A157:E157"/>
     <mergeCell ref="A82:E82"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="A157:E157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Results/aggregated_efficiencies.xlsx
+++ b/Results/aggregated_efficiencies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="6900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="aggregated_efficiencies" sheetId="1" r:id="rId1"/>
@@ -223,8 +223,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="0.000%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -704,7 +705,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -715,6 +716,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -792,13 +794,13 @@
             <v>1</v>
           </cell>
           <cell r="C4">
-            <v>0.83595574451898003</v>
+            <v>0.85828350676657905</v>
           </cell>
           <cell r="D4">
-            <v>4.7986973315578101E-2</v>
+            <v>0.140590170544695</v>
           </cell>
           <cell r="E4">
-            <v>2.7166176229207799E-2</v>
+            <v>2.9257562271084999E-2</v>
           </cell>
         </row>
         <row r="5">
@@ -806,125 +808,125 @@
             <v>1</v>
           </cell>
           <cell r="C5">
-            <v>0.90262608959496604</v>
+            <v>0.85737262254190705</v>
           </cell>
           <cell r="D5">
-            <v>1.35321833812088E-2</v>
+            <v>6.9591222018148199E-2</v>
           </cell>
           <cell r="E5">
-            <v>2.7373998648165299E-2</v>
+            <v>3.9924312455804301E-2</v>
           </cell>
         </row>
         <row r="6">
           <cell r="D6">
-            <v>2.8799380981835702E-19</v>
+            <v>0</v>
           </cell>
           <cell r="E6">
-            <v>5.9435103990715498E-20</v>
+            <v>3.7216772922971303E-21</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>1.6043671210738401E-2</v>
+            <v>4.7279096820426601E-2</v>
           </cell>
           <cell r="E7">
-            <v>2.9361025411021001E-2</v>
+            <v>2.8469934019871999E-2</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>1.8106532729584901E-2</v>
+            <v>1.08467245530756E-2</v>
           </cell>
           <cell r="E8">
-            <v>2.1246835906998502E-3</v>
+            <v>4.3837988735520198E-4</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9">
-            <v>0.88553809311299103</v>
+            <v>0.80073392200635796</v>
           </cell>
           <cell r="D9">
-            <v>1.0351764318938801E-3</v>
+            <v>4.2944729307237096E-3</v>
           </cell>
           <cell r="E9">
-            <v>2.1720139573005799E-3</v>
+            <v>3.08025168449696E-3</v>
           </cell>
         </row>
         <row r="10">
           <cell r="C10">
-            <v>0.53506108753474702</v>
+            <v>0.51140961725553402</v>
           </cell>
           <cell r="D10">
-            <v>7.9372660459868707E-3</v>
+            <v>2.9995446321980899E-2</v>
           </cell>
           <cell r="E10">
-            <v>4.80746082993945E-3</v>
+            <v>5.4810748051824197E-3</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>0.58027826919933001</v>
+            <v>0.58472701231629898</v>
           </cell>
           <cell r="D11">
-            <v>2.2563143640225301E-2</v>
+            <v>7.0559153950491102E-2</v>
           </cell>
           <cell r="E11">
-            <v>1.6594060689969499E-2</v>
+            <v>1.57868514295351E-2</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0.64721276277543904</v>
+            <v>0.64745682818261696</v>
           </cell>
           <cell r="D12">
-            <v>1.3218369407425001E-2</v>
+            <v>4.3230233061993598E-2</v>
           </cell>
           <cell r="E12">
-            <v>2.7572911738647302E-2</v>
+            <v>2.6153475571066901E-2</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>0.407819978010446</v>
+            <v>0.41250671791112897</v>
           </cell>
           <cell r="C13">
-            <v>0.40503995076419602</v>
+            <v>0.40788686279874198</v>
           </cell>
           <cell r="D13">
-            <v>9.4142860746413398E-2</v>
+            <v>0.30916352973600603</v>
           </cell>
           <cell r="E13">
-            <v>0.83393008435898797</v>
+            <v>0.8215067625393</v>
           </cell>
         </row>
         <row r="14">
           <cell r="D14">
-            <v>-1.4670722078031799E-18</v>
+            <v>0</v>
           </cell>
           <cell r="E14">
-            <v>-2.7798025027133999E-18</v>
+            <v>-2.7367726136636201E-18</v>
           </cell>
         </row>
         <row r="15">
           <cell r="D15">
-            <v>2.5798387816883699E-3</v>
+            <v>8.4792267795439306E-3</v>
           </cell>
           <cell r="E15">
-            <v>4.5325163848320797E-3</v>
+            <v>4.53922851936483E-3</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>0.827175895123474</v>
+            <v>0.86022801124547998</v>
           </cell>
           <cell r="C16">
-            <v>0.827175895123474</v>
+            <v>0.86022801124547998</v>
           </cell>
           <cell r="D16">
-            <v>3.8689961612392902E-2</v>
+            <v>0.10567741810097001</v>
           </cell>
           <cell r="E16">
-            <v>2.4365068161228302E-2</v>
+            <v>2.5362166816937402E-2</v>
           </cell>
         </row>
         <row r="18">
@@ -937,13 +939,13 @@
             <v>1</v>
           </cell>
           <cell r="C19">
-            <v>0.83203300878911501</v>
+            <v>0.85414942858047804</v>
           </cell>
           <cell r="D19">
-            <v>5.3253186248289397E-2</v>
+            <v>0.144633845627617</v>
           </cell>
           <cell r="E19">
-            <v>2.46069005863979E-2</v>
+            <v>2.6342262628277002E-2</v>
           </cell>
         </row>
         <row r="20">
@@ -951,136 +953,136 @@
             <v>1</v>
           </cell>
           <cell r="C20">
-            <v>0.90182676457467204</v>
+            <v>0.85553886934128398</v>
           </cell>
           <cell r="D20">
-            <v>1.41996168562723E-2</v>
+            <v>6.6937809318216204E-2</v>
           </cell>
           <cell r="E20">
-            <v>2.4895150210739101E-2</v>
+            <v>3.5736740254520498E-2</v>
           </cell>
         </row>
         <row r="21">
           <cell r="D21">
-            <v>-3.5785009074963398E-19</v>
+            <v>0</v>
           </cell>
           <cell r="E21">
-            <v>-6.1056834248150401E-20</v>
+            <v>-6.1542801386730599E-20</v>
           </cell>
         </row>
         <row r="22">
           <cell r="D22">
-            <v>1.9139237443560001E-2</v>
+            <v>5.2756572559430497E-2</v>
           </cell>
           <cell r="E22">
-            <v>3.03482238233003E-2</v>
+            <v>2.9734347519121601E-2</v>
           </cell>
         </row>
         <row r="23">
           <cell r="D23">
-            <v>1.9789867192155301E-2</v>
+            <v>1.11289702890382E-2</v>
           </cell>
           <cell r="E23">
-            <v>1.96433072729091E-3</v>
+            <v>4.0594630653220703E-4</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>0.90961216623246099</v>
+            <v>0.82501024517215804</v>
           </cell>
           <cell r="D24">
-            <v>8.3360854372329404E-4</v>
+            <v>3.09139343904074E-3</v>
           </cell>
           <cell r="E24">
-            <v>1.4570935612098299E-3</v>
+            <v>2.0433204443842399E-3</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>0.534243405836897</v>
+            <v>0.51285246290873499</v>
           </cell>
           <cell r="D25">
-            <v>9.8803238208698494E-3</v>
+            <v>3.4047634999061799E-2</v>
           </cell>
           <cell r="E25">
-            <v>4.5861889375341004E-3</v>
+            <v>5.12196233924861E-3</v>
           </cell>
         </row>
         <row r="26">
           <cell r="C26">
-            <v>0.58133456113481297</v>
+            <v>0.586937062657651</v>
           </cell>
           <cell r="D26">
-            <v>2.7042558620338299E-2</v>
+            <v>7.8842688602697206E-2</v>
           </cell>
           <cell r="E26">
-            <v>1.6666553435615999E-2</v>
+            <v>1.5955948237475901E-2</v>
           </cell>
         </row>
         <row r="27">
           <cell r="C27">
-            <v>0.65964880643895396</v>
+            <v>0.66032079127787502</v>
           </cell>
           <cell r="D27">
-            <v>1.4933405538056801E-2</v>
+            <v>4.4269941278704601E-2</v>
           </cell>
           <cell r="E27">
-            <v>2.6189249018507402E-2</v>
+            <v>2.5089932840390301E-2</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28">
-            <v>0.41268886926697701</v>
+            <v>0.41651317910004099</v>
           </cell>
           <cell r="C28">
-            <v>0.41046379603357402</v>
+            <v>0.41278383854775602</v>
           </cell>
           <cell r="D28">
-            <v>0.101660200621878</v>
+            <v>0.30859753169536103</v>
           </cell>
           <cell r="E28">
-            <v>0.80014283702738798</v>
+            <v>0.79048980571966698</v>
           </cell>
         </row>
         <row r="29">
           <cell r="D29">
-            <v>-8.0096360612846802E-19</v>
+            <v>0</v>
           </cell>
           <cell r="E29">
-            <v>-1.1326392345135699E-18</v>
+            <v>-1.08437398807032E-18</v>
           </cell>
         </row>
         <row r="30">
           <cell r="D30">
-            <v>3.15374463576538E-3</v>
+            <v>9.1423867697785193E-3</v>
           </cell>
           <cell r="E30">
-            <v>4.5708385349320499E-3</v>
+            <v>4.5477234075840898E-3</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31">
-            <v>0.82209241610055905</v>
+            <v>0.85337765878340999</v>
           </cell>
           <cell r="C31">
-            <v>0.82209241610055905</v>
+            <v>0.85337765878340999</v>
           </cell>
           <cell r="D31">
-            <v>4.3195168399227803E-2</v>
+            <v>0.110870873566338</v>
           </cell>
           <cell r="E31">
-            <v>2.2533399765847301E-2</v>
+            <v>2.3465031458342001E-2</v>
           </cell>
         </row>
         <row r="32">
           <cell r="C32">
-            <v>0.68018412871031897</v>
+            <v>0.68013362928907795</v>
           </cell>
           <cell r="D32">
-            <v>4.5042227719889798E-2</v>
+            <v>0.13619003766239701</v>
           </cell>
           <cell r="E32">
-            <v>4.2039234371232102E-2</v>
+            <v>4.1066978844460401E-2</v>
           </cell>
         </row>
         <row r="34">
@@ -1093,13 +1095,13 @@
             <v>1</v>
           </cell>
           <cell r="C35">
-            <v>0.83268664399011605</v>
+            <v>0.85573669312603495</v>
           </cell>
           <cell r="D35">
-            <v>5.4694499604003001E-2</v>
+            <v>0.14309836043436</v>
           </cell>
           <cell r="E35">
-            <v>2.3825313789830101E-2</v>
+            <v>2.5625510647821901E-2</v>
           </cell>
         </row>
         <row r="36">
@@ -1107,136 +1109,141 @@
             <v>1</v>
           </cell>
           <cell r="C36">
-            <v>0.90888893826730199</v>
+            <v>0.86182251963155398</v>
           </cell>
           <cell r="D36">
-            <v>1.41567148165135E-2</v>
+            <v>6.6819910413131706E-2</v>
           </cell>
           <cell r="E36">
-            <v>2.2599476943378001E-2</v>
+            <v>3.3254803982757403E-2</v>
           </cell>
         </row>
         <row r="37">
           <cell r="D37">
-            <v>-1.85072029441627E-20</v>
+            <v>0</v>
           </cell>
           <cell r="E37">
-            <v>-2.51413326556697E-20</v>
+            <v>-3.6078255954769298E-20</v>
           </cell>
         </row>
         <row r="38">
           <cell r="D38">
-            <v>1.7852253031536699E-2</v>
+            <v>4.7526507967623699E-2</v>
           </cell>
           <cell r="E38">
-            <v>2.5396183578123201E-2</v>
+            <v>2.4833132793500599E-2</v>
           </cell>
         </row>
         <row r="39">
           <cell r="D39">
-            <v>4.4001979406521098E-2</v>
+            <v>2.9097878935280199E-3</v>
           </cell>
           <cell r="E39">
-            <v>1.65222285299115E-3</v>
+            <v>9.66770702787274E-5</v>
           </cell>
         </row>
         <row r="40">
           <cell r="C40">
-            <v>0.89874758132605104</v>
+            <v>0.80663435177251297</v>
           </cell>
           <cell r="D40">
-            <v>9.7416427246383298E-4</v>
+            <v>3.59986540925139E-3</v>
           </cell>
           <cell r="E40">
-            <v>1.68507784688584E-3</v>
+            <v>2.3911982281320599E-3</v>
           </cell>
         </row>
         <row r="41">
           <cell r="C41">
-            <v>0.53945066755204496</v>
+            <v>0.50980383792963702</v>
           </cell>
           <cell r="D41">
-            <v>8.7125692414591407E-3</v>
+            <v>2.97874048488155E-2</v>
           </cell>
           <cell r="E41">
-            <v>4.3476015940820401E-3</v>
+            <v>4.9603832489754501E-3</v>
           </cell>
         </row>
         <row r="42">
           <cell r="C42">
-            <v>0.58451739323443297</v>
+            <v>0.58918767836022701</v>
           </cell>
           <cell r="D42">
-            <v>2.8744151382956998E-2</v>
+            <v>8.0481134640277494E-2</v>
           </cell>
           <cell r="E42">
-            <v>1.7964034459072301E-2</v>
+            <v>1.7326544119775099E-2</v>
           </cell>
         </row>
         <row r="43">
           <cell r="C43">
-            <v>0.65073925658143095</v>
+            <v>0.65093587631861005</v>
           </cell>
           <cell r="D43">
-            <v>1.7070277557748901E-2</v>
+            <v>4.9868149995281101E-2</v>
           </cell>
           <cell r="E43">
-            <v>2.9723346640945301E-2</v>
+            <v>2.85531989209937E-2</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44">
-            <v>0.41105278037299198</v>
+            <v>0.41494922209713597</v>
           </cell>
           <cell r="C44">
-            <v>0.408809071374439</v>
+            <v>0.41107055286775901</v>
           </cell>
           <cell r="D44">
-            <v>0.108154471824605</v>
+            <v>0.31796467479352297</v>
           </cell>
           <cell r="E44">
-            <v>0.81138000033809099</v>
+            <v>0.80205408829477298</v>
           </cell>
         </row>
         <row r="45">
           <cell r="D45">
-            <v>-2.5796499256653798E-4</v>
+            <v>-5.3043981501454897E-4</v>
           </cell>
           <cell r="E45">
-            <v>5.9586795808796298E-5</v>
+            <v>-2.93861354517505E-4</v>
           </cell>
         </row>
         <row r="46">
           <cell r="D46">
-            <v>3.22931756437896E-3</v>
+            <v>9.4832063970747803E-3</v>
           </cell>
           <cell r="E46">
-            <v>4.7095803804934203E-3</v>
+            <v>4.69867496666369E-3</v>
           </cell>
         </row>
         <row r="47">
           <cell r="B47">
-            <v>0.82175629525349603</v>
+            <v>0.85640991011698897</v>
           </cell>
           <cell r="C47">
-            <v>0.82175629525349603</v>
+            <v>0.85640991011698897</v>
           </cell>
           <cell r="D47">
-            <v>4.4650499365633499E-2</v>
+            <v>0.108672471679716</v>
           </cell>
           <cell r="E47">
-            <v>2.1643936207587498E-2</v>
+            <v>2.2540030850080699E-2</v>
           </cell>
         </row>
         <row r="48">
           <cell r="C48">
-            <v>0.68609614196705604</v>
+            <v>0.68972833829360103</v>
           </cell>
           <cell r="D48">
-            <v>4.2588652649736797E-2</v>
+            <v>0.125738825025139</v>
           </cell>
           <cell r="E48">
-            <v>3.5013638572716499E-2</v>
+            <v>3.3959618230762899E-2</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="E50">
+            <v>0.12949803388710601</v>
           </cell>
         </row>
         <row r="51">
@@ -1244,13 +1251,13 @@
             <v>1</v>
           </cell>
           <cell r="C51">
-            <v>0.83728198672156195</v>
+            <v>0.859461722471349</v>
           </cell>
           <cell r="D51">
-            <v>4.9122398193789399E-2</v>
+            <v>0.139430710374227</v>
           </cell>
           <cell r="E51">
-            <v>2.6324406008447401E-2</v>
+            <v>2.8437883533884298E-2</v>
           </cell>
         </row>
         <row r="52">
@@ -1258,125 +1265,130 @@
             <v>1</v>
           </cell>
           <cell r="C52">
-            <v>0.90043152419070405</v>
+            <v>0.854838707538908</v>
           </cell>
           <cell r="D52">
-            <v>1.44280006572505E-2</v>
+            <v>7.1501323570043906E-2</v>
           </cell>
           <cell r="E52">
-            <v>2.7475595686020701E-2</v>
+            <v>3.9751740004059101E-2</v>
           </cell>
         </row>
         <row r="53">
           <cell r="D53">
-            <v>-4.46793442981577E-20</v>
+            <v>0</v>
           </cell>
           <cell r="E53">
-            <v>-3.2638684136759502E-20</v>
+            <v>-5.7002133685844106E-20</v>
           </cell>
         </row>
         <row r="54">
           <cell r="D54">
-            <v>1.39101828161551E-2</v>
+            <v>4.1526707806765997E-2</v>
           </cell>
           <cell r="E54">
-            <v>2.4161866180615301E-2</v>
+            <v>2.4087379129086602E-2</v>
           </cell>
         </row>
         <row r="55">
           <cell r="D55">
-            <v>5.0351601120823999E-2</v>
+            <v>-2.3105218720405701E-2</v>
           </cell>
           <cell r="E55">
-            <v>1.1569318990406201E-3</v>
+            <v>-7.9181555366220698E-4</v>
           </cell>
         </row>
         <row r="56">
           <cell r="C56">
-            <v>0.87869084072333703</v>
+            <v>0.79657604481997102</v>
           </cell>
           <cell r="D56">
-            <v>1.10105521612523E-3</v>
+            <v>4.3992973534237E-3</v>
           </cell>
           <cell r="E56">
-            <v>2.26191241174623E-3</v>
+            <v>3.1652612409079801E-3</v>
           </cell>
         </row>
         <row r="57">
           <cell r="C57">
-            <v>0.52733643213015002</v>
+            <v>0.50029968871561203</v>
           </cell>
           <cell r="D57">
-            <v>8.9392136356594293E-3</v>
+            <v>3.2979967572985401E-2</v>
           </cell>
           <cell r="E57">
-            <v>5.32011871505056E-3</v>
+            <v>6.0867918569585504E-3</v>
           </cell>
         </row>
         <row r="58">
           <cell r="C58">
-            <v>0.578923565728925</v>
+            <v>0.585338143649348</v>
           </cell>
           <cell r="D58">
-            <v>2.4498776323968099E-2</v>
+            <v>7.4234978511175401E-2</v>
           </cell>
           <cell r="E58">
-            <v>1.70485323080115E-2</v>
+            <v>1.6213083031392302E-2</v>
           </cell>
         </row>
         <row r="59">
           <cell r="C59">
-            <v>0.65002231987146097</v>
+            <v>0.65074746924451898</v>
           </cell>
           <cell r="D59">
-            <v>1.40418692413713E-2</v>
+            <v>4.4527345055279298E-2</v>
           </cell>
           <cell r="E59">
-            <v>2.83805667682322E-2</v>
+            <v>2.6947537772769901E-2</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60">
-            <v>0.409351769979304</v>
+            <v>0.41384659906579002</v>
           </cell>
           <cell r="C60">
-            <v>0.40587989993453499</v>
+            <v>0.40852170946463001</v>
           </cell>
           <cell r="D60">
-            <v>9.8708178617943607E-2</v>
+            <v>0.313447000116923</v>
           </cell>
           <cell r="E60">
-            <v>0.84018982416819199</v>
+            <v>0.82869088297414495</v>
           </cell>
         </row>
         <row r="61">
           <cell r="D61">
-            <v>-1.0684934412640899E-3</v>
+            <v>-2.7143485442393499E-3</v>
           </cell>
           <cell r="E61">
-            <v>-1.3655824665341999E-4</v>
+            <v>-1.60319708138958E-3</v>
           </cell>
         </row>
         <row r="62">
           <cell r="D62">
-            <v>2.7235264373745099E-3</v>
+            <v>9.3939650449871293E-3</v>
           </cell>
           <cell r="E62">
-            <v>4.8266971457645701E-3</v>
+            <v>5.0073626690174903E-3</v>
           </cell>
         </row>
         <row r="63">
           <cell r="B63">
-            <v>0.83084358573066497</v>
+            <v>0.864396796928799</v>
           </cell>
           <cell r="C63">
-            <v>0.83084358573066497</v>
+            <v>0.864396796928799</v>
           </cell>
           <cell r="D63">
-            <v>3.9134405118848997E-2</v>
+            <v>0.10255339268217301</v>
           </cell>
           <cell r="E63">
-            <v>2.2990106955528701E-2</v>
+            <v>2.40070904228364E-2</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="E65">
+            <v>0.11856265480011299</v>
           </cell>
         </row>
         <row r="66">
@@ -1384,13 +1396,13 @@
             <v>1</v>
           </cell>
           <cell r="C66">
-            <v>0.79743496660949298</v>
+            <v>0.82736050654239501</v>
           </cell>
           <cell r="D66">
-            <v>0.1086844272851</v>
+            <v>0.172537080648476</v>
           </cell>
           <cell r="E66">
-            <v>2.17210615931815E-2</v>
+            <v>2.1724732283709101E-2</v>
           </cell>
         </row>
         <row r="67">
@@ -1398,13 +1410,13 @@
             <v>1</v>
           </cell>
           <cell r="C67">
-            <v>1.00967366877396</v>
+            <v>0.94003913737129297</v>
           </cell>
           <cell r="D67">
-            <v>-2.4993439536397902E-3</v>
+            <v>2.5285770518515601E-2</v>
           </cell>
           <cell r="E67">
-            <v>2.6870917073698502E-3</v>
+            <v>1.26520215301656E-2</v>
           </cell>
         </row>
         <row r="68">
@@ -1417,10 +1429,10 @@
         </row>
         <row r="69">
           <cell r="D69">
-            <v>-1.27572463755799E-18</v>
+            <v>0</v>
           </cell>
           <cell r="E69">
-            <v>-1.4190343584520899E-18</v>
+            <v>-1.72458824534784E-18</v>
           </cell>
         </row>
         <row r="70">
@@ -1433,115 +1445,120 @@
         </row>
         <row r="71">
           <cell r="C71">
-            <v>0.96287343659985303</v>
+            <v>0.91297433848800402</v>
           </cell>
           <cell r="D71">
-            <v>1.7474539762132001E-4</v>
+            <v>3.8079521241973698E-4</v>
           </cell>
           <cell r="E71">
-            <v>1.6874194328699501E-4</v>
+            <v>2.59053390831001E-4</v>
           </cell>
         </row>
         <row r="72">
           <cell r="C72">
-            <v>0.742436715714342</v>
+            <v>0.65412967766626895</v>
           </cell>
           <cell r="D72">
-            <v>5.6499577688459701E-3</v>
+            <v>1.29353478105666E-2</v>
           </cell>
           <cell r="E72">
-            <v>1.88445699230908E-3</v>
+            <v>2.3651256542814802E-3</v>
           </cell>
         </row>
         <row r="73">
           <cell r="C73">
-            <v>0.705509778967357</v>
+            <v>0.71116434157319697</v>
           </cell>
           <cell r="D73">
-            <v>2.7889354344402199E-2</v>
+            <v>4.8815172968667699E-2</v>
           </cell>
           <cell r="E73">
-            <v>1.3065104203930001E-2</v>
+            <v>1.31130337298171E-2</v>
           </cell>
         </row>
         <row r="74">
           <cell r="C74">
-            <v>0.67188098424797704</v>
+            <v>0.67503604817733098</v>
           </cell>
           <cell r="D74">
-            <v>2.4890078265666998E-2</v>
+            <v>4.5584069476050898E-2</v>
           </cell>
           <cell r="E74">
-            <v>2.76990600368766E-2</v>
+            <v>2.7515580028437701E-2</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75">
-            <v>0.378075308708889</v>
+            <v>0.385293103489531</v>
           </cell>
           <cell r="C75">
-            <v>0.37860846312165902</v>
+            <v>0.384290997755527</v>
           </cell>
           <cell r="D75">
-            <v>0.177714704895305</v>
+            <v>0.32527683776850402</v>
           </cell>
           <cell r="E75">
-            <v>0.81130510403772005</v>
+            <v>0.80653663535555797</v>
           </cell>
         </row>
         <row r="76">
           <cell r="D76">
-            <v>-2.0054471276672202E-3</v>
+            <v>-2.2605172086243002E-3</v>
           </cell>
           <cell r="E76">
-            <v>-6.7569978594543402E-5</v>
+            <v>-1.3084434985745001E-3</v>
           </cell>
         </row>
         <row r="77">
           <cell r="D77">
-            <v>5.5737899579150303E-3</v>
+            <v>1.00737626137898E-2</v>
           </cell>
           <cell r="E77">
-            <v>5.1292468470883201E-3</v>
+            <v>5.2809784890067001E-3</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78">
-            <v>0.60027296592071</v>
+            <v>0.63441916624740602</v>
           </cell>
           <cell r="C78">
-            <v>0.60027296592071</v>
+            <v>0.63441916624740602</v>
           </cell>
           <cell r="D78">
-            <v>9.5494572409425396E-2</v>
+            <v>0.14447242791814799</v>
           </cell>
           <cell r="E78">
-            <v>3.1044387971429801E-2</v>
+            <v>2.86564874995675E-2</v>
           </cell>
         </row>
         <row r="79">
           <cell r="C79">
-            <v>0.65538454811091995</v>
+            <v>0.66257529927923497</v>
           </cell>
           <cell r="D79">
-            <v>7.9566004066369198E-2</v>
+            <v>0.15112693138511801</v>
           </cell>
           <cell r="E79">
-            <v>4.6429045755112398E-2</v>
+            <v>4.6106325215282497E-2</v>
           </cell>
         </row>
         <row r="80">
           <cell r="B80">
-            <v>0.93873989118616197</v>
+            <v>0.94530367088835998</v>
           </cell>
           <cell r="C80">
-            <v>0.93873989118616197</v>
+            <v>0.94530367088835998</v>
           </cell>
           <cell r="D80">
-            <v>2.4780305275959501E-2</v>
+            <v>4.12127709425276E-2</v>
           </cell>
           <cell r="E80">
-            <v>3.8934268890285402E-2</v>
+            <v>3.7098470321917397E-2</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="E82">
+            <v>9.2893910050749401E-2</v>
           </cell>
         </row>
         <row r="83">
@@ -1549,13 +1566,13 @@
             <v>1</v>
           </cell>
           <cell r="C83">
-            <v>0.82493727006451301</v>
+            <v>0.84066657907772901</v>
           </cell>
           <cell r="D83">
-            <v>7.4461928828544299E-2</v>
+            <v>0.15926418754636101</v>
           </cell>
           <cell r="E83">
-            <v>2.41418068738673E-2</v>
+            <v>2.4359703158961701E-2</v>
           </cell>
         </row>
         <row r="84">
@@ -1563,13 +1580,13 @@
             <v>1</v>
           </cell>
           <cell r="C84">
-            <v>0.88713152128473405</v>
+            <v>0.83514356020871106</v>
           </cell>
           <cell r="D84">
-            <v>1.9424088715471001E-2</v>
+            <v>6.7434974976381595E-2</v>
           </cell>
           <cell r="E84">
-            <v>2.70581866404166E-2</v>
+            <v>3.7576548547193098E-2</v>
           </cell>
         </row>
         <row r="85">
@@ -1582,10 +1599,10 @@
         </row>
         <row r="86">
           <cell r="D86">
-            <v>-4.1206635360920499E-19</v>
+            <v>0</v>
           </cell>
           <cell r="E86">
-            <v>-6.8226215894336397E-19</v>
+            <v>-1.0799846509681599E-18</v>
           </cell>
         </row>
         <row r="87">
@@ -1598,115 +1615,120 @@
         </row>
         <row r="88">
           <cell r="C88">
-            <v>0.94400053836846898</v>
+            <v>0.89800782821672398</v>
           </cell>
           <cell r="D88">
-            <v>2.4927374046927303E-4</v>
+            <v>7.1497039517165397E-4</v>
           </cell>
           <cell r="E88">
-            <v>3.1571323040184898E-4</v>
+            <v>4.5976433319822502E-4</v>
           </cell>
         </row>
         <row r="89">
           <cell r="C89">
-            <v>0.70703945571969795</v>
+            <v>0.64665753486766497</v>
           </cell>
           <cell r="D89">
-            <v>6.23629251244641E-3</v>
+            <v>1.6902368352247701E-2</v>
           </cell>
           <cell r="E89">
-            <v>2.81690545007552E-3</v>
+            <v>3.33653094512955E-3</v>
           </cell>
         </row>
         <row r="90">
           <cell r="C90">
-            <v>0.70356516819965798</v>
+            <v>0.70702637126568701</v>
           </cell>
           <cell r="D90">
-            <v>1.8760236050816399E-2</v>
+            <v>4.2170914365867299E-2</v>
           </cell>
           <cell r="E90">
-            <v>1.0029979208444E-2</v>
+            <v>1.0255035545218101E-2</v>
           </cell>
         </row>
         <row r="91">
           <cell r="C91">
-            <v>0.64407787010245998</v>
+            <v>0.649798319507217</v>
           </cell>
           <cell r="D91">
-            <v>1.8934491317799299E-2</v>
+            <v>4.3991168904508E-2</v>
           </cell>
           <cell r="E91">
-            <v>2.3567813879687202E-2</v>
+            <v>2.3673243739973801E-2</v>
           </cell>
         </row>
         <row r="92">
           <cell r="B92">
-            <v>0.37899561189457298</v>
+            <v>0.387056932876994</v>
           </cell>
           <cell r="C92">
-            <v>0.37643993694957201</v>
+            <v>0.38335111424909601</v>
           </cell>
           <cell r="D92">
-            <v>0.13983876567894901</v>
+            <v>0.32254010804114602</v>
           </cell>
           <cell r="E92">
-            <v>0.82309548839799296</v>
+            <v>0.81649851454279099</v>
           </cell>
         </row>
         <row r="93">
           <cell r="D93">
-            <v>-2.0424922478728398E-3</v>
+            <v>-3.6277271450579898E-3</v>
           </cell>
           <cell r="E93">
-            <v>-1.6662420068111099E-3</v>
+            <v>-1.88101681329118E-3</v>
           </cell>
         </row>
         <row r="94">
           <cell r="D94">
-            <v>3.2424521885407401E-3</v>
+            <v>8.6573011996328095E-3</v>
           </cell>
           <cell r="E94">
-            <v>4.3602602964488198E-3</v>
+            <v>4.1092157645811001E-3</v>
           </cell>
         </row>
         <row r="95">
           <cell r="B95">
-            <v>0.78501789871234995</v>
+            <v>0.803143232263269</v>
           </cell>
           <cell r="C95">
-            <v>0.78501789871234995</v>
+            <v>0.803143232263269</v>
           </cell>
           <cell r="D95">
-            <v>-2.0400307089939698E-3</v>
+            <v>-2.2378639219309899E-2</v>
           </cell>
           <cell r="E95">
-            <v>-2.4082029033821598E-3</v>
+            <v>-4.2599625567353401E-3</v>
           </cell>
         </row>
         <row r="96">
           <cell r="C96">
-            <v>0.63606736210204795</v>
+            <v>0.64066690653128</v>
           </cell>
           <cell r="D96">
-            <v>5.9500621329225498E-2</v>
+            <v>0.140785419676205</v>
           </cell>
           <cell r="E96">
-            <v>4.91425814634961E-2</v>
+            <v>4.84551288300882E-2</v>
           </cell>
         </row>
         <row r="97">
           <cell r="B97">
-            <v>0.93912884773758798</v>
+            <v>0.94625657233786697</v>
           </cell>
           <cell r="C97">
-            <v>0.93912884773758798</v>
+            <v>0.94625657233786697</v>
           </cell>
           <cell r="D97">
-            <v>1.9571300017275101E-2</v>
+            <v>4.0623946688262601E-2</v>
           </cell>
           <cell r="E97">
-            <v>3.9545709469365101E-2</v>
+            <v>3.7416440289628698E-2</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="E99">
+            <v>2.5653113224192E-2</v>
           </cell>
         </row>
         <row r="100">
@@ -1714,27 +1736,27 @@
             <v>1</v>
           </cell>
           <cell r="C100">
-            <v>0.76497674432363505</v>
+            <v>0.83135920233321803</v>
           </cell>
           <cell r="D100">
-            <v>5.1311840865434402E-2</v>
+            <v>0.16852890917114499</v>
           </cell>
           <cell r="E100">
-            <v>2.9703496361496998E-2</v>
+            <v>2.4509859590833401E-2</v>
           </cell>
         </row>
         <row r="101">
           <cell r="B101">
-            <v>0.999999999999999</v>
+            <v>1</v>
           </cell>
           <cell r="C101">
-            <v>1.03403434233664</v>
+            <v>0.91413302402642505</v>
           </cell>
           <cell r="D101">
-            <v>-5.9249931360454396E-3</v>
+            <v>3.9060917416995897E-2</v>
           </cell>
           <cell r="E101">
-            <v>3.2665605686924199E-3</v>
+            <v>1.9796007164448001E-2</v>
           </cell>
         </row>
         <row r="102">
@@ -1747,10 +1769,10 @@
         </row>
         <row r="103">
           <cell r="D103">
-            <v>-1.5182559041531601E-19</v>
+            <v>0</v>
           </cell>
           <cell r="E103">
-            <v>-1.12545016134737E-20</v>
+            <v>5.7176476333485195E-19</v>
           </cell>
         </row>
         <row r="104">
@@ -1763,115 +1785,120 @@
         </row>
         <row r="105">
           <cell r="C105">
-            <v>0.95692516312105602</v>
+            <v>0.91570203810300199</v>
           </cell>
           <cell r="D105">
-            <v>1.60711871698927E-4</v>
+            <v>8.3423721233610805E-4</v>
           </cell>
           <cell r="E105">
-            <v>3.8226223925892601E-4</v>
+            <v>4.9343029717762799E-4</v>
           </cell>
         </row>
         <row r="106">
           <cell r="C106">
-            <v>0.63885711250917399</v>
+            <v>0.61898365155171398</v>
           </cell>
           <cell r="D106">
-            <v>3.6698345347006699E-3</v>
+            <v>2.0305907944309701E-2</v>
           </cell>
           <cell r="E106">
-            <v>3.0650775486097E-3</v>
+            <v>3.60295007056918E-3</v>
           </cell>
         </row>
         <row r="107">
           <cell r="C107">
-            <v>0.70722155257159902</v>
+            <v>0.71204969148830399</v>
           </cell>
           <cell r="D107">
-            <v>1.3396201537525399E-2</v>
+            <v>5.8943044254879499E-2</v>
           </cell>
           <cell r="E107">
-            <v>1.2582516700708E-2</v>
+            <v>1.3026377494349199E-2</v>
           </cell>
         </row>
         <row r="108">
           <cell r="C108">
-            <v>0.662763215645646</v>
+            <v>0.66806819213551205</v>
           </cell>
           <cell r="D108">
-            <v>1.24915756084299E-2</v>
+            <v>5.6656944743489403E-2</v>
           </cell>
           <cell r="E108">
-            <v>2.7835943660193901E-2</v>
+            <v>2.8261144617074099E-2</v>
           </cell>
         </row>
         <row r="109">
           <cell r="B109">
-            <v>0.393138256599675</v>
+            <v>0.40324073166182201</v>
           </cell>
           <cell r="C109">
-            <v>0.390628132384922</v>
+            <v>0.39875444659954901</v>
           </cell>
           <cell r="D109">
-            <v>7.1993068328097903E-2</v>
+            <v>0.32043248653946099</v>
           </cell>
           <cell r="E109">
-            <v>0.82480658696608</v>
+            <v>0.80589142928641999</v>
           </cell>
         </row>
         <row r="110">
           <cell r="D110">
-            <v>-3.6977121137250399E-4</v>
+            <v>-1.09207546127931E-3</v>
           </cell>
           <cell r="E110">
-            <v>-1.5302116680302401E-2</v>
+            <v>-5.1973016960248997E-4</v>
           </cell>
         </row>
         <row r="111">
           <cell r="D111">
-            <v>2.6662882875402001E-3</v>
+            <v>1.2392266217734401E-2</v>
           </cell>
           <cell r="E111">
-            <v>5.0716916316507401E-3</v>
+            <v>5.1906355000757498E-3</v>
           </cell>
         </row>
         <row r="112">
           <cell r="B112">
-            <v>0.64635404731637702</v>
+            <v>0.68963190129268304</v>
           </cell>
           <cell r="C112">
-            <v>0.64635404731637702</v>
+            <v>0.68963190129268304</v>
           </cell>
           <cell r="D112">
-            <v>2.9552653345851301E-2</v>
+            <v>9.1009308399404298E-2</v>
           </cell>
           <cell r="E112">
-            <v>2.2239090294395501E-2</v>
+            <v>1.9179913605747001E-2</v>
           </cell>
         </row>
         <row r="113">
           <cell r="C113">
-            <v>0.65972174487371305</v>
+            <v>0.65322498962513398</v>
           </cell>
           <cell r="D113">
-            <v>3.2681455433005303E-2</v>
+            <v>0.164300601306897</v>
           </cell>
           <cell r="E113">
-            <v>4.9475672042242E-2</v>
+            <v>4.7933135854168599E-2</v>
           </cell>
         </row>
         <row r="114">
           <cell r="B114">
-            <v>0.94571355773278398</v>
+            <v>0.95511137698027904</v>
           </cell>
           <cell r="C114">
-            <v>0.94571355773278398</v>
+            <v>0.95511137698027904</v>
           </cell>
           <cell r="D114">
-            <v>8.9834517354096307E-3</v>
+            <v>3.39950591428234E-2</v>
           </cell>
           <cell r="E114">
-            <v>3.6873218666975197E-2</v>
+            <v>3.2634846688737902E-2</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="E116">
+            <v>8.4496694803373004E-2</v>
           </cell>
         </row>
         <row r="117">
@@ -1879,13 +1906,13 @@
             <v>1</v>
           </cell>
           <cell r="C117">
-            <v>0.77157441024513196</v>
+            <v>0.81285270186473402</v>
           </cell>
           <cell r="D117">
-            <v>8.5595727340760902E-2</v>
+            <v>0.187033852963297</v>
           </cell>
           <cell r="E117">
-            <v>2.3167939023363199E-2</v>
+            <v>2.0984595400151101E-2</v>
           </cell>
         </row>
         <row r="118">
@@ -1893,13 +1920,13 @@
             <v>1</v>
           </cell>
           <cell r="C118">
-            <v>1.0333013476048101</v>
+            <v>0.94207250612020799</v>
           </cell>
           <cell r="D118">
-            <v>-4.6353588665486896E-3</v>
+            <v>2.34123776203801E-2</v>
           </cell>
           <cell r="E118">
-            <v>-1.9096438078105701E-3</v>
+            <v>1.0635962973105701E-2</v>
           </cell>
         </row>
         <row r="119">
@@ -1912,10 +1939,10 @@
         </row>
         <row r="120">
           <cell r="D120">
-            <v>-5.8278844684052002E-19</v>
+            <v>0</v>
           </cell>
           <cell r="E120">
-            <v>-6.3766971031475405E-19</v>
+            <v>1.03266890045403E-19</v>
           </cell>
         </row>
         <row r="121">
@@ -1928,201 +1955,206 @@
         </row>
         <row r="122">
           <cell r="C122">
-            <v>0.984543618954828</v>
+            <v>0.91604392819532698</v>
           </cell>
           <cell r="D122">
-            <v>8.0155348469523494E-5</v>
+            <v>2.4880279292993602E-4</v>
           </cell>
           <cell r="E122">
-            <v>9.8346749782584296E-5</v>
+            <v>1.68600112599663E-4</v>
           </cell>
         </row>
         <row r="123">
           <cell r="C123">
-            <v>0.74208418172978796</v>
+            <v>0.64746686058774605</v>
           </cell>
           <cell r="D123">
-            <v>3.8247705628475801E-3</v>
+            <v>1.33555527970452E-2</v>
           </cell>
           <cell r="E123">
-            <v>1.6693922596152399E-3</v>
+            <v>2.17681848564669E-3</v>
           </cell>
         </row>
         <row r="124">
           <cell r="C124">
-            <v>0.65374968061357497</v>
+            <v>0.65761544263221205</v>
           </cell>
           <cell r="D124">
-            <v>2.4097510756688499E-2</v>
+            <v>6.1432657968954099E-2</v>
           </cell>
           <cell r="E124">
-            <v>1.6996488610347901E-2</v>
+            <v>1.7266448205721398E-2</v>
           </cell>
         </row>
         <row r="125">
           <cell r="C125">
-            <v>0.67259099603609596</v>
+            <v>0.67506719570913098</v>
           </cell>
           <cell r="D125">
-            <v>1.8117280627427901E-2</v>
+            <v>4.7593485592217898E-2</v>
           </cell>
           <cell r="E125">
-            <v>2.9139063476866602E-2</v>
+            <v>2.9305143378696E-2</v>
           </cell>
         </row>
         <row r="126">
           <cell r="B126">
-            <v>0.37871444086300898</v>
+            <v>0.38639998873579201</v>
           </cell>
           <cell r="C126">
-            <v>0.37934839196364001</v>
+            <v>0.388549658447847</v>
           </cell>
           <cell r="D126">
-            <v>0.12658164114065701</v>
+            <v>0.32799634336772299</v>
           </cell>
           <cell r="E126">
-            <v>0.82100844329306499</v>
+            <v>0.81390180237495302</v>
           </cell>
         </row>
         <row r="127">
           <cell r="D127">
-            <v>-2.96397695402747E-4</v>
+            <v>-5.5403240168372305E-4</v>
           </cell>
           <cell r="E127">
-            <v>-2.9371321296373801E-3</v>
+            <v>-3.25922298537432E-4</v>
           </cell>
         </row>
         <row r="128">
           <cell r="D128">
-            <v>3.7772841672629701E-3</v>
+            <v>9.8679355410668992E-3</v>
           </cell>
           <cell r="E128">
-            <v>5.1236724682405298E-3</v>
+            <v>5.2377818082094702E-3</v>
           </cell>
         </row>
         <row r="129">
           <cell r="B129">
-            <v>0.62694720566358997</v>
+            <v>0.64824717444074997</v>
           </cell>
           <cell r="C129">
-            <v>0.62694720566358997</v>
+            <v>0.64824717444074997</v>
           </cell>
           <cell r="D129">
-            <v>5.7010338708086701E-2</v>
+            <v>0.130513123469402</v>
           </cell>
           <cell r="E129">
-            <v>2.6642551433885799E-2</v>
+            <v>2.2575147133629101E-2</v>
           </cell>
         </row>
         <row r="130">
           <cell r="C130">
-            <v>0.65825379585561605</v>
+            <v>0.67201488353864802</v>
           </cell>
           <cell r="D130">
-            <v>5.33970552483026E-2</v>
+            <v>0.146130848142312</v>
           </cell>
           <cell r="E130">
-            <v>4.1263872052825099E-2</v>
+            <v>4.1722149695316499E-2</v>
           </cell>
         </row>
         <row r="131">
           <cell r="B131">
-            <v>0.93688985286505599</v>
+            <v>0.94419995161885495</v>
           </cell>
           <cell r="C131">
-            <v>0.93688985286505599</v>
+            <v>0.94419995161885495</v>
           </cell>
           <cell r="D131">
-            <v>1.7856720810369899E-2</v>
+            <v>4.2095095367352099E-2</v>
           </cell>
           <cell r="E131">
-            <v>3.97370065694512E-2</v>
+            <v>3.7552593293394602E-2</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="E133">
+            <v>5.55775593248896E-2</v>
           </cell>
         </row>
         <row r="134">
           <cell r="C134">
-            <v>0.12774597204229801</v>
+            <v>0.13282477634763201</v>
           </cell>
           <cell r="D134">
-            <v>0.32038318274344202</v>
+            <v>0.29640650242063599</v>
           </cell>
           <cell r="E134">
-            <v>0.221777432209501</v>
+            <v>0.26683350444433301</v>
           </cell>
         </row>
         <row r="135">
           <cell r="C135">
-            <v>0.13488937229918299</v>
+            <v>0.142815921236156</v>
           </cell>
           <cell r="D135">
-            <v>0.31362025220983297</v>
+            <v>0.29203074908424398</v>
           </cell>
           <cell r="E135">
-            <v>0.21453852141569901</v>
+            <v>0.23422249197041001</v>
           </cell>
         </row>
         <row r="136">
           <cell r="D136">
-            <v>2.01966481294949E-4</v>
+            <v>3.0189119328172199E-4</v>
           </cell>
           <cell r="E136">
-            <v>3.7114700449583101E-4</v>
+            <v>3.8419882375851099E-4</v>
           </cell>
         </row>
         <row r="137">
           <cell r="D137">
-            <v>2.7983776896876601E-4</v>
+            <v>3.6048461405457899E-4</v>
           </cell>
           <cell r="E137">
-            <v>4.9483970585842104E-4</v>
+            <v>5.0009385162636498E-4</v>
           </cell>
         </row>
         <row r="138">
           <cell r="D138">
-            <v>6.6497963731438998E-3</v>
+            <v>9.2039461849201497E-3</v>
           </cell>
           <cell r="E138">
-            <v>7.7709229435227699E-3</v>
+            <v>8.3626214063361008E-3</v>
           </cell>
         </row>
         <row r="139">
           <cell r="D139">
-            <v>5.1819695519722004E-3</v>
+            <v>6.9473102792525498E-3</v>
           </cell>
           <cell r="E139">
-            <v>5.4650666031602398E-3</v>
+            <v>5.6110536139733101E-3</v>
           </cell>
         </row>
         <row r="140">
           <cell r="D140">
-            <v>-6.8712342461879497E-3</v>
+            <v>-8.4178414337561201E-3</v>
           </cell>
           <cell r="E140">
-            <v>-4.8631034009990696E-3</v>
+            <v>-4.9877729806299302E-3</v>
           </cell>
         </row>
         <row r="141">
           <cell r="D141">
-            <v>-9.1706344020184398E-3</v>
+            <v>-9.4148826684661204E-3</v>
           </cell>
           <cell r="E141">
-            <v>-4.9624489818232203E-3</v>
+            <v>-4.9785987026826801E-3</v>
           </cell>
         </row>
         <row r="142">
           <cell r="D142">
-            <v>0.31210077966112798</v>
+            <v>0.31330381223083698</v>
           </cell>
           <cell r="E142">
-            <v>0.30047626574830499</v>
+            <v>0.34772622639614598</v>
           </cell>
         </row>
         <row r="143">
           <cell r="D143">
-            <v>0.28356205612871499</v>
+            <v>0.28298923100801798</v>
           </cell>
           <cell r="E143">
-            <v>0.25893135675228102</v>
+            <v>0.28633099990056199</v>
           </cell>
         </row>
         <row r="144">
@@ -2141,185 +2173,195 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="147">
+          <cell r="E147">
+            <v>3.4185665746308998E-2</v>
+          </cell>
+        </row>
         <row r="148">
           <cell r="C148">
-            <v>0.91506935380483301</v>
+            <v>0.91459273245951</v>
           </cell>
           <cell r="D148">
-            <v>4.0399566486316804E-3</v>
+            <v>3.77484898001723E-3</v>
           </cell>
           <cell r="E148">
-            <v>2.0137702369178698E-2</v>
+            <v>1.5605510530412099E-2</v>
           </cell>
         </row>
         <row r="149">
           <cell r="C149">
-            <v>0.897117442100967</v>
+            <v>0.897559886041705</v>
           </cell>
           <cell r="D149">
-            <v>5.8730635066998301E-3</v>
+            <v>5.9377048063590197E-3</v>
           </cell>
           <cell r="E149">
-            <v>3.6016536334668801E-2</v>
+            <v>2.2943063205842398E-2</v>
           </cell>
         </row>
         <row r="150">
           <cell r="D150">
-            <v>5.5832553630695799E-18</v>
+            <v>0</v>
           </cell>
           <cell r="E150">
-            <v>2.2945049350399801E-17</v>
+            <v>2.67961289576596E-17</v>
           </cell>
         </row>
         <row r="151">
           <cell r="D151">
-            <v>1.1404877356461699E-18</v>
+            <v>0</v>
           </cell>
           <cell r="E151">
-            <v>5.3641993294696799E-18</v>
+            <v>1.9244903063525501E-18</v>
           </cell>
         </row>
         <row r="152">
           <cell r="C152">
-            <v>0.44221633189862902</v>
+            <v>0.45842675944453698</v>
           </cell>
           <cell r="D152">
-            <v>0.153400547421504</v>
+            <v>0.16718846617458299</v>
           </cell>
           <cell r="E152">
-            <v>0.42204787611730699</v>
+            <v>0.45668853817069299</v>
           </cell>
         </row>
         <row r="153">
           <cell r="C153">
-            <v>0.83750334073817401</v>
+            <v>0.83604369292737502</v>
           </cell>
           <cell r="D153">
-            <v>7.8538887208099793E-3</v>
+            <v>5.9136495805546301E-2</v>
           </cell>
           <cell r="E153">
-            <v>2.2261879791993299E-2</v>
+            <v>6.1513871807987999E-3</v>
           </cell>
         </row>
         <row r="154">
           <cell r="C154">
-            <v>0.61977598567190695</v>
+            <v>0.62469144627420903</v>
           </cell>
           <cell r="D154">
-            <v>0.10393185339882401</v>
+            <v>0.107169376933336</v>
           </cell>
           <cell r="E154">
-            <v>0.44759712261381801</v>
+            <v>0.46292875024337399</v>
           </cell>
         </row>
         <row r="155">
           <cell r="C155">
-            <v>0.86191571632018404</v>
+            <v>0.86163449546100102</v>
           </cell>
           <cell r="D155">
-            <v>4.4780977932272502E-2</v>
+            <v>4.4350057184976699E-2</v>
           </cell>
           <cell r="E155">
-            <v>5.1938882773032199E-2</v>
+            <v>3.5682750668882497E-2</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="E157">
+            <v>3.2590431847403199E-2</v>
           </cell>
         </row>
         <row r="158">
           <cell r="B158">
-            <v>-407346800445.48102</v>
+            <v>1.09660818221252</v>
           </cell>
           <cell r="C158">
-            <v>-407346800445.50299</v>
+            <v>0.61310155884717299</v>
           </cell>
           <cell r="D158">
-            <v>5.3095451945194702E-2</v>
+            <v>0.32491143794266503</v>
           </cell>
           <cell r="E158">
-            <v>9.4312836442828202E-2</v>
+            <v>0.82493278150325999</v>
           </cell>
         </row>
         <row r="159">
-          <cell r="C159" t="str">
-            <v>nan</v>
+          <cell r="C159">
+            <v>0</v>
           </cell>
           <cell r="D159">
-            <v>2.1726811311378599E-2</v>
+            <v>0.13017218557363699</v>
           </cell>
           <cell r="E159">
-            <v>0.24830387941853299</v>
+            <v>3.0428353408020099E-2</v>
           </cell>
         </row>
         <row r="160">
           <cell r="D160">
-            <v>-1.2669187080924201E-18</v>
+            <v>0</v>
           </cell>
           <cell r="E160">
-            <v>-3.7951659319351203E-17</v>
+            <v>-1.6637170746339901E-18</v>
           </cell>
         </row>
         <row r="161">
           <cell r="C161">
-            <v>0.44646972137834101</v>
+            <v>0.4470909225643</v>
           </cell>
           <cell r="D161">
-            <v>0.47237221303222998</v>
+            <v>0.47157443000544402</v>
           </cell>
           <cell r="E161">
-            <v>8.7401993428477195E-2</v>
+            <v>1.8001184100400899E-2</v>
           </cell>
         </row>
         <row r="162">
           <cell r="C162">
-            <v>0.44646972137834101</v>
+            <v>0.447090922564302</v>
           </cell>
           <cell r="D162">
-            <v>0.47237221303222998</v>
+            <v>0.47157443000543198</v>
           </cell>
           <cell r="E162">
-            <v>5.8267995618985297E-2</v>
+            <v>1.20007894002671E-2</v>
           </cell>
         </row>
         <row r="163">
           <cell r="C163">
-            <v>0.55240608719666895</v>
+            <v>0.55290840094570504</v>
           </cell>
           <cell r="D163">
-            <v>0.38196813308414501</v>
+            <v>0.381323032282403</v>
           </cell>
           <cell r="E163">
-            <v>9.0867503582356596E-2</v>
+            <v>1.8714935398680001E-2</v>
           </cell>
         </row>
         <row r="164">
           <cell r="C164">
-            <v>0.25818943543817602</v>
+            <v>0.25902193479775498</v>
           </cell>
           <cell r="D164">
-            <v>0.63304702843954397</v>
+            <v>0.63197788389522902</v>
           </cell>
           <cell r="E164">
-            <v>0.15617506899039801</v>
+            <v>3.2165584084640597E-2</v>
           </cell>
         </row>
         <row r="165">
           <cell r="C165">
-            <v>0.66329942993174995</v>
+            <v>0.66301919938605502</v>
           </cell>
           <cell r="D165">
-            <v>0.287309357900005</v>
+            <v>0.28746501235559302</v>
           </cell>
           <cell r="E165">
-            <v>4.4984823011185997E-2</v>
+            <v>9.4681643002385105E-3</v>
           </cell>
         </row>
         <row r="166">
           <cell r="C166">
-            <v>0.64944681772919</v>
+            <v>0.65035790674701699</v>
           </cell>
           <cell r="D166">
-            <v>0.22437683976846401</v>
+            <v>0.298174309136709</v>
           </cell>
           <cell r="E166">
-            <v>0.219685899507233</v>
+            <v>5.4288207804487003E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2593,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="L140" sqref="L140"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,6 +2645,7 @@
     <col min="2" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2647,7 +2690,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3">
+      <c r="F3" s="6">
         <f>[1]aggregated_efficiencies!$E$3</f>
         <v>0.12523810981504899</v>
       </c>
@@ -2663,15 +2706,19 @@
       </c>
       <c r="C4" s="1">
         <f>[1]aggregated_efficiencies!C4</f>
-        <v>0.83595574451898003</v>
+        <v>0.85828350676657905</v>
       </c>
       <c r="D4" s="1">
         <f>[1]aggregated_efficiencies!D4</f>
-        <v>4.7986973315578101E-2</v>
+        <v>0.140590170544695</v>
       </c>
       <c r="E4" s="1">
         <f>[1]aggregated_efficiencies!E4</f>
-        <v>2.7166176229207799E-2</v>
+        <v>2.9257562271084999E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <f>E4*$F$3</f>
+        <v>3.6641617966267771E-3</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -2685,15 +2732,19 @@
       </c>
       <c r="C5" s="1">
         <f>[1]aggregated_efficiencies!C5</f>
-        <v>0.90262608959496604</v>
+        <v>0.85737262254190705</v>
       </c>
       <c r="D5" s="1">
         <f>[1]aggregated_efficiencies!D5</f>
-        <v>1.35321833812088E-2</v>
+        <v>6.9591222018148199E-2</v>
       </c>
       <c r="E5" s="1">
         <f>[1]aggregated_efficiencies!E5</f>
-        <v>2.7373998648165299E-2</v>
+        <v>3.9924312455804301E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F16" si="0">E5*$F$3</f>
+        <v>5.0000454276303468E-3</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -2711,11 +2762,15 @@
       </c>
       <c r="D6" s="1">
         <f>[1]aggregated_efficiencies!D6</f>
-        <v>2.8799380981835702E-19</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <f>[1]aggregated_efficiencies!E6</f>
-        <v>5.9435103990715498E-20</v>
+        <v>3.7216772922971303E-21</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>4.6609582942888213E-22</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>63</v>
@@ -2735,11 +2790,15 @@
       </c>
       <c r="D7" s="1">
         <f>[1]aggregated_efficiencies!D7</f>
-        <v>1.6043671210738401E-2</v>
+        <v>4.7279096820426601E-2</v>
       </c>
       <c r="E7" s="1">
         <f>[1]aggregated_efficiencies!E7</f>
-        <v>2.9361025411021001E-2</v>
+        <v>2.8469934019871999E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>3.5655207232079284E-3</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -2757,11 +2816,15 @@
       </c>
       <c r="D8" s="1">
         <f>[1]aggregated_efficiencies!D8</f>
-        <v>1.8106532729584901E-2</v>
+        <v>1.08467245530756E-2</v>
       </c>
       <c r="E8" s="1">
         <f>[1]aggregated_efficiencies!E8</f>
-        <v>2.1246835906998502E-3</v>
+        <v>4.3837988735520198E-4</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>5.4901868473299591E-5</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -2775,15 +2838,19 @@
       </c>
       <c r="C9" s="1">
         <f>[1]aggregated_efficiencies!C9</f>
-        <v>0.88553809311299103</v>
+        <v>0.80073392200635796</v>
       </c>
       <c r="D9" s="1">
         <f>[1]aggregated_efficiencies!D9</f>
-        <v>1.0351764318938801E-3</v>
+        <v>4.2944729307237096E-3</v>
       </c>
       <c r="E9" s="1">
         <f>[1]aggregated_efficiencies!E9</f>
-        <v>2.1720139573005799E-3</v>
+        <v>3.08025168449696E-3</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>3.8576489872101989E-4</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -2797,15 +2864,19 @@
       </c>
       <c r="C10" s="1">
         <f>[1]aggregated_efficiencies!C10</f>
-        <v>0.53506108753474702</v>
+        <v>0.51140961725553402</v>
       </c>
       <c r="D10" s="1">
         <f>[1]aggregated_efficiencies!D10</f>
-        <v>7.9372660459868707E-3</v>
+        <v>2.9995446321980899E-2</v>
       </c>
       <c r="E10" s="1">
         <f>[1]aggregated_efficiencies!E10</f>
-        <v>4.80746082993945E-3</v>
+        <v>5.4810748051824197E-3</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>6.8643944835593414E-4</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -2819,15 +2890,19 @@
       </c>
       <c r="C11" s="1">
         <f>[1]aggregated_efficiencies!C11</f>
-        <v>0.58027826919933001</v>
+        <v>0.58472701231629898</v>
       </c>
       <c r="D11" s="1">
         <f>[1]aggregated_efficiencies!D11</f>
-        <v>2.2563143640225301E-2</v>
+        <v>7.0559153950491102E-2</v>
       </c>
       <c r="E11" s="1">
         <f>[1]aggregated_efficiencies!E11</f>
-        <v>1.6594060689969499E-2</v>
+        <v>1.57868514295351E-2</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9771154329659797E-3</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -2841,15 +2916,19 @@
       </c>
       <c r="C12" s="1">
         <f>[1]aggregated_efficiencies!C12</f>
-        <v>0.64721276277543904</v>
+        <v>0.64745682818261696</v>
       </c>
       <c r="D12" s="1">
         <f>[1]aggregated_efficiencies!D12</f>
-        <v>1.3218369407425001E-2</v>
+        <v>4.3230233061993598E-2</v>
       </c>
       <c r="E12" s="1">
         <f>[1]aggregated_efficiencies!E12</f>
-        <v>2.7572911738647302E-2</v>
+        <v>2.6153475571066901E-2</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>3.2754118456144775E-3</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -2859,19 +2938,23 @@
       </c>
       <c r="B13" s="1">
         <f>[1]aggregated_efficiencies!B13</f>
-        <v>0.407819978010446</v>
+        <v>0.41250671791112897</v>
       </c>
       <c r="C13" s="1">
         <f>[1]aggregated_efficiencies!C13</f>
-        <v>0.40503995076419602</v>
+        <v>0.40788686279874198</v>
       </c>
       <c r="D13" s="1">
         <f>[1]aggregated_efficiencies!D13</f>
-        <v>9.4142860746413398E-2</v>
+        <v>0.30916352973600603</v>
       </c>
       <c r="E13" s="1">
         <f>[1]aggregated_efficiencies!E13</f>
-        <v>0.83393008435898797</v>
+        <v>0.8215067625393</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10288395414070223</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -2889,11 +2972,15 @@
       </c>
       <c r="D14" s="1">
         <f>[1]aggregated_efficiencies!D14</f>
-        <v>-1.4670722078031799E-18</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <f>[1]aggregated_efficiencies!E14</f>
-        <v>-2.7798025027133999E-18</v>
+        <v>-2.7367726136636201E-18</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>-3.427482291288231E-19</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>63</v>
@@ -2913,11 +3000,15 @@
       </c>
       <c r="D15" s="1">
         <f>[1]aggregated_efficiencies!D15</f>
-        <v>2.5798387816883699E-3</v>
+        <v>8.4792267795439306E-3</v>
       </c>
       <c r="E15" s="1">
         <f>[1]aggregated_efficiencies!E15</f>
-        <v>4.5325163848320797E-3</v>
+        <v>4.53922851936483E-3</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>5.6848439978381485E-4</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -2927,19 +3018,23 @@
       </c>
       <c r="B16" s="1">
         <f>[1]aggregated_efficiencies!B16</f>
-        <v>0.827175895123474</v>
+        <v>0.86022801124547998</v>
       </c>
       <c r="C16" s="1">
         <f>[1]aggregated_efficiencies!C16</f>
-        <v>0.827175895123474</v>
+        <v>0.86022801124547998</v>
       </c>
       <c r="D16" s="1">
         <f>[1]aggregated_efficiencies!D16</f>
-        <v>3.8689961612392902E-2</v>
+        <v>0.10567741810097001</v>
       </c>
       <c r="E16" s="1">
         <f>[1]aggregated_efficiencies!E16</f>
-        <v>2.4365068161228302E-2</v>
+        <v>2.5362166816937402E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>3.1763098329671978E-3</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -2950,7 +3045,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2">
         <f>SUM(E4:E16)</f>
-        <v>0.99999999999999911</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -2962,7 +3057,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18">
+      <c r="F18" s="6">
         <f>[1]aggregated_efficiencies!$E$18</f>
         <v>0.147791498751281</v>
       </c>
@@ -2978,15 +3073,19 @@
       </c>
       <c r="C19" s="1">
         <f>[1]aggregated_efficiencies!C19</f>
-        <v>0.83203300878911501</v>
+        <v>0.85414942858047804</v>
       </c>
       <c r="D19" s="1">
         <f>[1]aggregated_efficiencies!D19</f>
-        <v>5.3253186248289397E-2</v>
+        <v>0.144633845627617</v>
       </c>
       <c r="E19" s="1">
         <f>[1]aggregated_efficiencies!E19</f>
-        <v>2.46069005863979E-2</v>
+        <v>2.6342262628277002E-2</v>
+      </c>
+      <c r="F19" s="6">
+        <f>E19*$F$18</f>
+        <v>3.8931624743329166E-3</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -3000,15 +3099,19 @@
       </c>
       <c r="C20" s="1">
         <f>[1]aggregated_efficiencies!C20</f>
-        <v>0.90182676457467204</v>
+        <v>0.85553886934128398</v>
       </c>
       <c r="D20" s="1">
         <f>[1]aggregated_efficiencies!D20</f>
-        <v>1.41996168562723E-2</v>
+        <v>6.6937809318216204E-2</v>
       </c>
       <c r="E20" s="1">
         <f>[1]aggregated_efficiencies!E20</f>
-        <v>2.4895150210739101E-2</v>
+        <v>3.5736740254520498E-2</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F32" si="1">E20*$F$18</f>
+        <v>5.2815864027008193E-3</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -3026,11 +3129,15 @@
       </c>
       <c r="D21" s="1">
         <f>[1]aggregated_efficiencies!D21</f>
-        <v>-3.5785009074963398E-19</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <f>[1]aggregated_efficiencies!E21</f>
-        <v>-6.1056834248150401E-20</v>
+        <v>-6.1542801386730599E-20</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="1"/>
+        <v>-9.0955028542973303E-21</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>63</v>
@@ -3050,11 +3157,15 @@
       </c>
       <c r="D22" s="1">
         <f>[1]aggregated_efficiencies!D22</f>
-        <v>1.9139237443560001E-2</v>
+        <v>5.2756572559430497E-2</v>
       </c>
       <c r="E22" s="1">
         <f>[1]aggregated_efficiencies!E22</f>
-        <v>3.03482238233003E-2</v>
+        <v>2.9734347519121601E-2</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="1"/>
+        <v>4.3944837842424152E-3</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -3072,11 +3183,15 @@
       </c>
       <c r="D23" s="1">
         <f>[1]aggregated_efficiencies!D23</f>
-        <v>1.9789867192155301E-2</v>
+        <v>1.11289702890382E-2</v>
       </c>
       <c r="E23" s="1">
         <f>[1]aggregated_efficiencies!E23</f>
-        <v>1.96433072729091E-3</v>
+        <v>4.0594630653220703E-4</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="1"/>
+        <v>5.999541305494181E-5</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -3090,15 +3205,19 @@
       </c>
       <c r="C24" s="1">
         <f>[1]aggregated_efficiencies!C24</f>
-        <v>0.90961216623246099</v>
+        <v>0.82501024517215804</v>
       </c>
       <c r="D24" s="1">
         <f>[1]aggregated_efficiencies!D24</f>
-        <v>8.3360854372329404E-4</v>
+        <v>3.09139343904074E-3</v>
       </c>
       <c r="E24" s="1">
         <f>[1]aggregated_efficiencies!E24</f>
-        <v>1.4570935612098299E-3</v>
+        <v>2.0433204443842399E-3</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0198539090468032E-4</v>
       </c>
       <c r="G24" s="2"/>
     </row>
@@ -3112,15 +3231,19 @@
       </c>
       <c r="C25" s="1">
         <f>[1]aggregated_efficiencies!C25</f>
-        <v>0.534243405836897</v>
+        <v>0.51285246290873499</v>
       </c>
       <c r="D25" s="1">
         <f>[1]aggregated_efficiencies!D25</f>
-        <v>9.8803238208698494E-3</v>
+        <v>3.4047634999061799E-2</v>
       </c>
       <c r="E25" s="1">
         <f>[1]aggregated_efficiencies!E25</f>
-        <v>4.5861889375341004E-3</v>
+        <v>5.12196233924861E-3</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="1"/>
+        <v>7.5698249066516931E-4</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -3134,15 +3257,19 @@
       </c>
       <c r="C26" s="1">
         <f>[1]aggregated_efficiencies!C26</f>
-        <v>0.58133456113481297</v>
+        <v>0.586937062657651</v>
       </c>
       <c r="D26" s="1">
         <f>[1]aggregated_efficiencies!D26</f>
-        <v>2.7042558620338299E-2</v>
+        <v>7.8842688602697206E-2</v>
       </c>
       <c r="E26" s="1">
         <f>[1]aggregated_efficiencies!E26</f>
-        <v>1.6666553435615999E-2</v>
+        <v>1.5955948237475901E-2</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.3581535040144239E-3</v>
       </c>
       <c r="G26" s="2"/>
     </row>
@@ -3156,15 +3283,19 @@
       </c>
       <c r="C27" s="1">
         <f>[1]aggregated_efficiencies!C27</f>
-        <v>0.65964880643895396</v>
+        <v>0.66032079127787502</v>
       </c>
       <c r="D27" s="1">
         <f>[1]aggregated_efficiencies!D27</f>
-        <v>1.4933405538056801E-2</v>
+        <v>4.4269941278704601E-2</v>
       </c>
       <c r="E27" s="1">
         <f>[1]aggregated_efficiencies!E27</f>
-        <v>2.6189249018507402E-2</v>
+        <v>2.5089932840390301E-2</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="1"/>
+        <v>3.7080787780502675E-3</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -3174,19 +3305,23 @@
       </c>
       <c r="B28" s="1">
         <f>[1]aggregated_efficiencies!B28</f>
-        <v>0.41268886926697701</v>
+        <v>0.41651317910004099</v>
       </c>
       <c r="C28" s="1">
         <f>[1]aggregated_efficiencies!C28</f>
-        <v>0.41046379603357402</v>
+        <v>0.41278383854775602</v>
       </c>
       <c r="D28" s="1">
         <f>[1]aggregated_efficiencies!D28</f>
-        <v>0.101660200621878</v>
+        <v>0.30859753169536103</v>
       </c>
       <c r="E28" s="1">
         <f>[1]aggregated_efficiencies!E28</f>
-        <v>0.80014283702738798</v>
+        <v>0.79048980571966698</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="1"/>
+        <v>0.11682767313491853</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -3204,11 +3339,15 @@
       </c>
       <c r="D29" s="1">
         <f>[1]aggregated_efficiencies!D29</f>
-        <v>-8.0096360612846802E-19</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
         <f>[1]aggregated_efficiencies!E29</f>
-        <v>-1.1326392345135699E-18</v>
+        <v>-1.08437398807032E-18</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.6026125690381628E-19</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>63</v>
@@ -3228,11 +3367,15 @@
       </c>
       <c r="D30" s="1">
         <f>[1]aggregated_efficiencies!D30</f>
-        <v>3.15374463576538E-3</v>
+        <v>9.1423867697785193E-3</v>
       </c>
       <c r="E30" s="1">
         <f>[1]aggregated_efficiencies!E30</f>
-        <v>4.5708385349320499E-3</v>
+        <v>4.5477234075840898E-3</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="1"/>
+        <v>6.7211485831313543E-4</v>
       </c>
       <c r="G30" s="2"/>
     </row>
@@ -3242,19 +3385,23 @@
       </c>
       <c r="B31" s="1">
         <f>[1]aggregated_efficiencies!B31</f>
-        <v>0.82209241610055905</v>
+        <v>0.85337765878340999</v>
       </c>
       <c r="C31" s="1">
         <f>[1]aggregated_efficiencies!C31</f>
-        <v>0.82209241610055905</v>
+        <v>0.85337765878340999</v>
       </c>
       <c r="D31" s="1">
         <f>[1]aggregated_efficiencies!D31</f>
-        <v>4.3195168399227803E-2</v>
+        <v>0.110870873566338</v>
       </c>
       <c r="E31" s="1">
         <f>[1]aggregated_efficiencies!E31</f>
-        <v>2.2533399765847301E-2</v>
+        <v>2.3465031458342001E-2</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="1"/>
+        <v>3.4679321674743213E-3</v>
       </c>
       <c r="G31" s="2"/>
     </row>
@@ -3268,15 +3415,19 @@
       </c>
       <c r="C32" s="1">
         <f>[1]aggregated_efficiencies!C32</f>
-        <v>0.68018412871031897</v>
+        <v>0.68013362928907795</v>
       </c>
       <c r="D32" s="1">
         <f>[1]aggregated_efficiencies!D32</f>
-        <v>4.5042227719889798E-2</v>
+        <v>0.13619003766239701</v>
       </c>
       <c r="E32" s="1">
         <f>[1]aggregated_efficiencies!E32</f>
-        <v>4.2039234371232102E-2</v>
+        <v>4.1066978844460401E-2</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="1"/>
+        <v>6.0693503526099528E-3</v>
       </c>
       <c r="G32" s="2"/>
     </row>
@@ -3287,7 +3438,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2">
         <f>SUM(E19:E32)</f>
-        <v>0.999999999999995</v>
+        <v>1.0000000000000038</v>
       </c>
       <c r="G33" s="2"/>
     </row>
@@ -3299,7 +3450,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34">
+      <c r="F34" s="6">
         <f>[1]aggregated_efficiencies!$E$34</f>
         <v>0.15351232774953399</v>
       </c>
@@ -3315,15 +3466,19 @@
       </c>
       <c r="C35" s="1">
         <f>[1]aggregated_efficiencies!C35</f>
-        <v>0.83268664399011605</v>
+        <v>0.85573669312603495</v>
       </c>
       <c r="D35" s="1">
         <f>[1]aggregated_efficiencies!D35</f>
-        <v>5.4694499604003001E-2</v>
+        <v>0.14309836043436</v>
       </c>
       <c r="E35" s="1">
         <f>[1]aggregated_efficiencies!E35</f>
-        <v>2.3825313789830101E-2</v>
+        <v>2.5625510647821901E-2</v>
+      </c>
+      <c r="F35" s="6">
+        <f>E35*$F$34</f>
+        <v>3.9338317893176091E-3</v>
       </c>
       <c r="G35" s="2"/>
     </row>
@@ -3337,15 +3492,19 @@
       </c>
       <c r="C36" s="1">
         <f>[1]aggregated_efficiencies!C36</f>
-        <v>0.90888893826730199</v>
+        <v>0.86182251963155398</v>
       </c>
       <c r="D36" s="1">
         <f>[1]aggregated_efficiencies!D36</f>
-        <v>1.41567148165135E-2</v>
+        <v>6.6819910413131706E-2</v>
       </c>
       <c r="E36" s="1">
         <f>[1]aggregated_efficiencies!E36</f>
-        <v>2.2599476943378001E-2</v>
+        <v>3.3254803982757403E-2</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" ref="F36:F48" si="2">E36*$F$34</f>
+        <v>5.1050223682475625E-3</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -3363,11 +3522,15 @@
       </c>
       <c r="D37" s="1">
         <f>[1]aggregated_efficiencies!D37</f>
-        <v>-1.85072029441627E-20</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
         <f>[1]aggregated_efficiencies!E37</f>
-        <v>-2.51413326556697E-20</v>
+        <v>-3.6078255954769298E-20</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="2"/>
+        <v>-5.5384570527601212E-21</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>63</v>
@@ -3387,11 +3550,15 @@
       </c>
       <c r="D38" s="1">
         <f>[1]aggregated_efficiencies!D38</f>
-        <v>1.7852253031536699E-2</v>
+        <v>4.7526507967623699E-2</v>
       </c>
       <c r="E38" s="1">
         <f>[1]aggregated_efficiencies!E38</f>
-        <v>2.5396183578123201E-2</v>
+        <v>2.4833132793500599E-2</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="2"/>
+        <v>3.8121920204435646E-3</v>
       </c>
       <c r="G38" s="2"/>
     </row>
@@ -3409,11 +3576,15 @@
       </c>
       <c r="D39" s="1">
         <f>[1]aggregated_efficiencies!D39</f>
-        <v>4.4001979406521098E-2</v>
+        <v>2.9097878935280199E-3</v>
       </c>
       <c r="E39" s="1">
         <f>[1]aggregated_efficiencies!E39</f>
-        <v>1.65222285299115E-3</v>
+        <v>9.66770702787274E-5</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4841122098492733E-5</v>
       </c>
       <c r="G39" s="2"/>
     </row>
@@ -3427,15 +3598,19 @@
       </c>
       <c r="C40" s="1">
         <f>[1]aggregated_efficiencies!C40</f>
-        <v>0.89874758132605104</v>
+        <v>0.80663435177251297</v>
       </c>
       <c r="D40" s="1">
         <f>[1]aggregated_efficiencies!D40</f>
-        <v>9.7416427246383298E-4</v>
+        <v>3.59986540925139E-3</v>
       </c>
       <c r="E40" s="1">
         <f>[1]aggregated_efficiencies!E40</f>
-        <v>1.68507784688584E-3</v>
+        <v>2.3911982281320599E-3</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="2"/>
+        <v>3.6707840611111372E-4</v>
       </c>
       <c r="G40" s="2"/>
     </row>
@@ -3449,15 +3624,19 @@
       </c>
       <c r="C41" s="1">
         <f>[1]aggregated_efficiencies!C41</f>
-        <v>0.53945066755204496</v>
+        <v>0.50980383792963702</v>
       </c>
       <c r="D41" s="1">
         <f>[1]aggregated_efficiencies!D41</f>
-        <v>8.7125692414591407E-3</v>
+        <v>2.97874048488155E-2</v>
       </c>
       <c r="E41" s="1">
         <f>[1]aggregated_efficiencies!E41</f>
-        <v>4.3476015940820401E-3</v>
+        <v>4.9603832489754501E-3</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="2"/>
+        <v>7.614799790800176E-4</v>
       </c>
       <c r="G41" s="2"/>
     </row>
@@ -3471,15 +3650,19 @@
       </c>
       <c r="C42" s="1">
         <f>[1]aggregated_efficiencies!C42</f>
-        <v>0.58451739323443297</v>
+        <v>0.58918767836022701</v>
       </c>
       <c r="D42" s="1">
         <f>[1]aggregated_efficiencies!D42</f>
-        <v>2.8744151382956998E-2</v>
+        <v>8.0481134640277494E-2</v>
       </c>
       <c r="E42" s="1">
         <f>[1]aggregated_efficiencies!E42</f>
-        <v>1.7964034459072301E-2</v>
+        <v>1.7326544119775099E-2</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" si="2"/>
+        <v>2.6598381196816759E-3</v>
       </c>
       <c r="G42" s="2"/>
     </row>
@@ -3493,15 +3676,19 @@
       </c>
       <c r="C43" s="1">
         <f>[1]aggregated_efficiencies!C43</f>
-        <v>0.65073925658143095</v>
+        <v>0.65093587631861005</v>
       </c>
       <c r="D43" s="1">
         <f>[1]aggregated_efficiencies!D43</f>
-        <v>1.7070277557748901E-2</v>
+        <v>4.9868149995281101E-2</v>
       </c>
       <c r="E43" s="1">
         <f>[1]aggregated_efficiencies!E43</f>
-        <v>2.9723346640945301E-2</v>
+        <v>2.85531989209937E-2</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="2"/>
+        <v>4.3832680310572254E-3</v>
       </c>
       <c r="G43" s="2"/>
     </row>
@@ -3511,19 +3698,23 @@
       </c>
       <c r="B44" s="1">
         <f>[1]aggregated_efficiencies!B44</f>
-        <v>0.41105278037299198</v>
+        <v>0.41494922209713597</v>
       </c>
       <c r="C44" s="1">
         <f>[1]aggregated_efficiencies!C44</f>
-        <v>0.408809071374439</v>
+        <v>0.41107055286775901</v>
       </c>
       <c r="D44" s="1">
         <f>[1]aggregated_efficiencies!D44</f>
-        <v>0.108154471824605</v>
+        <v>0.31796467479352297</v>
       </c>
       <c r="E44" s="1">
         <f>[1]aggregated_efficiencies!E44</f>
-        <v>0.81138000033809099</v>
+        <v>0.80205408829477298</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="2"/>
+        <v>0.12312519007516087</v>
       </c>
       <c r="G44" s="2"/>
     </row>
@@ -3541,11 +3732,15 @@
       </c>
       <c r="D45" s="1">
         <f>[1]aggregated_efficiencies!D45</f>
-        <v>-2.5796499256653798E-4</v>
+        <v>-5.3043981501454897E-4</v>
       </c>
       <c r="E45" s="1">
         <f>[1]aggregated_efficiencies!E45</f>
-        <v>5.9586795808796298E-5</v>
+        <v>-2.93861354517505E-4</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="2"/>
+        <v>-4.511134056761323E-5</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>63</v>
@@ -3565,11 +3760,15 @@
       </c>
       <c r="D46" s="1">
         <f>[1]aggregated_efficiencies!D46</f>
-        <v>3.22931756437896E-3</v>
+        <v>9.4832063970747803E-3</v>
       </c>
       <c r="E46" s="1">
         <f>[1]aggregated_efficiencies!E46</f>
-        <v>4.7095803804934203E-3</v>
+        <v>4.69867496666369E-3</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="2"/>
+        <v>7.2130453147100705E-4</v>
       </c>
       <c r="G46" s="2"/>
     </row>
@@ -3579,19 +3778,23 @@
       </c>
       <c r="B47" s="1">
         <f>[1]aggregated_efficiencies!B47</f>
-        <v>0.82175629525349603</v>
+        <v>0.85640991011698897</v>
       </c>
       <c r="C47" s="1">
         <f>[1]aggregated_efficiencies!C47</f>
-        <v>0.82175629525349603</v>
+        <v>0.85640991011698897</v>
       </c>
       <c r="D47" s="1">
         <f>[1]aggregated_efficiencies!D47</f>
-        <v>4.4650499365633499E-2</v>
+        <v>0.108672471679716</v>
       </c>
       <c r="E47" s="1">
         <f>[1]aggregated_efficiencies!E47</f>
-        <v>2.1643936207587498E-2</v>
+        <v>2.2540030850080699E-2</v>
+      </c>
+      <c r="F47" s="6">
+        <f t="shared" si="2"/>
+        <v>3.4601726033421957E-3</v>
       </c>
       <c r="G47" s="2"/>
     </row>
@@ -3605,15 +3808,19 @@
       </c>
       <c r="C48" s="1">
         <f>[1]aggregated_efficiencies!C48</f>
-        <v>0.68609614196705604</v>
+        <v>0.68972833829360103</v>
       </c>
       <c r="D48" s="1">
         <f>[1]aggregated_efficiencies!D48</f>
-        <v>4.2588652649736797E-2</v>
+        <v>0.125738825025139</v>
       </c>
       <c r="E48" s="1">
         <f>[1]aggregated_efficiencies!E48</f>
-        <v>3.5013638572716499E-2</v>
+        <v>3.3959618230762899E-2</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="2"/>
+        <v>5.2132200440899237E-3</v>
       </c>
       <c r="G48" s="2"/>
     </row>
@@ -3624,7 +3831,7 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2">
         <f>SUM(E35:E48)</f>
-        <v>1.0000000000000051</v>
+        <v>0.99999999999999767</v>
       </c>
       <c r="G49" s="2"/>
     </row>
@@ -3636,6 +3843,10 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
+      <c r="F50" s="6">
+        <f>[1]aggregated_efficiencies!$E$50</f>
+        <v>0.12949803388710601</v>
+      </c>
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3648,15 +3859,19 @@
       </c>
       <c r="C51" s="1">
         <f>[1]aggregated_efficiencies!C51</f>
-        <v>0.83728198672156195</v>
+        <v>0.859461722471349</v>
       </c>
       <c r="D51" s="1">
         <f>[1]aggregated_efficiencies!D51</f>
-        <v>4.9122398193789399E-2</v>
+        <v>0.139430710374227</v>
       </c>
       <c r="E51" s="1">
         <f>[1]aggregated_efficiencies!E51</f>
-        <v>2.6324406008447401E-2</v>
+        <v>2.8437883533884298E-2</v>
+      </c>
+      <c r="F51" s="6">
+        <f>E51*$F$50</f>
+        <v>3.682650005548523E-3</v>
       </c>
       <c r="G51" s="2"/>
     </row>
@@ -3670,15 +3885,19 @@
       </c>
       <c r="C52" s="1">
         <f>[1]aggregated_efficiencies!C52</f>
-        <v>0.90043152419070405</v>
+        <v>0.854838707538908</v>
       </c>
       <c r="D52" s="1">
         <f>[1]aggregated_efficiencies!D52</f>
-        <v>1.44280006572505E-2</v>
+        <v>7.1501323570043906E-2</v>
       </c>
       <c r="E52" s="1">
         <f>[1]aggregated_efficiencies!E52</f>
-        <v>2.7475595686020701E-2</v>
+        <v>3.9751740004059101E-2</v>
+      </c>
+      <c r="F52" s="6">
+        <f t="shared" ref="F52:F63" si="3">E52*$F$50</f>
+        <v>5.1477721741170733E-3</v>
       </c>
       <c r="G52" s="2"/>
     </row>
@@ -3696,11 +3915,15 @@
       </c>
       <c r="D53" s="1">
         <f>[1]aggregated_efficiencies!D53</f>
-        <v>-4.46793442981577E-20</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
         <f>[1]aggregated_efficiencies!E53</f>
-        <v>-3.2638684136759502E-20</v>
+        <v>-5.7002133685844106E-20</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="3"/>
+        <v>-7.3816642396867864E-21</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>63</v>
@@ -3720,11 +3943,15 @@
       </c>
       <c r="D54" s="1">
         <f>[1]aggregated_efficiencies!D54</f>
-        <v>1.39101828161551E-2</v>
+        <v>4.1526707806765997E-2</v>
       </c>
       <c r="E54" s="1">
         <f>[1]aggregated_efficiencies!E54</f>
-        <v>2.4161866180615301E-2</v>
+        <v>2.4087379129086602E-2</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" si="3"/>
+        <v>3.1192682387100267E-3</v>
       </c>
       <c r="G54" s="2"/>
     </row>
@@ -3742,11 +3969,15 @@
       </c>
       <c r="D55" s="1">
         <f>[1]aggregated_efficiencies!D55</f>
-        <v>5.0351601120823999E-2</v>
+        <v>-2.3105218720405701E-2</v>
       </c>
       <c r="E55" s="1">
         <f>[1]aggregated_efficiencies!E55</f>
-        <v>1.1569318990406201E-3</v>
+        <v>-7.9181555366220698E-4</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.0253855740048609E-4</v>
       </c>
       <c r="G55" s="2"/>
     </row>
@@ -3760,15 +3991,19 @@
       </c>
       <c r="C56" s="1">
         <f>[1]aggregated_efficiencies!C56</f>
-        <v>0.87869084072333703</v>
+        <v>0.79657604481997102</v>
       </c>
       <c r="D56" s="1">
         <f>[1]aggregated_efficiencies!D56</f>
-        <v>1.10105521612523E-3</v>
+        <v>4.3992973534237E-3</v>
       </c>
       <c r="E56" s="1">
         <f>[1]aggregated_efficiencies!E56</f>
-        <v>2.26191241174623E-3</v>
+        <v>3.1652612409079801E-3</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" si="3"/>
+        <v>4.0989510743664483E-4</v>
       </c>
       <c r="G56" s="2"/>
     </row>
@@ -3782,15 +4017,19 @@
       </c>
       <c r="C57" s="1">
         <f>[1]aggregated_efficiencies!C57</f>
-        <v>0.52733643213015002</v>
+        <v>0.50029968871561203</v>
       </c>
       <c r="D57" s="1">
         <f>[1]aggregated_efficiencies!D57</f>
-        <v>8.9392136356594293E-3</v>
+        <v>3.2979967572985401E-2</v>
       </c>
       <c r="E57" s="1">
         <f>[1]aggregated_efficiencies!E57</f>
-        <v>5.32011871505056E-3</v>
+        <v>6.0867918569585504E-3</v>
+      </c>
+      <c r="F57" s="6">
+        <f t="shared" si="3"/>
+        <v>7.8822757815617925E-4</v>
       </c>
       <c r="G57" s="2"/>
     </row>
@@ -3804,15 +4043,19 @@
       </c>
       <c r="C58" s="1">
         <f>[1]aggregated_efficiencies!C58</f>
-        <v>0.578923565728925</v>
+        <v>0.585338143649348</v>
       </c>
       <c r="D58" s="1">
         <f>[1]aggregated_efficiencies!D58</f>
-        <v>2.4498776323968099E-2</v>
+        <v>7.4234978511175401E-2</v>
       </c>
       <c r="E58" s="1">
         <f>[1]aggregated_efficiencies!E58</f>
-        <v>1.70485323080115E-2</v>
+        <v>1.6213083031392302E-2</v>
+      </c>
+      <c r="F58" s="6">
+        <f t="shared" si="3"/>
+        <v>2.0995623758137036E-3</v>
       </c>
       <c r="G58" s="2"/>
     </row>
@@ -3826,15 +4069,19 @@
       </c>
       <c r="C59" s="1">
         <f>[1]aggregated_efficiencies!C59</f>
-        <v>0.65002231987146097</v>
+        <v>0.65074746924451898</v>
       </c>
       <c r="D59" s="1">
         <f>[1]aggregated_efficiencies!D59</f>
-        <v>1.40418692413713E-2</v>
+        <v>4.4527345055279298E-2</v>
       </c>
       <c r="E59" s="1">
         <f>[1]aggregated_efficiencies!E59</f>
-        <v>2.83805667682322E-2</v>
+        <v>2.6947537772769901E-2</v>
+      </c>
+      <c r="F59" s="6">
+        <f t="shared" si="3"/>
+        <v>3.4896531596722261E-3</v>
       </c>
       <c r="G59" s="2"/>
     </row>
@@ -3844,19 +4091,23 @@
       </c>
       <c r="B60" s="1">
         <f>[1]aggregated_efficiencies!B60</f>
-        <v>0.409351769979304</v>
+        <v>0.41384659906579002</v>
       </c>
       <c r="C60" s="1">
         <f>[1]aggregated_efficiencies!C60</f>
-        <v>0.40587989993453499</v>
+        <v>0.40852170946463001</v>
       </c>
       <c r="D60" s="1">
         <f>[1]aggregated_efficiencies!D60</f>
-        <v>9.8708178617943607E-2</v>
+        <v>0.313447000116923</v>
       </c>
       <c r="E60" s="1">
         <f>[1]aggregated_efficiencies!E60</f>
-        <v>0.84018982416819199</v>
+        <v>0.82869088297414495</v>
+      </c>
+      <c r="F60" s="6">
+        <f t="shared" si="3"/>
+        <v>0.10731384004532163</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -3874,11 +4125,15 @@
       </c>
       <c r="D61" s="1">
         <f>[1]aggregated_efficiencies!D61</f>
-        <v>-1.0684934412640899E-3</v>
+        <v>-2.7143485442393499E-3</v>
       </c>
       <c r="E61" s="1">
         <f>[1]aggregated_efficiencies!E61</f>
-        <v>-1.3655824665341999E-4</v>
+        <v>-1.60319708138958E-3</v>
+      </c>
+      <c r="F61" s="6">
+        <f t="shared" si="3"/>
+        <v>-2.0761086997349729E-4</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>63</v>
@@ -3898,11 +4153,15 @@
       </c>
       <c r="D62" s="1">
         <f>[1]aggregated_efficiencies!D62</f>
-        <v>2.7235264373745099E-3</v>
+        <v>9.3939650449871293E-3</v>
       </c>
       <c r="E62" s="1">
         <f>[1]aggregated_efficiencies!E62</f>
-        <v>4.8266971457645701E-3</v>
+        <v>5.0073626690174903E-3</v>
+      </c>
+      <c r="F62" s="6">
+        <f t="shared" si="3"/>
+        <v>6.4844362059745652E-4</v>
       </c>
       <c r="G62" s="2"/>
     </row>
@@ -3912,19 +4171,23 @@
       </c>
       <c r="B63" s="1">
         <f>[1]aggregated_efficiencies!B63</f>
-        <v>0.83084358573066497</v>
+        <v>0.864396796928799</v>
       </c>
       <c r="C63" s="1">
         <f>[1]aggregated_efficiencies!C63</f>
-        <v>0.83084358573066497</v>
+        <v>0.864396796928799</v>
       </c>
       <c r="D63" s="1">
         <f>[1]aggregated_efficiencies!D63</f>
-        <v>3.9134405118848997E-2</v>
+        <v>0.10255339268217301</v>
       </c>
       <c r="E63" s="1">
         <f>[1]aggregated_efficiencies!E63</f>
-        <v>2.2990106955528701E-2</v>
+        <v>2.40070904228364E-2</v>
+      </c>
+      <c r="F63" s="6">
+        <f t="shared" si="3"/>
+        <v>3.1088710091072861E-3</v>
       </c>
       <c r="G63" s="2"/>
     </row>
@@ -3935,7 +4198,7 @@
       <c r="D64" s="2"/>
       <c r="E64" s="2">
         <f>SUM(E51:E63)</f>
-        <v>0.99999999999999645</v>
+        <v>1.0000000000000058</v>
       </c>
       <c r="G64" s="2"/>
     </row>
@@ -3947,6 +4210,10 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
+      <c r="F65" s="6">
+        <f>[1]aggregated_efficiencies!$E$65</f>
+        <v>0.11856265480011299</v>
+      </c>
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3959,37 +4226,45 @@
       </c>
       <c r="C66" s="1">
         <f>[1]aggregated_efficiencies!C66</f>
-        <v>0.79743496660949298</v>
+        <v>0.82736050654239501</v>
       </c>
       <c r="D66" s="1">
         <f>[1]aggregated_efficiencies!D66</f>
-        <v>0.1086844272851</v>
+        <v>0.172537080648476</v>
       </c>
       <c r="E66" s="1">
         <f>[1]aggregated_efficiencies!E66</f>
-        <v>2.17210615931815E-2</v>
+        <v>2.1724732283709101E-2</v>
+      </c>
+      <c r="F66" s="6">
+        <f>E66*$F$65</f>
+        <v>2.5757419343782726E-3</v>
       </c>
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="1">
         <f>[1]aggregated_efficiencies!B67</f>
         <v>1</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="1">
         <f>[1]aggregated_efficiencies!C67</f>
-        <v>1.00967366877396</v>
-      </c>
-      <c r="D67" s="3">
+        <v>0.94003913737129297</v>
+      </c>
+      <c r="D67" s="1">
         <f>[1]aggregated_efficiencies!D67</f>
-        <v>-2.4993439536397902E-3</v>
-      </c>
-      <c r="E67" s="3">
+        <v>2.5285770518515601E-2</v>
+      </c>
+      <c r="E67" s="1">
         <f>[1]aggregated_efficiencies!E67</f>
-        <v>2.6870917073698502E-3</v>
+        <v>1.26520215301656E-2</v>
+      </c>
+      <c r="F67" s="6">
+        <f t="shared" ref="F67:F80" si="4">E67*$F$65</f>
+        <v>1.5000572612046215E-3</v>
       </c>
       <c r="G67" s="2"/>
     </row>
@@ -4013,6 +4288,10 @@
         <f>[1]aggregated_efficiencies!E68</f>
         <v>0</v>
       </c>
+      <c r="F68" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="G68" s="2" t="s">
         <v>63</v>
       </c>
@@ -4031,11 +4310,15 @@
       </c>
       <c r="D69" s="1">
         <f>[1]aggregated_efficiencies!D69</f>
-        <v>-1.27572463755799E-18</v>
+        <v>0</v>
       </c>
       <c r="E69" s="1">
         <f>[1]aggregated_efficiencies!E69</f>
-        <v>-1.4190343584520899E-18</v>
+        <v>-1.72458824534784E-18</v>
+      </c>
+      <c r="F69" s="6">
+        <f t="shared" si="4"/>
+        <v>-2.0447176080550853E-19</v>
       </c>
       <c r="G69" s="2"/>
     </row>
@@ -4059,6 +4342,10 @@
         <f>[1]aggregated_efficiencies!E70</f>
         <v>0</v>
       </c>
+      <c r="F70" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4071,15 +4358,19 @@
       </c>
       <c r="C71" s="1">
         <f>[1]aggregated_efficiencies!C71</f>
-        <v>0.96287343659985303</v>
+        <v>0.91297433848800402</v>
       </c>
       <c r="D71" s="1">
         <f>[1]aggregated_efficiencies!D71</f>
-        <v>1.7474539762132001E-4</v>
+        <v>3.8079521241973698E-4</v>
       </c>
       <c r="E71" s="1">
         <f>[1]aggregated_efficiencies!E71</f>
-        <v>1.6874194328699501E-4</v>
+        <v>2.59053390831001E-4</v>
+      </c>
+      <c r="F71" s="6">
+        <f t="shared" si="4"/>
+        <v>3.0714057751894729E-5</v>
       </c>
       <c r="G71" s="2"/>
     </row>
@@ -4093,15 +4384,19 @@
       </c>
       <c r="C72" s="1">
         <f>[1]aggregated_efficiencies!C72</f>
-        <v>0.742436715714342</v>
+        <v>0.65412967766626895</v>
       </c>
       <c r="D72" s="1">
         <f>[1]aggregated_efficiencies!D72</f>
-        <v>5.6499577688459701E-3</v>
+        <v>1.29353478105666E-2</v>
       </c>
       <c r="E72" s="1">
         <f>[1]aggregated_efficiencies!E72</f>
-        <v>1.88445699230908E-3</v>
+        <v>2.3651256542814802E-3</v>
+      </c>
+      <c r="F72" s="6">
+        <f t="shared" si="4"/>
+        <v>2.804155765074665E-4</v>
       </c>
       <c r="G72" s="2"/>
     </row>
@@ -4115,15 +4410,19 @@
       </c>
       <c r="C73" s="1">
         <f>[1]aggregated_efficiencies!C73</f>
-        <v>0.705509778967357</v>
+        <v>0.71116434157319697</v>
       </c>
       <c r="D73" s="1">
         <f>[1]aggregated_efficiencies!D73</f>
-        <v>2.7889354344402199E-2</v>
+        <v>4.8815172968667699E-2</v>
       </c>
       <c r="E73" s="1">
         <f>[1]aggregated_efficiencies!E73</f>
-        <v>1.3065104203930001E-2</v>
+        <v>1.31130337298171E-2</v>
+      </c>
+      <c r="F73" s="6">
+        <f t="shared" si="4"/>
+        <v>1.554716091490543E-3</v>
       </c>
       <c r="G73" s="2"/>
     </row>
@@ -4137,15 +4436,19 @@
       </c>
       <c r="C74" s="1">
         <f>[1]aggregated_efficiencies!C74</f>
-        <v>0.67188098424797704</v>
+        <v>0.67503604817733098</v>
       </c>
       <c r="D74" s="1">
         <f>[1]aggregated_efficiencies!D74</f>
-        <v>2.4890078265666998E-2</v>
+        <v>4.5584069476050898E-2</v>
       </c>
       <c r="E74" s="1">
         <f>[1]aggregated_efficiencies!E74</f>
-        <v>2.76990600368766E-2</v>
+        <v>2.7515580028437701E-2</v>
+      </c>
+      <c r="F74" s="6">
+        <f t="shared" si="4"/>
+        <v>3.2623202165365426E-3</v>
       </c>
       <c r="G74" s="2"/>
     </row>
@@ -4155,19 +4458,23 @@
       </c>
       <c r="B75" s="1">
         <f>[1]aggregated_efficiencies!B75</f>
-        <v>0.378075308708889</v>
+        <v>0.385293103489531</v>
       </c>
       <c r="C75" s="1">
         <f>[1]aggregated_efficiencies!C75</f>
-        <v>0.37860846312165902</v>
+        <v>0.384290997755527</v>
       </c>
       <c r="D75" s="1">
         <f>[1]aggregated_efficiencies!D75</f>
-        <v>0.177714704895305</v>
+        <v>0.32527683776850402</v>
       </c>
       <c r="E75" s="1">
         <f>[1]aggregated_efficiencies!E75</f>
-        <v>0.81130510403772005</v>
+        <v>0.80653663535555797</v>
+      </c>
+      <c r="F75" s="6">
+        <f t="shared" si="4"/>
+        <v>9.5625124681305629E-2</v>
       </c>
       <c r="G75" s="2"/>
     </row>
@@ -4185,11 +4492,15 @@
       </c>
       <c r="D76" s="1">
         <f>[1]aggregated_efficiencies!D76</f>
-        <v>-2.0054471276672202E-3</v>
+        <v>-2.2605172086243002E-3</v>
       </c>
       <c r="E76" s="1">
         <f>[1]aggregated_efficiencies!E76</f>
-        <v>-6.7569978594543402E-5</v>
+        <v>-1.3084434985745001E-3</v>
+      </c>
+      <c r="F76" s="6">
+        <f t="shared" si="4"/>
+        <v>-1.551325348469406E-4</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>63</v>
@@ -4209,11 +4520,15 @@
       </c>
       <c r="D77" s="1">
         <f>[1]aggregated_efficiencies!D77</f>
-        <v>5.5737899579150303E-3</v>
+        <v>1.00737626137898E-2</v>
       </c>
       <c r="E77" s="1">
         <f>[1]aggregated_efficiencies!E77</f>
-        <v>5.1292468470883201E-3</v>
+        <v>5.2809784890067001E-3</v>
+      </c>
+      <c r="F77" s="6">
+        <f t="shared" si="4"/>
+        <v>6.261268295989237E-4</v>
       </c>
       <c r="G77" s="2"/>
     </row>
@@ -4223,19 +4538,23 @@
       </c>
       <c r="B78" s="1">
         <f>[1]aggregated_efficiencies!B78</f>
-        <v>0.60027296592071</v>
+        <v>0.63441916624740602</v>
       </c>
       <c r="C78" s="1">
         <f>[1]aggregated_efficiencies!C78</f>
-        <v>0.60027296592071</v>
+        <v>0.63441916624740602</v>
       </c>
       <c r="D78" s="1">
         <f>[1]aggregated_efficiencies!D78</f>
-        <v>9.5494572409425396E-2</v>
+        <v>0.14447242791814799</v>
       </c>
       <c r="E78" s="1">
         <f>[1]aggregated_efficiencies!E78</f>
-        <v>3.1044387971429801E-2</v>
+        <v>2.86564874995675E-2</v>
+      </c>
+      <c r="F78" s="6">
+        <f t="shared" si="4"/>
+        <v>3.3975892351949745E-3</v>
       </c>
       <c r="G78" s="2"/>
     </row>
@@ -4249,15 +4568,19 @@
       </c>
       <c r="C79" s="1">
         <f>[1]aggregated_efficiencies!C79</f>
-        <v>0.65538454811091995</v>
+        <v>0.66257529927923497</v>
       </c>
       <c r="D79" s="1">
         <f>[1]aggregated_efficiencies!D79</f>
-        <v>7.9566004066369198E-2</v>
+        <v>0.15112693138511801</v>
       </c>
       <c r="E79" s="1">
         <f>[1]aggregated_efficiencies!E79</f>
-        <v>4.6429045755112398E-2</v>
+        <v>4.6106325215282497E-2</v>
+      </c>
+      <c r="F79" s="6">
+        <f t="shared" si="4"/>
+        <v>5.4664883206012836E-3</v>
       </c>
       <c r="G79" s="2"/>
     </row>
@@ -4267,19 +4590,23 @@
       </c>
       <c r="B80" s="1">
         <f>[1]aggregated_efficiencies!B80</f>
-        <v>0.93873989118616197</v>
+        <v>0.94530367088835998</v>
       </c>
       <c r="C80" s="1">
         <f>[1]aggregated_efficiencies!C80</f>
-        <v>0.93873989118616197</v>
+        <v>0.94530367088835998</v>
       </c>
       <c r="D80" s="1">
         <f>[1]aggregated_efficiencies!D80</f>
-        <v>2.4780305275959501E-2</v>
+        <v>4.12127709425276E-2</v>
       </c>
       <c r="E80" s="1">
         <f>[1]aggregated_efficiencies!E80</f>
-        <v>3.8934268890285402E-2</v>
+        <v>3.7098470321917397E-2</v>
+      </c>
+      <c r="F80" s="6">
+        <f t="shared" si="4"/>
+        <v>4.3984931303897292E-3</v>
       </c>
       <c r="G80" s="2"/>
     </row>
@@ -4290,7 +4617,7 @@
       <c r="D81" s="2"/>
       <c r="E81" s="2">
         <f>SUM(E66:E80)</f>
-        <v>0.99999999999999545</v>
+        <v>0.99999999999999944</v>
       </c>
       <c r="G81" s="2"/>
     </row>
@@ -4302,6 +4629,10 @@
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
+      <c r="F82" s="6">
+        <f>[1]aggregated_efficiencies!$E$82</f>
+        <v>9.2893910050749401E-2</v>
+      </c>
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4314,15 +4645,19 @@
       </c>
       <c r="C83" s="1">
         <f>[1]aggregated_efficiencies!C83</f>
-        <v>0.82493727006451301</v>
+        <v>0.84066657907772901</v>
       </c>
       <c r="D83" s="1">
         <f>[1]aggregated_efficiencies!D83</f>
-        <v>7.4461928828544299E-2</v>
+        <v>0.15926418754636101</v>
       </c>
       <c r="E83" s="1">
         <f>[1]aggregated_efficiencies!E83</f>
-        <v>2.41418068738673E-2</v>
+        <v>2.4359703158961701E-2</v>
+      </c>
+      <c r="F83" s="6">
+        <f>E83*$F$82</f>
+        <v>2.2628680741115445E-3</v>
       </c>
       <c r="G83" s="2"/>
     </row>
@@ -4336,15 +4671,19 @@
       </c>
       <c r="C84" s="1">
         <f>[1]aggregated_efficiencies!C84</f>
-        <v>0.88713152128473405</v>
+        <v>0.83514356020871106</v>
       </c>
       <c r="D84" s="1">
         <f>[1]aggregated_efficiencies!D84</f>
-        <v>1.9424088715471001E-2</v>
+        <v>6.7434974976381595E-2</v>
       </c>
       <c r="E84" s="1">
         <f>[1]aggregated_efficiencies!E84</f>
-        <v>2.70581866404166E-2</v>
+        <v>3.7576548547193098E-2</v>
+      </c>
+      <c r="F84" s="6">
+        <f t="shared" ref="F84:F97" si="5">E84*$F$82</f>
+        <v>3.4906325207605736E-3</v>
       </c>
       <c r="G84" s="2"/>
     </row>
@@ -4368,6 +4707,10 @@
         <f>[1]aggregated_efficiencies!E85</f>
         <v>0</v>
       </c>
+      <c r="F85" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G85" s="2" t="s">
         <v>63</v>
       </c>
@@ -4386,11 +4729,15 @@
       </c>
       <c r="D86" s="1">
         <f>[1]aggregated_efficiencies!D86</f>
-        <v>-4.1206635360920499E-19</v>
+        <v>0</v>
       </c>
       <c r="E86" s="1">
         <f>[1]aggregated_efficiencies!E86</f>
-        <v>-6.8226215894336397E-19</v>
+        <v>-1.0799846509681599E-18</v>
+      </c>
+      <c r="F86" s="6">
+        <f t="shared" si="5"/>
+        <v>-1.0032399702322624E-19</v>
       </c>
       <c r="G86" s="2"/>
     </row>
@@ -4414,6 +4761,10 @@
         <f>[1]aggregated_efficiencies!E87</f>
         <v>0</v>
       </c>
+      <c r="F87" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G87" s="2"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4426,15 +4777,19 @@
       </c>
       <c r="C88" s="1">
         <f>[1]aggregated_efficiencies!C88</f>
-        <v>0.94400053836846898</v>
+        <v>0.89800782821672398</v>
       </c>
       <c r="D88" s="1">
         <f>[1]aggregated_efficiencies!D88</f>
-        <v>2.4927374046927303E-4</v>
+        <v>7.1497039517165397E-4</v>
       </c>
       <c r="E88" s="1">
         <f>[1]aggregated_efficiencies!E88</f>
-        <v>3.1571323040184898E-4</v>
+        <v>4.5976433319822502E-4</v>
+      </c>
+      <c r="F88" s="6">
+        <f t="shared" si="5"/>
+        <v>4.2709306612658691E-5</v>
       </c>
       <c r="G88" s="2"/>
     </row>
@@ -4448,15 +4803,19 @@
       </c>
       <c r="C89" s="1">
         <f>[1]aggregated_efficiencies!C89</f>
-        <v>0.70703945571969795</v>
+        <v>0.64665753486766497</v>
       </c>
       <c r="D89" s="1">
         <f>[1]aggregated_efficiencies!D89</f>
-        <v>6.23629251244641E-3</v>
+        <v>1.6902368352247701E-2</v>
       </c>
       <c r="E89" s="1">
         <f>[1]aggregated_efficiencies!E89</f>
-        <v>2.81690545007552E-3</v>
+        <v>3.33653094512955E-3</v>
+      </c>
+      <c r="F89" s="6">
+        <f t="shared" si="5"/>
+        <v>3.0994340549840631E-4</v>
       </c>
       <c r="G89" s="2"/>
     </row>
@@ -4470,15 +4829,19 @@
       </c>
       <c r="C90" s="1">
         <f>[1]aggregated_efficiencies!C90</f>
-        <v>0.70356516819965798</v>
+        <v>0.70702637126568701</v>
       </c>
       <c r="D90" s="1">
         <f>[1]aggregated_efficiencies!D90</f>
-        <v>1.8760236050816399E-2</v>
+        <v>4.2170914365867299E-2</v>
       </c>
       <c r="E90" s="1">
         <f>[1]aggregated_efficiencies!E90</f>
-        <v>1.0029979208444E-2</v>
+        <v>1.0255035545218101E-2</v>
+      </c>
+      <c r="F90" s="6">
+        <f t="shared" si="5"/>
+        <v>9.526303495047281E-4</v>
       </c>
       <c r="G90" s="2"/>
     </row>
@@ -4492,15 +4855,19 @@
       </c>
       <c r="C91" s="1">
         <f>[1]aggregated_efficiencies!C91</f>
-        <v>0.64407787010245998</v>
+        <v>0.649798319507217</v>
       </c>
       <c r="D91" s="1">
         <f>[1]aggregated_efficiencies!D91</f>
-        <v>1.8934491317799299E-2</v>
+        <v>4.3991168904508E-2</v>
       </c>
       <c r="E91" s="1">
         <f>[1]aggregated_efficiencies!E91</f>
-        <v>2.3567813879687202E-2</v>
+        <v>2.3673243739973801E-2</v>
+      </c>
+      <c r="F91" s="6">
+        <f t="shared" si="5"/>
+        <v>2.1991001745905927E-3</v>
       </c>
       <c r="G91" s="2"/>
     </row>
@@ -4510,19 +4877,23 @@
       </c>
       <c r="B92" s="1">
         <f>[1]aggregated_efficiencies!B92</f>
-        <v>0.37899561189457298</v>
+        <v>0.387056932876994</v>
       </c>
       <c r="C92" s="1">
         <f>[1]aggregated_efficiencies!C92</f>
-        <v>0.37643993694957201</v>
+        <v>0.38335111424909601</v>
       </c>
       <c r="D92" s="1">
         <f>[1]aggregated_efficiencies!D92</f>
-        <v>0.13983876567894901</v>
+        <v>0.32254010804114602</v>
       </c>
       <c r="E92" s="1">
         <f>[1]aggregated_efficiencies!E92</f>
-        <v>0.82309548839799296</v>
+        <v>0.81649851454279099</v>
+      </c>
+      <c r="F92" s="6">
+        <f t="shared" si="5"/>
+        <v>7.5847739566508532E-2</v>
       </c>
       <c r="G92" s="2"/>
     </row>
@@ -4540,11 +4911,15 @@
       </c>
       <c r="D93" s="1">
         <f>[1]aggregated_efficiencies!D93</f>
-        <v>-2.0424922478728398E-3</v>
+        <v>-3.6277271450579898E-3</v>
       </c>
       <c r="E93" s="1">
         <f>[1]aggregated_efficiencies!E93</f>
-        <v>-1.6662420068111099E-3</v>
+        <v>-1.88101681329118E-3</v>
+      </c>
+      <c r="F93" s="6">
+        <f t="shared" si="5"/>
+        <v>-1.7473500665781815E-4</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>63</v>
@@ -4564,11 +4939,15 @@
       </c>
       <c r="D94" s="1">
         <f>[1]aggregated_efficiencies!D94</f>
-        <v>3.2424521885407401E-3</v>
+        <v>8.6573011996328095E-3</v>
       </c>
       <c r="E94" s="1">
         <f>[1]aggregated_efficiencies!E94</f>
-        <v>4.3602602964488198E-3</v>
+        <v>4.1092157645811001E-3</v>
+      </c>
+      <c r="F94" s="6">
+        <f t="shared" si="5"/>
+        <v>3.8172111961411816E-4</v>
       </c>
       <c r="G94" s="2"/>
     </row>
@@ -4578,19 +4957,23 @@
       </c>
       <c r="B95" s="1">
         <f>[1]aggregated_efficiencies!B95</f>
-        <v>0.78501789871234995</v>
+        <v>0.803143232263269</v>
       </c>
       <c r="C95" s="1">
         <f>[1]aggregated_efficiencies!C95</f>
-        <v>0.78501789871234995</v>
+        <v>0.803143232263269</v>
       </c>
       <c r="D95" s="1">
         <f>[1]aggregated_efficiencies!D95</f>
-        <v>-2.0400307089939698E-3</v>
+        <v>-2.2378639219309899E-2</v>
       </c>
       <c r="E95" s="1">
         <f>[1]aggregated_efficiencies!E95</f>
-        <v>-2.4082029033821598E-3</v>
+        <v>-4.2599625567353401E-3</v>
+      </c>
+      <c r="F95" s="6">
+        <f t="shared" si="5"/>
+        <v>-3.9572457856493313E-4</v>
       </c>
       <c r="G95" s="2"/>
     </row>
@@ -4604,15 +4987,19 @@
       </c>
       <c r="C96" s="1">
         <f>[1]aggregated_efficiencies!C96</f>
-        <v>0.63606736210204795</v>
+        <v>0.64066690653128</v>
       </c>
       <c r="D96" s="1">
         <f>[1]aggregated_efficiencies!D96</f>
-        <v>5.9500621329225498E-2</v>
+        <v>0.140785419676205</v>
       </c>
       <c r="E96" s="1">
         <f>[1]aggregated_efficiencies!E96</f>
-        <v>4.91425814634961E-2</v>
+        <v>4.84551288300882E-2</v>
+      </c>
+      <c r="F96" s="6">
+        <f t="shared" si="5"/>
+        <v>4.5011863790396876E-3</v>
       </c>
       <c r="G96" s="2"/>
     </row>
@@ -4622,19 +5009,23 @@
       </c>
       <c r="B97" s="1">
         <f>[1]aggregated_efficiencies!B97</f>
-        <v>0.93912884773758798</v>
+        <v>0.94625657233786697</v>
       </c>
       <c r="C97" s="1">
         <f>[1]aggregated_efficiencies!C97</f>
-        <v>0.93912884773758798</v>
+        <v>0.94625657233786697</v>
       </c>
       <c r="D97" s="1">
         <f>[1]aggregated_efficiencies!D97</f>
-        <v>1.9571300017275101E-2</v>
+        <v>4.0623946688262601E-2</v>
       </c>
       <c r="E97" s="1">
         <f>[1]aggregated_efficiencies!E97</f>
-        <v>3.9545709469365101E-2</v>
+        <v>3.7416440289628698E-2</v>
+      </c>
+      <c r="F97" s="6">
+        <f t="shared" si="5"/>
+        <v>3.4757594386840042E-3</v>
       </c>
       <c r="G97" s="2"/>
     </row>
@@ -4645,7 +5036,7 @@
       <c r="D98" s="2"/>
       <c r="E98" s="2">
         <f>SUM(E83:E97)</f>
-        <v>1.0000000000000024</v>
+        <v>0.99999914632673692</v>
       </c>
       <c r="G98" s="2"/>
     </row>
@@ -4657,6 +5048,10 @@
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
+      <c r="F99" s="6">
+        <f>[1]aggregated_efficiencies!$E$99</f>
+        <v>2.5653113224192E-2</v>
+      </c>
       <c r="G99" s="2"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4669,37 +5064,45 @@
       </c>
       <c r="C100" s="1">
         <f>[1]aggregated_efficiencies!C100</f>
-        <v>0.76497674432363505</v>
+        <v>0.83135920233321803</v>
       </c>
       <c r="D100" s="1">
         <f>[1]aggregated_efficiencies!D100</f>
-        <v>5.1311840865434402E-2</v>
+        <v>0.16852890917114499</v>
       </c>
       <c r="E100" s="1">
         <f>[1]aggregated_efficiencies!E100</f>
-        <v>2.9703496361496998E-2</v>
+        <v>2.4509859590833401E-2</v>
+      </c>
+      <c r="F100" s="6">
+        <f>E100*$F$99</f>
+        <v>6.287542031926974E-4</v>
       </c>
       <c r="G100" s="2"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="A101" t="s">
         <v>7</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="1">
         <f>[1]aggregated_efficiencies!B101</f>
-        <v>0.999999999999999</v>
-      </c>
-      <c r="C101" s="3">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1">
         <f>[1]aggregated_efficiencies!C101</f>
-        <v>1.03403434233664</v>
-      </c>
-      <c r="D101" s="3">
+        <v>0.91413302402642505</v>
+      </c>
+      <c r="D101" s="1">
         <f>[1]aggregated_efficiencies!D101</f>
-        <v>-5.9249931360454396E-3</v>
-      </c>
-      <c r="E101" s="3">
+        <v>3.9060917416995897E-2</v>
+      </c>
+      <c r="E101" s="1">
         <f>[1]aggregated_efficiencies!E101</f>
-        <v>3.2665605686924199E-3</v>
+        <v>1.9796007164448001E-2</v>
+      </c>
+      <c r="F101" s="6">
+        <f t="shared" ref="F101:F114" si="6">E101*$F$99</f>
+        <v>5.0782921317650055E-4</v>
       </c>
       <c r="G101" s="2"/>
     </row>
@@ -4723,6 +5126,10 @@
         <f>[1]aggregated_efficiencies!E102</f>
         <v>0</v>
       </c>
+      <c r="F102" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G102" s="2" t="s">
         <v>63</v>
       </c>
@@ -4741,11 +5148,15 @@
       </c>
       <c r="D103" s="1">
         <f>[1]aggregated_efficiencies!D103</f>
-        <v>-1.5182559041531601E-19</v>
+        <v>0</v>
       </c>
       <c r="E103" s="1">
         <f>[1]aggregated_efficiencies!E103</f>
-        <v>-1.12545016134737E-20</v>
+        <v>5.7176476333485195E-19</v>
+      </c>
+      <c r="F103" s="6">
+        <f t="shared" si="6"/>
+        <v>1.46675462114323E-20</v>
       </c>
       <c r="G103" s="2"/>
     </row>
@@ -4769,6 +5180,10 @@
         <f>[1]aggregated_efficiencies!E104</f>
         <v>0</v>
       </c>
+      <c r="F104" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="G104" s="2"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4781,15 +5196,19 @@
       </c>
       <c r="C105" s="1">
         <f>[1]aggregated_efficiencies!C105</f>
-        <v>0.95692516312105602</v>
+        <v>0.91570203810300199</v>
       </c>
       <c r="D105" s="1">
         <f>[1]aggregated_efficiencies!D105</f>
-        <v>1.60711871698927E-4</v>
+        <v>8.3423721233610805E-4</v>
       </c>
       <c r="E105" s="1">
         <f>[1]aggregated_efficiencies!E105</f>
-        <v>3.8226223925892601E-4</v>
+        <v>4.9343029717762799E-4</v>
+      </c>
+      <c r="F105" s="6">
+        <f t="shared" si="6"/>
+        <v>1.2658023281744398E-5</v>
       </c>
       <c r="G105" s="2"/>
     </row>
@@ -4803,15 +5222,19 @@
       </c>
       <c r="C106" s="1">
         <f>[1]aggregated_efficiencies!C106</f>
-        <v>0.63885711250917399</v>
+        <v>0.61898365155171398</v>
       </c>
       <c r="D106" s="1">
         <f>[1]aggregated_efficiencies!D106</f>
-        <v>3.6698345347006699E-3</v>
+        <v>2.0305907944309701E-2</v>
       </c>
       <c r="E106" s="1">
         <f>[1]aggregated_efficiencies!E106</f>
-        <v>3.0650775486097E-3</v>
+        <v>3.60295007056918E-3</v>
+      </c>
+      <c r="F106" s="6">
+        <f t="shared" si="6"/>
+        <v>9.2426886101421729E-5</v>
       </c>
       <c r="G106" s="2"/>
     </row>
@@ -4825,15 +5248,19 @@
       </c>
       <c r="C107" s="1">
         <f>[1]aggregated_efficiencies!C107</f>
-        <v>0.70722155257159902</v>
+        <v>0.71204969148830399</v>
       </c>
       <c r="D107" s="1">
         <f>[1]aggregated_efficiencies!D107</f>
-        <v>1.3396201537525399E-2</v>
+        <v>5.8943044254879499E-2</v>
       </c>
       <c r="E107" s="1">
         <f>[1]aggregated_efficiencies!E107</f>
-        <v>1.2582516700708E-2</v>
+        <v>1.3026377494349199E-2</v>
+      </c>
+      <c r="F107" s="6">
+        <f t="shared" si="6"/>
+        <v>3.3416713676360648E-4</v>
       </c>
       <c r="G107" s="2"/>
     </row>
@@ -4847,15 +5274,19 @@
       </c>
       <c r="C108" s="1">
         <f>[1]aggregated_efficiencies!C108</f>
-        <v>0.662763215645646</v>
+        <v>0.66806819213551205</v>
       </c>
       <c r="D108" s="1">
         <f>[1]aggregated_efficiencies!D108</f>
-        <v>1.24915756084299E-2</v>
+        <v>5.6656944743489403E-2</v>
       </c>
       <c r="E108" s="1">
         <f>[1]aggregated_efficiencies!E108</f>
-        <v>2.7835943660193901E-2</v>
+        <v>2.8261144617074099E-2</v>
+      </c>
+      <c r="F108" s="6">
+        <f t="shared" si="6"/>
+        <v>7.2498634270706612E-4</v>
       </c>
       <c r="G108" s="2"/>
     </row>
@@ -4865,19 +5296,23 @@
       </c>
       <c r="B109" s="1">
         <f>[1]aggregated_efficiencies!B109</f>
-        <v>0.393138256599675</v>
+        <v>0.40324073166182201</v>
       </c>
       <c r="C109" s="1">
         <f>[1]aggregated_efficiencies!C109</f>
-        <v>0.390628132384922</v>
+        <v>0.39875444659954901</v>
       </c>
       <c r="D109" s="1">
         <f>[1]aggregated_efficiencies!D109</f>
-        <v>7.1993068328097903E-2</v>
+        <v>0.32043248653946099</v>
       </c>
       <c r="E109" s="1">
         <f>[1]aggregated_efficiencies!E109</f>
-        <v>0.82480658696608</v>
+        <v>0.80589142928641999</v>
+      </c>
+      <c r="F109" s="6">
+        <f t="shared" si="6"/>
+        <v>2.0673624081890454E-2</v>
       </c>
       <c r="G109" s="2"/>
     </row>
@@ -4895,11 +5330,15 @@
       </c>
       <c r="D110" s="1">
         <f>[1]aggregated_efficiencies!D110</f>
-        <v>-3.6977121137250399E-4</v>
+        <v>-1.09207546127931E-3</v>
       </c>
       <c r="E110" s="1">
         <f>[1]aggregated_efficiencies!E110</f>
-        <v>-1.5302116680302401E-2</v>
+        <v>-5.1973016960248997E-4</v>
+      </c>
+      <c r="F110" s="6">
+        <f t="shared" si="6"/>
+        <v>-1.3332696886841186E-5</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>63</v>
@@ -4919,11 +5358,15 @@
       </c>
       <c r="D111" s="1">
         <f>[1]aggregated_efficiencies!D111</f>
-        <v>2.6662882875402001E-3</v>
+        <v>1.2392266217734401E-2</v>
       </c>
       <c r="E111" s="1">
         <f>[1]aggregated_efficiencies!E111</f>
-        <v>5.0716916316507401E-3</v>
+        <v>5.1906355000757498E-3</v>
+      </c>
+      <c r="F111" s="6">
+        <f t="shared" si="6"/>
+        <v>1.3315596018895366E-4</v>
       </c>
       <c r="G111" s="2"/>
     </row>
@@ -4933,19 +5376,23 @@
       </c>
       <c r="B112" s="1">
         <f>[1]aggregated_efficiencies!B112</f>
-        <v>0.64635404731637702</v>
+        <v>0.68963190129268304</v>
       </c>
       <c r="C112" s="1">
         <f>[1]aggregated_efficiencies!C112</f>
-        <v>0.64635404731637702</v>
+        <v>0.68963190129268304</v>
       </c>
       <c r="D112" s="1">
         <f>[1]aggregated_efficiencies!D112</f>
-        <v>2.9552653345851301E-2</v>
+        <v>9.1009308399404298E-2</v>
       </c>
       <c r="E112" s="1">
         <f>[1]aggregated_efficiencies!E112</f>
-        <v>2.2239090294395501E-2</v>
+        <v>1.9179913605747001E-2</v>
+      </c>
+      <c r="F112" s="6">
+        <f t="shared" si="6"/>
+        <v>4.9202449535844846E-4</v>
       </c>
       <c r="G112" s="2"/>
     </row>
@@ -4959,15 +5406,19 @@
       </c>
       <c r="C113" s="1">
         <f>[1]aggregated_efficiencies!C113</f>
-        <v>0.65972174487371305</v>
+        <v>0.65322498962513398</v>
       </c>
       <c r="D113" s="1">
         <f>[1]aggregated_efficiencies!D113</f>
-        <v>3.2681455433005303E-2</v>
+        <v>0.164300601306897</v>
       </c>
       <c r="E113" s="1">
         <f>[1]aggregated_efficiencies!E113</f>
-        <v>4.9475672042242E-2</v>
+        <v>4.7933135854168599E-2</v>
+      </c>
+      <c r="F113" s="6">
+        <f t="shared" si="6"/>
+        <v>1.2296341612575642E-3</v>
       </c>
       <c r="G113" s="2"/>
     </row>
@@ -4977,19 +5428,23 @@
       </c>
       <c r="B114" s="1">
         <f>[1]aggregated_efficiencies!B114</f>
-        <v>0.94571355773278398</v>
+        <v>0.95511137698027904</v>
       </c>
       <c r="C114" s="1">
         <f>[1]aggregated_efficiencies!C114</f>
-        <v>0.94571355773278398</v>
+        <v>0.95511137698027904</v>
       </c>
       <c r="D114" s="1">
         <f>[1]aggregated_efficiencies!D114</f>
-        <v>8.9834517354096307E-3</v>
+        <v>3.39950591428234E-2</v>
       </c>
       <c r="E114" s="1">
         <f>[1]aggregated_efficiencies!E114</f>
-        <v>3.6873218666975197E-2</v>
+        <v>3.2634846688737902E-2</v>
+      </c>
+      <c r="F114" s="6">
+        <f t="shared" si="6"/>
+        <v>8.3718541716034083E-4</v>
       </c>
       <c r="G114" s="2"/>
     </row>
@@ -5000,7 +5455,7 @@
       <c r="D115" s="2"/>
       <c r="E115" s="2">
         <f>SUM(E100:E114)</f>
-        <v>1.0000000000000011</v>
+        <v>0.99999999999999822</v>
       </c>
       <c r="G115" s="2"/>
     </row>
@@ -5012,6 +5467,10 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
+      <c r="F116" s="6">
+        <f>[1]aggregated_efficiencies!$E$116</f>
+        <v>8.4496694803373004E-2</v>
+      </c>
       <c r="G116" s="2"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5024,37 +5483,45 @@
       </c>
       <c r="C117" s="1">
         <f>[1]aggregated_efficiencies!C117</f>
-        <v>0.77157441024513196</v>
+        <v>0.81285270186473402</v>
       </c>
       <c r="D117" s="1">
         <f>[1]aggregated_efficiencies!D117</f>
-        <v>8.5595727340760902E-2</v>
+        <v>0.187033852963297</v>
       </c>
       <c r="E117" s="1">
         <f>[1]aggregated_efficiencies!E117</f>
-        <v>2.3167939023363199E-2</v>
+        <v>2.0984595400151101E-2</v>
+      </c>
+      <c r="F117" s="6">
+        <f>E117*$F$116</f>
+        <v>1.7731289530988326E-3</v>
       </c>
       <c r="G117" s="2"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="A118" t="s">
         <v>7</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="1">
         <f>[1]aggregated_efficiencies!B118</f>
         <v>1</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="1">
         <f>[1]aggregated_efficiencies!C118</f>
-        <v>1.0333013476048101</v>
-      </c>
-      <c r="D118" s="3">
+        <v>0.94207250612020799</v>
+      </c>
+      <c r="D118" s="1">
         <f>[1]aggregated_efficiencies!D118</f>
-        <v>-4.6353588665486896E-3</v>
-      </c>
-      <c r="E118" s="3">
+        <v>2.34123776203801E-2</v>
+      </c>
+      <c r="E118" s="1">
         <f>[1]aggregated_efficiencies!E118</f>
-        <v>-1.9096438078105701E-3</v>
+        <v>1.0635962973105701E-2</v>
+      </c>
+      <c r="F118" s="6">
+        <f t="shared" ref="F118:F131" si="7">E118*$F$116</f>
+        <v>8.9870371727848817E-4</v>
       </c>
       <c r="G118" s="2"/>
     </row>
@@ -5078,6 +5545,10 @@
         <f>[1]aggregated_efficiencies!E119</f>
         <v>0</v>
       </c>
+      <c r="F119" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="G119" s="2" t="s">
         <v>63</v>
       </c>
@@ -5096,11 +5567,15 @@
       </c>
       <c r="D120" s="1">
         <f>[1]aggregated_efficiencies!D120</f>
-        <v>-5.8278844684052002E-19</v>
+        <v>0</v>
       </c>
       <c r="E120" s="1">
         <f>[1]aggregated_efficiencies!E120</f>
-        <v>-6.3766971031475405E-19</v>
+        <v>1.03266890045403E-19</v>
+      </c>
+      <c r="F120" s="6">
+        <f t="shared" si="7"/>
+        <v>8.7257108914598951E-21</v>
       </c>
       <c r="G120" s="2"/>
     </row>
@@ -5124,6 +5599,10 @@
         <f>[1]aggregated_efficiencies!E121</f>
         <v>0</v>
       </c>
+      <c r="F121" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="G121" s="2"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -5136,15 +5615,19 @@
       </c>
       <c r="C122" s="1">
         <f>[1]aggregated_efficiencies!C122</f>
-        <v>0.984543618954828</v>
+        <v>0.91604392819532698</v>
       </c>
       <c r="D122" s="1">
         <f>[1]aggregated_efficiencies!D122</f>
-        <v>8.0155348469523494E-5</v>
+        <v>2.4880279292993602E-4</v>
       </c>
       <c r="E122" s="1">
         <f>[1]aggregated_efficiencies!E122</f>
-        <v>9.8346749782584296E-5</v>
+        <v>1.68600112599663E-4</v>
+      </c>
+      <c r="F122" s="6">
+        <f t="shared" si="7"/>
+        <v>1.4246152258148047E-5</v>
       </c>
       <c r="G122" s="2"/>
     </row>
@@ -5158,15 +5641,19 @@
       </c>
       <c r="C123" s="1">
         <f>[1]aggregated_efficiencies!C123</f>
-        <v>0.74208418172978796</v>
+        <v>0.64746686058774605</v>
       </c>
       <c r="D123" s="1">
         <f>[1]aggregated_efficiencies!D123</f>
-        <v>3.8247705628475801E-3</v>
+        <v>1.33555527970452E-2</v>
       </c>
       <c r="E123" s="1">
         <f>[1]aggregated_efficiencies!E123</f>
-        <v>1.6693922596152399E-3</v>
+        <v>2.17681848564669E-3</v>
+      </c>
+      <c r="F123" s="6">
+        <f t="shared" si="7"/>
+        <v>1.8393396722402895E-4</v>
       </c>
       <c r="G123" s="2"/>
     </row>
@@ -5180,15 +5667,19 @@
       </c>
       <c r="C124" s="1">
         <f>[1]aggregated_efficiencies!C124</f>
-        <v>0.65374968061357497</v>
+        <v>0.65761544263221205</v>
       </c>
       <c r="D124" s="1">
         <f>[1]aggregated_efficiencies!D124</f>
-        <v>2.4097510756688499E-2</v>
+        <v>6.1432657968954099E-2</v>
       </c>
       <c r="E124" s="1">
         <f>[1]aggregated_efficiencies!E124</f>
-        <v>1.6996488610347901E-2</v>
+        <v>1.7266448205721398E-2</v>
+      </c>
+      <c r="F124" s="6">
+        <f t="shared" si="7"/>
+        <v>1.4589578043770885E-3</v>
       </c>
       <c r="G124" s="2"/>
     </row>
@@ -5202,15 +5693,19 @@
       </c>
       <c r="C125" s="1">
         <f>[1]aggregated_efficiencies!C125</f>
-        <v>0.67259099603609596</v>
+        <v>0.67506719570913098</v>
       </c>
       <c r="D125" s="1">
         <f>[1]aggregated_efficiencies!D125</f>
-        <v>1.8117280627427901E-2</v>
+        <v>4.7593485592217898E-2</v>
       </c>
       <c r="E125" s="1">
         <f>[1]aggregated_efficiencies!E125</f>
-        <v>2.9139063476866602E-2</v>
+        <v>2.9305143378696E-2</v>
+      </c>
+      <c r="F125" s="6">
+        <f t="shared" si="7"/>
+        <v>2.4761877562387629E-3</v>
       </c>
       <c r="G125" s="2"/>
     </row>
@@ -5220,19 +5715,23 @@
       </c>
       <c r="B126" s="1">
         <f>[1]aggregated_efficiencies!B126</f>
-        <v>0.37871444086300898</v>
+        <v>0.38639998873579201</v>
       </c>
       <c r="C126" s="1">
         <f>[1]aggregated_efficiencies!C126</f>
-        <v>0.37934839196364001</v>
+        <v>0.388549658447847</v>
       </c>
       <c r="D126" s="1">
         <f>[1]aggregated_efficiencies!D126</f>
-        <v>0.12658164114065701</v>
+        <v>0.32799634336772299</v>
       </c>
       <c r="E126" s="1">
         <f>[1]aggregated_efficiencies!E126</f>
-        <v>0.82100844329306499</v>
+        <v>0.81390180237495302</v>
+      </c>
+      <c r="F126" s="6">
+        <f t="shared" si="7"/>
+        <v>6.877201219519162E-2</v>
       </c>
       <c r="G126" s="2"/>
     </row>
@@ -5250,11 +5749,15 @@
       </c>
       <c r="D127" s="1">
         <f>[1]aggregated_efficiencies!D127</f>
-        <v>-2.96397695402747E-4</v>
+        <v>-5.5403240168372305E-4</v>
       </c>
       <c r="E127" s="1">
         <f>[1]aggregated_efficiencies!E127</f>
-        <v>-2.9371321296373801E-3</v>
+        <v>-3.25922298537432E-4</v>
+      </c>
+      <c r="F127" s="6">
+        <f t="shared" si="7"/>
+        <v>-2.7539356989131214E-5</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>63</v>
@@ -5274,11 +5777,15 @@
       </c>
       <c r="D128" s="1">
         <f>[1]aggregated_efficiencies!D128</f>
-        <v>3.7772841672629701E-3</v>
+        <v>9.8679355410668992E-3</v>
       </c>
       <c r="E128" s="1">
         <f>[1]aggregated_efficiencies!E128</f>
-        <v>5.1236724682405298E-3</v>
+        <v>5.2377818082094702E-3</v>
+      </c>
+      <c r="F128" s="6">
+        <f t="shared" si="7"/>
+        <v>4.4257525089493478E-4</v>
       </c>
       <c r="G128" s="2"/>
     </row>
@@ -5288,19 +5795,23 @@
       </c>
       <c r="B129" s="1">
         <f>[1]aggregated_efficiencies!B129</f>
-        <v>0.62694720566358997</v>
+        <v>0.64824717444074997</v>
       </c>
       <c r="C129" s="1">
         <f>[1]aggregated_efficiencies!C129</f>
-        <v>0.62694720566358997</v>
+        <v>0.64824717444074997</v>
       </c>
       <c r="D129" s="1">
         <f>[1]aggregated_efficiencies!D129</f>
-        <v>5.7010338708086701E-2</v>
+        <v>0.130513123469402</v>
       </c>
       <c r="E129" s="1">
         <f>[1]aggregated_efficiencies!E129</f>
-        <v>2.6642551433885799E-2</v>
+        <v>2.2575147133629101E-2</v>
+      </c>
+      <c r="F129" s="6">
+        <f t="shared" si="7"/>
+        <v>1.907525317491499E-3</v>
       </c>
       <c r="G129" s="2"/>
     </row>
@@ -5314,15 +5825,19 @@
       </c>
       <c r="C130" s="1">
         <f>[1]aggregated_efficiencies!C130</f>
-        <v>0.65825379585561605</v>
+        <v>0.67201488353864802</v>
       </c>
       <c r="D130" s="1">
         <f>[1]aggregated_efficiencies!D130</f>
-        <v>5.33970552483026E-2</v>
+        <v>0.146130848142312</v>
       </c>
       <c r="E130" s="1">
         <f>[1]aggregated_efficiencies!E130</f>
-        <v>4.1263872052825099E-2</v>
+        <v>4.1722149695316499E-2</v>
+      </c>
+      <c r="F130" s="6">
+        <f t="shared" si="7"/>
+        <v>3.5253837493458002E-3</v>
       </c>
       <c r="G130" s="2"/>
     </row>
@@ -5332,19 +5847,23 @@
       </c>
       <c r="B131" s="1">
         <f>[1]aggregated_efficiencies!B131</f>
-        <v>0.93688985286505599</v>
+        <v>0.94419995161885495</v>
       </c>
       <c r="C131" s="1">
         <f>[1]aggregated_efficiencies!C131</f>
-        <v>0.93688985286505599</v>
+        <v>0.94419995161885495</v>
       </c>
       <c r="D131" s="1">
         <f>[1]aggregated_efficiencies!D131</f>
-        <v>1.7856720810369899E-2</v>
+        <v>4.2095095367352099E-2</v>
       </c>
       <c r="E131" s="1">
         <f>[1]aggregated_efficiencies!E131</f>
-        <v>3.97370065694512E-2</v>
+        <v>3.7552593293394602E-2</v>
+      </c>
+      <c r="F131" s="6">
+        <f t="shared" si="7"/>
+        <v>3.1730700145871558E-3</v>
       </c>
       <c r="G131" s="2"/>
     </row>
@@ -5355,7 +5874,7 @@
       <c r="D132" s="2"/>
       <c r="E132" s="2">
         <f>SUM(E117:E131)</f>
-        <v>0.99999999999999523</v>
+        <v>1.0012011205628857</v>
       </c>
       <c r="G132" s="2"/>
     </row>
@@ -5367,6 +5886,10 @@
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
+      <c r="F133" s="6">
+        <f>[1]aggregated_efficiencies!$E$133</f>
+        <v>5.55775593248896E-2</v>
+      </c>
       <c r="G133" s="2"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5379,15 +5902,19 @@
       </c>
       <c r="C134" s="1">
         <f>[1]aggregated_efficiencies!C134</f>
-        <v>0.12774597204229801</v>
+        <v>0.13282477634763201</v>
       </c>
       <c r="D134" s="1">
         <f>[1]aggregated_efficiencies!D134</f>
-        <v>0.32038318274344202</v>
+        <v>0.29640650242063599</v>
       </c>
       <c r="E134" s="1">
         <f>[1]aggregated_efficiencies!E134</f>
-        <v>0.221777432209501</v>
+        <v>0.26683350444433301</v>
+      </c>
+      <c r="F134" s="6">
+        <f>E134*$F$133</f>
+        <v>1.482995492312311E-2</v>
       </c>
       <c r="G134" s="2"/>
     </row>
@@ -5401,15 +5928,19 @@
       </c>
       <c r="C135" s="1">
         <f>[1]aggregated_efficiencies!C135</f>
-        <v>0.13488937229918299</v>
+        <v>0.142815921236156</v>
       </c>
       <c r="D135" s="1">
         <f>[1]aggregated_efficiencies!D135</f>
-        <v>0.31362025220983297</v>
+        <v>0.29203074908424398</v>
       </c>
       <c r="E135" s="1">
         <f>[1]aggregated_efficiencies!E135</f>
-        <v>0.21453852141569901</v>
+        <v>0.23422249197041001</v>
+      </c>
+      <c r="F135" s="6">
+        <f t="shared" ref="F135:F145" si="8">E135*$F$133</f>
+        <v>1.301751444270894E-2</v>
       </c>
       <c r="G135" s="2"/>
     </row>
@@ -5427,11 +5958,15 @@
       </c>
       <c r="D136" s="1">
         <f>[1]aggregated_efficiencies!D136</f>
-        <v>2.01966481294949E-4</v>
+        <v>3.0189119328172199E-4</v>
       </c>
       <c r="E136" s="1">
         <f>[1]aggregated_efficiencies!E136</f>
-        <v>3.7114700449583101E-4</v>
+        <v>3.8419882375851099E-4</v>
+      </c>
+      <c r="F136" s="6">
+        <f t="shared" si="8"/>
+        <v>2.1352832919991447E-5</v>
       </c>
       <c r="G136" s="2"/>
     </row>
@@ -5449,11 +5984,15 @@
       </c>
       <c r="D137" s="1">
         <f>[1]aggregated_efficiencies!D137</f>
-        <v>2.7983776896876601E-4</v>
+        <v>3.6048461405457899E-4</v>
       </c>
       <c r="E137" s="1">
         <f>[1]aggregated_efficiencies!E137</f>
-        <v>4.9483970585842104E-4</v>
+        <v>5.0009385162636498E-4</v>
+      </c>
+      <c r="F137" s="6">
+        <f t="shared" si="8"/>
+        <v>2.7793995706776836E-5</v>
       </c>
       <c r="G137" s="2"/>
     </row>
@@ -5471,11 +6010,15 @@
       </c>
       <c r="D138" s="1">
         <f>[1]aggregated_efficiencies!D138</f>
-        <v>6.6497963731438998E-3</v>
+        <v>9.2039461849201497E-3</v>
       </c>
       <c r="E138" s="1">
         <f>[1]aggregated_efficiencies!E138</f>
-        <v>7.7709229435227699E-3</v>
+        <v>8.3626214063361008E-3</v>
+      </c>
+      <c r="F138" s="6">
+        <f t="shared" si="8"/>
+        <v>4.6477408732223635E-4</v>
       </c>
       <c r="G138" s="2"/>
     </row>
@@ -5493,11 +6036,15 @@
       </c>
       <c r="D139" s="1">
         <f>[1]aggregated_efficiencies!D139</f>
-        <v>5.1819695519722004E-3</v>
+        <v>6.9473102792525498E-3</v>
       </c>
       <c r="E139" s="1">
         <f>[1]aggregated_efficiencies!E139</f>
-        <v>5.4650666031602398E-3</v>
+        <v>5.6110536139733101E-3</v>
+      </c>
+      <c r="F139" s="6">
+        <f t="shared" si="8"/>
+        <v>3.1184866510573783E-4</v>
       </c>
       <c r="G139" s="2"/>
     </row>
@@ -5515,11 +6062,15 @@
       </c>
       <c r="D140" s="3">
         <f>[1]aggregated_efficiencies!D140</f>
-        <v>-6.8712342461879497E-3</v>
+        <v>-8.4178414337561201E-3</v>
       </c>
       <c r="E140" s="3">
         <f>[1]aggregated_efficiencies!E140</f>
-        <v>-4.8631034009990696E-3</v>
+        <v>-4.9877729806299302E-3</v>
+      </c>
+      <c r="F140" s="6">
+        <f t="shared" si="8"/>
+        <v>-2.7720824873004137E-4</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>63</v>
@@ -5539,11 +6090,15 @@
       </c>
       <c r="D141" s="3">
         <f>[1]aggregated_efficiencies!D141</f>
-        <v>-9.1706344020184398E-3</v>
+        <v>-9.4148826684661204E-3</v>
       </c>
       <c r="E141" s="3">
         <f>[1]aggregated_efficiencies!E141</f>
-        <v>-4.9624489818232203E-3</v>
+        <v>-4.9785987026826801E-3</v>
+      </c>
+      <c r="F141" s="6">
+        <f t="shared" si="8"/>
+        <v>-2.7669836475316504E-4</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>63</v>
@@ -5563,11 +6118,15 @@
       </c>
       <c r="D142" s="1">
         <f>[1]aggregated_efficiencies!D142</f>
-        <v>0.31210077966112798</v>
+        <v>0.31330381223083698</v>
       </c>
       <c r="E142" s="1">
         <f>[1]aggregated_efficiencies!E142</f>
-        <v>0.30047626574830499</v>
+        <v>0.34772622639614598</v>
+      </c>
+      <c r="F142" s="6">
+        <f t="shared" si="8"/>
+        <v>1.9325774976351795E-2</v>
       </c>
       <c r="G142" s="2"/>
     </row>
@@ -5585,11 +6144,15 @@
       </c>
       <c r="D143" s="1">
         <f>[1]aggregated_efficiencies!D143</f>
-        <v>0.28356205612871499</v>
+        <v>0.28298923100801798</v>
       </c>
       <c r="E143" s="1">
         <f>[1]aggregated_efficiencies!E143</f>
-        <v>0.25893135675228102</v>
+        <v>0.28633099990056199</v>
+      </c>
+      <c r="F143" s="6">
+        <f t="shared" si="8"/>
+        <v>1.5913578133528443E-2</v>
       </c>
       <c r="G143" s="2"/>
     </row>
@@ -5613,6 +6176,10 @@
         <f>[1]aggregated_efficiencies!E144</f>
         <v>0</v>
       </c>
+      <c r="F144" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="G144" s="2" t="s">
         <v>63</v>
       </c>
@@ -5635,6 +6202,10 @@
       </c>
       <c r="E145" s="1">
         <f>[1]aggregated_efficiencies!E145</f>
+        <v>0</v>
+      </c>
+      <c r="F145" s="6">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G145" s="2" t="s">
@@ -5649,6 +6220,10 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
+      <c r="F147" s="6">
+        <f>[1]aggregated_efficiencies!$E$147</f>
+        <v>3.4185665746308998E-2</v>
+      </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
@@ -5660,15 +6235,19 @@
       </c>
       <c r="C148" s="1">
         <f>[1]aggregated_efficiencies!C148</f>
-        <v>0.91506935380483301</v>
+        <v>0.91459273245951</v>
       </c>
       <c r="D148" s="1">
         <f>[1]aggregated_efficiencies!D148</f>
-        <v>4.0399566486316804E-3</v>
+        <v>3.77484898001723E-3</v>
       </c>
       <c r="E148" s="1">
         <f>[1]aggregated_efficiencies!E148</f>
-        <v>2.0137702369178698E-2</v>
+        <v>1.5605510530412099E-2</v>
+      </c>
+      <c r="F148" s="6">
+        <f>E148*$F$147</f>
+        <v>5.334847667931732E-4</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5681,15 +6260,19 @@
       </c>
       <c r="C149" s="1">
         <f>[1]aggregated_efficiencies!C149</f>
-        <v>0.897117442100967</v>
+        <v>0.897559886041705</v>
       </c>
       <c r="D149" s="1">
         <f>[1]aggregated_efficiencies!D149</f>
-        <v>5.8730635066998301E-3</v>
+        <v>5.9377048063590197E-3</v>
       </c>
       <c r="E149" s="1">
         <f>[1]aggregated_efficiencies!E149</f>
-        <v>3.6016536334668801E-2</v>
+        <v>2.2943063205842398E-2</v>
+      </c>
+      <c r="F149" s="6">
+        <f t="shared" ref="F149:F155" si="9">E149*$F$147</f>
+        <v>7.8432388995136875E-4</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5706,11 +6289,15 @@
       </c>
       <c r="D150" s="1">
         <f>[1]aggregated_efficiencies!D150</f>
-        <v>5.5832553630695799E-18</v>
+        <v>0</v>
       </c>
       <c r="E150" s="1">
         <f>[1]aggregated_efficiencies!E150</f>
-        <v>2.2945049350399801E-17</v>
+        <v>2.67961289576596E-17</v>
+      </c>
+      <c r="F150" s="6">
+        <f t="shared" si="9"/>
+        <v>9.1604350784154233E-19</v>
       </c>
       <c r="G150" t="s">
         <v>63</v>
@@ -5730,11 +6317,15 @@
       </c>
       <c r="D151" s="1">
         <f>[1]aggregated_efficiencies!D151</f>
-        <v>1.1404877356461699E-18</v>
+        <v>0</v>
       </c>
       <c r="E151" s="1">
         <f>[1]aggregated_efficiencies!E151</f>
-        <v>5.3641993294696799E-18</v>
+        <v>1.9244903063525501E-18</v>
+      </c>
+      <c r="F151" s="6">
+        <f t="shared" si="9"/>
+        <v>6.5789982344980086E-20</v>
       </c>
       <c r="G151" t="s">
         <v>63</v>
@@ -5750,15 +6341,19 @@
       </c>
       <c r="C152" s="1">
         <f>[1]aggregated_efficiencies!C152</f>
-        <v>0.44221633189862902</v>
+        <v>0.45842675944453698</v>
       </c>
       <c r="D152" s="1">
         <f>[1]aggregated_efficiencies!D152</f>
-        <v>0.153400547421504</v>
+        <v>0.16718846617458299</v>
       </c>
       <c r="E152" s="1">
         <f>[1]aggregated_efficiencies!E152</f>
-        <v>0.42204787611730699</v>
+        <v>0.45668853817069299</v>
+      </c>
+      <c r="F152" s="6">
+        <f t="shared" si="9"/>
+        <v>1.5612201716073788E-2</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5771,15 +6366,19 @@
       </c>
       <c r="C153" s="1">
         <f>[1]aggregated_efficiencies!C153</f>
-        <v>0.83750334073817401</v>
+        <v>0.83604369292737502</v>
       </c>
       <c r="D153" s="1">
         <f>[1]aggregated_efficiencies!D153</f>
-        <v>7.8538887208099793E-3</v>
+        <v>5.9136495805546301E-2</v>
       </c>
       <c r="E153" s="1">
         <f>[1]aggregated_efficiencies!E153</f>
-        <v>2.2261879791993299E-2</v>
+        <v>6.1513871807987999E-3</v>
+      </c>
+      <c r="F153" s="6">
+        <f t="shared" si="9"/>
+        <v>2.1028926603891782E-4</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5792,15 +6391,19 @@
       </c>
       <c r="C154" s="1">
         <f>[1]aggregated_efficiencies!C154</f>
-        <v>0.61977598567190695</v>
+        <v>0.62469144627420903</v>
       </c>
       <c r="D154" s="1">
         <f>[1]aggregated_efficiencies!D154</f>
-        <v>0.10393185339882401</v>
+        <v>0.107169376933336</v>
       </c>
       <c r="E154" s="1">
         <f>[1]aggregated_efficiencies!E154</f>
-        <v>0.44759712261381801</v>
+        <v>0.46292875024337399</v>
+      </c>
+      <c r="F154" s="6">
+        <f t="shared" si="9"/>
+        <v>1.5825527520176543E-2</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5813,15 +6416,19 @@
       </c>
       <c r="C155" s="1">
         <f>[1]aggregated_efficiencies!C155</f>
-        <v>0.86191571632018404</v>
+        <v>0.86163449546100102</v>
       </c>
       <c r="D155" s="1">
         <f>[1]aggregated_efficiencies!D155</f>
-        <v>4.4780977932272502E-2</v>
+        <v>4.4350057184976699E-2</v>
       </c>
       <c r="E155" s="1">
         <f>[1]aggregated_efficiencies!E155</f>
-        <v>5.1938882773032199E-2</v>
+        <v>3.5682750668882497E-2</v>
+      </c>
+      <c r="F155" s="6">
+        <f t="shared" si="9"/>
+        <v>1.2198385872753009E-3</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5831,7 +6438,7 @@
       <c r="D156" s="2"/>
       <c r="E156" s="2">
         <f>SUM(E148:E155)</f>
-        <v>0.999999999999998</v>
+        <v>1.0000000000000029</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5842,6 +6449,10 @@
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
+      <c r="F157" s="6">
+        <f>[1]aggregated_efficiencies!$E$157</f>
+        <v>3.2590431847403199E-2</v>
+      </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
@@ -5849,19 +6460,23 @@
       </c>
       <c r="B158" s="3">
         <f>[1]aggregated_efficiencies!B158</f>
-        <v>-407346800445.48102</v>
+        <v>1.09660818221252</v>
       </c>
       <c r="C158" s="3">
         <f>[1]aggregated_efficiencies!C158</f>
-        <v>-407346800445.50299</v>
+        <v>0.61310155884717299</v>
       </c>
       <c r="D158" s="3">
         <f>[1]aggregated_efficiencies!D158</f>
-        <v>5.3095451945194702E-2</v>
+        <v>0.32491143794266503</v>
       </c>
       <c r="E158" s="3">
         <f>[1]aggregated_efficiencies!E158</f>
-        <v>9.4312836442828202E-2</v>
+        <v>0.82493278150325999</v>
+      </c>
+      <c r="F158" s="6">
+        <f>E158*$F$157</f>
+        <v>2.6884915594270749E-2</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5872,44 +6487,52 @@
         <f>[1]aggregated_efficiencies!B159</f>
         <v>0</v>
       </c>
-      <c r="C159" s="3" t="str">
+      <c r="C159" s="3">
         <f>[1]aggregated_efficiencies!C159</f>
-        <v>nan</v>
+        <v>0</v>
       </c>
       <c r="D159" s="3">
         <f>[1]aggregated_efficiencies!D159</f>
-        <v>2.1726811311378599E-2</v>
+        <v>0.13017218557363699</v>
       </c>
       <c r="E159" s="3">
         <f>[1]aggregated_efficiencies!E159</f>
-        <v>0.24830387941853299</v>
+        <v>3.0428353408020099E-2</v>
+      </c>
+      <c r="F159" s="6">
+        <f t="shared" ref="F159:F166" si="10">E159*$F$157</f>
+        <v>9.91673177972778E-4</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>52</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="1">
         <f>[1]aggregated_efficiencies!B160</f>
         <v>0</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="1">
         <f>[1]aggregated_efficiencies!C160</f>
         <v>0</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="1">
         <f>[1]aggregated_efficiencies!D160</f>
-        <v>-1.2669187080924201E-18</v>
-      </c>
-      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="E160" s="1">
         <f>[1]aggregated_efficiencies!E160</f>
-        <v>-3.7951659319351203E-17</v>
+        <v>-1.6637170746339901E-18</v>
+      </c>
+      <c r="F160" s="6">
+        <f t="shared" si="10"/>
+        <v>-5.4221257934220076E-20</v>
       </c>
       <c r="G160" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>53</v>
       </c>
@@ -5919,18 +6542,22 @@
       </c>
       <c r="C161" s="1">
         <f>[1]aggregated_efficiencies!C161</f>
-        <v>0.44646972137834101</v>
+        <v>0.4470909225643</v>
       </c>
       <c r="D161" s="1">
         <f>[1]aggregated_efficiencies!D161</f>
-        <v>0.47237221303222998</v>
+        <v>0.47157443000544402</v>
       </c>
       <c r="E161" s="1">
         <f>[1]aggregated_efficiencies!E161</f>
-        <v>8.7401993428477195E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.8001184100400899E-2</v>
+      </c>
+      <c r="F161" s="6">
+        <f t="shared" si="10"/>
+        <v>5.8666636359667361E-4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>54</v>
       </c>
@@ -5940,18 +6567,22 @@
       </c>
       <c r="C162" s="1">
         <f>[1]aggregated_efficiencies!C162</f>
-        <v>0.44646972137834101</v>
+        <v>0.447090922564302</v>
       </c>
       <c r="D162" s="1">
         <f>[1]aggregated_efficiencies!D162</f>
-        <v>0.47237221303222998</v>
+        <v>0.47157443000543198</v>
       </c>
       <c r="E162" s="1">
         <f>[1]aggregated_efficiencies!E162</f>
-        <v>5.8267995618985297E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.20007894002671E-2</v>
+      </c>
+      <c r="F162" s="6">
+        <f t="shared" si="10"/>
+        <v>3.9111090906444364E-4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>55</v>
       </c>
@@ -5961,18 +6592,22 @@
       </c>
       <c r="C163" s="1">
         <f>[1]aggregated_efficiencies!C163</f>
-        <v>0.55240608719666895</v>
+        <v>0.55290840094570504</v>
       </c>
       <c r="D163" s="1">
         <f>[1]aggregated_efficiencies!D163</f>
-        <v>0.38196813308414501</v>
+        <v>0.381323032282403</v>
       </c>
       <c r="E163" s="1">
         <f>[1]aggregated_efficiencies!E163</f>
-        <v>9.0867503582356596E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.8714935398680001E-2</v>
+      </c>
+      <c r="F163" s="6">
+        <f t="shared" si="10"/>
+        <v>6.0992782663923419E-4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>56</v>
       </c>
@@ -5982,18 +6617,22 @@
       </c>
       <c r="C164" s="1">
         <f>[1]aggregated_efficiencies!C164</f>
-        <v>0.25818943543817602</v>
+        <v>0.25902193479775498</v>
       </c>
       <c r="D164" s="1">
         <f>[1]aggregated_efficiencies!D164</f>
-        <v>0.63304702843954397</v>
+        <v>0.63197788389522902</v>
       </c>
       <c r="E164" s="1">
         <f>[1]aggregated_efficiencies!E164</f>
-        <v>0.15617506899039801</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.2165584084640597E-2</v>
+      </c>
+      <c r="F164" s="6">
+        <f t="shared" si="10"/>
+        <v>1.0482902759423964E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>57</v>
       </c>
@@ -6003,18 +6642,22 @@
       </c>
       <c r="C165" s="1">
         <f>[1]aggregated_efficiencies!C165</f>
-        <v>0.66329942993174995</v>
+        <v>0.66301919938605502</v>
       </c>
       <c r="D165" s="1">
         <f>[1]aggregated_efficiencies!D165</f>
-        <v>0.287309357900005</v>
+        <v>0.28746501235559302</v>
       </c>
       <c r="E165" s="1">
         <f>[1]aggregated_efficiencies!E165</f>
-        <v>4.4984823011185997E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.4681643002385105E-3</v>
+      </c>
+      <c r="F165" s="6">
+        <f t="shared" si="10"/>
+        <v>3.0857156334693919E-4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>58</v>
       </c>
@@ -6024,41 +6667,57 @@
       </c>
       <c r="C166" s="1">
         <f>[1]aggregated_efficiencies!C166</f>
-        <v>0.64944681772919</v>
+        <v>0.65035790674701699</v>
       </c>
       <c r="D166" s="1">
         <f>[1]aggregated_efficiencies!D166</f>
-        <v>0.22437683976846401</v>
+        <v>0.298174309136709</v>
       </c>
       <c r="E166" s="1">
         <f>[1]aggregated_efficiencies!E166</f>
-        <v>0.219685899507233</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.4288207804487003E-2</v>
+      </c>
+      <c r="F166" s="6">
+        <f t="shared" si="10"/>
+        <v>1.7692761365697962E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2">
         <f>SUM(E158:E166)</f>
-        <v>0.99999999999999734</v>
+        <v>0.99999999999999412</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="A157:E157"/>
     <mergeCell ref="A82:E82"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="A157:E157"/>
   </mergeCells>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/Results/aggregated_efficiencies.xlsx
+++ b/Results/aggregated_efficiencies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250"/>
   </bookViews>
   <sheets>
     <sheet name="aggregated_efficiencies" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -705,18 +705,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -786,7 +794,7 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="E3">
-            <v>0.12523810981504899</v>
+            <v>8.6974092722049298E-2</v>
           </cell>
         </row>
         <row r="4">
@@ -794,13 +802,13 @@
             <v>1</v>
           </cell>
           <cell r="C4">
-            <v>0.85828350676657905</v>
+            <v>0.85828350676658005</v>
           </cell>
           <cell r="D4">
             <v>0.140590170544695</v>
           </cell>
           <cell r="E4">
-            <v>2.9257562271084999E-2</v>
+            <v>2.54644969471935E-2</v>
           </cell>
         </row>
         <row r="5">
@@ -811,10 +819,10 @@
             <v>0.85737262254190705</v>
           </cell>
           <cell r="D5">
-            <v>6.9591222018148199E-2</v>
+            <v>6.9591222018148699E-2</v>
           </cell>
           <cell r="E5">
-            <v>3.9924312455804301E-2</v>
+            <v>3.4748367728994901E-2</v>
           </cell>
         </row>
         <row r="6">
@@ -822,7 +830,7 @@
             <v>0</v>
           </cell>
           <cell r="E6">
-            <v>3.7216772922971303E-21</v>
+            <v>-9.5879859006480101E-21</v>
           </cell>
         </row>
         <row r="7">
@@ -830,15 +838,15 @@
             <v>4.7279096820426601E-2</v>
           </cell>
           <cell r="E7">
-            <v>2.8469934019871999E-2</v>
+            <v>2.4778979917008202E-2</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>1.08467245530756E-2</v>
+            <v>1.0846724553075299E-2</v>
           </cell>
           <cell r="E8">
-            <v>4.3837988735520198E-4</v>
+            <v>3.81546596392277E-4</v>
           </cell>
         </row>
         <row r="9">
@@ -846,10 +854,10 @@
             <v>0.80073392200635796</v>
           </cell>
           <cell r="D9">
-            <v>4.2944729307237096E-3</v>
+            <v>4.2944729307240401E-3</v>
           </cell>
           <cell r="E9">
-            <v>3.08025168449696E-3</v>
+            <v>2.6809157540093301E-3</v>
           </cell>
         </row>
         <row r="10">
@@ -860,7 +868,7 @@
             <v>2.9995446321980899E-2</v>
           </cell>
           <cell r="E10">
-            <v>5.4810748051824197E-3</v>
+            <v>4.7704867326505097E-3</v>
           </cell>
         </row>
         <row r="11">
@@ -868,10 +876,10 @@
             <v>0.58472701231629898</v>
           </cell>
           <cell r="D11">
-            <v>7.0559153950491102E-2</v>
+            <v>7.0559153950491393E-2</v>
           </cell>
           <cell r="E11">
-            <v>1.57868514295351E-2</v>
+            <v>1.3740181984693E-2</v>
           </cell>
         </row>
         <row r="12">
@@ -879,10 +887,10 @@
             <v>0.64745682818261696</v>
           </cell>
           <cell r="D12">
-            <v>4.3230233061993598E-2</v>
+            <v>4.3230233061993799E-2</v>
           </cell>
           <cell r="E12">
-            <v>2.6153475571066901E-2</v>
+            <v>2.2762836242721501E-2</v>
           </cell>
         </row>
         <row r="13">
@@ -890,13 +898,13 @@
             <v>0.41250671791112897</v>
           </cell>
           <cell r="C13">
-            <v>0.40788686279874198</v>
+            <v>0.38526635070724502</v>
           </cell>
           <cell r="D13">
-            <v>0.30916352973600603</v>
+            <v>0.34583430574387802</v>
           </cell>
           <cell r="E13">
-            <v>0.8215067625393</v>
+            <v>0.84464732713208002</v>
           </cell>
         </row>
         <row r="14">
@@ -904,15 +912,15 @@
             <v>0</v>
           </cell>
           <cell r="E14">
-            <v>-2.7367726136636201E-18</v>
+            <v>-2.47318209285904E-18</v>
           </cell>
         </row>
         <row r="15">
           <cell r="D15">
-            <v>8.4792267795439306E-3</v>
+            <v>8.4792267795437103E-3</v>
           </cell>
           <cell r="E15">
-            <v>4.53922851936483E-3</v>
+            <v>3.9507450997793899E-3</v>
           </cell>
         </row>
         <row r="16">
@@ -926,12 +934,12 @@
             <v>0.10567741810097001</v>
           </cell>
           <cell r="E16">
-            <v>2.5362166816937402E-2</v>
+            <v>2.2074115864478199E-2</v>
           </cell>
         </row>
         <row r="18">
           <cell r="E18">
-            <v>0.147791498751281</v>
+            <v>0.10589052521806</v>
           </cell>
         </row>
         <row r="19">
@@ -945,7 +953,7 @@
             <v>0.144633845627617</v>
           </cell>
           <cell r="E19">
-            <v>2.6342262628277002E-2</v>
+            <v>2.3021049229464598E-2</v>
           </cell>
         </row>
         <row r="20">
@@ -956,10 +964,10 @@
             <v>0.85553886934128398</v>
           </cell>
           <cell r="D20">
-            <v>6.6937809318216204E-2</v>
+            <v>6.6937809318216093E-2</v>
           </cell>
           <cell r="E20">
-            <v>3.5736740254520498E-2</v>
+            <v>3.1231077918750301E-2</v>
           </cell>
         </row>
         <row r="21">
@@ -967,15 +975,15 @@
             <v>0</v>
           </cell>
           <cell r="E21">
-            <v>-6.1542801386730599E-20</v>
+            <v>5.8172887848462199E-20</v>
           </cell>
         </row>
         <row r="22">
           <cell r="D22">
-            <v>5.2756572559430497E-2</v>
+            <v>5.27565725594311E-2</v>
           </cell>
           <cell r="E22">
-            <v>2.9734347519121601E-2</v>
+            <v>2.5985462513342199E-2</v>
           </cell>
         </row>
         <row r="23">
@@ -983,18 +991,18 @@
             <v>1.11289702890382E-2</v>
           </cell>
           <cell r="E23">
-            <v>4.0594630653220703E-4</v>
+            <v>3.54764890133833E-4</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>0.82501024517215804</v>
+            <v>0.82501024517215904</v>
           </cell>
           <cell r="D24">
-            <v>3.09139343904074E-3</v>
+            <v>3.0913934390405201E-3</v>
           </cell>
           <cell r="E24">
-            <v>2.0433204443842399E-3</v>
+            <v>1.78570008224148E-3</v>
           </cell>
         </row>
         <row r="25">
@@ -1005,7 +1013,7 @@
             <v>3.4047634999061799E-2</v>
           </cell>
           <cell r="E25">
-            <v>5.12196233924861E-3</v>
+            <v>4.4761890361207004E-3</v>
           </cell>
         </row>
         <row r="26">
@@ -1016,18 +1024,18 @@
             <v>7.8842688602697206E-2</v>
           </cell>
           <cell r="E26">
-            <v>1.5955948237475901E-2</v>
+            <v>1.39442338367479E-2</v>
           </cell>
         </row>
         <row r="27">
           <cell r="C27">
-            <v>0.66032079127787502</v>
+            <v>0.66032079127787402</v>
           </cell>
           <cell r="D27">
-            <v>4.4269941278704601E-2</v>
+            <v>4.4269941278704497E-2</v>
           </cell>
           <cell r="E27">
-            <v>2.5089932840390301E-2</v>
+            <v>2.1926612274473602E-2</v>
           </cell>
         </row>
         <row r="28">
@@ -1035,13 +1043,13 @@
             <v>0.41651317910004099</v>
           </cell>
           <cell r="C28">
-            <v>0.41278383854775602</v>
+            <v>0.389793273576448</v>
           </cell>
           <cell r="D28">
-            <v>0.30859753169536103</v>
+            <v>0.345461576749721</v>
           </cell>
           <cell r="E28">
-            <v>0.79048980571966698</v>
+            <v>0.81690469931672105</v>
           </cell>
         </row>
         <row r="29">
@@ -1049,15 +1057,15 @@
             <v>0</v>
           </cell>
           <cell r="E29">
-            <v>-1.08437398807032E-18</v>
+            <v>-1.1076740135118801E-18</v>
           </cell>
         </row>
         <row r="30">
           <cell r="D30">
-            <v>9.1423867697785193E-3</v>
+            <v>9.1423867697786303E-3</v>
           </cell>
           <cell r="E30">
-            <v>4.5477234075840898E-3</v>
+            <v>3.9743497331774002E-3</v>
           </cell>
         </row>
         <row r="31">
@@ -1071,23 +1079,23 @@
             <v>0.110870873566338</v>
           </cell>
           <cell r="E31">
-            <v>2.3465031458342001E-2</v>
+            <v>2.05065772821489E-2</v>
           </cell>
         </row>
         <row r="32">
           <cell r="C32">
-            <v>0.68013362928907795</v>
+            <v>0.68013362928907695</v>
           </cell>
           <cell r="D32">
             <v>0.13619003766239701</v>
           </cell>
           <cell r="E32">
-            <v>4.1066978844460401E-2</v>
+            <v>3.5889283886679502E-2</v>
           </cell>
         </row>
         <row r="34">
           <cell r="E34">
-            <v>0.15351232774953399</v>
+            <v>0.10952400371934801</v>
           </cell>
         </row>
         <row r="35">
@@ -1101,7 +1109,7 @@
             <v>0.14309836043436</v>
           </cell>
           <cell r="E35">
-            <v>2.5625510647821901E-2</v>
+            <v>2.24349888619833E-2</v>
           </cell>
         </row>
         <row r="36">
@@ -1115,7 +1123,7 @@
             <v>6.6819910413131706E-2</v>
           </cell>
           <cell r="E36">
-            <v>3.3254803982757403E-2</v>
+            <v>2.9114391795506199E-2</v>
           </cell>
         </row>
         <row r="37">
@@ -1123,7 +1131,7 @@
             <v>0</v>
           </cell>
           <cell r="E37">
-            <v>-3.6078255954769298E-20</v>
+            <v>-6.33874887280773E-20</v>
           </cell>
         </row>
         <row r="38">
@@ -1131,15 +1139,15 @@
             <v>4.7526507967623699E-2</v>
           </cell>
           <cell r="E38">
-            <v>2.4833132793500599E-2</v>
+            <v>2.17412665560947E-2</v>
           </cell>
         </row>
         <row r="39">
           <cell r="D39">
-            <v>2.9097878935280199E-3</v>
+            <v>2.9097878935283499E-3</v>
           </cell>
           <cell r="E39">
-            <v>9.66770702787274E-5</v>
+            <v>8.4640225309883505E-5</v>
           </cell>
         </row>
         <row r="40">
@@ -1150,18 +1158,18 @@
             <v>3.59986540925139E-3</v>
           </cell>
           <cell r="E40">
-            <v>2.3911982281320599E-3</v>
+            <v>2.0934804520469801E-3</v>
           </cell>
         </row>
         <row r="41">
           <cell r="C41">
-            <v>0.50980383792963702</v>
+            <v>0.50980383792963602</v>
           </cell>
           <cell r="D41">
             <v>2.97874048488155E-2</v>
           </cell>
           <cell r="E41">
-            <v>4.9603832489754501E-3</v>
+            <v>4.3427873290553098E-3</v>
           </cell>
         </row>
         <row r="42">
@@ -1172,7 +1180,7 @@
             <v>8.0481134640277494E-2</v>
           </cell>
           <cell r="E42">
-            <v>1.7326544119775099E-2</v>
+            <v>1.51692908557456E-2</v>
           </cell>
         </row>
         <row r="43">
@@ -1180,10 +1188,10 @@
             <v>0.65093587631861005</v>
           </cell>
           <cell r="D43">
-            <v>4.9868149995281101E-2</v>
+            <v>4.9868149995280997E-2</v>
           </cell>
           <cell r="E43">
-            <v>2.85531989209937E-2</v>
+            <v>2.4998163297906301E-2</v>
           </cell>
         </row>
         <row r="44">
@@ -1191,13 +1199,13 @@
             <v>0.41494922209713597</v>
           </cell>
           <cell r="C44">
-            <v>0.41107055286775901</v>
+            <v>0.388193759504389</v>
           </cell>
           <cell r="D44">
-            <v>0.31796467479352297</v>
+            <v>0.35436443466295298</v>
           </cell>
           <cell r="E44">
-            <v>0.80205408829477298</v>
+            <v>0.82669947984980896</v>
           </cell>
         </row>
         <row r="45">
@@ -1205,7 +1213,7 @@
             <v>-5.3043981501454897E-4</v>
           </cell>
           <cell r="E45">
-            <v>-2.93861354517505E-4</v>
+            <v>-2.5727394494391899E-4</v>
           </cell>
         </row>
         <row r="46">
@@ -1213,7 +1221,7 @@
             <v>9.4832063970747803E-3</v>
           </cell>
           <cell r="E46">
-            <v>4.69867496666369E-3</v>
+            <v>4.11366321600072E-3</v>
           </cell>
         </row>
         <row r="47">
@@ -1224,10 +1232,10 @@
             <v>0.85640991011698897</v>
           </cell>
           <cell r="D47">
-            <v>0.108672471679716</v>
+            <v>0.108672471679715</v>
           </cell>
           <cell r="E47">
-            <v>2.2540030850080699E-2</v>
+            <v>1.9733668843524201E-2</v>
           </cell>
         </row>
         <row r="48">
@@ -1235,15 +1243,15 @@
             <v>0.68972833829360103</v>
           </cell>
           <cell r="D48">
-            <v>0.125738825025139</v>
+            <v>0.12573882502514</v>
           </cell>
           <cell r="E48">
-            <v>3.3959618230762899E-2</v>
+            <v>2.9731452661963999E-2</v>
           </cell>
         </row>
         <row r="50">
           <cell r="E50">
-            <v>0.12949803388710601</v>
+            <v>9.1682502310528005E-2</v>
           </cell>
         </row>
         <row r="51">
@@ -1257,7 +1265,7 @@
             <v>0.139430710374227</v>
           </cell>
           <cell r="E51">
-            <v>2.8437883533884298E-2</v>
+            <v>2.4763324047747299E-2</v>
           </cell>
         </row>
         <row r="52">
@@ -1265,13 +1273,13 @@
             <v>1</v>
           </cell>
           <cell r="C52">
-            <v>0.854838707538908</v>
+            <v>0.854838707538909</v>
           </cell>
           <cell r="D52">
-            <v>7.1501323570043906E-2</v>
+            <v>7.1501323570043601E-2</v>
           </cell>
           <cell r="E52">
-            <v>3.9751740004059101E-2</v>
+            <v>3.4615277118263801E-2</v>
           </cell>
         </row>
         <row r="53">
@@ -1279,15 +1287,15 @@
             <v>0</v>
           </cell>
           <cell r="E53">
-            <v>-5.7002133685844106E-20</v>
+            <v>-1.92962618520041E-19</v>
           </cell>
         </row>
         <row r="54">
           <cell r="D54">
-            <v>4.1526707806765997E-2</v>
+            <v>4.1526707806766101E-2</v>
           </cell>
           <cell r="E54">
-            <v>2.4087379129086602E-2</v>
+            <v>2.09749637002274E-2</v>
           </cell>
         </row>
         <row r="55">
@@ -1295,7 +1303,7 @@
             <v>-2.3105218720405701E-2</v>
           </cell>
           <cell r="E55">
-            <v>-7.9181555366220698E-4</v>
+            <v>-6.8950226615916398E-4</v>
           </cell>
         </row>
         <row r="56">
@@ -1303,10 +1311,10 @@
             <v>0.79657604481997102</v>
           </cell>
           <cell r="D56">
-            <v>4.3992973534237E-3</v>
+            <v>4.3992973534239203E-3</v>
           </cell>
           <cell r="E56">
-            <v>3.1652612409079801E-3</v>
+            <v>2.7562666437882001E-3</v>
           </cell>
         </row>
         <row r="57">
@@ -1317,7 +1325,7 @@
             <v>3.2979967572985401E-2</v>
           </cell>
           <cell r="E57">
-            <v>6.0867918569585504E-3</v>
+            <v>5.3002959585743102E-3</v>
           </cell>
         </row>
         <row r="58">
@@ -1325,10 +1333,10 @@
             <v>0.585338143649348</v>
           </cell>
           <cell r="D58">
-            <v>7.4234978511175401E-2</v>
+            <v>7.4234978511175706E-2</v>
           </cell>
           <cell r="E58">
-            <v>1.6213083031392302E-2</v>
+            <v>1.41181332443752E-2</v>
           </cell>
         </row>
         <row r="59">
@@ -1339,21 +1347,21 @@
             <v>4.4527345055279298E-2</v>
           </cell>
           <cell r="E59">
-            <v>2.6947537772769901E-2</v>
+            <v>2.3465551132203499E-2</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60">
-            <v>0.41384659906579002</v>
+            <v>0.41384659906578902</v>
           </cell>
           <cell r="C60">
-            <v>0.40852170946463001</v>
+            <v>0.38588436590539499</v>
           </cell>
           <cell r="D60">
-            <v>0.313447000116923</v>
+            <v>0.34993298139739198</v>
           </cell>
           <cell r="E60">
-            <v>0.82869088297414495</v>
+            <v>0.85082633972425403</v>
           </cell>
         </row>
         <row r="61">
@@ -1361,7 +1369,7 @@
             <v>-2.7143485442393499E-3</v>
           </cell>
           <cell r="E61">
-            <v>-1.60319708138958E-3</v>
+            <v>-1.39604231769038E-3</v>
           </cell>
         </row>
         <row r="62">
@@ -1369,7 +1377,7 @@
             <v>9.3939650449871293E-3</v>
           </cell>
           <cell r="E62">
-            <v>5.0073626690174903E-3</v>
+            <v>4.3603436328067697E-3</v>
           </cell>
         </row>
         <row r="63">
@@ -1383,12 +1391,12 @@
             <v>0.10255339268217301</v>
           </cell>
           <cell r="E63">
-            <v>2.40070904228364E-2</v>
+            <v>2.09050493816079E-2</v>
           </cell>
         </row>
         <row r="65">
           <cell r="E65">
-            <v>0.11856265480011299</v>
+            <v>0.13598580525394899</v>
           </cell>
         </row>
         <row r="66">
@@ -1402,7 +1410,7 @@
             <v>0.172537080648476</v>
           </cell>
           <cell r="E66">
-            <v>2.1724732283709101E-2</v>
+            <v>1.84869668139746E-2</v>
           </cell>
         </row>
         <row r="67">
@@ -1413,10 +1421,10 @@
             <v>0.94003913737129297</v>
           </cell>
           <cell r="D67">
-            <v>2.5285770518515601E-2</v>
+            <v>2.52857705185155E-2</v>
           </cell>
           <cell r="E67">
-            <v>1.26520215301656E-2</v>
+            <v>1.07664158574354E-2</v>
           </cell>
         </row>
         <row r="68">
@@ -1432,7 +1440,7 @@
             <v>0</v>
           </cell>
           <cell r="E69">
-            <v>-1.72458824534784E-18</v>
+            <v>-1.38135268695471E-18</v>
           </cell>
         </row>
         <row r="70">
@@ -1445,13 +1453,13 @@
         </row>
         <row r="71">
           <cell r="C71">
-            <v>0.91297433848800402</v>
+            <v>0.912978176864508</v>
           </cell>
           <cell r="D71">
-            <v>3.8079521241973698E-4</v>
+            <v>3.8077496145827401E-4</v>
           </cell>
           <cell r="E71">
-            <v>2.59053390831001E-4</v>
+            <v>2.2043540730461801E-4</v>
           </cell>
         </row>
         <row r="72">
@@ -1462,59 +1470,59 @@
             <v>1.29353478105666E-2</v>
           </cell>
           <cell r="E72">
-            <v>2.3651256542814802E-3</v>
+            <v>2.0126369757094498E-3</v>
           </cell>
         </row>
         <row r="73">
           <cell r="C73">
-            <v>0.71116434157319697</v>
+            <v>0.71116334390695102</v>
           </cell>
           <cell r="D73">
-            <v>4.8815172968667699E-2</v>
+            <v>4.8819833230557497E-2</v>
           </cell>
           <cell r="E73">
-            <v>1.31130337298171E-2</v>
+            <v>1.11599948177126E-2</v>
           </cell>
         </row>
         <row r="74">
           <cell r="C74">
-            <v>0.67503604817733098</v>
+            <v>0.67503548441941996</v>
           </cell>
           <cell r="D74">
-            <v>4.5584069476050898E-2</v>
+            <v>4.5588414190054903E-2</v>
           </cell>
           <cell r="E74">
-            <v>2.7515580028437701E-2</v>
+            <v>2.3417359487597399E-2</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75">
-            <v>0.385293103489531</v>
+            <v>0.385283844628038</v>
           </cell>
           <cell r="C75">
-            <v>0.384290997755527</v>
+            <v>0.36289897459686499</v>
           </cell>
           <cell r="D75">
-            <v>0.32527683776850402</v>
+            <v>0.360863143011731</v>
           </cell>
           <cell r="E75">
-            <v>0.80653663535555797</v>
+            <v>0.80382252035799895</v>
           </cell>
         </row>
         <row r="76">
           <cell r="D76">
-            <v>-2.2605172086243002E-3</v>
+            <v>-2.2602637766235799E-3</v>
           </cell>
           <cell r="E76">
-            <v>-1.3084434985745001E-3</v>
+            <v>-1.1133254836990199E-3</v>
           </cell>
         </row>
         <row r="77">
           <cell r="D77">
-            <v>1.00737626137898E-2</v>
+            <v>1.0074658555649801E-2</v>
           </cell>
           <cell r="E77">
-            <v>5.2809784890067001E-3</v>
+            <v>4.4943267485281499E-3</v>
           </cell>
         </row>
         <row r="78">
@@ -1525,21 +1533,21 @@
             <v>0.63441916624740602</v>
           </cell>
           <cell r="D78">
-            <v>0.14447242791814799</v>
+            <v>0.33134696808958197</v>
           </cell>
           <cell r="E78">
-            <v>2.86564874995675E-2</v>
+            <v>5.5928376758645697E-2</v>
           </cell>
         </row>
         <row r="79">
           <cell r="C79">
-            <v>0.66257529927923497</v>
+            <v>0.66257529927923398</v>
           </cell>
           <cell r="D79">
             <v>0.15112693138511801</v>
           </cell>
           <cell r="E79">
-            <v>4.6106325215282497E-2</v>
+            <v>3.9234826603981601E-2</v>
           </cell>
         </row>
         <row r="80">
@@ -1553,12 +1561,12 @@
             <v>4.12127709425276E-2</v>
           </cell>
           <cell r="E80">
-            <v>3.7098470321917397E-2</v>
+            <v>3.1569465654810502E-2</v>
           </cell>
         </row>
         <row r="82">
           <cell r="E82">
-            <v>9.2893910050749401E-2</v>
+            <v>0.114060650314236</v>
           </cell>
         </row>
         <row r="83">
@@ -1572,21 +1580,21 @@
             <v>0.15926418754636101</v>
           </cell>
           <cell r="E83">
-            <v>2.4359703158961701E-2</v>
+            <v>2.0718441792231899E-2</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84">
-            <v>1</v>
+            <v>0.999999999999999</v>
           </cell>
           <cell r="C84">
-            <v>0.83514356020871106</v>
+            <v>0.83514356027181602</v>
           </cell>
           <cell r="D84">
-            <v>6.7434974976381595E-2</v>
+            <v>6.7434974946386395E-2</v>
           </cell>
           <cell r="E84">
-            <v>3.7576548547193098E-2</v>
+            <v>3.1959647806959202E-2</v>
           </cell>
         </row>
         <row r="85">
@@ -1602,7 +1610,7 @@
             <v>0</v>
           </cell>
           <cell r="E86">
-            <v>-1.0799846509681599E-18</v>
+            <v>-1.0733260088993599E-18</v>
           </cell>
         </row>
         <row r="87">
@@ -1615,13 +1623,13 @@
         </row>
         <row r="88">
           <cell r="C88">
-            <v>0.89800782821672398</v>
+            <v>0.89801349018409804</v>
           </cell>
           <cell r="D88">
-            <v>7.1497039517165397E-4</v>
+            <v>7.1492822903484999E-4</v>
           </cell>
           <cell r="E88">
-            <v>4.5976433319822502E-4</v>
+            <v>3.9101756337495803E-4</v>
           </cell>
         </row>
         <row r="89">
@@ -1632,84 +1640,84 @@
             <v>1.6902368352247701E-2</v>
           </cell>
           <cell r="E89">
-            <v>3.33653094512955E-3</v>
+            <v>2.83779000604182E-3</v>
           </cell>
         </row>
         <row r="90">
           <cell r="C90">
-            <v>0.70702637126568701</v>
+            <v>0.70702421533397897</v>
           </cell>
           <cell r="D90">
-            <v>4.2170914365867299E-2</v>
+            <v>4.2173009607158099E-2</v>
           </cell>
           <cell r="E90">
-            <v>1.0255035545218101E-2</v>
+            <v>8.7226196555763996E-3</v>
           </cell>
         </row>
         <row r="91">
           <cell r="C91">
-            <v>0.649798319507217</v>
+            <v>0.64979795513366401</v>
           </cell>
           <cell r="D91">
-            <v>4.3991168904508E-2</v>
+            <v>4.3993191397907097E-2</v>
           </cell>
           <cell r="E91">
-            <v>2.3673243739973801E-2</v>
+            <v>2.0135648996564701E-2</v>
           </cell>
         </row>
         <row r="92">
           <cell r="B92">
-            <v>0.387056932876994</v>
+            <v>0.38705331483187</v>
           </cell>
           <cell r="C92">
-            <v>0.38335111424909601</v>
+            <v>0.36216691410671198</v>
           </cell>
           <cell r="D92">
-            <v>0.32254010804114602</v>
+            <v>0.35817226878152397</v>
           </cell>
           <cell r="E92">
-            <v>0.81649851454279099</v>
+            <v>0.81397141231037096</v>
           </cell>
         </row>
         <row r="93">
           <cell r="D93">
-            <v>-3.6277271450579898E-3</v>
+            <v>-3.6277124061547799E-3</v>
           </cell>
           <cell r="E93">
-            <v>-1.88101681329118E-3</v>
+            <v>-1.59984495852004E-3</v>
           </cell>
         </row>
         <row r="94">
           <cell r="D94">
-            <v>8.6573011996328095E-3</v>
+            <v>8.6577212608471808E-3</v>
           </cell>
           <cell r="E94">
-            <v>4.1092157645811001E-3</v>
+            <v>3.4951458178550201E-3</v>
           </cell>
         </row>
         <row r="95">
           <cell r="B95">
-            <v>0.803143232263269</v>
+            <v>0.80314323208652205</v>
           </cell>
           <cell r="C95">
-            <v>0.803143232263269</v>
+            <v>0.80314323208652205</v>
           </cell>
           <cell r="D95">
-            <v>-2.2378639219309899E-2</v>
+            <v>0.16263213615137401</v>
           </cell>
           <cell r="E95">
-            <v>-4.2599625567353401E-3</v>
+            <v>2.63307707180673E-2</v>
           </cell>
         </row>
         <row r="96">
           <cell r="C96">
-            <v>0.64066690653128</v>
+            <v>0.64066690655613001</v>
           </cell>
           <cell r="D96">
-            <v>0.140785419676205</v>
+            <v>0.14078541964952199</v>
           </cell>
           <cell r="E96">
-            <v>4.84551288300882E-2</v>
+            <v>4.1212110004251998E-2</v>
           </cell>
         </row>
         <row r="97">
@@ -1723,12 +1731,12 @@
             <v>4.0623946688262601E-2</v>
           </cell>
           <cell r="E97">
-            <v>3.7416440289628698E-2</v>
+            <v>3.1823472361484799E-2</v>
           </cell>
         </row>
         <row r="99">
           <cell r="E99">
-            <v>2.5653113224192E-2</v>
+            <v>0.120634669433251</v>
           </cell>
         </row>
         <row r="100">
@@ -1742,7 +1750,7 @@
             <v>0.16852890917114499</v>
           </cell>
           <cell r="E100">
-            <v>2.4509859590833401E-2</v>
+            <v>2.07453030512709E-2</v>
           </cell>
         </row>
         <row r="101">
@@ -1753,10 +1761,10 @@
             <v>0.91413302402642505</v>
           </cell>
           <cell r="D101">
-            <v>3.9060917416995897E-2</v>
+            <v>3.9060917416996202E-2</v>
           </cell>
           <cell r="E101">
-            <v>1.9796007164448001E-2</v>
+            <v>1.67554679907344E-2</v>
           </cell>
         </row>
         <row r="102">
@@ -1772,7 +1780,7 @@
             <v>0</v>
           </cell>
           <cell r="E103">
-            <v>5.7176476333485195E-19</v>
+            <v>1.3215431504015299E-18</v>
           </cell>
         </row>
         <row r="104">
@@ -1785,13 +1793,13 @@
         </row>
         <row r="105">
           <cell r="C105">
-            <v>0.91570203810300199</v>
+            <v>0.91570215184627202</v>
           </cell>
           <cell r="D105">
-            <v>8.3423721233610805E-4</v>
+            <v>8.3423584752550996E-4</v>
           </cell>
           <cell r="E105">
-            <v>4.9343029717762799E-4</v>
+            <v>4.1764201870545903E-4</v>
           </cell>
         </row>
         <row r="106">
@@ -1802,59 +1810,59 @@
             <v>2.0305907944309701E-2</v>
           </cell>
           <cell r="E106">
-            <v>3.60295007056918E-3</v>
+            <v>3.0495601500919998E-3</v>
           </cell>
         </row>
         <row r="107">
           <cell r="C107">
-            <v>0.71204969148830399</v>
+            <v>0.71204979240187105</v>
           </cell>
           <cell r="D107">
-            <v>5.8943044254879499E-2</v>
+            <v>5.8943175365179103E-2</v>
           </cell>
           <cell r="E107">
-            <v>1.3026377494349199E-2</v>
+            <v>1.1025641659481099E-2</v>
           </cell>
         </row>
         <row r="108">
           <cell r="C108">
-            <v>0.66806819213551205</v>
+            <v>0.66806826858240898</v>
           </cell>
           <cell r="D108">
-            <v>5.6656944743489403E-2</v>
+            <v>5.66570663962392E-2</v>
           </cell>
           <cell r="E108">
-            <v>2.8261144617074099E-2</v>
+            <v>2.39204779300052E-2</v>
           </cell>
         </row>
         <row r="109">
           <cell r="B109">
-            <v>0.40324073166182201</v>
+            <v>0.403240491663238</v>
           </cell>
           <cell r="C109">
-            <v>0.39875444659954901</v>
+            <v>0.37662533762734401</v>
           </cell>
           <cell r="D109">
-            <v>0.32043248653946099</v>
+            <v>0.35661854715887098</v>
           </cell>
           <cell r="E109">
-            <v>0.80589142928641999</v>
+            <v>0.80183877748053201</v>
           </cell>
         </row>
         <row r="110">
           <cell r="D110">
-            <v>-1.09207546127931E-3</v>
+            <v>-1.0920750615002099E-3</v>
           </cell>
           <cell r="E110">
-            <v>-5.1973016960248997E-4</v>
+            <v>-4.3990295999949498E-4</v>
           </cell>
         </row>
         <row r="111">
           <cell r="D111">
-            <v>1.2392266217734401E-2</v>
+            <v>1.23922901217261E-2</v>
           </cell>
           <cell r="E111">
-            <v>5.1906355000757498E-3</v>
+            <v>4.3933959065026902E-3</v>
           </cell>
         </row>
         <row r="112">
@@ -1865,10 +1873,10 @@
             <v>0.68963190129268304</v>
           </cell>
           <cell r="D112">
-            <v>9.1009308399404298E-2</v>
+            <v>0.28086731596755699</v>
           </cell>
           <cell r="E112">
-            <v>1.9179913605747001E-2</v>
+            <v>5.0100377325882801E-2</v>
           </cell>
         </row>
         <row r="113">
@@ -1879,7 +1887,7 @@
             <v>0.164300601306897</v>
           </cell>
           <cell r="E113">
-            <v>4.7933135854168599E-2</v>
+            <v>4.0570914974329998E-2</v>
           </cell>
         </row>
         <row r="114">
@@ -1893,12 +1901,12 @@
             <v>3.39950591428234E-2</v>
           </cell>
           <cell r="E114">
-            <v>3.2634846688737902E-2</v>
+            <v>2.76223444724603E-2</v>
           </cell>
         </row>
         <row r="116">
           <cell r="E116">
-            <v>8.4496694803373004E-2</v>
+            <v>9.7017821920425296E-2</v>
           </cell>
         </row>
         <row r="117">
@@ -1912,7 +1920,7 @@
             <v>0.187033852963297</v>
           </cell>
           <cell r="E117">
-            <v>2.0984595400151101E-2</v>
+            <v>1.7849105017611101E-2</v>
           </cell>
         </row>
         <row r="118">
@@ -1920,13 +1928,13 @@
             <v>1</v>
           </cell>
           <cell r="C118">
-            <v>0.94207250612020799</v>
+            <v>0.94207460930869402</v>
           </cell>
           <cell r="D118">
-            <v>2.34123776203801E-2</v>
+            <v>2.3411410404235999E-2</v>
           </cell>
           <cell r="E118">
-            <v>1.0635962973105701E-2</v>
+            <v>9.0461218959829292E-3</v>
           </cell>
         </row>
         <row r="119">
@@ -1942,7 +1950,7 @@
             <v>0</v>
           </cell>
           <cell r="E120">
-            <v>1.03266890045403E-19</v>
+            <v>-1.8583672266412199E-19</v>
           </cell>
         </row>
         <row r="121">
@@ -1955,13 +1963,13 @@
         </row>
         <row r="122">
           <cell r="C122">
-            <v>0.91604392819532698</v>
+            <v>0.91642822438375204</v>
           </cell>
           <cell r="D122">
-            <v>2.4880279292993602E-4</v>
+            <v>2.4763623373313899E-4</v>
           </cell>
           <cell r="E122">
-            <v>1.68600112599663E-4</v>
+            <v>1.42751678764933E-4</v>
           </cell>
         </row>
         <row r="123">
@@ -1972,84 +1980,84 @@
             <v>1.33555527970452E-2</v>
           </cell>
           <cell r="E123">
-            <v>2.17681848564669E-3</v>
+            <v>1.8515611577769599E-3</v>
           </cell>
         </row>
         <row r="124">
           <cell r="C124">
-            <v>0.65761544263221205</v>
+            <v>0.65757075321401104</v>
           </cell>
           <cell r="D124">
-            <v>6.1432657968954099E-2</v>
+            <v>6.1506471042371801E-2</v>
           </cell>
           <cell r="E124">
-            <v>1.7266448205721398E-2</v>
+            <v>1.4707608554170901E-2</v>
           </cell>
         </row>
         <row r="125">
           <cell r="C125">
-            <v>0.67506719570913098</v>
+            <v>0.67505779222699502</v>
           </cell>
           <cell r="D125">
-            <v>4.7593485592217898E-2</v>
+            <v>4.7646000507946797E-2</v>
           </cell>
           <cell r="E125">
-            <v>2.9305143378696E-2</v>
+            <v>2.4958513576011299E-2</v>
           </cell>
         </row>
         <row r="126">
           <cell r="B126">
-            <v>0.38639998873579201</v>
+            <v>0.38628359496653297</v>
           </cell>
           <cell r="C126">
-            <v>0.388549658447847</v>
+            <v>0.36432361036399802</v>
           </cell>
           <cell r="D126">
-            <v>0.32799634336772299</v>
+            <v>0.36752581573180698</v>
           </cell>
           <cell r="E126">
-            <v>0.81390180237495302</v>
+            <v>0.81324637945052702</v>
           </cell>
         </row>
         <row r="127">
           <cell r="D127">
-            <v>-5.5403240168372305E-4</v>
+            <v>-5.5396029086351897E-4</v>
           </cell>
           <cell r="E127">
-            <v>-3.25922298537432E-4</v>
+            <v>-2.77223421431034E-4</v>
           </cell>
         </row>
         <row r="128">
           <cell r="D128">
-            <v>9.8679355410668992E-3</v>
+            <v>9.8804923473601002E-3</v>
           </cell>
           <cell r="E128">
-            <v>5.2377818082094702E-3</v>
+            <v>4.4608851039574298E-3</v>
           </cell>
         </row>
         <row r="129">
           <cell r="B129">
-            <v>0.64824717444074997</v>
+            <v>0.64826730756557804</v>
           </cell>
           <cell r="C129">
-            <v>0.64824717444074997</v>
+            <v>0.64826730756557804</v>
           </cell>
           <cell r="D129">
-            <v>0.130513123469402</v>
+            <v>0.31664562468954499</v>
           </cell>
           <cell r="E129">
-            <v>2.2575147133629101E-2</v>
+            <v>4.6585660162051103E-2</v>
           </cell>
         </row>
         <row r="130">
           <cell r="C130">
-            <v>0.67201488353864802</v>
+            <v>0.67201570796354704</v>
           </cell>
           <cell r="D130">
-            <v>0.146130848142312</v>
+            <v>0.14613043405767501</v>
           </cell>
           <cell r="E130">
-            <v>4.1722149695316499E-2</v>
+            <v>3.5487102160887803E-2</v>
           </cell>
         </row>
         <row r="131">
@@ -2063,74 +2071,74 @@
             <v>4.2095095367352099E-2</v>
           </cell>
           <cell r="E131">
-            <v>3.7552593293394602E-2</v>
+            <v>3.1941534663690097E-2</v>
           </cell>
         </row>
         <row r="133">
           <cell r="E133">
-            <v>5.55775593248896E-2</v>
+            <v>1.57433004180507E-2</v>
           </cell>
         </row>
         <row r="134">
           <cell r="C134">
-            <v>0.13282477634763201</v>
+            <v>0.13281933632898801</v>
           </cell>
           <cell r="D134">
-            <v>0.29640650242063599</v>
+            <v>0.29642309007932099</v>
           </cell>
           <cell r="E134">
-            <v>0.26683350444433301</v>
+            <v>0.68299294584328996</v>
           </cell>
         </row>
         <row r="135">
           <cell r="C135">
-            <v>0.142815921236156</v>
+            <v>0.14280373110564201</v>
           </cell>
           <cell r="D135">
-            <v>0.29203074908424398</v>
+            <v>0.292081754149498</v>
           </cell>
           <cell r="E135">
-            <v>0.23422249197041001</v>
+            <v>0.59961740006554298</v>
           </cell>
         </row>
         <row r="136">
           <cell r="D136">
-            <v>3.0189119328172199E-4</v>
+            <v>3.0190583568312501E-4</v>
           </cell>
           <cell r="E136">
-            <v>3.8419882375851099E-4</v>
+            <v>9.8337827241992606E-4</v>
           </cell>
         </row>
         <row r="137">
           <cell r="D137">
-            <v>3.6048461405457899E-4</v>
+            <v>3.6080541658245398E-4</v>
           </cell>
           <cell r="E137">
-            <v>5.0009385162636498E-4</v>
+            <v>1.28112770911302E-3</v>
           </cell>
         </row>
         <row r="138">
           <cell r="D138">
-            <v>9.2039461849201497E-3</v>
+            <v>-0.118360672528166</v>
           </cell>
           <cell r="E138">
-            <v>8.3626214063361008E-3</v>
+            <v>-0.27525060318371902</v>
           </cell>
         </row>
         <row r="139">
           <cell r="D139">
-            <v>6.9473102792525498E-3</v>
+            <v>-0.109176823115789</v>
           </cell>
           <cell r="E139">
-            <v>5.6110536139733101E-3</v>
+            <v>-0.22569928997090799</v>
           </cell>
         </row>
         <row r="140">
           <cell r="D140">
-            <v>-8.4178414337561201E-3</v>
+            <v>-8.4177141174461793E-3</v>
           </cell>
           <cell r="E140">
-            <v>-4.9877729806299302E-3</v>
+            <v>-1.27655772368241E-2</v>
           </cell>
         </row>
         <row r="141">
@@ -2138,23 +2146,23 @@
             <v>-9.4148826684661204E-3</v>
           </cell>
           <cell r="E141">
-            <v>-4.9785987026826801E-3</v>
+            <v>-1.27420968269934E-2</v>
           </cell>
         </row>
         <row r="142">
           <cell r="D142">
-            <v>0.31330381223083698</v>
+            <v>6.2822746828627596E-2</v>
           </cell>
           <cell r="E142">
-            <v>0.34772622639614598</v>
+            <v>0.13075964588793501</v>
           </cell>
         </row>
         <row r="143">
           <cell r="D143">
-            <v>0.28298923100801798</v>
+            <v>5.6333764323174398E-2</v>
           </cell>
           <cell r="E143">
-            <v>0.28633099990056199</v>
+            <v>0.11085710092409901</v>
           </cell>
         </row>
         <row r="144">
@@ -2175,29 +2183,29 @@
         </row>
         <row r="147">
           <cell r="E147">
-            <v>3.4185665746308998E-2</v>
+            <v>5.3744207319153199E-2</v>
           </cell>
         </row>
         <row r="148">
           <cell r="C148">
-            <v>0.91459273245951</v>
+            <v>0.91459513616318999</v>
           </cell>
           <cell r="D148">
-            <v>3.77484898001723E-3</v>
+            <v>3.7745220534618402E-3</v>
           </cell>
           <cell r="E148">
-            <v>1.5605510530412099E-2</v>
+            <v>1.56049277841721E-2</v>
           </cell>
         </row>
         <row r="149">
           <cell r="C149">
-            <v>0.897559886041705</v>
+            <v>0.89755165424857197</v>
           </cell>
           <cell r="D149">
-            <v>5.9377048063590197E-3</v>
+            <v>5.9394622075293804E-3</v>
           </cell>
           <cell r="E149">
-            <v>2.2943063205842398E-2</v>
+            <v>2.29519307402479E-2</v>
           </cell>
         </row>
         <row r="150">
@@ -2205,7 +2213,7 @@
             <v>0</v>
           </cell>
           <cell r="E150">
-            <v>2.67961289576596E-17</v>
+            <v>2.6796891470095001E-17</v>
           </cell>
         </row>
         <row r="151">
@@ -2213,7 +2221,7 @@
             <v>0</v>
           </cell>
           <cell r="E151">
-            <v>1.9244903063525501E-18</v>
+            <v>1.92454506977725E-18</v>
           </cell>
         </row>
         <row r="152">
@@ -2224,7 +2232,7 @@
             <v>0.16718846617458299</v>
           </cell>
           <cell r="E152">
-            <v>0.45668853817069299</v>
+            <v>0.45670153373023797</v>
           </cell>
         </row>
         <row r="153">
@@ -2235,18 +2243,18 @@
             <v>5.9136495805546301E-2</v>
           </cell>
           <cell r="E153">
-            <v>6.1513871807987999E-3</v>
+            <v>6.1515622250832803E-3</v>
           </cell>
         </row>
         <row r="154">
           <cell r="C154">
-            <v>0.62469144627420903</v>
+            <v>0.62469485707720795</v>
           </cell>
           <cell r="D154">
-            <v>0.107169376933336</v>
+            <v>0.10716235011825199</v>
           </cell>
           <cell r="E154">
-            <v>0.46292875024337399</v>
+            <v>0.462906279460642</v>
           </cell>
         </row>
         <row r="155">
@@ -2257,26 +2265,26 @@
             <v>4.4350057184976699E-2</v>
           </cell>
           <cell r="E155">
-            <v>3.5682750668882497E-2</v>
+            <v>3.5683766059618899E-2</v>
           </cell>
         </row>
         <row r="157">
           <cell r="E157">
-            <v>3.2590431847403199E-2</v>
+            <v>6.8742421370945897E-2</v>
           </cell>
         </row>
         <row r="158">
           <cell r="B158">
-            <v>1.09660818221252</v>
+            <v>1.09687801300528</v>
           </cell>
           <cell r="C158">
-            <v>0.61310155884717299</v>
+            <v>0.61622483226053404</v>
           </cell>
           <cell r="D158">
-            <v>0.32491143794266503</v>
+            <v>0.32336402166865102</v>
           </cell>
           <cell r="E158">
-            <v>0.82493278150325999</v>
+            <v>0.82365870130030505</v>
           </cell>
         </row>
         <row r="159">
@@ -2284,18 +2292,18 @@
             <v>0</v>
           </cell>
           <cell r="D159">
-            <v>0.13017218557363699</v>
+            <v>0.13027532262960401</v>
           </cell>
           <cell r="E159">
-            <v>3.0428353408020099E-2</v>
+            <v>3.0675155734300501E-2</v>
           </cell>
         </row>
         <row r="160">
           <cell r="D160">
-            <v>0</v>
+            <v>-4.4408920985006202E-16</v>
           </cell>
           <cell r="E160">
-            <v>-1.6637170746339901E-18</v>
+            <v>-2.3858391275587701E-18</v>
           </cell>
         </row>
         <row r="161">
@@ -2306,7 +2314,7 @@
             <v>0.47157443000544402</v>
           </cell>
           <cell r="E161">
-            <v>1.8001184100400899E-2</v>
+            <v>1.8129002271630099E-2</v>
           </cell>
         </row>
         <row r="162">
@@ -2317,7 +2325,7 @@
             <v>0.47157443000543198</v>
           </cell>
           <cell r="E162">
-            <v>1.20007894002671E-2</v>
+            <v>1.20860015144199E-2</v>
           </cell>
         </row>
         <row r="163">
@@ -2328,7 +2336,7 @@
             <v>0.381323032282403</v>
           </cell>
           <cell r="E163">
-            <v>1.8714935398680001E-2</v>
+            <v>1.8847821591276601E-2</v>
           </cell>
         </row>
         <row r="164">
@@ -2339,18 +2347,18 @@
             <v>0.63197788389522902</v>
           </cell>
           <cell r="E164">
-            <v>3.2165584084640597E-2</v>
+            <v>3.23939771787441E-2</v>
           </cell>
         </row>
         <row r="165">
           <cell r="C165">
-            <v>0.66301919938605502</v>
+            <v>0.66301857561627697</v>
           </cell>
           <cell r="D165">
-            <v>0.28746501235559302</v>
+            <v>0.28746560144869898</v>
           </cell>
           <cell r="E165">
-            <v>9.4681643002385105E-3</v>
+            <v>9.5356568826679301E-3</v>
           </cell>
         </row>
         <row r="166">
@@ -2361,7 +2369,7 @@
             <v>0.298174309136709</v>
           </cell>
           <cell r="E166">
-            <v>5.4288207804487003E-2</v>
+            <v>5.4673683526649398E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2633,22 +2641,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="J138" sqref="J138:J139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2666,7 +2675,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>59</v>
@@ -2681,22 +2690,34 @@
         <v>62</v>
       </c>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="I2" s="5">
+        <f>1-F13-F28-F44-F60-F75-F92-F109-F158-F126</f>
+        <v>0.23708596949817498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="4">
         <f>[1]aggregated_efficiencies!$E$3</f>
-        <v>0.12523810981504899</v>
+        <v>8.6974092722049298E-2</v>
       </c>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="6">
+        <f>SUM(I4:I166)</f>
+        <v>1.0000014092656462</v>
+      </c>
+      <c r="M3" s="5">
+        <f>F3+F18+F34+F65+F50+F82+F99+F116+F133+F147+F157</f>
+        <v>0.99999999999999634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2706,7 +2727,7 @@
       </c>
       <c r="C4" s="1">
         <f>[1]aggregated_efficiencies!C4</f>
-        <v>0.85828350676657905</v>
+        <v>0.85828350676658005</v>
       </c>
       <c r="D4" s="1">
         <f>[1]aggregated_efficiencies!D4</f>
@@ -2714,15 +2735,19 @@
       </c>
       <c r="E4" s="1">
         <f>[1]aggregated_efficiencies!E4</f>
-        <v>2.9257562271084999E-2</v>
-      </c>
-      <c r="F4" s="6">
+        <v>2.54644969471935E-2</v>
+      </c>
+      <c r="F4" s="4">
         <f>E4*$F$3</f>
-        <v>3.6641617966267771E-3</v>
+        <v>2.2147515186055487E-3</v>
       </c>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="6">
+        <f>F4/$I$2</f>
+        <v>9.3415545563213815E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2736,19 +2761,23 @@
       </c>
       <c r="D5" s="1">
         <f>[1]aggregated_efficiencies!D5</f>
-        <v>6.9591222018148199E-2</v>
+        <v>6.9591222018148699E-2</v>
       </c>
       <c r="E5" s="1">
         <f>[1]aggregated_efficiencies!E5</f>
-        <v>3.9924312455804301E-2</v>
-      </c>
-      <c r="F5" s="6">
+        <v>3.4748367728994901E-2</v>
+      </c>
+      <c r="F5" s="4">
         <f t="shared" ref="F5:F16" si="0">E5*$F$3</f>
-        <v>5.0000454276303468E-3</v>
+        <v>3.0222077568014681E-3</v>
       </c>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="6">
+        <f t="shared" ref="I5:I68" si="1">F5/$I$2</f>
+        <v>1.2747307498619112E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2766,17 +2795,21 @@
       </c>
       <c r="E6" s="1">
         <f>[1]aggregated_efficiencies!E6</f>
-        <v>3.7216772922971303E-21</v>
-      </c>
-      <c r="F6" s="6">
+        <v>-9.5879859006480101E-21</v>
+      </c>
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>4.6609582942888213E-22</v>
+        <v>-8.3390637474066142E-22</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
+        <v>-3.5173164253698302E-21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2794,15 +2827,19 @@
       </c>
       <c r="E7" s="1">
         <f>[1]aggregated_efficiencies!E7</f>
-        <v>2.8469934019871999E-2</v>
-      </c>
-      <c r="F7" s="6">
+        <v>2.4778979917008202E-2</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>3.5655207232079284E-3</v>
+        <v>2.1551292968596688E-3</v>
       </c>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>9.0900752221706582E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -2816,19 +2853,23 @@
       </c>
       <c r="D8" s="1">
         <f>[1]aggregated_efficiencies!D8</f>
-        <v>1.08467245530756E-2</v>
+        <v>1.0846724553075299E-2</v>
       </c>
       <c r="E8" s="1">
         <f>[1]aggregated_efficiencies!E8</f>
-        <v>4.3837988735520198E-4</v>
-      </c>
-      <c r="F8" s="6">
+        <v>3.81546596392277E-4</v>
+      </c>
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>5.4901868473299591E-5</v>
+        <v>3.3184669052404224E-5</v>
       </c>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3996892824423197E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -2842,19 +2883,23 @@
       </c>
       <c r="D9" s="1">
         <f>[1]aggregated_efficiencies!D9</f>
-        <v>4.2944729307237096E-3</v>
+        <v>4.2944729307240401E-3</v>
       </c>
       <c r="E9" s="1">
         <f>[1]aggregated_efficiencies!E9</f>
-        <v>3.08025168449696E-3</v>
-      </c>
-      <c r="F9" s="6">
+        <v>2.6809157540093301E-3</v>
+      </c>
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>3.8576489872101989E-4</v>
+        <v>2.331702153692102E-4</v>
       </c>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
+        <v>9.8348382176620137E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -2872,15 +2917,19 @@
       </c>
       <c r="E10" s="1">
         <f>[1]aggregated_efficiencies!E10</f>
-        <v>5.4810748051824197E-3</v>
-      </c>
-      <c r="F10" s="6">
+        <v>4.7704867326505097E-3</v>
+      </c>
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>6.8643944835593414E-4</v>
+        <v>4.1490875541485141E-4</v>
       </c>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7500350454860859E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -2894,19 +2943,23 @@
       </c>
       <c r="D11" s="1">
         <f>[1]aggregated_efficiencies!D11</f>
-        <v>7.0559153950491102E-2</v>
+        <v>7.0559153950491393E-2</v>
       </c>
       <c r="E11" s="1">
         <f>[1]aggregated_efficiencies!E11</f>
-        <v>1.57868514295351E-2</v>
-      </c>
-      <c r="F11" s="6">
+        <v>1.3740181984693E-2</v>
+      </c>
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>1.9771154329659797E-3</v>
+        <v>1.1950398619545203E-3</v>
       </c>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>5.0405338809546016E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2920,19 +2973,23 @@
       </c>
       <c r="D12" s="1">
         <f>[1]aggregated_efficiencies!D12</f>
-        <v>4.3230233061993598E-2</v>
+        <v>4.3230233061993799E-2</v>
       </c>
       <c r="E12" s="1">
         <f>[1]aggregated_efficiencies!E12</f>
-        <v>2.6153475571066901E-2</v>
-      </c>
-      <c r="F12" s="6">
+        <v>2.2762836242721501E-2</v>
+      </c>
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>3.2754118456144775E-3</v>
+        <v>1.979777029991284E-3</v>
       </c>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>8.35046052780666E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2942,23 +2999,24 @@
       </c>
       <c r="C13" s="1">
         <f>[1]aggregated_efficiencies!C13</f>
-        <v>0.40788686279874198</v>
+        <v>0.38526635070724502</v>
       </c>
       <c r="D13" s="1">
         <f>[1]aggregated_efficiencies!D13</f>
-        <v>0.30916352973600603</v>
+        <v>0.34583430574387802</v>
       </c>
       <c r="E13" s="1">
         <f>[1]aggregated_efficiencies!E13</f>
-        <v>0.8215067625393</v>
-      </c>
-      <c r="F13" s="6">
+        <v>0.84464732713208002</v>
+      </c>
+      <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>0.10288395414070223</v>
+        <v>7.3462434947416638E-2</v>
       </c>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -2976,17 +3034,21 @@
       </c>
       <c r="E14" s="1">
         <f>[1]aggregated_efficiencies!E14</f>
-        <v>-2.7367726136636201E-18</v>
-      </c>
-      <c r="F14" s="6">
+        <v>-2.47318209285904E-18</v>
+      </c>
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>-3.427482291288231E-19</v>
+        <v>-2.151027686628341E-19</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>-9.0727751253323273E-19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -3000,19 +3062,23 @@
       </c>
       <c r="D15" s="1">
         <f>[1]aggregated_efficiencies!D15</f>
-        <v>8.4792267795439306E-3</v>
+        <v>8.4792267795437103E-3</v>
       </c>
       <c r="E15" s="1">
         <f>[1]aggregated_efficiencies!E15</f>
-        <v>4.53922851936483E-3</v>
-      </c>
-      <c r="F15" s="6">
+        <v>3.9507450997793899E-3</v>
+      </c>
+      <c r="F15" s="4">
         <f t="shared" si="0"/>
-        <v>5.6848439978381485E-4</v>
+        <v>3.4361247062939459E-4</v>
       </c>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>1.449315922644843E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -3030,40 +3096,46 @@
       </c>
       <c r="E16" s="1">
         <f>[1]aggregated_efficiencies!E16</f>
-        <v>2.5362166816937402E-2</v>
-      </c>
-      <c r="F16" s="6">
+        <v>2.2074115864478199E-2</v>
+      </c>
+      <c r="F16" s="4">
         <f t="shared" si="0"/>
-        <v>3.1763098329671978E-3</v>
+        <v>1.9198761999543862E-3</v>
       </c>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>8.0978060575160483E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
         <f>SUM(E4:E16)</f>
-        <v>1.0000000000000002</v>
+        <v>1.0000000000000009</v>
       </c>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="6">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="4">
         <f>[1]aggregated_efficiencies!$E$18</f>
-        <v>0.147791498751281</v>
+        <v>0.10589052521806</v>
       </c>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -3081,15 +3153,19 @@
       </c>
       <c r="E19" s="1">
         <f>[1]aggregated_efficiencies!E19</f>
-        <v>2.6342262628277002E-2</v>
-      </c>
-      <c r="F19" s="6">
+        <v>2.3021049229464598E-2</v>
+      </c>
+      <c r="F19" s="4">
         <f>E19*$F$18</f>
-        <v>3.8931624743329166E-3</v>
+        <v>2.4377109939788216E-3</v>
       </c>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0281970709353118E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -3103,19 +3179,23 @@
       </c>
       <c r="D20" s="1">
         <f>[1]aggregated_efficiencies!D20</f>
-        <v>6.6937809318216204E-2</v>
+        <v>6.6937809318216093E-2</v>
       </c>
       <c r="E20" s="1">
         <f>[1]aggregated_efficiencies!E20</f>
-        <v>3.5736740254520498E-2</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" ref="F20:F32" si="1">E20*$F$18</f>
-        <v>5.2815864027008193E-3</v>
+        <v>3.1231077918750301E-2</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" ref="F20:F32" si="2">E20*$F$18</f>
+        <v>3.3070752439426257E-3</v>
       </c>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3948844172189964E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -3133,17 +3213,21 @@
       </c>
       <c r="E21" s="1">
         <f>[1]aggregated_efficiencies!E21</f>
-        <v>-6.1542801386730599E-20</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="1"/>
-        <v>-9.0955028542973303E-21</v>
+        <v>5.8172887848462199E-20</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="2"/>
+        <v>6.1599576477249627E-21</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" s="6">
+        <f t="shared" si="1"/>
+        <v>2.5981957771534769E-20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -3157,19 +3241,23 @@
       </c>
       <c r="D22" s="1">
         <f>[1]aggregated_efficiencies!D22</f>
-        <v>5.2756572559430497E-2</v>
+        <v>5.27565725594311E-2</v>
       </c>
       <c r="E22" s="1">
         <f>[1]aggregated_efficiencies!E22</f>
-        <v>2.9734347519121601E-2</v>
-      </c>
-      <c r="F22" s="6">
+        <v>2.5985462513342199E-2</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="2"/>
+        <v>2.7516142735720148E-3</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="I22" s="6">
         <f t="shared" si="1"/>
-        <v>4.3944837842424152E-3</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.1605976850490918E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -3187,15 +3275,19 @@
       </c>
       <c r="E23" s="1">
         <f>[1]aggregated_efficiencies!E23</f>
-        <v>4.0594630653220703E-4</v>
-      </c>
-      <c r="F23" s="6">
+        <v>3.54764890133833E-4</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="2"/>
+        <v>3.7566240545198925E-5</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="I23" s="6">
         <f t="shared" si="1"/>
-        <v>5.999541305494181E-5</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.584498678884838E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -3205,23 +3297,27 @@
       </c>
       <c r="C24" s="1">
         <f>[1]aggregated_efficiencies!C24</f>
-        <v>0.82501024517215804</v>
+        <v>0.82501024517215904</v>
       </c>
       <c r="D24" s="1">
         <f>[1]aggregated_efficiencies!D24</f>
-        <v>3.09139343904074E-3</v>
+        <v>3.0913934390405201E-3</v>
       </c>
       <c r="E24" s="1">
         <f>[1]aggregated_efficiencies!E24</f>
-        <v>2.0433204443842399E-3</v>
-      </c>
-      <c r="F24" s="6">
+        <v>1.78570008224148E-3</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="2"/>
+        <v>1.8908871959048325E-4</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="I24" s="6">
         <f t="shared" si="1"/>
-        <v>3.0198539090468032E-4</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.9755339377828006E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -3239,15 +3335,19 @@
       </c>
       <c r="E25" s="1">
         <f>[1]aggregated_efficiencies!E25</f>
-        <v>5.12196233924861E-3</v>
-      </c>
-      <c r="F25" s="6">
+        <v>4.4761890361207004E-3</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="2"/>
+        <v>4.739860080101427E-4</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="I25" s="6">
         <f t="shared" si="1"/>
-        <v>7.5698249066516931E-4</v>
-      </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.9992157655444528E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -3265,15 +3365,19 @@
       </c>
       <c r="E26" s="1">
         <f>[1]aggregated_efficiencies!E26</f>
-        <v>1.5955948237475901E-2</v>
-      </c>
-      <c r="F26" s="6">
+        <v>1.39442338367479E-2</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4765622447366791E-3</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="I26" s="6">
         <f t="shared" si="1"/>
-        <v>2.3581535040144239E-3</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.2279613081365629E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -3283,23 +3387,27 @@
       </c>
       <c r="C27" s="1">
         <f>[1]aggregated_efficiencies!C27</f>
-        <v>0.66032079127787502</v>
+        <v>0.66032079127787402</v>
       </c>
       <c r="D27" s="1">
         <f>[1]aggregated_efficiencies!D27</f>
-        <v>4.4269941278704601E-2</v>
+        <v>4.4269941278704497E-2</v>
       </c>
       <c r="E27" s="1">
         <f>[1]aggregated_efficiencies!E27</f>
-        <v>2.5089932840390301E-2</v>
-      </c>
-      <c r="F27" s="6">
+        <v>2.1926612274473602E-2</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="2"/>
+        <v>2.3218204899967706E-3</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="I27" s="6">
         <f t="shared" si="1"/>
-        <v>3.7080787780502675E-3</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.793158553039737E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -3309,23 +3417,24 @@
       </c>
       <c r="C28" s="1">
         <f>[1]aggregated_efficiencies!C28</f>
-        <v>0.41278383854775602</v>
+        <v>0.389793273576448</v>
       </c>
       <c r="D28" s="1">
         <f>[1]aggregated_efficiencies!D28</f>
-        <v>0.30859753169536103</v>
+        <v>0.345461576749721</v>
       </c>
       <c r="E28" s="1">
         <f>[1]aggregated_efficiencies!E28</f>
-        <v>0.79048980571966698</v>
-      </c>
-      <c r="F28" s="6">
-        <f t="shared" si="1"/>
-        <v>0.11682767313491853</v>
+        <v>0.81690469931672105</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="2"/>
+        <v>8.6502467663748972E-2</v>
       </c>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -3343,17 +3452,21 @@
       </c>
       <c r="E29" s="1">
         <f>[1]aggregated_efficiencies!E29</f>
-        <v>-1.08437398807032E-18</v>
-      </c>
-      <c r="F29" s="6">
-        <f t="shared" si="1"/>
-        <v>-1.6026125690381628E-19</v>
+        <v>-1.1076740135118801E-18</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.1729218306116946E-19</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" s="6">
+        <f t="shared" si="1"/>
+        <v>-4.9472426946830498E-19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
@@ -3367,19 +3480,23 @@
       </c>
       <c r="D30" s="1">
         <f>[1]aggregated_efficiencies!D30</f>
-        <v>9.1423867697785193E-3</v>
+        <v>9.1423867697786303E-3</v>
       </c>
       <c r="E30" s="1">
         <f>[1]aggregated_efficiencies!E30</f>
-        <v>4.5477234075840898E-3</v>
-      </c>
-      <c r="F30" s="6">
+        <v>3.9743497331774002E-3</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="2"/>
+        <v>4.208459806464115E-4</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="I30" s="6">
         <f t="shared" si="1"/>
-        <v>6.7211485831313543E-4</v>
-      </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.7750775448129208E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
@@ -3397,15 +3514,19 @@
       </c>
       <c r="E31" s="1">
         <f>[1]aggregated_efficiencies!E31</f>
-        <v>2.3465031458342001E-2</v>
-      </c>
-      <c r="F31" s="6">
+        <v>2.05065772821489E-2</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1714522388314845E-3</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="I31" s="6">
         <f t="shared" si="1"/>
-        <v>3.4679321674743213E-3</v>
-      </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.1589234210175379E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3415,7 +3536,7 @@
       </c>
       <c r="C32" s="1">
         <f>[1]aggregated_efficiencies!C32</f>
-        <v>0.68013362928907795</v>
+        <v>0.68013362928907695</v>
       </c>
       <c r="D32" s="1">
         <f>[1]aggregated_efficiencies!D32</f>
@@ -3423,40 +3544,46 @@
       </c>
       <c r="E32" s="1">
         <f>[1]aggregated_efficiencies!E32</f>
-        <v>4.1066978844460401E-2</v>
-      </c>
-      <c r="F32" s="6">
+        <v>3.5889283886679502E-2</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="2"/>
+        <v>3.8003351204605501E-3</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="I32" s="6">
         <f t="shared" si="1"/>
-        <v>6.0693503526099528E-3</v>
-      </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.6029354788494998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2">
         <f>SUM(E19:E32)</f>
-        <v>1.0000000000000038</v>
+        <v>1.0000000000000016</v>
       </c>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="6">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="4">
         <f>[1]aggregated_efficiencies!$E$34</f>
-        <v>0.15351232774953399</v>
+        <v>0.10952400371934801</v>
       </c>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -3474,15 +3601,19 @@
       </c>
       <c r="E35" s="1">
         <f>[1]aggregated_efficiencies!E35</f>
-        <v>2.5625510647821901E-2</v>
-      </c>
-      <c r="F35" s="6">
+        <v>2.24349888619833E-2</v>
+      </c>
+      <c r="F35" s="4">
         <f>E35*$F$34</f>
-        <v>3.9338317893176091E-3</v>
+        <v>2.4571698035633902E-3</v>
       </c>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0364045619250804E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -3500,15 +3631,19 @@
       </c>
       <c r="E36" s="1">
         <f>[1]aggregated_efficiencies!E36</f>
-        <v>3.3254803982757403E-2</v>
-      </c>
-      <c r="F36" s="6">
-        <f t="shared" ref="F36:F48" si="2">E36*$F$34</f>
-        <v>5.1050223682475625E-3</v>
+        <v>2.9114391795506199E-2</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" ref="F36:F48" si="3">E36*$F$34</f>
+        <v>3.1887247552975762E-3</v>
       </c>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3449656097520028E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -3526,17 +3661,21 @@
       </c>
       <c r="E37" s="1">
         <f>[1]aggregated_efficiencies!E37</f>
-        <v>-3.6078255954769298E-20</v>
-      </c>
-      <c r="F37" s="6">
-        <f t="shared" si="2"/>
-        <v>-5.5384570527601212E-21</v>
+        <v>-6.33874887280773E-20</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="3"/>
+        <v>-6.9424515512140681E-21</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.9282422599315852E-20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -3554,15 +3693,19 @@
       </c>
       <c r="E38" s="1">
         <f>[1]aggregated_efficiencies!E38</f>
-        <v>2.4833132793500599E-2</v>
-      </c>
-      <c r="F38" s="6">
-        <f t="shared" si="2"/>
-        <v>3.8121920204435646E-3</v>
+        <v>2.17412665560947E-2</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="3"/>
+        <v>2.3811905591530525E-3</v>
       </c>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0043574338005616E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>10</v>
       </c>
@@ -3576,19 +3719,23 @@
       </c>
       <c r="D39" s="1">
         <f>[1]aggregated_efficiencies!D39</f>
-        <v>2.9097878935280199E-3</v>
+        <v>2.9097878935283499E-3</v>
       </c>
       <c r="E39" s="1">
         <f>[1]aggregated_efficiencies!E39</f>
-        <v>9.66770702787274E-5</v>
-      </c>
-      <c r="F39" s="6">
-        <f t="shared" si="2"/>
-        <v>1.4841122098492733E-5</v>
+        <v>8.4640225309883505E-5</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="3"/>
+        <v>9.2701363516461343E-6</v>
       </c>
       <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39" s="6">
+        <f t="shared" si="1"/>
+        <v>3.9100316105873541E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
@@ -3606,15 +3753,19 @@
       </c>
       <c r="E40" s="1">
         <f>[1]aggregated_efficiencies!E40</f>
-        <v>2.3911982281320599E-3</v>
-      </c>
-      <c r="F40" s="6">
-        <f t="shared" si="2"/>
-        <v>3.6707840611111372E-4</v>
+        <v>2.0934804520469801E-3</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2928636081637579E-4</v>
       </c>
       <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40" s="6">
+        <f t="shared" si="1"/>
+        <v>9.671021920938293E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
@@ -3624,7 +3775,7 @@
       </c>
       <c r="C41" s="1">
         <f>[1]aggregated_efficiencies!C41</f>
-        <v>0.50980383792963702</v>
+        <v>0.50980383792963602</v>
       </c>
       <c r="D41" s="1">
         <f>[1]aggregated_efficiencies!D41</f>
@@ -3632,15 +3783,19 @@
       </c>
       <c r="E41" s="1">
         <f>[1]aggregated_efficiencies!E41</f>
-        <v>4.9603832489754501E-3</v>
-      </c>
-      <c r="F41" s="6">
-        <f t="shared" si="2"/>
-        <v>7.614799790800176E-4</v>
+        <v>4.3427873290553098E-3</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="3"/>
+        <v>4.7563945557979115E-4</v>
       </c>
       <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I41" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0061898078007206E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
@@ -3658,15 +3813,19 @@
       </c>
       <c r="E42" s="1">
         <f>[1]aggregated_efficiencies!E42</f>
-        <v>1.7326544119775099E-2</v>
-      </c>
-      <c r="F42" s="6">
-        <f t="shared" si="2"/>
-        <v>2.6598381196816759E-3</v>
+        <v>1.51692908557456E-2</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="3"/>
+        <v>1.6614014681045528E-3</v>
       </c>
       <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42" s="6">
+        <f t="shared" si="1"/>
+        <v>7.0075908398170381E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -3680,19 +3839,23 @@
       </c>
       <c r="D43" s="1">
         <f>[1]aggregated_efficiencies!D43</f>
-        <v>4.9868149995281101E-2</v>
+        <v>4.9868149995280997E-2</v>
       </c>
       <c r="E43" s="1">
         <f>[1]aggregated_efficiencies!E43</f>
-        <v>2.85531989209937E-2</v>
-      </c>
-      <c r="F43" s="6">
-        <f t="shared" si="2"/>
-        <v>4.3832680310572254E-3</v>
+        <v>2.4998163297906301E-2</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7378989300167584E-3</v>
       </c>
       <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1548127186994226E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>15</v>
       </c>
@@ -3702,23 +3865,24 @@
       </c>
       <c r="C44" s="1">
         <f>[1]aggregated_efficiencies!C44</f>
-        <v>0.41107055286775901</v>
+        <v>0.388193759504389</v>
       </c>
       <c r="D44" s="1">
         <f>[1]aggregated_efficiencies!D44</f>
-        <v>0.31796467479352297</v>
+        <v>0.35436443466295298</v>
       </c>
       <c r="E44" s="1">
         <f>[1]aggregated_efficiencies!E44</f>
-        <v>0.80205408829477298</v>
-      </c>
-      <c r="F44" s="6">
-        <f t="shared" si="2"/>
-        <v>0.12312519007516087</v>
+        <v>0.82669947984980896</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="3"/>
+        <v>9.0543436905853536E-2</v>
       </c>
       <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -3736,17 +3900,21 @@
       </c>
       <c r="E45" s="1">
         <f>[1]aggregated_efficiencies!E45</f>
-        <v>-2.93861354517505E-4</v>
-      </c>
-      <c r="F45" s="6">
-        <f t="shared" si="2"/>
-        <v>-4.511134056761323E-5</v>
+        <v>-2.5727394494391899E-4</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.8177672502929116E-5</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.188500212077966E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>17</v>
       </c>
@@ -3764,15 +3932,19 @@
       </c>
       <c r="E46" s="1">
         <f>[1]aggregated_efficiencies!E46</f>
-        <v>4.69867496666369E-3</v>
-      </c>
-      <c r="F46" s="6">
-        <f t="shared" si="2"/>
-        <v>7.2130453147100705E-4</v>
+        <v>4.11366321600072E-3</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="3"/>
+        <v>4.5054486536940796E-4</v>
       </c>
       <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9003438555349691E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
@@ -3786,19 +3958,23 @@
       </c>
       <c r="D47" s="1">
         <f>[1]aggregated_efficiencies!D47</f>
-        <v>0.108672471679716</v>
+        <v>0.108672471679715</v>
       </c>
       <c r="E47" s="1">
         <f>[1]aggregated_efficiencies!E47</f>
-        <v>2.2540030850080699E-2</v>
-      </c>
-      <c r="F47" s="6">
-        <f t="shared" si="2"/>
-        <v>3.4601726033421957E-3</v>
+        <v>1.9733668843524201E-2</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1613104198145265E-3</v>
       </c>
       <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I47" s="6">
+        <f t="shared" si="1"/>
+        <v>9.1161464526527524E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
@@ -3812,44 +3988,50 @@
       </c>
       <c r="D48" s="1">
         <f>[1]aggregated_efficiencies!D48</f>
-        <v>0.125738825025139</v>
+        <v>0.12573882502514</v>
       </c>
       <c r="E48" s="1">
         <f>[1]aggregated_efficiencies!E48</f>
-        <v>3.3959618230762899E-2</v>
-      </c>
-      <c r="F48" s="6">
-        <f t="shared" si="2"/>
-        <v>5.2132200440899237E-3</v>
+        <v>2.9731452661963999E-2</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="3"/>
+        <v>3.2563077319305643E-3</v>
       </c>
       <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I48" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3734712934818483E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2">
         <f>SUM(E35:E48)</f>
-        <v>0.99999999999999767</v>
+        <v>1.0000000000000022</v>
       </c>
       <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="6">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="4">
         <f>[1]aggregated_efficiencies!$E$50</f>
-        <v>0.12949803388710601</v>
+        <v>9.1682502310528005E-2</v>
       </c>
       <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -3867,15 +4049,19 @@
       </c>
       <c r="E51" s="1">
         <f>[1]aggregated_efficiencies!E51</f>
-        <v>2.8437883533884298E-2</v>
-      </c>
-      <c r="F51" s="6">
+        <v>2.4763324047747299E-2</v>
+      </c>
+      <c r="F51" s="4">
         <f>E51*$F$50</f>
-        <v>3.682650005548523E-3</v>
+        <v>2.2703635142239456E-3</v>
       </c>
       <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I51" s="6">
+        <f t="shared" si="1"/>
+        <v>9.5761192407525491E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
@@ -3885,23 +4071,27 @@
       </c>
       <c r="C52" s="1">
         <f>[1]aggregated_efficiencies!C52</f>
-        <v>0.854838707538908</v>
+        <v>0.854838707538909</v>
       </c>
       <c r="D52" s="1">
         <f>[1]aggregated_efficiencies!D52</f>
-        <v>7.1501323570043906E-2</v>
+        <v>7.1501323570043601E-2</v>
       </c>
       <c r="E52" s="1">
         <f>[1]aggregated_efficiencies!E52</f>
-        <v>3.9751740004059101E-2</v>
-      </c>
-      <c r="F52" s="6">
-        <f t="shared" ref="F52:F63" si="3">E52*$F$50</f>
-        <v>5.1477721741170733E-3</v>
+        <v>3.4615277118263801E-2</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" ref="F52:F63" si="4">E52*$F$50</f>
+        <v>3.1736152243747881E-3</v>
       </c>
       <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I52" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3385925920003535E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>8</v>
       </c>
@@ -3919,17 +4109,21 @@
       </c>
       <c r="E53" s="1">
         <f>[1]aggregated_efficiencies!E53</f>
-        <v>-5.7002133685844106E-20</v>
-      </c>
-      <c r="F53" s="6">
-        <f t="shared" si="3"/>
-        <v>-7.3816642396867864E-21</v>
+        <v>-1.92962618520041E-19</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.7691295718309193E-20</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I53" s="6">
+        <f t="shared" si="1"/>
+        <v>-7.4619749771592349E-20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -3943,19 +4137,23 @@
       </c>
       <c r="D54" s="1">
         <f>[1]aggregated_efficiencies!D54</f>
-        <v>4.1526707806765997E-2</v>
+        <v>4.1526707806766101E-2</v>
       </c>
       <c r="E54" s="1">
         <f>[1]aggregated_efficiencies!E54</f>
-        <v>2.4087379129086602E-2</v>
-      </c>
-      <c r="F54" s="6">
-        <f t="shared" si="3"/>
-        <v>3.1192682387100267E-3</v>
+        <v>2.09749637002274E-2</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" si="4"/>
+        <v>1.9230371579093395E-3</v>
       </c>
       <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I54" s="6">
+        <f t="shared" si="1"/>
+        <v>8.1111385966015272E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -3973,15 +4171,19 @@
       </c>
       <c r="E55" s="1">
         <f>[1]aggregated_efficiencies!E55</f>
-        <v>-7.9181555366220698E-4</v>
-      </c>
-      <c r="F55" s="6">
-        <f t="shared" si="3"/>
-        <v>-1.0253855740048609E-4</v>
+        <v>-6.8950226615916398E-4</v>
+      </c>
+      <c r="F55" s="4">
+        <f t="shared" si="4"/>
+        <v>-6.3215293110251847E-5</v>
       </c>
       <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I55" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.6663447543545362E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>11</v>
       </c>
@@ -3995,19 +4197,23 @@
       </c>
       <c r="D56" s="1">
         <f>[1]aggregated_efficiencies!D56</f>
-        <v>4.3992973534237E-3</v>
+        <v>4.3992973534239203E-3</v>
       </c>
       <c r="E56" s="1">
         <f>[1]aggregated_efficiencies!E56</f>
-        <v>3.1652612409079801E-3</v>
-      </c>
-      <c r="F56" s="6">
-        <f t="shared" si="3"/>
-        <v>4.0989510743664483E-4</v>
+        <v>2.7562666437882001E-3</v>
+      </c>
+      <c r="F56" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5270142293754293E-4</v>
       </c>
       <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I56" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0658640976200329E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>12</v>
       </c>
@@ -4025,15 +4231,19 @@
       </c>
       <c r="E57" s="1">
         <f>[1]aggregated_efficiencies!E57</f>
-        <v>6.0867918569585504E-3</v>
-      </c>
-      <c r="F57" s="6">
-        <f t="shared" si="3"/>
-        <v>7.8822757815617925E-4</v>
+        <v>5.3002959585743102E-3</v>
+      </c>
+      <c r="F57" s="4">
+        <f t="shared" si="4"/>
+        <v>4.8594439646847142E-4</v>
       </c>
       <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I57" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0496548045295109E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>13</v>
       </c>
@@ -4047,19 +4257,23 @@
       </c>
       <c r="D58" s="1">
         <f>[1]aggregated_efficiencies!D58</f>
-        <v>7.4234978511175401E-2</v>
+        <v>7.4234978511175706E-2</v>
       </c>
       <c r="E58" s="1">
         <f>[1]aggregated_efficiencies!E58</f>
-        <v>1.6213083031392302E-2</v>
-      </c>
-      <c r="F58" s="6">
-        <f t="shared" si="3"/>
-        <v>2.0995623758137036E-3</v>
+        <v>1.41181332443752E-2</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2943857837977716E-3</v>
       </c>
       <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I58" s="6">
+        <f t="shared" si="1"/>
+        <v>5.459562986951598E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>14</v>
       </c>
@@ -4077,41 +4291,46 @@
       </c>
       <c r="E59" s="1">
         <f>[1]aggregated_efficiencies!E59</f>
-        <v>2.6947537772769901E-2</v>
-      </c>
-      <c r="F59" s="6">
-        <f t="shared" si="3"/>
-        <v>3.4896531596722261E-3</v>
+        <v>2.3465551132203499E-2</v>
+      </c>
+      <c r="F59" s="4">
+        <f t="shared" si="4"/>
+        <v>2.1513804458960606E-3</v>
       </c>
       <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I59" s="6">
+        <f t="shared" si="1"/>
+        <v>9.0742630213409628E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B60" s="1">
         <f>[1]aggregated_efficiencies!B60</f>
-        <v>0.41384659906579002</v>
+        <v>0.41384659906578902</v>
       </c>
       <c r="C60" s="1">
         <f>[1]aggregated_efficiencies!C60</f>
-        <v>0.40852170946463001</v>
+        <v>0.38588436590539499</v>
       </c>
       <c r="D60" s="1">
         <f>[1]aggregated_efficiencies!D60</f>
-        <v>0.313447000116923</v>
+        <v>0.34993298139739198</v>
       </c>
       <c r="E60" s="1">
         <f>[1]aggregated_efficiencies!E60</f>
-        <v>0.82869088297414495</v>
-      </c>
-      <c r="F60" s="6">
-        <f t="shared" si="3"/>
-        <v>0.10731384004532163</v>
+        <v>0.85082633972425403</v>
+      </c>
+      <c r="F60" s="4">
+        <f t="shared" si="4"/>
+        <v>7.8005887857627007E-2</v>
       </c>
       <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>16</v>
       </c>
@@ -4129,17 +4348,21 @@
       </c>
       <c r="E61" s="1">
         <f>[1]aggregated_efficiencies!E61</f>
-        <v>-1.60319708138958E-3</v>
-      </c>
-      <c r="F61" s="6">
-        <f t="shared" si="3"/>
-        <v>-2.0761086997349729E-4</v>
+        <v>-1.39604231769038E-3</v>
+      </c>
+      <c r="F61" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.2799265301724312E-4</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I61" s="6">
+        <f t="shared" si="1"/>
+        <v>-5.3985756005788595E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
@@ -4157,15 +4380,19 @@
       </c>
       <c r="E62" s="1">
         <f>[1]aggregated_efficiencies!E62</f>
-        <v>5.0073626690174903E-3</v>
-      </c>
-      <c r="F62" s="6">
-        <f t="shared" si="3"/>
-        <v>6.4844362059745652E-4</v>
+        <v>4.3603436328067697E-3</v>
+      </c>
+      <c r="F62" s="4">
+        <f t="shared" si="4"/>
+        <v>3.9976721518950276E-4</v>
       </c>
       <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I62" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6861698565953311E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>18</v>
       </c>
@@ -4183,40 +4410,49 @@
       </c>
       <c r="E63" s="1">
         <f>[1]aggregated_efficiencies!E63</f>
-        <v>2.40070904228364E-2</v>
-      </c>
-      <c r="F63" s="6">
-        <f t="shared" si="3"/>
-        <v>3.1088710091072861E-3</v>
+        <v>2.09050493816079E-2</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" si="4"/>
+        <v>1.9166272382309683E-3</v>
       </c>
       <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I63" s="6">
+        <f t="shared" si="1"/>
+        <v>8.0841023291583769E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2">
         <f>SUM(E51:E63)</f>
-        <v>1.0000000000000058</v>
+        <v>0.99999999999999889</v>
       </c>
       <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="I64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="6">
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="4">
         <f>[1]aggregated_efficiencies!$E$65</f>
-        <v>0.11856265480011299</v>
+        <v>0.13598580525394899</v>
       </c>
       <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -4234,15 +4470,19 @@
       </c>
       <c r="E66" s="1">
         <f>[1]aggregated_efficiencies!E66</f>
-        <v>2.1724732283709101E-2</v>
-      </c>
-      <c r="F66" s="6">
+        <v>1.84869668139746E-2</v>
+      </c>
+      <c r="F66" s="4">
         <f>E66*$F$65</f>
-        <v>2.5757419343782726E-3</v>
+        <v>2.5139650689013676E-3</v>
       </c>
       <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I66" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0603601192523201E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -4256,19 +4496,23 @@
       </c>
       <c r="D67" s="1">
         <f>[1]aggregated_efficiencies!D67</f>
-        <v>2.5285770518515601E-2</v>
+        <v>2.52857705185155E-2</v>
       </c>
       <c r="E67" s="1">
         <f>[1]aggregated_efficiencies!E67</f>
-        <v>1.26520215301656E-2</v>
-      </c>
-      <c r="F67" s="6">
-        <f t="shared" ref="F67:F80" si="4">E67*$F$65</f>
-        <v>1.5000572612046215E-3</v>
+        <v>1.07664158574354E-2</v>
+      </c>
+      <c r="F67" s="4">
+        <f t="shared" ref="F67:F80" si="5">E67*$F$65</f>
+        <v>1.4640797300722386E-3</v>
       </c>
       <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I67" s="6">
+        <f t="shared" si="1"/>
+        <v>6.1753115680829385E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
@@ -4288,15 +4532,19 @@
         <f>[1]aggregated_efficiencies!E68</f>
         <v>0</v>
       </c>
-      <c r="F68" s="6">
-        <f t="shared" si="4"/>
+      <c r="F68" s="4">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I68" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -4314,15 +4562,19 @@
       </c>
       <c r="E69" s="1">
         <f>[1]aggregated_efficiencies!E69</f>
-        <v>-1.72458824534784E-18</v>
-      </c>
-      <c r="F69" s="6">
-        <f t="shared" si="4"/>
-        <v>-2.0447176080550853E-19</v>
+        <v>-1.38135268695471E-18</v>
+      </c>
+      <c r="F69" s="4">
+        <f t="shared" si="5"/>
+        <v>-1.8784435747524235E-19</v>
       </c>
       <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I69" s="6">
+        <f t="shared" ref="I69:I132" si="6">F69/$I$2</f>
+        <v>-7.9230482458679744E-19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>10</v>
       </c>
@@ -4342,13 +4594,17 @@
         <f>[1]aggregated_efficiencies!E70</f>
         <v>0</v>
       </c>
-      <c r="F70" s="6">
-        <f t="shared" si="4"/>
+      <c r="F70" s="4">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I70" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>11</v>
       </c>
@@ -4358,23 +4614,27 @@
       </c>
       <c r="C71" s="1">
         <f>[1]aggregated_efficiencies!C71</f>
-        <v>0.91297433848800402</v>
+        <v>0.912978176864508</v>
       </c>
       <c r="D71" s="1">
         <f>[1]aggregated_efficiencies!D71</f>
-        <v>3.8079521241973698E-4</v>
+        <v>3.8077496145827401E-4</v>
       </c>
       <c r="E71" s="1">
         <f>[1]aggregated_efficiencies!E71</f>
-        <v>2.59053390831001E-4</v>
-      </c>
-      <c r="F71" s="6">
-        <f t="shared" si="4"/>
-        <v>3.0714057751894729E-5</v>
+        <v>2.2043540730461801E-4</v>
+      </c>
+      <c r="F71" s="4">
+        <f t="shared" si="5"/>
+        <v>2.9976086368800708E-5</v>
       </c>
       <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I71" s="6">
+        <f t="shared" si="6"/>
+        <v>1.2643551380222632E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
@@ -4392,15 +4652,19 @@
       </c>
       <c r="E72" s="1">
         <f>[1]aggregated_efficiencies!E72</f>
-        <v>2.3651256542814802E-3</v>
-      </c>
-      <c r="F72" s="6">
-        <f t="shared" si="4"/>
-        <v>2.804155765074665E-4</v>
+        <v>2.0126369757094498E-3</v>
+      </c>
+      <c r="F72" s="4">
+        <f t="shared" si="5"/>
+        <v>2.7369005982572211E-4</v>
       </c>
       <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I72" s="6">
+        <f t="shared" si="6"/>
+        <v>1.1543916344144056E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>13</v>
       </c>
@@ -4410,23 +4674,27 @@
       </c>
       <c r="C73" s="1">
         <f>[1]aggregated_efficiencies!C73</f>
-        <v>0.71116434157319697</v>
+        <v>0.71116334390695102</v>
       </c>
       <c r="D73" s="1">
         <f>[1]aggregated_efficiencies!D73</f>
-        <v>4.8815172968667699E-2</v>
+        <v>4.8819833230557497E-2</v>
       </c>
       <c r="E73" s="1">
         <f>[1]aggregated_efficiencies!E73</f>
-        <v>1.31130337298171E-2</v>
-      </c>
-      <c r="F73" s="6">
-        <f t="shared" si="4"/>
-        <v>1.554716091490543E-3</v>
+        <v>1.11599948177126E-2</v>
+      </c>
+      <c r="F73" s="4">
+        <f t="shared" si="5"/>
+        <v>1.5176008819165457E-3</v>
       </c>
       <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I73" s="6">
+        <f t="shared" si="6"/>
+        <v>6.4010573258668846E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>14</v>
       </c>
@@ -4436,49 +4704,54 @@
       </c>
       <c r="C74" s="1">
         <f>[1]aggregated_efficiencies!C74</f>
-        <v>0.67503604817733098</v>
+        <v>0.67503548441941996</v>
       </c>
       <c r="D74" s="1">
         <f>[1]aggregated_efficiencies!D74</f>
-        <v>4.5584069476050898E-2</v>
+        <v>4.5588414190054903E-2</v>
       </c>
       <c r="E74" s="1">
         <f>[1]aggregated_efficiencies!E74</f>
-        <v>2.7515580028437701E-2</v>
-      </c>
-      <c r="F74" s="6">
-        <f t="shared" si="4"/>
-        <v>3.2623202165365426E-3</v>
+        <v>2.3417359487597399E-2</v>
+      </c>
+      <c r="F74" s="4">
+        <f t="shared" si="5"/>
+        <v>3.1844284868421343E-3</v>
       </c>
       <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I74" s="6">
+        <f t="shared" si="6"/>
+        <v>1.3431534955790149E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B75" s="1">
         <f>[1]aggregated_efficiencies!B75</f>
-        <v>0.385293103489531</v>
+        <v>0.385283844628038</v>
       </c>
       <c r="C75" s="1">
         <f>[1]aggregated_efficiencies!C75</f>
-        <v>0.384290997755527</v>
+        <v>0.36289897459686499</v>
       </c>
       <c r="D75" s="1">
         <f>[1]aggregated_efficiencies!D75</f>
-        <v>0.32527683776850402</v>
+        <v>0.360863143011731</v>
       </c>
       <c r="E75" s="1">
         <f>[1]aggregated_efficiencies!E75</f>
-        <v>0.80653663535555797</v>
-      </c>
-      <c r="F75" s="6">
-        <f t="shared" si="4"/>
-        <v>9.5625124681305629E-2</v>
+        <v>0.80382252035799895</v>
+      </c>
+      <c r="F75" s="4">
+        <f t="shared" si="5"/>
+        <v>0.10930845271214129</v>
       </c>
       <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>16</v>
       </c>
@@ -4492,21 +4765,25 @@
       </c>
       <c r="D76" s="1">
         <f>[1]aggregated_efficiencies!D76</f>
-        <v>-2.2605172086243002E-3</v>
+        <v>-2.2602637766235799E-3</v>
       </c>
       <c r="E76" s="1">
         <f>[1]aggregated_efficiencies!E76</f>
-        <v>-1.3084434985745001E-3</v>
-      </c>
-      <c r="F76" s="6">
-        <f t="shared" si="4"/>
-        <v>-1.551325348469406E-4</v>
+        <v>-1.1133254836990199E-3</v>
+      </c>
+      <c r="F76" s="4">
+        <f t="shared" si="5"/>
+        <v>-1.5139646241055349E-4</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I76" s="6">
+        <f t="shared" si="6"/>
+        <v>-6.3857200293633955E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>17</v>
       </c>
@@ -4520,19 +4797,23 @@
       </c>
       <c r="D77" s="1">
         <f>[1]aggregated_efficiencies!D77</f>
-        <v>1.00737626137898E-2</v>
+        <v>1.0074658555649801E-2</v>
       </c>
       <c r="E77" s="1">
         <f>[1]aggregated_efficiencies!E77</f>
-        <v>5.2809784890067001E-3</v>
-      </c>
-      <c r="F77" s="6">
-        <f t="shared" si="4"/>
-        <v>6.261268295989237E-4</v>
+        <v>4.4943267485281499E-3</v>
+      </c>
+      <c r="F77" s="4">
+        <f t="shared" si="5"/>
+        <v>6.1116464197296272E-4</v>
       </c>
       <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I77" s="6">
+        <f t="shared" si="6"/>
+        <v>2.5778186843640584E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>18</v>
       </c>
@@ -4546,19 +4827,23 @@
       </c>
       <c r="D78" s="1">
         <f>[1]aggregated_efficiencies!D78</f>
-        <v>0.14447242791814799</v>
+        <v>0.33134696808958197</v>
       </c>
       <c r="E78" s="1">
         <f>[1]aggregated_efficiencies!E78</f>
-        <v>2.86564874995675E-2</v>
-      </c>
-      <c r="F78" s="6">
-        <f t="shared" si="4"/>
-        <v>3.3975892351949745E-3</v>
+        <v>5.5928376758645697E-2</v>
+      </c>
+      <c r="F78" s="4">
+        <f t="shared" si="5"/>
+        <v>7.6054653500706804E-3</v>
       </c>
       <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I78" s="6">
+        <f t="shared" si="6"/>
+        <v>3.2078934768551226E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>20</v>
       </c>
@@ -4568,7 +4853,7 @@
       </c>
       <c r="C79" s="1">
         <f>[1]aggregated_efficiencies!C79</f>
-        <v>0.66257529927923497</v>
+        <v>0.66257529927923398</v>
       </c>
       <c r="D79" s="1">
         <f>[1]aggregated_efficiencies!D79</f>
@@ -4576,15 +4861,19 @@
       </c>
       <c r="E79" s="1">
         <f>[1]aggregated_efficiencies!E79</f>
-        <v>4.6106325215282497E-2</v>
-      </c>
-      <c r="F79" s="6">
-        <f t="shared" si="4"/>
-        <v>5.4664883206012836E-3</v>
+        <v>3.9234826603981601E-2</v>
+      </c>
+      <c r="F79" s="4">
+        <f t="shared" si="5"/>
+        <v>5.3353794897414986E-3</v>
       </c>
       <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I79" s="6">
+        <f t="shared" si="6"/>
+        <v>2.250398663841037E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>24</v>
       </c>
@@ -4602,40 +4891,46 @@
       </c>
       <c r="E80" s="1">
         <f>[1]aggregated_efficiencies!E80</f>
-        <v>3.7098470321917397E-2</v>
-      </c>
-      <c r="F80" s="6">
-        <f t="shared" si="4"/>
-        <v>4.3984931303897292E-3</v>
+        <v>3.1569465654810502E-2</v>
+      </c>
+      <c r="F80" s="4">
+        <f t="shared" si="5"/>
+        <v>4.2929992085062926E-3</v>
       </c>
       <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I80" s="6">
+        <f t="shared" si="6"/>
+        <v>1.8107352440943743E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2">
         <f>SUM(E66:E80)</f>
-        <v>0.99999999999999944</v>
+        <v>1</v>
       </c>
       <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="6">
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="4">
         <f>[1]aggregated_efficiencies!$E$82</f>
-        <v>9.2893910050749401E-2</v>
+        <v>0.114060650314236</v>
       </c>
       <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>6</v>
       </c>
@@ -4653,41 +4948,49 @@
       </c>
       <c r="E83" s="1">
         <f>[1]aggregated_efficiencies!E83</f>
-        <v>2.4359703158961701E-2</v>
-      </c>
-      <c r="F83" s="6">
+        <v>2.0718441792231899E-2</v>
+      </c>
+      <c r="F83" s="4">
         <f>E83*$F$82</f>
-        <v>2.2628680741115445E-3</v>
+        <v>2.3631589443196157E-3</v>
       </c>
       <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I83" s="6">
+        <f t="shared" si="6"/>
+        <v>9.9675191632873344E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B84" s="1">
         <f>[1]aggregated_efficiencies!B84</f>
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="C84" s="1">
         <f>[1]aggregated_efficiencies!C84</f>
-        <v>0.83514356020871106</v>
+        <v>0.83514356027181602</v>
       </c>
       <c r="D84" s="1">
         <f>[1]aggregated_efficiencies!D84</f>
-        <v>6.7434974976381595E-2</v>
+        <v>6.7434974946386395E-2</v>
       </c>
       <c r="E84" s="1">
         <f>[1]aggregated_efficiencies!E84</f>
-        <v>3.7576548547193098E-2</v>
-      </c>
-      <c r="F84" s="6">
-        <f t="shared" ref="F84:F97" si="5">E84*$F$82</f>
-        <v>3.4906325207605736E-3</v>
+        <v>3.1959647806959202E-2</v>
+      </c>
+      <c r="F84" s="4">
+        <f t="shared" ref="F84:F97" si="7">E84*$F$82</f>
+        <v>3.6453382126757127E-3</v>
       </c>
       <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I84" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5375596541590259E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>8</v>
       </c>
@@ -4707,15 +5010,19 @@
         <f>[1]aggregated_efficiencies!E85</f>
         <v>0</v>
       </c>
-      <c r="F85" s="6">
-        <f t="shared" si="5"/>
+      <c r="F85" s="4">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I85" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
@@ -4733,15 +5040,19 @@
       </c>
       <c r="E86" s="1">
         <f>[1]aggregated_efficiencies!E86</f>
-        <v>-1.0799846509681599E-18</v>
-      </c>
-      <c r="F86" s="6">
-        <f t="shared" si="5"/>
-        <v>-1.0032399702322624E-19</v>
+        <v>-1.0733260088993599E-18</v>
+      </c>
+      <c r="F86" s="4">
+        <f t="shared" si="7"/>
+        <v>-1.2242426257424446E-19</v>
       </c>
       <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I86" s="6">
+        <f t="shared" si="6"/>
+        <v>-5.1637076134607299E-19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>10</v>
       </c>
@@ -4761,13 +5072,17 @@
         <f>[1]aggregated_efficiencies!E87</f>
         <v>0</v>
       </c>
-      <c r="F87" s="6">
-        <f t="shared" si="5"/>
+      <c r="F87" s="4">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I87" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>11</v>
       </c>
@@ -4777,23 +5092,27 @@
       </c>
       <c r="C88" s="1">
         <f>[1]aggregated_efficiencies!C88</f>
-        <v>0.89800782821672398</v>
+        <v>0.89801349018409804</v>
       </c>
       <c r="D88" s="1">
         <f>[1]aggregated_efficiencies!D88</f>
-        <v>7.1497039517165397E-4</v>
+        <v>7.1492822903484999E-4</v>
       </c>
       <c r="E88" s="1">
         <f>[1]aggregated_efficiencies!E88</f>
-        <v>4.5976433319822502E-4</v>
-      </c>
-      <c r="F88" s="6">
-        <f t="shared" si="5"/>
-        <v>4.2709306612658691E-5</v>
+        <v>3.9101756337495803E-4</v>
+      </c>
+      <c r="F88" s="4">
+        <f t="shared" si="7"/>
+        <v>4.45997175628357E-5</v>
       </c>
       <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I88" s="6">
+        <f t="shared" si="6"/>
+        <v>1.881162249172194E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>12</v>
       </c>
@@ -4811,15 +5130,19 @@
       </c>
       <c r="E89" s="1">
         <f>[1]aggregated_efficiencies!E89</f>
-        <v>3.33653094512955E-3</v>
-      </c>
-      <c r="F89" s="6">
-        <f t="shared" si="5"/>
-        <v>3.0994340549840631E-4</v>
+        <v>2.83779000604182E-3</v>
+      </c>
+      <c r="F89" s="4">
+        <f t="shared" si="7"/>
+        <v>3.236801735443697E-4</v>
       </c>
       <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I89" s="6">
+        <f t="shared" si="6"/>
+        <v>1.365243899626297E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>13</v>
       </c>
@@ -4829,23 +5152,27 @@
       </c>
       <c r="C90" s="1">
         <f>[1]aggregated_efficiencies!C90</f>
-        <v>0.70702637126568701</v>
+        <v>0.70702421533397897</v>
       </c>
       <c r="D90" s="1">
         <f>[1]aggregated_efficiencies!D90</f>
-        <v>4.2170914365867299E-2</v>
+        <v>4.2173009607158099E-2</v>
       </c>
       <c r="E90" s="1">
         <f>[1]aggregated_efficiencies!E90</f>
-        <v>1.0255035545218101E-2</v>
-      </c>
-      <c r="F90" s="6">
-        <f t="shared" si="5"/>
-        <v>9.526303495047281E-4</v>
+        <v>8.7226196555763996E-3</v>
+      </c>
+      <c r="F90" s="4">
+        <f t="shared" si="7"/>
+        <v>9.9490767035878146E-4</v>
       </c>
       <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I90" s="6">
+        <f t="shared" si="6"/>
+        <v>4.1964004553480755E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>14</v>
       </c>
@@ -4855,49 +5182,54 @@
       </c>
       <c r="C91" s="1">
         <f>[1]aggregated_efficiencies!C91</f>
-        <v>0.649798319507217</v>
+        <v>0.64979795513366401</v>
       </c>
       <c r="D91" s="1">
         <f>[1]aggregated_efficiencies!D91</f>
-        <v>4.3991168904508E-2</v>
+        <v>4.3993191397907097E-2</v>
       </c>
       <c r="E91" s="1">
         <f>[1]aggregated_efficiencies!E91</f>
-        <v>2.3673243739973801E-2</v>
-      </c>
-      <c r="F91" s="6">
-        <f t="shared" si="5"/>
-        <v>2.1991001745905927E-3</v>
+        <v>2.0135648996564701E-2</v>
+      </c>
+      <c r="F91" s="4">
+        <f t="shared" si="7"/>
+        <v>2.2966852190473633E-3</v>
       </c>
       <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I91" s="6">
+        <f t="shared" si="6"/>
+        <v>9.687141014327473E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B92" s="1">
         <f>[1]aggregated_efficiencies!B92</f>
-        <v>0.387056932876994</v>
+        <v>0.38705331483187</v>
       </c>
       <c r="C92" s="1">
         <f>[1]aggregated_efficiencies!C92</f>
-        <v>0.38335111424909601</v>
+        <v>0.36216691410671198</v>
       </c>
       <c r="D92" s="1">
         <f>[1]aggregated_efficiencies!D92</f>
-        <v>0.32254010804114602</v>
+        <v>0.35817226878152397</v>
       </c>
       <c r="E92" s="1">
         <f>[1]aggregated_efficiencies!E92</f>
-        <v>0.81649851454279099</v>
-      </c>
-      <c r="F92" s="6">
-        <f t="shared" si="5"/>
-        <v>7.5847739566508532E-2</v>
+        <v>0.81397141231037096</v>
+      </c>
+      <c r="F92" s="4">
+        <f t="shared" si="7"/>
+        <v>9.2842108625318026E-2</v>
       </c>
       <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>16</v>
       </c>
@@ -4911,21 +5243,25 @@
       </c>
       <c r="D93" s="1">
         <f>[1]aggregated_efficiencies!D93</f>
-        <v>-3.6277271450579898E-3</v>
+        <v>-3.6277124061547799E-3</v>
       </c>
       <c r="E93" s="1">
         <f>[1]aggregated_efficiencies!E93</f>
-        <v>-1.88101681329118E-3</v>
-      </c>
-      <c r="F93" s="6">
-        <f t="shared" si="5"/>
-        <v>-1.7473500665781815E-4</v>
+        <v>-1.59984495852004E-3</v>
+      </c>
+      <c r="F93" s="4">
+        <f t="shared" si="7"/>
+        <v>-1.8247935637074768E-4</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I93" s="6">
+        <f t="shared" si="6"/>
+        <v>-7.6967589755307033E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>17</v>
       </c>
@@ -4939,45 +5275,53 @@
       </c>
       <c r="D94" s="1">
         <f>[1]aggregated_efficiencies!D94</f>
-        <v>8.6573011996328095E-3</v>
+        <v>8.6577212608471808E-3</v>
       </c>
       <c r="E94" s="1">
         <f>[1]aggregated_efficiencies!E94</f>
-        <v>4.1092157645811001E-3</v>
-      </c>
-      <c r="F94" s="6">
-        <f t="shared" si="5"/>
-        <v>3.8172111961411816E-4</v>
+        <v>3.4951458178550201E-3</v>
+      </c>
+      <c r="F94" s="4">
+        <f t="shared" si="7"/>
+        <v>3.9865860492762582E-4</v>
       </c>
       <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I94" s="6">
+        <f t="shared" si="6"/>
+        <v>1.6814938723343331E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B95" s="1">
         <f>[1]aggregated_efficiencies!B95</f>
-        <v>0.803143232263269</v>
+        <v>0.80314323208652205</v>
       </c>
       <c r="C95" s="1">
         <f>[1]aggregated_efficiencies!C95</f>
-        <v>0.803143232263269</v>
+        <v>0.80314323208652205</v>
       </c>
       <c r="D95" s="1">
         <f>[1]aggregated_efficiencies!D95</f>
-        <v>-2.2378639219309899E-2</v>
+        <v>0.16263213615137401</v>
       </c>
       <c r="E95" s="1">
         <f>[1]aggregated_efficiencies!E95</f>
-        <v>-4.2599625567353401E-3</v>
-      </c>
-      <c r="F95" s="6">
-        <f t="shared" si="5"/>
-        <v>-3.9572457856493313E-4</v>
+        <v>2.63307707180673E-2</v>
+      </c>
+      <c r="F95" s="4">
+        <f t="shared" si="7"/>
+        <v>3.0033048313777991E-3</v>
       </c>
       <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I95" s="6">
+        <f t="shared" si="6"/>
+        <v>1.2667577241009691E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>20</v>
       </c>
@@ -4987,23 +5331,27 @@
       </c>
       <c r="C96" s="1">
         <f>[1]aggregated_efficiencies!C96</f>
-        <v>0.64066690653128</v>
+        <v>0.64066690655613001</v>
       </c>
       <c r="D96" s="1">
         <f>[1]aggregated_efficiencies!D96</f>
-        <v>0.140785419676205</v>
+        <v>0.14078541964952199</v>
       </c>
       <c r="E96" s="1">
         <f>[1]aggregated_efficiencies!E96</f>
-        <v>4.84551288300882E-2</v>
-      </c>
-      <c r="F96" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5011863790396876E-3</v>
+        <v>4.1212110004251998E-2</v>
+      </c>
+      <c r="F96" s="4">
+        <f t="shared" si="7"/>
+        <v>4.7006800679068143E-3</v>
       </c>
       <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I96" s="6">
+        <f t="shared" si="6"/>
+        <v>1.9826901093541932E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>24</v>
       </c>
@@ -5021,40 +5369,46 @@
       </c>
       <c r="E97" s="1">
         <f>[1]aggregated_efficiencies!E97</f>
-        <v>3.7416440289628698E-2</v>
-      </c>
-      <c r="F97" s="6">
-        <f t="shared" si="5"/>
-        <v>3.4757594386840042E-3</v>
+        <v>3.1823472361484799E-2</v>
+      </c>
+      <c r="F97" s="4">
+        <f t="shared" si="7"/>
+        <v>3.6298059528080719E-3</v>
       </c>
       <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I97" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5310083344413229E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2">
         <f>SUM(E83:E97)</f>
-        <v>0.99999914632673692</v>
+        <v>0.99999823207425897</v>
       </c>
       <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="6">
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="4">
         <f>[1]aggregated_efficiencies!$E$99</f>
-        <v>2.5653113224192E-2</v>
+        <v>0.120634669433251</v>
       </c>
       <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>6</v>
       </c>
@@ -5072,15 +5426,19 @@
       </c>
       <c r="E100" s="1">
         <f>[1]aggregated_efficiencies!E100</f>
-        <v>2.4509859590833401E-2</v>
-      </c>
-      <c r="F100" s="6">
+        <v>2.07453030512709E-2</v>
+      </c>
+      <c r="F100" s="4">
         <f>E100*$F$99</f>
-        <v>6.287542031926974E-4</v>
+        <v>2.5026027758826785E-3</v>
       </c>
       <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I100" s="6">
+        <f t="shared" si="6"/>
+        <v>1.0555676412146112E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -5094,19 +5452,23 @@
       </c>
       <c r="D101" s="1">
         <f>[1]aggregated_efficiencies!D101</f>
-        <v>3.9060917416995897E-2</v>
+        <v>3.9060917416996202E-2</v>
       </c>
       <c r="E101" s="1">
         <f>[1]aggregated_efficiencies!E101</f>
-        <v>1.9796007164448001E-2</v>
-      </c>
-      <c r="F101" s="6">
-        <f t="shared" ref="F101:F114" si="6">E101*$F$99</f>
-        <v>5.0782921317650055E-4</v>
+        <v>1.67554679907344E-2</v>
+      </c>
+      <c r="F101" s="4">
+        <f t="shared" ref="F101:F114" si="8">E101*$F$99</f>
+        <v>2.0212903422616628E-3</v>
       </c>
       <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I101" s="6">
+        <f t="shared" si="6"/>
+        <v>8.5255586677693389E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>8</v>
       </c>
@@ -5126,15 +5488,19 @@
         <f>[1]aggregated_efficiencies!E102</f>
         <v>0</v>
       </c>
-      <c r="F102" s="6">
-        <f t="shared" si="6"/>
+      <c r="F102" s="4">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I102" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>9</v>
       </c>
@@ -5152,15 +5518,19 @@
       </c>
       <c r="E103" s="1">
         <f>[1]aggregated_efficiencies!E103</f>
-        <v>5.7176476333485195E-19</v>
-      </c>
-      <c r="F103" s="6">
+        <v>1.3215431504015299E-18</v>
+      </c>
+      <c r="F103" s="4">
+        <f t="shared" si="8"/>
+        <v>1.5942392109046567E-19</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="I103" s="6">
         <f t="shared" si="6"/>
-        <v>1.46675462114323E-20</v>
-      </c>
-      <c r="G103" s="2"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.7243085463010865E-19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>10</v>
       </c>
@@ -5180,13 +5550,17 @@
         <f>[1]aggregated_efficiencies!E104</f>
         <v>0</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="2"/>
+      <c r="I104" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G104" s="2"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>11</v>
       </c>
@@ -5196,23 +5570,27 @@
       </c>
       <c r="C105" s="1">
         <f>[1]aggregated_efficiencies!C105</f>
-        <v>0.91570203810300199</v>
+        <v>0.91570215184627202</v>
       </c>
       <c r="D105" s="1">
         <f>[1]aggregated_efficiencies!D105</f>
-        <v>8.3423721233610805E-4</v>
+        <v>8.3423584752550996E-4</v>
       </c>
       <c r="E105" s="1">
         <f>[1]aggregated_efficiencies!E105</f>
-        <v>4.9343029717762799E-4</v>
-      </c>
-      <c r="F105" s="6">
+        <v>4.1764201870545903E-4</v>
+      </c>
+      <c r="F105" s="4">
+        <f t="shared" si="8"/>
+        <v>5.0382106867968684E-5</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="I105" s="6">
         <f t="shared" si="6"/>
-        <v>1.2658023281744398E-5</v>
-      </c>
-      <c r="G105" s="2"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.125056449970841E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>12</v>
       </c>
@@ -5230,15 +5608,19 @@
       </c>
       <c r="E106" s="1">
         <f>[1]aggregated_efficiencies!E106</f>
-        <v>3.60295007056918E-3</v>
-      </c>
-      <c r="F106" s="6">
+        <v>3.0495601500919998E-3</v>
+      </c>
+      <c r="F106" s="4">
+        <f t="shared" si="8"/>
+        <v>3.6788268062316372E-4</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="I106" s="6">
         <f t="shared" si="6"/>
-        <v>9.2426886101421729E-5</v>
-      </c>
-      <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5516847386702719E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>13</v>
       </c>
@@ -5248,23 +5630,27 @@
       </c>
       <c r="C107" s="1">
         <f>[1]aggregated_efficiencies!C107</f>
-        <v>0.71204969148830399</v>
+        <v>0.71204979240187105</v>
       </c>
       <c r="D107" s="1">
         <f>[1]aggregated_efficiencies!D107</f>
-        <v>5.8943044254879499E-2</v>
+        <v>5.8943175365179103E-2</v>
       </c>
       <c r="E107" s="1">
         <f>[1]aggregated_efficiencies!E107</f>
-        <v>1.3026377494349199E-2</v>
-      </c>
-      <c r="F107" s="6">
+        <v>1.1025641659481099E-2</v>
+      </c>
+      <c r="F107" s="4">
+        <f t="shared" si="8"/>
+        <v>1.3300746368809834E-3</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="I107" s="6">
         <f t="shared" si="6"/>
-        <v>3.3416713676360648E-4</v>
-      </c>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.6100942611503708E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>14</v>
       </c>
@@ -5274,49 +5660,54 @@
       </c>
       <c r="C108" s="1">
         <f>[1]aggregated_efficiencies!C108</f>
-        <v>0.66806819213551205</v>
+        <v>0.66806826858240898</v>
       </c>
       <c r="D108" s="1">
         <f>[1]aggregated_efficiencies!D108</f>
-        <v>5.6656944743489403E-2</v>
+        <v>5.66570663962392E-2</v>
       </c>
       <c r="E108" s="1">
         <f>[1]aggregated_efficiencies!E108</f>
-        <v>2.8261144617074099E-2</v>
-      </c>
-      <c r="F108" s="6">
+        <v>2.39204779300052E-2</v>
+      </c>
+      <c r="F108" s="4">
+        <f t="shared" si="8"/>
+        <v>2.8856389477715538E-3</v>
+      </c>
+      <c r="G108" s="2"/>
+      <c r="I108" s="6">
         <f t="shared" si="6"/>
-        <v>7.2498634270706612E-4</v>
-      </c>
-      <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.2171276747752745E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B109" s="1">
         <f>[1]aggregated_efficiencies!B109</f>
-        <v>0.40324073166182201</v>
+        <v>0.403240491663238</v>
       </c>
       <c r="C109" s="1">
         <f>[1]aggregated_efficiencies!C109</f>
-        <v>0.39875444659954901</v>
+        <v>0.37662533762734401</v>
       </c>
       <c r="D109" s="1">
         <f>[1]aggregated_efficiencies!D109</f>
-        <v>0.32043248653946099</v>
+        <v>0.35661854715887098</v>
       </c>
       <c r="E109" s="1">
         <f>[1]aggregated_efficiencies!E109</f>
-        <v>0.80589142928641999</v>
-      </c>
-      <c r="F109" s="6">
-        <f t="shared" si="6"/>
-        <v>2.0673624081890454E-2</v>
+        <v>0.80183877748053201</v>
+      </c>
+      <c r="F109" s="4">
+        <f t="shared" si="8"/>
+        <v>9.672955586012609E-2</v>
       </c>
       <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>16</v>
       </c>
@@ -5330,21 +5721,25 @@
       </c>
       <c r="D110" s="1">
         <f>[1]aggregated_efficiencies!D110</f>
-        <v>-1.09207546127931E-3</v>
+        <v>-1.0920750615002099E-3</v>
       </c>
       <c r="E110" s="1">
         <f>[1]aggregated_efficiencies!E110</f>
-        <v>-5.1973016960248997E-4</v>
-      </c>
-      <c r="F110" s="6">
-        <f t="shared" si="6"/>
-        <v>-1.3332696886841186E-5</v>
+        <v>-4.3990295999949498E-4</v>
+      </c>
+      <c r="F110" s="4">
+        <f t="shared" si="8"/>
+        <v>-5.3067548162247715E-5</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I110" s="6">
+        <f t="shared" si="6"/>
+        <v>-2.2383251220885178E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>17</v>
       </c>
@@ -5358,19 +5753,23 @@
       </c>
       <c r="D111" s="1">
         <f>[1]aggregated_efficiencies!D111</f>
-        <v>1.2392266217734401E-2</v>
+        <v>1.23922901217261E-2</v>
       </c>
       <c r="E111" s="1">
         <f>[1]aggregated_efficiencies!E111</f>
-        <v>5.1906355000757498E-3</v>
-      </c>
-      <c r="F111" s="6">
+        <v>4.3933959065026902E-3</v>
+      </c>
+      <c r="F111" s="4">
+        <f t="shared" si="8"/>
+        <v>5.2999586287035016E-4</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="I111" s="6">
         <f t="shared" si="6"/>
-        <v>1.3315596018895366E-4</v>
-      </c>
-      <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.235458572230821E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>18</v>
       </c>
@@ -5384,19 +5783,23 @@
       </c>
       <c r="D112" s="1">
         <f>[1]aggregated_efficiencies!D112</f>
-        <v>9.1009308399404298E-2</v>
+        <v>0.28086731596755699</v>
       </c>
       <c r="E112" s="1">
         <f>[1]aggregated_efficiencies!E112</f>
-        <v>1.9179913605747001E-2</v>
-      </c>
-      <c r="F112" s="6">
+        <v>5.0100377325882801E-2</v>
+      </c>
+      <c r="F112" s="4">
+        <f t="shared" si="8"/>
+        <v>6.0438424571890156E-3</v>
+      </c>
+      <c r="G112" s="2"/>
+      <c r="I112" s="6">
         <f t="shared" si="6"/>
-        <v>4.9202449535844846E-4</v>
-      </c>
-      <c r="G112" s="2"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.5492197914459631E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>20</v>
       </c>
@@ -5414,15 +5817,19 @@
       </c>
       <c r="E113" s="1">
         <f>[1]aggregated_efficiencies!E113</f>
-        <v>4.7933135854168599E-2</v>
-      </c>
-      <c r="F113" s="6">
+        <v>4.0570914974329998E-2</v>
+      </c>
+      <c r="F113" s="4">
+        <f t="shared" si="8"/>
+        <v>4.8942589165328326E-3</v>
+      </c>
+      <c r="G113" s="2"/>
+      <c r="I113" s="6">
         <f t="shared" si="6"/>
-        <v>1.2296341612575642E-3</v>
-      </c>
-      <c r="G113" s="2"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.0643393309575441E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>24</v>
       </c>
@@ -5440,40 +5847,46 @@
       </c>
       <c r="E114" s="1">
         <f>[1]aggregated_efficiencies!E114</f>
-        <v>3.2634846688737902E-2</v>
-      </c>
-      <c r="F114" s="6">
+        <v>2.76223444724603E-2</v>
+      </c>
+      <c r="F114" s="4">
+        <f t="shared" si="8"/>
+        <v>3.3322123944066365E-3</v>
+      </c>
+      <c r="G114" s="2"/>
+      <c r="I114" s="6">
         <f t="shared" si="6"/>
-        <v>8.3718541716034083E-4</v>
-      </c>
-      <c r="G114" s="2"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.4054869638467943E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2">
         <f>SUM(E100:E114)</f>
-        <v>0.99999999999999822</v>
+        <v>0.99999999999999722</v>
       </c>
       <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="6">
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="4">
         <f>[1]aggregated_efficiencies!$E$116</f>
-        <v>8.4496694803373004E-2</v>
+        <v>9.7017821920425296E-2</v>
       </c>
       <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>6</v>
       </c>
@@ -5491,15 +5904,19 @@
       </c>
       <c r="E117" s="1">
         <f>[1]aggregated_efficiencies!E117</f>
-        <v>2.0984595400151101E-2</v>
-      </c>
-      <c r="F117" s="6">
+        <v>1.7849105017611101E-2</v>
+      </c>
+      <c r="F117" s="4">
         <f>E117*$F$116</f>
-        <v>1.7731289530988326E-3</v>
+        <v>1.7316812920375633E-3</v>
       </c>
       <c r="G117" s="2"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I117" s="6">
+        <f t="shared" si="6"/>
+        <v>7.3040226534826355E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -5509,23 +5926,27 @@
       </c>
       <c r="C118" s="1">
         <f>[1]aggregated_efficiencies!C118</f>
-        <v>0.94207250612020799</v>
+        <v>0.94207460930869402</v>
       </c>
       <c r="D118" s="1">
         <f>[1]aggregated_efficiencies!D118</f>
-        <v>2.34123776203801E-2</v>
+        <v>2.3411410404235999E-2</v>
       </c>
       <c r="E118" s="1">
         <f>[1]aggregated_efficiencies!E118</f>
-        <v>1.0635962973105701E-2</v>
-      </c>
-      <c r="F118" s="6">
-        <f t="shared" ref="F118:F131" si="7">E118*$F$116</f>
-        <v>8.9870371727848817E-4</v>
+        <v>9.0461218959829292E-3</v>
+      </c>
+      <c r="F118" s="4">
+        <f t="shared" ref="F118:F131" si="9">E118*$F$116</f>
+        <v>8.7763504317493182E-4</v>
       </c>
       <c r="G118" s="2"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I118" s="6">
+        <f t="shared" si="6"/>
+        <v>3.7017586702096585E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>8</v>
       </c>
@@ -5545,15 +5966,19 @@
         <f>[1]aggregated_efficiencies!E119</f>
         <v>0</v>
       </c>
-      <c r="F119" s="6">
-        <f t="shared" si="7"/>
+      <c r="F119" s="4">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I119" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>9</v>
       </c>
@@ -5571,15 +5996,19 @@
       </c>
       <c r="E120" s="1">
         <f>[1]aggregated_efficiencies!E120</f>
-        <v>1.03266890045403E-19</v>
-      </c>
-      <c r="F120" s="6">
-        <f t="shared" si="7"/>
-        <v>8.7257108914598951E-21</v>
+        <v>-1.8583672266412199E-19</v>
+      </c>
+      <c r="F120" s="4">
+        <f t="shared" si="9"/>
+        <v>-1.8029474065703252E-20</v>
       </c>
       <c r="G120" s="2"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I120" s="6">
+        <f t="shared" si="6"/>
+        <v>-7.6046145218399507E-20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>10</v>
       </c>
@@ -5599,13 +6028,17 @@
         <f>[1]aggregated_efficiencies!E121</f>
         <v>0</v>
       </c>
-      <c r="F121" s="6">
-        <f t="shared" si="7"/>
+      <c r="F121" s="4">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G121" s="2"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I121" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>11</v>
       </c>
@@ -5615,23 +6048,27 @@
       </c>
       <c r="C122" s="1">
         <f>[1]aggregated_efficiencies!C122</f>
-        <v>0.91604392819532698</v>
+        <v>0.91642822438375204</v>
       </c>
       <c r="D122" s="1">
         <f>[1]aggregated_efficiencies!D122</f>
-        <v>2.4880279292993602E-4</v>
+        <v>2.4763623373313899E-4</v>
       </c>
       <c r="E122" s="1">
         <f>[1]aggregated_efficiencies!E122</f>
-        <v>1.68600112599663E-4</v>
-      </c>
-      <c r="F122" s="6">
-        <f t="shared" si="7"/>
-        <v>1.4246152258148047E-5</v>
+        <v>1.42751678764933E-4</v>
+      </c>
+      <c r="F122" s="4">
+        <f t="shared" si="9"/>
+        <v>1.3849456949258028E-5</v>
       </c>
       <c r="G122" s="2"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I122" s="6">
+        <f t="shared" si="6"/>
+        <v>5.8415337603369382E-5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>12</v>
       </c>
@@ -5649,15 +6086,19 @@
       </c>
       <c r="E123" s="1">
         <f>[1]aggregated_efficiencies!E123</f>
-        <v>2.17681848564669E-3</v>
-      </c>
-      <c r="F123" s="6">
-        <f t="shared" si="7"/>
-        <v>1.8393396722402895E-4</v>
+        <v>1.8515611577769599E-3</v>
+      </c>
+      <c r="F123" s="4">
+        <f t="shared" si="9"/>
+        <v>1.7963443067998158E-4</v>
       </c>
       <c r="G123" s="2"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I123" s="6">
+        <f t="shared" si="6"/>
+        <v>7.5767634440874977E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>13</v>
       </c>
@@ -5667,23 +6108,27 @@
       </c>
       <c r="C124" s="1">
         <f>[1]aggregated_efficiencies!C124</f>
-        <v>0.65761544263221205</v>
+        <v>0.65757075321401104</v>
       </c>
       <c r="D124" s="1">
         <f>[1]aggregated_efficiencies!D124</f>
-        <v>6.1432657968954099E-2</v>
+        <v>6.1506471042371801E-2</v>
       </c>
       <c r="E124" s="1">
         <f>[1]aggregated_efficiencies!E124</f>
-        <v>1.7266448205721398E-2</v>
-      </c>
-      <c r="F124" s="6">
-        <f t="shared" si="7"/>
-        <v>1.4589578043770885E-3</v>
+        <v>1.4707608554170901E-2</v>
+      </c>
+      <c r="F124" s="4">
+        <f t="shared" si="9"/>
+        <v>1.4269001475838762E-3</v>
       </c>
       <c r="G124" s="2"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I124" s="6">
+        <f t="shared" si="6"/>
+        <v>6.0184925772035613E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>14</v>
       </c>
@@ -5693,49 +6138,54 @@
       </c>
       <c r="C125" s="1">
         <f>[1]aggregated_efficiencies!C125</f>
-        <v>0.67506719570913098</v>
+        <v>0.67505779222699502</v>
       </c>
       <c r="D125" s="1">
         <f>[1]aggregated_efficiencies!D125</f>
-        <v>4.7593485592217898E-2</v>
+        <v>4.7646000507946797E-2</v>
       </c>
       <c r="E125" s="1">
         <f>[1]aggregated_efficiencies!E125</f>
-        <v>2.9305143378696E-2</v>
-      </c>
-      <c r="F125" s="6">
-        <f t="shared" si="7"/>
-        <v>2.4761877562387629E-3</v>
+        <v>2.4958513576011299E-2</v>
+      </c>
+      <c r="F125" s="4">
+        <f t="shared" si="9"/>
+        <v>2.4214206255159815E-3</v>
       </c>
       <c r="G125" s="2"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I125" s="6">
+        <f t="shared" si="6"/>
+        <v>1.0213259901635052E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B126" s="1">
         <f>[1]aggregated_efficiencies!B126</f>
-        <v>0.38639998873579201</v>
+        <v>0.38628359496653297</v>
       </c>
       <c r="C126" s="1">
         <f>[1]aggregated_efficiencies!C126</f>
-        <v>0.388549658447847</v>
+        <v>0.36432361036399802</v>
       </c>
       <c r="D126" s="1">
         <f>[1]aggregated_efficiencies!D126</f>
-        <v>0.32799634336772299</v>
+        <v>0.36752581573180698</v>
       </c>
       <c r="E126" s="1">
         <f>[1]aggregated_efficiencies!E126</f>
-        <v>0.81390180237495302</v>
-      </c>
-      <c r="F126" s="6">
-        <f t="shared" si="7"/>
-        <v>6.877201219519162E-2</v>
+        <v>0.81324637945052702</v>
+      </c>
+      <c r="F126" s="4">
+        <f t="shared" si="9"/>
+        <v>7.889939241896185E-2</v>
       </c>
       <c r="G126" s="2"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>16</v>
       </c>
@@ -5749,21 +6199,25 @@
       </c>
       <c r="D127" s="1">
         <f>[1]aggregated_efficiencies!D127</f>
-        <v>-5.5403240168372305E-4</v>
+        <v>-5.5396029086351897E-4</v>
       </c>
       <c r="E127" s="1">
         <f>[1]aggregated_efficiencies!E127</f>
-        <v>-3.25922298537432E-4</v>
-      </c>
-      <c r="F127" s="6">
-        <f t="shared" si="7"/>
-        <v>-2.7539356989131214E-5</v>
+        <v>-2.77223421431034E-4</v>
+      </c>
+      <c r="F127" s="4">
+        <f t="shared" si="9"/>
+        <v>-2.689561253256707E-5</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I127" s="6">
+        <f t="shared" si="6"/>
+        <v>-1.1344244701403178E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>17</v>
       </c>
@@ -5777,45 +6231,53 @@
       </c>
       <c r="D128" s="1">
         <f>[1]aggregated_efficiencies!D128</f>
-        <v>9.8679355410668992E-3</v>
+        <v>9.8804923473601002E-3</v>
       </c>
       <c r="E128" s="1">
         <f>[1]aggregated_efficiencies!E128</f>
-        <v>5.2377818082094702E-3</v>
-      </c>
-      <c r="F128" s="6">
-        <f t="shared" si="7"/>
-        <v>4.4257525089493478E-4</v>
+        <v>4.4608851039574298E-3</v>
+      </c>
+      <c r="F128" s="4">
+        <f t="shared" si="9"/>
+        <v>4.3278535662321982E-4</v>
       </c>
       <c r="G128" s="2"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I128" s="6">
+        <f t="shared" si="6"/>
+        <v>1.8254363914459782E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B129" s="1">
         <f>[1]aggregated_efficiencies!B129</f>
-        <v>0.64824717444074997</v>
+        <v>0.64826730756557804</v>
       </c>
       <c r="C129" s="1">
         <f>[1]aggregated_efficiencies!C129</f>
-        <v>0.64824717444074997</v>
+        <v>0.64826730756557804</v>
       </c>
       <c r="D129" s="1">
         <f>[1]aggregated_efficiencies!D129</f>
-        <v>0.130513123469402</v>
+        <v>0.31664562468954499</v>
       </c>
       <c r="E129" s="1">
         <f>[1]aggregated_efficiencies!E129</f>
-        <v>2.2575147133629101E-2</v>
-      </c>
-      <c r="F129" s="6">
-        <f t="shared" si="7"/>
-        <v>1.907525317491499E-3</v>
+        <v>4.6585660162051103E-2</v>
+      </c>
+      <c r="F129" s="4">
+        <f t="shared" si="9"/>
+        <v>4.519639281647325E-3</v>
       </c>
       <c r="G129" s="2"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I129" s="6">
+        <f t="shared" si="6"/>
+        <v>1.9063292911064126E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>20</v>
       </c>
@@ -5825,23 +6287,27 @@
       </c>
       <c r="C130" s="1">
         <f>[1]aggregated_efficiencies!C130</f>
-        <v>0.67201488353864802</v>
+        <v>0.67201570796354704</v>
       </c>
       <c r="D130" s="1">
         <f>[1]aggregated_efficiencies!D130</f>
-        <v>0.146130848142312</v>
+        <v>0.14613043405767501</v>
       </c>
       <c r="E130" s="1">
         <f>[1]aggregated_efficiencies!E130</f>
-        <v>4.1722149695316499E-2</v>
-      </c>
-      <c r="F130" s="6">
-        <f t="shared" si="7"/>
-        <v>3.5253837493458002E-3</v>
+        <v>3.5487102160887803E-2</v>
+      </c>
+      <c r="F130" s="4">
+        <f t="shared" si="9"/>
+        <v>3.4428813579169527E-3</v>
       </c>
       <c r="G130" s="2"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I130" s="6">
+        <f t="shared" si="6"/>
+        <v>1.4521657967379023E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>24</v>
       </c>
@@ -5859,40 +6325,49 @@
       </c>
       <c r="E131" s="1">
         <f>[1]aggregated_efficiencies!E131</f>
-        <v>3.7552593293394602E-2</v>
-      </c>
-      <c r="F131" s="6">
-        <f t="shared" si="7"/>
-        <v>3.1730700145871558E-3</v>
+        <v>3.1941534663690097E-2</v>
+      </c>
+      <c r="F131" s="4">
+        <f t="shared" si="9"/>
+        <v>3.0988981218669776E-3</v>
       </c>
       <c r="G131" s="2"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I131" s="6">
+        <f t="shared" si="6"/>
+        <v>1.3070778200946353E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2">
         <f>SUM(E117:E131)</f>
-        <v>1.0012011205628857</v>
+        <v>1.0000000000000007</v>
       </c>
       <c r="G132" s="2"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
+      <c r="I132" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A133" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="6">
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="4">
         <f>[1]aggregated_efficiencies!$E$133</f>
-        <v>5.55775593248896E-2</v>
+        <v>1.57433004180507E-2</v>
       </c>
       <c r="G133" s="2"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>29</v>
       </c>
@@ -5902,23 +6377,31 @@
       </c>
       <c r="C134" s="1">
         <f>[1]aggregated_efficiencies!C134</f>
-        <v>0.13282477634763201</v>
+        <v>0.13281933632898801</v>
       </c>
       <c r="D134" s="1">
         <f>[1]aggregated_efficiencies!D134</f>
-        <v>0.29640650242063599</v>
+        <v>0.29642309007932099</v>
       </c>
       <c r="E134" s="1">
         <f>[1]aggregated_efficiencies!E134</f>
-        <v>0.26683350444433301</v>
-      </c>
-      <c r="F134" s="6">
+        <v>0.68299294584328996</v>
+      </c>
+      <c r="F134" s="4">
         <f>E134*$F$133</f>
-        <v>1.482995492312311E-2</v>
+        <v>1.0752563129820345E-2</v>
       </c>
       <c r="G134" s="2"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I134" s="6">
+        <f t="shared" ref="I134:I166" si="10">F134/$I$2</f>
+        <v>4.5353013308124565E-2</v>
+      </c>
+      <c r="J134" s="10">
+        <f>SUM(I134:I135)</f>
+        <v>8.5169611840308065E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>30</v>
       </c>
@@ -5928,23 +6411,28 @@
       </c>
       <c r="C135" s="1">
         <f>[1]aggregated_efficiencies!C135</f>
-        <v>0.142815921236156</v>
+        <v>0.14280373110564201</v>
       </c>
       <c r="D135" s="1">
         <f>[1]aggregated_efficiencies!D135</f>
-        <v>0.29203074908424398</v>
+        <v>0.292081754149498</v>
       </c>
       <c r="E135" s="1">
         <f>[1]aggregated_efficiencies!E135</f>
-        <v>0.23422249197041001</v>
-      </c>
-      <c r="F135" s="6">
-        <f t="shared" ref="F135:F145" si="8">E135*$F$133</f>
-        <v>1.301751444270894E-2</v>
+        <v>0.59961740006554298</v>
+      </c>
+      <c r="F135" s="4">
+        <f t="shared" ref="F135:F145" si="11">E135*$F$133</f>
+        <v>9.439956865122336E-3</v>
       </c>
       <c r="G135" s="2"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I135" s="6">
+        <f t="shared" si="10"/>
+        <v>3.98165985321835E-2</v>
+      </c>
+      <c r="J135" s="9"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>31</v>
       </c>
@@ -5958,19 +6446,27 @@
       </c>
       <c r="D136" s="1">
         <f>[1]aggregated_efficiencies!D136</f>
-        <v>3.0189119328172199E-4</v>
+        <v>3.0190583568312501E-4</v>
       </c>
       <c r="E136" s="1">
         <f>[1]aggregated_efficiencies!E136</f>
-        <v>3.8419882375851099E-4</v>
-      </c>
-      <c r="F136" s="6">
-        <f t="shared" si="8"/>
-        <v>2.1352832919991447E-5</v>
+        <v>9.8337827241992606E-4</v>
+      </c>
+      <c r="F136" s="4">
+        <f t="shared" si="11"/>
+        <v>1.5481619567290595E-5</v>
       </c>
       <c r="G136" s="2"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I136" s="6">
+        <f t="shared" si="10"/>
+        <v>6.5299602503090211E-5</v>
+      </c>
+      <c r="J136" s="10">
+        <f>SUM(I136:I137)</f>
+        <v>1.5037076230704733E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>32</v>
       </c>
@@ -5984,19 +6480,24 @@
       </c>
       <c r="D137" s="1">
         <f>[1]aggregated_efficiencies!D137</f>
-        <v>3.6048461405457899E-4</v>
+        <v>3.6080541658245398E-4</v>
       </c>
       <c r="E137" s="1">
         <f>[1]aggregated_efficiencies!E137</f>
-        <v>5.0009385162636498E-4</v>
-      </c>
-      <c r="F137" s="6">
-        <f t="shared" si="8"/>
-        <v>2.7793995706776836E-5</v>
+        <v>1.28112770911302E-3</v>
+      </c>
+      <c r="F137" s="4">
+        <f t="shared" si="11"/>
+        <v>2.0169178398455343E-5</v>
       </c>
       <c r="G137" s="2"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I137" s="6">
+        <f t="shared" si="10"/>
+        <v>8.5071159803957108E-5</v>
+      </c>
+      <c r="J137" s="9"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>33</v>
       </c>
@@ -6010,19 +6511,27 @@
       </c>
       <c r="D138" s="1">
         <f>[1]aggregated_efficiencies!D138</f>
-        <v>9.2039461849201497E-3</v>
+        <v>-0.118360672528166</v>
       </c>
       <c r="E138" s="1">
         <f>[1]aggregated_efficiencies!E138</f>
-        <v>8.3626214063361008E-3</v>
-      </c>
-      <c r="F138" s="6">
-        <f t="shared" si="8"/>
-        <v>4.6477408732223635E-4</v>
+        <v>-0.27525060318371902</v>
+      </c>
+      <c r="F138" s="4">
+        <f t="shared" si="11"/>
+        <v>-4.333352936170951E-3</v>
       </c>
       <c r="G138" s="2"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I138" s="6">
+        <f t="shared" si="10"/>
+        <v>-1.8277559593016354E-2</v>
+      </c>
+      <c r="J138" s="10">
+        <f>SUM(I138:I139)</f>
+        <v>-3.3264746450482816E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>34</v>
       </c>
@@ -6036,19 +6545,24 @@
       </c>
       <c r="D139" s="1">
         <f>[1]aggregated_efficiencies!D139</f>
-        <v>6.9473102792525498E-3</v>
+        <v>-0.109176823115789</v>
       </c>
       <c r="E139" s="1">
         <f>[1]aggregated_efficiencies!E139</f>
-        <v>5.6110536139733101E-3</v>
-      </c>
-      <c r="F139" s="6">
-        <f t="shared" si="8"/>
-        <v>3.1184866510573783E-4</v>
+        <v>-0.22569928997090799</v>
+      </c>
+      <c r="F139" s="4">
+        <f t="shared" si="11"/>
+        <v>-3.553251726152742E-3</v>
       </c>
       <c r="G139" s="2"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I139" s="6">
+        <f t="shared" si="10"/>
+        <v>-1.498718685746646E-2</v>
+      </c>
+      <c r="J139" s="9"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>35</v>
       </c>
@@ -6062,21 +6576,29 @@
       </c>
       <c r="D140" s="3">
         <f>[1]aggregated_efficiencies!D140</f>
-        <v>-8.4178414337561201E-3</v>
+        <v>-8.4177141174461793E-3</v>
       </c>
       <c r="E140" s="3">
         <f>[1]aggregated_efficiencies!E140</f>
-        <v>-4.9877729806299302E-3</v>
-      </c>
-      <c r="F140" s="6">
-        <f t="shared" si="8"/>
-        <v>-2.7720824873004137E-4</v>
+        <v>-1.27655772368241E-2</v>
+      </c>
+      <c r="F140" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.0097231744915136E-4</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I140" s="6">
+        <f t="shared" si="10"/>
+        <v>-8.4767697504216247E-4</v>
+      </c>
+      <c r="J140" s="10">
+        <f>SUM(I140:I141)</f>
+        <v>-1.6937947724295437E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>36</v>
       </c>
@@ -6094,17 +6616,22 @@
       </c>
       <c r="E141" s="3">
         <f>[1]aggregated_efficiencies!E141</f>
-        <v>-4.9785987026826801E-3</v>
-      </c>
-      <c r="F141" s="6">
-        <f t="shared" si="8"/>
-        <v>-2.7669836475316504E-4</v>
+        <v>-1.27420968269934E-2</v>
+      </c>
+      <c r="F141" s="4">
+        <f t="shared" si="11"/>
+        <v>-2.0060265830324769E-4</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I141" s="6">
+        <f t="shared" si="10"/>
+        <v>-8.4611779738738135E-4</v>
+      </c>
+      <c r="J141" s="9"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>37</v>
       </c>
@@ -6118,19 +6645,27 @@
       </c>
       <c r="D142" s="1">
         <f>[1]aggregated_efficiencies!D142</f>
-        <v>0.31330381223083698</v>
+        <v>6.2822746828627596E-2</v>
       </c>
       <c r="E142" s="1">
         <f>[1]aggregated_efficiencies!E142</f>
-        <v>0.34772622639614598</v>
-      </c>
-      <c r="F142" s="6">
-        <f t="shared" si="8"/>
-        <v>1.9325774976351795E-2</v>
+        <v>0.13075964588793501</v>
+      </c>
+      <c r="F142" s="4">
+        <f t="shared" si="11"/>
+        <v>2.0585883877716885E-3</v>
       </c>
       <c r="G142" s="2"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I142" s="6">
+        <f t="shared" si="10"/>
+        <v>8.6828773213740718E-3</v>
+      </c>
+      <c r="J142" s="10">
+        <f>SUM(I142:I143)</f>
+        <v>1.6044159167855041E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>38</v>
       </c>
@@ -6144,19 +6679,24 @@
       </c>
       <c r="D143" s="1">
         <f>[1]aggregated_efficiencies!D143</f>
-        <v>0.28298923100801798</v>
+        <v>5.6333764323174398E-2</v>
       </c>
       <c r="E143" s="1">
         <f>[1]aggregated_efficiencies!E143</f>
-        <v>0.28633099990056199</v>
-      </c>
-      <c r="F143" s="6">
-        <f t="shared" si="8"/>
-        <v>1.5913578133528443E-2</v>
+        <v>0.11085710092409901</v>
+      </c>
+      <c r="F143" s="4">
+        <f t="shared" si="11"/>
+        <v>1.7452566433222565E-3</v>
       </c>
       <c r="G143" s="2"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I143" s="6">
+        <f t="shared" si="10"/>
+        <v>7.3612818464809703E-3</v>
+      </c>
+      <c r="J143" s="9"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>39</v>
       </c>
@@ -6176,15 +6716,23 @@
         <f>[1]aggregated_efficiencies!E144</f>
         <v>0</v>
       </c>
-      <c r="F144" s="6">
-        <f t="shared" si="8"/>
+      <c r="F144" s="4">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I144" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J144" s="10">
+        <f>SUM(I144:I145)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>40</v>
       </c>
@@ -6204,28 +6752,44 @@
         <f>[1]aggregated_efficiencies!E145</f>
         <v>0</v>
       </c>
-      <c r="F145" s="6">
-        <f t="shared" si="8"/>
+      <c r="F145" s="4">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
+      <c r="I145" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J145" s="9"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E146" s="2">
+        <f>SUM(E134:E145)</f>
+        <v>1.0000340314839553</v>
+      </c>
+      <c r="I146" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A147" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="6">
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="4">
         <f>[1]aggregated_efficiencies!$E$147</f>
-        <v>3.4185665746308998E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.3744207319153199E-2</v>
+      </c>
+      <c r="I147" s="6"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>42</v>
       </c>
@@ -6235,22 +6799,30 @@
       </c>
       <c r="C148" s="1">
         <f>[1]aggregated_efficiencies!C148</f>
-        <v>0.91459273245951</v>
+        <v>0.91459513616318999</v>
       </c>
       <c r="D148" s="1">
         <f>[1]aggregated_efficiencies!D148</f>
-        <v>3.77484898001723E-3</v>
+        <v>3.7745220534618402E-3</v>
       </c>
       <c r="E148" s="1">
         <f>[1]aggregated_efficiencies!E148</f>
-        <v>1.5605510530412099E-2</v>
-      </c>
-      <c r="F148" s="6">
+        <v>1.56049277841721E-2</v>
+      </c>
+      <c r="F148" s="4">
         <f>E148*$F$147</f>
-        <v>5.334847667931732E-4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.3867447403295923E-4</v>
+      </c>
+      <c r="I148" s="6">
+        <f t="shared" si="10"/>
+        <v>3.537427692613481E-3</v>
+      </c>
+      <c r="J148" s="10">
+        <f>SUM(I148:I149)</f>
+        <v>8.7403223501491892E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>43</v>
       </c>
@@ -6260,22 +6832,27 @@
       </c>
       <c r="C149" s="1">
         <f>[1]aggregated_efficiencies!C149</f>
-        <v>0.897559886041705</v>
+        <v>0.89755165424857197</v>
       </c>
       <c r="D149" s="1">
         <f>[1]aggregated_efficiencies!D149</f>
-        <v>5.9377048063590197E-3</v>
+        <v>5.9394622075293804E-3</v>
       </c>
       <c r="E149" s="1">
         <f>[1]aggregated_efficiencies!E149</f>
-        <v>2.2943063205842398E-2</v>
-      </c>
-      <c r="F149" s="6">
-        <f t="shared" ref="F149:F155" si="9">E149*$F$147</f>
-        <v>7.8432388995136875E-4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.29519307402479E-2</v>
+      </c>
+      <c r="F149" s="4">
+        <f t="shared" ref="F149:F155" si="12">E149*$F$147</f>
+        <v>1.2335333240787285E-3</v>
+      </c>
+      <c r="I149" s="6">
+        <f t="shared" si="10"/>
+        <v>5.2028946575357077E-3</v>
+      </c>
+      <c r="J149" s="9"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>44</v>
       </c>
@@ -6293,17 +6870,21 @@
       </c>
       <c r="E150" s="1">
         <f>[1]aggregated_efficiencies!E150</f>
-        <v>2.67961289576596E-17</v>
-      </c>
-      <c r="F150" s="6">
-        <f t="shared" si="9"/>
-        <v>9.1604350784154233E-19</v>
+        <v>2.6796891470095001E-17</v>
+      </c>
+      <c r="F150" s="4">
+        <f t="shared" si="12"/>
+        <v>1.4401776906776337E-18</v>
       </c>
       <c r="G150" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I150" s="6">
+        <f t="shared" si="10"/>
+        <v>6.0744956512018304E-18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>45</v>
       </c>
@@ -6321,17 +6902,21 @@
       </c>
       <c r="E151" s="1">
         <f>[1]aggregated_efficiencies!E151</f>
-        <v>1.9244903063525501E-18</v>
-      </c>
-      <c r="F151" s="6">
-        <f t="shared" si="9"/>
-        <v>6.5789982344980086E-20</v>
+        <v>1.92454506977725E-18</v>
+      </c>
+      <c r="F151" s="4">
+        <f t="shared" si="12"/>
+        <v>1.0343314922516269E-19</v>
       </c>
       <c r="G151" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I151" s="6">
+        <f t="shared" si="10"/>
+        <v>4.362685377126835E-19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>46</v>
       </c>
@@ -6349,14 +6934,18 @@
       </c>
       <c r="E152" s="1">
         <f>[1]aggregated_efficiencies!E152</f>
-        <v>0.45668853817069299</v>
-      </c>
-      <c r="F152" s="6">
-        <f t="shared" si="9"/>
-        <v>1.5612201716073788E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.45670153373023797</v>
+      </c>
+      <c r="F152" s="4">
+        <f t="shared" si="12"/>
+        <v>2.4545061911773147E-2</v>
+      </c>
+      <c r="I152" s="6">
+        <f t="shared" si="10"/>
+        <v>0.10352810823738808</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>47</v>
       </c>
@@ -6374,14 +6963,18 @@
       </c>
       <c r="E153" s="1">
         <f>[1]aggregated_efficiencies!E153</f>
-        <v>6.1513871807987999E-3</v>
-      </c>
-      <c r="F153" s="6">
-        <f t="shared" si="9"/>
-        <v>2.1028926603891782E-4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.1515622250832803E-3</v>
+      </c>
+      <c r="F153" s="4">
+        <f t="shared" si="12"/>
+        <v>3.3061083556154715E-4</v>
+      </c>
+      <c r="I153" s="6">
+        <f t="shared" si="10"/>
+        <v>1.3944765953941955E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>48</v>
       </c>
@@ -6391,22 +6984,26 @@
       </c>
       <c r="C154" s="1">
         <f>[1]aggregated_efficiencies!C154</f>
-        <v>0.62469144627420903</v>
+        <v>0.62469485707720795</v>
       </c>
       <c r="D154" s="1">
         <f>[1]aggregated_efficiencies!D154</f>
-        <v>0.107169376933336</v>
+        <v>0.10716235011825199</v>
       </c>
       <c r="E154" s="1">
         <f>[1]aggregated_efficiencies!E154</f>
-        <v>0.46292875024337399</v>
-      </c>
-      <c r="F154" s="6">
-        <f t="shared" si="9"/>
-        <v>1.5825527520176543E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.462906279460642</v>
+      </c>
+      <c r="F154" s="4">
+        <f t="shared" si="12"/>
+        <v>2.4878531052670613E-2</v>
+      </c>
+      <c r="I154" s="6">
+        <f t="shared" si="10"/>
+        <v>0.10493464081965476</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>49</v>
       </c>
@@ -6424,62 +7021,72 @@
       </c>
       <c r="E155" s="1">
         <f>[1]aggregated_efficiencies!E155</f>
-        <v>3.5682750668882497E-2</v>
-      </c>
-      <c r="F155" s="6">
-        <f t="shared" si="9"/>
-        <v>1.2198385872753009E-3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.5683766059618899E-2</v>
+      </c>
+      <c r="F155" s="4">
+        <f t="shared" si="12"/>
+        <v>1.9177957210363206E-3</v>
+      </c>
+      <c r="I155" s="6">
+        <f t="shared" si="10"/>
+        <v>8.0890308485803645E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2">
         <f>SUM(E148:E155)</f>
-        <v>1.0000000000000029</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
+        <v>1.0000000000000022</v>
+      </c>
+      <c r="I156" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A157" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="6">
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="4">
         <f>[1]aggregated_efficiencies!$E$157</f>
-        <v>3.2590431847403199E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.8742421370945897E-2</v>
+      </c>
+      <c r="I157" s="6"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B158" s="3">
         <f>[1]aggregated_efficiencies!B158</f>
-        <v>1.09660818221252</v>
+        <v>1.09687801300528</v>
       </c>
       <c r="C158" s="3">
         <f>[1]aggregated_efficiencies!C158</f>
-        <v>0.61310155884717299</v>
+        <v>0.61622483226053404</v>
       </c>
       <c r="D158" s="3">
         <f>[1]aggregated_efficiencies!D158</f>
-        <v>0.32491143794266503</v>
+        <v>0.32336402166865102</v>
       </c>
       <c r="E158" s="3">
         <f>[1]aggregated_efficiencies!E158</f>
-        <v>0.82493278150325999</v>
-      </c>
-      <c r="F158" s="6">
+        <v>0.82365870130030505</v>
+      </c>
+      <c r="F158" s="4">
         <f>E158*$F$157</f>
-        <v>2.6884915594270749E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.6620293510631636E-2</v>
+      </c>
+      <c r="I158" s="6"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>64</v>
       </c>
@@ -6493,18 +7100,22 @@
       </c>
       <c r="D159" s="3">
         <f>[1]aggregated_efficiencies!D159</f>
-        <v>0.13017218557363699</v>
+        <v>0.13027532262960401</v>
       </c>
       <c r="E159" s="3">
         <f>[1]aggregated_efficiencies!E159</f>
-        <v>3.0428353408020099E-2</v>
-      </c>
-      <c r="F159" s="6">
-        <f t="shared" ref="F159:F166" si="10">E159*$F$157</f>
-        <v>9.91673177972778E-4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.0675155734300501E-2</v>
+      </c>
+      <c r="F159" s="4">
+        <f t="shared" ref="F159:F166" si="13">E159*$F$157</f>
+        <v>2.1086844811066723E-3</v>
+      </c>
+      <c r="I159" s="6">
+        <f t="shared" si="10"/>
+        <v>8.8941765958145593E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>52</v>
       </c>
@@ -6518,21 +7129,25 @@
       </c>
       <c r="D160" s="1">
         <f>[1]aggregated_efficiencies!D160</f>
-        <v>0</v>
+        <v>-4.4408920985006202E-16</v>
       </c>
       <c r="E160" s="1">
         <f>[1]aggregated_efficiencies!E160</f>
-        <v>-1.6637170746339901E-18</v>
-      </c>
-      <c r="F160" s="6">
-        <f t="shared" si="10"/>
-        <v>-5.4221257934220076E-20</v>
+        <v>-2.3858391275587701E-18</v>
+      </c>
+      <c r="F160" s="4">
+        <f t="shared" si="13"/>
+        <v>-1.640083586299349E-19</v>
       </c>
       <c r="G160" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I160" s="6">
+        <f t="shared" si="10"/>
+        <v>-6.9176745877067766E-19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>53</v>
       </c>
@@ -6550,14 +7165,18 @@
       </c>
       <c r="E161" s="1">
         <f>[1]aggregated_efficiencies!E161</f>
-        <v>1.8001184100400899E-2</v>
-      </c>
-      <c r="F161" s="6">
+        <v>1.8129002271630099E-2</v>
+      </c>
+      <c r="F161" s="4">
+        <f t="shared" si="13"/>
+        <v>1.2462315131912317E-3</v>
+      </c>
+      <c r="I161" s="6">
         <f t="shared" si="10"/>
-        <v>5.8666636359667361E-4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.2564540863765654E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>54</v>
       </c>
@@ -6575,14 +7194,18 @@
       </c>
       <c r="E162" s="1">
         <f>[1]aggregated_efficiencies!E162</f>
-        <v>1.20007894002671E-2</v>
-      </c>
-      <c r="F162" s="6">
+        <v>1.20860015144199E-2</v>
+      </c>
+      <c r="F162" s="4">
+        <f t="shared" si="13"/>
+        <v>8.3082100879414296E-4</v>
+      </c>
+      <c r="I162" s="6">
         <f t="shared" si="10"/>
-        <v>3.9111090906444364E-4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.5043027242509955E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>55</v>
       </c>
@@ -6600,14 +7223,18 @@
       </c>
       <c r="E163" s="1">
         <f>[1]aggregated_efficiencies!E163</f>
-        <v>1.8714935398680001E-2</v>
-      </c>
-      <c r="F163" s="6">
+        <v>1.8847821591276601E-2</v>
+      </c>
+      <c r="F163" s="4">
+        <f t="shared" si="13"/>
+        <v>1.2956448937519482E-3</v>
+      </c>
+      <c r="I163" s="6">
         <f t="shared" si="10"/>
-        <v>6.0992782663923419E-4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.4648737607474558E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>56</v>
       </c>
@@ -6625,14 +7252,18 @@
       </c>
       <c r="E164" s="1">
         <f>[1]aggregated_efficiencies!E164</f>
-        <v>3.2165584084640597E-2</v>
-      </c>
-      <c r="F164" s="6">
+        <v>3.23939771787441E-2</v>
+      </c>
+      <c r="F164" s="4">
+        <f t="shared" si="13"/>
+        <v>2.226840429102032E-3</v>
+      </c>
+      <c r="I164" s="6">
         <f t="shared" si="10"/>
-        <v>1.0482902759423964E-3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.3925441215076781E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>57</v>
       </c>
@@ -6642,22 +7273,26 @@
       </c>
       <c r="C165" s="1">
         <f>[1]aggregated_efficiencies!C165</f>
-        <v>0.66301919938605502</v>
+        <v>0.66301857561627697</v>
       </c>
       <c r="D165" s="1">
         <f>[1]aggregated_efficiencies!D165</f>
-        <v>0.28746501235559302</v>
+        <v>0.28746560144869898</v>
       </c>
       <c r="E165" s="1">
         <f>[1]aggregated_efficiencies!E165</f>
-        <v>9.4681643002385105E-3</v>
-      </c>
-      <c r="F165" s="6">
+        <v>9.5356568826679301E-3</v>
+      </c>
+      <c r="F165" s="4">
+        <f t="shared" si="13"/>
+        <v>6.555041434771193E-4</v>
+      </c>
+      <c r="I165" s="6">
         <f t="shared" si="10"/>
-        <v>3.0857156334693919E-4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.7648373493572138E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>58</v>
       </c>
@@ -6675,25 +7310,36 @@
       </c>
       <c r="E166" s="1">
         <f>[1]aggregated_efficiencies!E166</f>
-        <v>5.4288207804487003E-2</v>
-      </c>
-      <c r="F166" s="6">
+        <v>5.4673683526649398E-2</v>
+      </c>
+      <c r="F166" s="4">
+        <f t="shared" si="13"/>
+        <v>3.7584013908906764E-3</v>
+      </c>
+      <c r="I166" s="6">
         <f t="shared" si="10"/>
-        <v>1.7692761365697962E-3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.5852483379112856E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2">
         <f>SUM(E158:E166)</f>
-        <v>0.99999999999999412</v>
+        <v>0.99999999999999345</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="18">
+    <mergeCell ref="J144:J145"/>
+    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="J142:J143"/>
     <mergeCell ref="A82:E82"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A18:E18"/>
@@ -6707,6 +7353,18 @@
     <mergeCell ref="A157:E157"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I166">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Results/aggregated_efficiencies.xlsx
+++ b/Results/aggregated_efficiencies.xlsx
@@ -13,16 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="aggregated_efficiencies" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="71">
   <si>
     <t>Variable name</t>
   </si>
@@ -217,6 +218,24 @@
   </si>
   <si>
     <t>HotWell</t>
+  </si>
+  <si>
+    <t>SWC</t>
+  </si>
+  <si>
+    <t>LTHT merge</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Total TC</t>
+  </si>
+  <si>
+    <t>HVAC preheater</t>
+  </si>
+  <si>
+    <t>Steam heater</t>
   </si>
 </sst>
 </file>
@@ -713,16 +732,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2643,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="J138" sqref="J138:J139"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2696,13 +2715,13 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="4">
         <f>[1]aggregated_efficiencies!$E$3</f>
         <v>8.6974092722049298E-2</v>
@@ -3107,8 +3126,15 @@
         <f t="shared" si="1"/>
         <v>8.0978060575160483E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="6">
+        <f>I16+I5+I4</f>
+        <v>3.0186668112456544E-2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3120,14 +3146,14 @@
       <c r="G17" s="2"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="4">
         <f>[1]aggregated_efficiencies!$E$18</f>
         <v>0.10589052521806</v>
@@ -3135,7 +3161,7 @@
       <c r="G18" s="2"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -3165,7 +3191,7 @@
         <v>1.0281970709353118E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -3195,7 +3221,7 @@
         <v>1.3948844172189964E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -3227,7 +3253,7 @@
         <v>2.5981957771534769E-20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -3257,7 +3283,7 @@
         <v>1.1605976850490918E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -3287,7 +3313,7 @@
         <v>1.584498678884838E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -3317,7 +3343,7 @@
         <v>7.9755339377828006E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -3347,7 +3373,7 @@
         <v>1.9992157655444528E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -3377,7 +3403,7 @@
         <v>6.2279613081365629E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -3407,7 +3433,7 @@
         <v>9.793158553039737E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -3434,7 +3460,7 @@
       <c r="G28" s="2"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -3466,7 +3492,7 @@
         <v>-4.9472426946830498E-19</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
@@ -3496,7 +3522,7 @@
         <v>1.7750775448129208E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
@@ -3525,8 +3551,15 @@
         <f t="shared" si="1"/>
         <v>9.1589234210175379E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J31" s="6">
+        <f>I31+I20+I19</f>
+        <v>3.3389738302560618E-2</v>
+      </c>
+      <c r="K31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -3556,7 +3589,7 @@
         <v>1.6029354788494998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3568,14 +3601,14 @@
       <c r="G33" s="2"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="4">
         <f>[1]aggregated_efficiencies!$E$34</f>
         <v>0.10952400371934801</v>
@@ -3583,7 +3616,7 @@
       <c r="G34" s="2"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -3613,7 +3646,7 @@
         <v>1.0364045619250804E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -3643,7 +3676,7 @@
         <v>1.3449656097520028E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -3675,7 +3708,7 @@
         <v>-2.9282422599315852E-20</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -3705,7 +3738,7 @@
         <v>1.0043574338005616E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>10</v>
       </c>
@@ -3735,7 +3768,7 @@
         <v>3.9100316105873541E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
@@ -3765,7 +3798,7 @@
         <v>9.671021920938293E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
@@ -3795,7 +3828,7 @@
         <v>2.0061898078007206E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
@@ -3825,7 +3858,7 @@
         <v>7.0075908398170381E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -3855,7 +3888,7 @@
         <v>1.1548127186994226E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>15</v>
       </c>
@@ -3882,7 +3915,7 @@
       <c r="G44" s="2"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -3914,7 +3947,7 @@
         <v>-1.188500212077966E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>17</v>
       </c>
@@ -3944,7 +3977,7 @@
         <v>1.9003438555349691E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
@@ -3973,8 +4006,15 @@
         <f t="shared" si="1"/>
         <v>9.1161464526527524E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J47" s="6">
+        <f>I47+I36+I35</f>
+        <v>3.2929848169423584E-2</v>
+      </c>
+      <c r="K47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
@@ -4004,7 +4044,7 @@
         <v>1.3734712934818483E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4016,14 +4056,14 @@
       <c r="G49" s="2"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="4">
         <f>[1]aggregated_efficiencies!$E$50</f>
         <v>9.1682502310528005E-2</v>
@@ -4031,7 +4071,7 @@
       <c r="G50" s="2"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -4061,7 +4101,7 @@
         <v>9.5761192407525491E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
@@ -4091,7 +4131,7 @@
         <v>1.3385925920003535E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>8</v>
       </c>
@@ -4123,7 +4163,7 @@
         <v>-7.4619749771592349E-20</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -4153,7 +4193,7 @@
         <v>8.1111385966015272E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -4183,7 +4223,7 @@
         <v>-2.6663447543545362E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>11</v>
       </c>
@@ -4213,7 +4253,7 @@
         <v>1.0658640976200329E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>12</v>
       </c>
@@ -4243,7 +4283,7 @@
         <v>2.0496548045295109E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>13</v>
       </c>
@@ -4273,7 +4313,7 @@
         <v>5.459562986951598E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>14</v>
       </c>
@@ -4303,7 +4343,7 @@
         <v>9.0742630213409628E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>15</v>
       </c>
@@ -4330,7 +4370,7 @@
       <c r="G60" s="2"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>16</v>
       </c>
@@ -4362,7 +4402,7 @@
         <v>-5.3985756005788595E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
@@ -4392,7 +4432,7 @@
         <v>1.6861698565953311E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>18</v>
       </c>
@@ -4421,8 +4461,15 @@
         <f t="shared" si="1"/>
         <v>8.0841023291583769E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J63" s="6">
+        <f>I63+I52+I51</f>
+        <v>3.1046147489914459E-2</v>
+      </c>
+      <c r="K63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4437,14 +4484,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="4">
         <f>[1]aggregated_efficiencies!$E$65</f>
         <v>0.13598580525394899</v>
@@ -4452,7 +4499,7 @@
       <c r="G65" s="2"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -4482,7 +4529,7 @@
         <v>1.0603601192523201E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -4512,7 +4559,7 @@
         <v>6.1753115680829385E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
@@ -4544,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -4574,7 +4621,7 @@
         <v>-7.9230482458679744E-19</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>10</v>
       </c>
@@ -4604,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>11</v>
       </c>
@@ -4634,7 +4681,7 @@
         <v>1.2643551380222632E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
@@ -4664,7 +4711,7 @@
         <v>1.1543916344144056E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>13</v>
       </c>
@@ -4694,7 +4741,7 @@
         <v>6.4010573258668846E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>14</v>
       </c>
@@ -4724,7 +4771,7 @@
         <v>1.3431534955790149E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>15</v>
       </c>
@@ -4751,7 +4798,7 @@
       <c r="G75" s="2"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>16</v>
       </c>
@@ -4783,7 +4830,7 @@
         <v>-6.3857200293633955E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>17</v>
       </c>
@@ -4813,7 +4860,7 @@
         <v>2.5778186843640584E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>18</v>
       </c>
@@ -4842,8 +4889,15 @@
         <f t="shared" si="6"/>
         <v>3.2078934768551226E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J78" s="6">
+        <f>I78+I67+I66</f>
+        <v>4.8857847529157367E-2</v>
+      </c>
+      <c r="K78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>20</v>
       </c>
@@ -4873,7 +4927,7 @@
         <v>2.250398663841037E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>24</v>
       </c>
@@ -4903,7 +4957,7 @@
         <v>1.8107352440943743E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4915,14 +4969,14 @@
       <c r="G81" s="2"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="7" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
       <c r="F82" s="4">
         <f>[1]aggregated_efficiencies!$E$82</f>
         <v>0.114060650314236</v>
@@ -4930,7 +4984,7 @@
       <c r="G82" s="2"/>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>6</v>
       </c>
@@ -4960,7 +5014,7 @@
         <v>9.9675191632873344E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>7</v>
       </c>
@@ -4990,7 +5044,7 @@
         <v>1.5375596541590259E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>8</v>
       </c>
@@ -5022,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
@@ -5052,7 +5106,7 @@
         <v>-5.1637076134607299E-19</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>10</v>
       </c>
@@ -5082,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>11</v>
       </c>
@@ -5112,7 +5166,7 @@
         <v>1.881162249172194E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>12</v>
       </c>
@@ -5142,7 +5196,7 @@
         <v>1.365243899626297E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>13</v>
       </c>
@@ -5172,7 +5226,7 @@
         <v>4.1964004553480755E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>14</v>
       </c>
@@ -5202,7 +5256,7 @@
         <v>9.687141014327473E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>15</v>
       </c>
@@ -5229,7 +5283,7 @@
       <c r="G92" s="2"/>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>16</v>
       </c>
@@ -5261,7 +5315,7 @@
         <v>-7.6967589755307033E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>17</v>
       </c>
@@ -5291,7 +5345,7 @@
         <v>1.6814938723343331E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>18</v>
       </c>
@@ -5320,8 +5374,15 @@
         <f t="shared" si="6"/>
         <v>1.2667577241009691E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J95" s="6">
+        <f>I95+I84+I83</f>
+        <v>3.8010692945887284E-2</v>
+      </c>
+      <c r="K95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>20</v>
       </c>
@@ -5351,7 +5412,7 @@
         <v>1.9826901093541932E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>24</v>
       </c>
@@ -5381,7 +5442,7 @@
         <v>1.5310083344413229E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5393,14 +5454,14 @@
       <c r="G98" s="2"/>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" s="7" t="s">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
       <c r="F99" s="4">
         <f>[1]aggregated_efficiencies!$E$99</f>
         <v>0.120634669433251</v>
@@ -5408,7 +5469,7 @@
       <c r="G99" s="2"/>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>6</v>
       </c>
@@ -5438,7 +5499,7 @@
         <v>1.0555676412146112E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -5468,7 +5529,7 @@
         <v>8.5255586677693389E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>8</v>
       </c>
@@ -5500,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>9</v>
       </c>
@@ -5530,7 +5591,7 @@
         <v>6.7243085463010865E-19</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>10</v>
       </c>
@@ -5560,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>11</v>
       </c>
@@ -5590,7 +5651,7 @@
         <v>2.125056449970841E-4</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>12</v>
       </c>
@@ -5620,7 +5681,7 @@
         <v>1.5516847386702719E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>13</v>
       </c>
@@ -5650,7 +5711,7 @@
         <v>5.6100942611503708E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>14</v>
       </c>
@@ -5680,7 +5741,7 @@
         <v>1.2171276747752745E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>15</v>
       </c>
@@ -5707,7 +5768,7 @@
       <c r="G109" s="2"/>
       <c r="I109" s="6"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>16</v>
       </c>
@@ -5739,7 +5800,7 @@
         <v>-2.2383251220885178E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>17</v>
       </c>
@@ -5769,7 +5830,7 @@
         <v>2.235458572230821E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>18</v>
       </c>
@@ -5797,6 +5858,13 @@
       <c r="I112" s="6">
         <f t="shared" si="6"/>
         <v>2.5492197914459631E-2</v>
+      </c>
+      <c r="J112" s="6">
+        <f>I112+I101+I100</f>
+        <v>4.4573432994375078E-2</v>
+      </c>
+      <c r="K112" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -5872,13 +5940,13 @@
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
       <c r="F116" s="4">
         <f>[1]aggregated_efficiencies!$E$116</f>
         <v>9.7017821920425296E-2</v>
@@ -6247,7 +6315,7 @@
         <v>1.8254363914459782E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>18</v>
       </c>
@@ -6276,8 +6344,15 @@
         <f t="shared" si="6"/>
         <v>1.9063292911064126E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J129" s="6">
+        <f>I129+I118+I117</f>
+        <v>3.006907423475642E-2</v>
+      </c>
+      <c r="K129" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>20</v>
       </c>
@@ -6307,7 +6382,7 @@
         <v>1.4521657967379023E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>24</v>
       </c>
@@ -6337,7 +6412,7 @@
         <v>1.3070778200946353E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6347,19 +6422,16 @@
         <v>1.0000000000000007</v>
       </c>
       <c r="G132" s="2"/>
-      <c r="I132" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A133" s="7" t="s">
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A133" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
       <c r="F133" s="4">
         <f>[1]aggregated_efficiencies!$E$133</f>
         <v>1.57433004180507E-2</v>
@@ -6367,7 +6439,7 @@
       <c r="G133" s="2"/>
       <c r="I133" s="6"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>29</v>
       </c>
@@ -6396,12 +6468,12 @@
         <f t="shared" ref="I134:I166" si="10">F134/$I$2</f>
         <v>4.5353013308124565E-2</v>
       </c>
-      <c r="J134" s="10">
+      <c r="J134" s="7">
         <f>SUM(I134:I135)</f>
         <v>8.5169611840308065E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>30</v>
       </c>
@@ -6430,9 +6502,9 @@
         <f t="shared" si="10"/>
         <v>3.98165985321835E-2</v>
       </c>
-      <c r="J135" s="9"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J135" s="8"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>31</v>
       </c>
@@ -6461,12 +6533,12 @@
         <f t="shared" si="10"/>
         <v>6.5299602503090211E-5</v>
       </c>
-      <c r="J136" s="10">
+      <c r="J136" s="7">
         <f>SUM(I136:I137)</f>
         <v>1.5037076230704733E-4</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>32</v>
       </c>
@@ -6495,9 +6567,9 @@
         <f t="shared" si="10"/>
         <v>8.5071159803957108E-5</v>
       </c>
-      <c r="J137" s="9"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J137" s="8"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>33</v>
       </c>
@@ -6526,12 +6598,12 @@
         <f t="shared" si="10"/>
         <v>-1.8277559593016354E-2</v>
       </c>
-      <c r="J138" s="10">
+      <c r="J138" s="7">
         <f>SUM(I138:I139)</f>
         <v>-3.3264746450482816E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>34</v>
       </c>
@@ -6560,9 +6632,9 @@
         <f t="shared" si="10"/>
         <v>-1.498718685746646E-2</v>
       </c>
-      <c r="J139" s="9"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J139" s="8"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>35</v>
       </c>
@@ -6593,12 +6665,12 @@
         <f t="shared" si="10"/>
         <v>-8.4767697504216247E-4</v>
       </c>
-      <c r="J140" s="10">
+      <c r="J140" s="7">
         <f>SUM(I140:I141)</f>
         <v>-1.6937947724295437E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>36</v>
       </c>
@@ -6629,9 +6701,9 @@
         <f t="shared" si="10"/>
         <v>-8.4611779738738135E-4</v>
       </c>
-      <c r="J141" s="9"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J141" s="8"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>37</v>
       </c>
@@ -6660,12 +6732,12 @@
         <f t="shared" si="10"/>
         <v>8.6828773213740718E-3</v>
       </c>
-      <c r="J142" s="10">
+      <c r="J142" s="7">
         <f>SUM(I142:I143)</f>
         <v>1.6044159167855041E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>38</v>
       </c>
@@ -6694,9 +6766,9 @@
         <f t="shared" si="10"/>
         <v>7.3612818464809703E-3</v>
       </c>
-      <c r="J143" s="9"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J143" s="8"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>39</v>
       </c>
@@ -6727,7 +6799,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J144" s="10">
+      <c r="J144" s="7">
         <f>SUM(I144:I145)</f>
         <v>0</v>
       </c>
@@ -6763,7 +6835,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J145" s="9"/>
+      <c r="J145" s="8"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E146" s="2">
@@ -6776,13 +6848,13 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
       <c r="F147" s="4">
         <f>[1]aggregated_efficiencies!$E$147</f>
         <v>5.3744207319153199E-2</v>
@@ -6817,7 +6889,7 @@
         <f t="shared" si="10"/>
         <v>3.537427692613481E-3</v>
       </c>
-      <c r="J148" s="10">
+      <c r="J148" s="7">
         <f>SUM(I148:I149)</f>
         <v>8.7403223501491892E-3</v>
       </c>
@@ -6850,7 +6922,7 @@
         <f t="shared" si="10"/>
         <v>5.2028946575357077E-3</v>
       </c>
-      <c r="J149" s="9"/>
+      <c r="J149" s="8"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
@@ -7047,13 +7119,13 @@
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A157" s="7" t="s">
+      <c r="A157" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
       <c r="F157" s="4">
         <f>[1]aggregated_efficiencies!$E$157</f>
         <v>6.8742421370945897E-2</v>
@@ -7333,6 +7405,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A65:E65"/>
     <mergeCell ref="J144:J145"/>
     <mergeCell ref="J148:J149"/>
     <mergeCell ref="J134:J135"/>
@@ -7340,17 +7423,6 @@
     <mergeCell ref="J138:J139"/>
     <mergeCell ref="J140:J141"/>
     <mergeCell ref="J142:J143"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="A157:E157"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="colorScale" priority="3">
@@ -7379,4 +7451,94 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6">
+        <f>aggregated_efficiencies!J148</f>
+        <v>8.7403223501491892E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="6">
+        <f>aggregated_efficiencies!J134</f>
+        <v>8.5169611840308065E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6">
+        <f>aggregated_efficiencies!I32+aggregated_efficiencies!I48+aggregated_efficiencies!I79+aggregated_efficiencies!I96+aggregated_efficiencies!I113+aggregated_efficiencies!I130</f>
+        <v>0.10726000673222025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="6">
+        <f>aggregated_efficiencies!J142</f>
+        <v>1.6044159167855041E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="6">
+        <f>aggregated_efficiencies!J16+aggregated_efficiencies!J31+aggregated_efficiencies!J47+aggregated_efficiencies!J63+aggregated_efficiencies!J78+aggregated_efficiencies!J95+aggregated_efficiencies!J112+aggregated_efficiencies!J129</f>
+        <v>0.28906344977853132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6">
+        <f>aggregated_efficiencies!I80+aggregated_efficiencies!I97+aggregated_efficiencies!I114+aggregated_efficiencies!I131</f>
+        <v>6.0543083624771267E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="6">
+        <f>aggregated_efficiencies!I152</f>
+        <v>0.10352810823738808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="6">
+        <f>aggregated_efficiencies!I154</f>
+        <v>0.10493464081965476</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>